--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -48662,7 +48662,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>4643530</v>
+        <v>4644087</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48674,76 +48674,76 @@
         <v>44714.89583333334</v>
       </c>
       <c r="F541" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G541" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541">
         <v>1</v>
       </c>
       <c r="J541" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K541">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L541">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M541">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N541">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O541">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="P541">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q541">
         <v>-0.25</v>
       </c>
       <c r="R541">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S541">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T541">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U541">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V541">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W541">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X541">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y541">
         <v>-1</v>
       </c>
       <c r="Z541">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA541">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB541">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AC541">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="542" spans="1:29">
@@ -48751,7 +48751,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>4644087</v>
+        <v>4643530</v>
       </c>
       <c r="C542" t="s">
         <v>28</v>
@@ -48763,76 +48763,76 @@
         <v>44714.89583333334</v>
       </c>
       <c r="F542" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="G542" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I542">
         <v>1</v>
       </c>
       <c r="J542" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K542">
+        <v>1.85</v>
+      </c>
+      <c r="L542">
+        <v>3.1</v>
+      </c>
+      <c r="M542">
+        <v>4.333</v>
+      </c>
+      <c r="N542">
         <v>2.1</v>
       </c>
-      <c r="L542">
-        <v>3</v>
-      </c>
-      <c r="M542">
-        <v>3.5</v>
-      </c>
-      <c r="N542">
-        <v>2.15</v>
-      </c>
       <c r="O542">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="P542">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q542">
         <v>-0.25</v>
       </c>
       <c r="R542">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S542">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T542">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U542">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V542">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W542">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X542">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y542">
         <v>-1</v>
       </c>
       <c r="Z542">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA542">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB542">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AC542">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="543" spans="1:29">
@@ -56316,7 +56316,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>4658978</v>
+        <v>4643635</v>
       </c>
       <c r="C627" t="s">
         <v>28</v>
@@ -56328,73 +56328,73 @@
         <v>44759.66666666666</v>
       </c>
       <c r="F627" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G627" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I627">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J627" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K627">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="L627">
+        <v>3</v>
+      </c>
+      <c r="M627">
+        <v>3.1</v>
+      </c>
+      <c r="N627">
+        <v>2.15</v>
+      </c>
+      <c r="O627">
+        <v>3</v>
+      </c>
+      <c r="P627">
         <v>4</v>
       </c>
-      <c r="M627">
-        <v>9.5</v>
-      </c>
-      <c r="N627">
-        <v>1.666</v>
-      </c>
-      <c r="O627">
-        <v>3.6</v>
-      </c>
-      <c r="P627">
-        <v>5.5</v>
-      </c>
       <c r="Q627">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R627">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S627">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T627">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U627">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V627">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W627">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X627">
         <v>-1</v>
       </c>
       <c r="Y627">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z627">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA627">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB627">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AC627">
         <v>-1</v>
@@ -56405,7 +56405,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>4643635</v>
+        <v>4658978</v>
       </c>
       <c r="C628" t="s">
         <v>28</v>
@@ -56417,73 +56417,73 @@
         <v>44759.66666666666</v>
       </c>
       <c r="F628" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G628" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="H628">
+        <v>2</v>
+      </c>
+      <c r="I628">
         <v>1</v>
       </c>
-      <c r="I628">
-        <v>2</v>
-      </c>
       <c r="J628" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K628">
-        <v>2.45</v>
+        <v>1.4</v>
       </c>
       <c r="L628">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M628">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="N628">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O628">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P628">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q628">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R628">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S628">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T628">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U628">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V628">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W628">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X628">
         <v>-1</v>
       </c>
       <c r="Y628">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z628">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA628">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB628">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AC628">
         <v>-1</v>
@@ -56672,7 +56672,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>4644550</v>
+        <v>4643581</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56684,76 +56684,76 @@
         <v>44761.79166666666</v>
       </c>
       <c r="F631" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G631" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H631">
         <v>1</v>
       </c>
       <c r="I631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J631" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K631">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L631">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M631">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="N631">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O631">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P631">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q631">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R631">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S631">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T631">
         <v>2</v>
       </c>
       <c r="U631">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V631">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W631">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X631">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y631">
         <v>-1</v>
       </c>
       <c r="Z631">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA631">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB631">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC631">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -56761,7 +56761,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>4643581</v>
+        <v>4644550</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56773,76 +56773,76 @@
         <v>44761.79166666666</v>
       </c>
       <c r="F632" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G632" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H632">
         <v>1</v>
       </c>
       <c r="I632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J632" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K632">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L632">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M632">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="N632">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="O632">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P632">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q632">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R632">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S632">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T632">
         <v>2</v>
       </c>
       <c r="U632">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V632">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W632">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X632">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y632">
         <v>-1</v>
       </c>
       <c r="Z632">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA632">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB632">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC632">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -60499,7 +60499,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>4651133</v>
+        <v>4650815</v>
       </c>
       <c r="C674" t="s">
         <v>28</v>
@@ -60511,49 +60511,49 @@
         <v>44782.89583333334</v>
       </c>
       <c r="F674" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G674" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674">
         <v>0</v>
       </c>
       <c r="J674" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K674">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L674">
         <v>2.8</v>
       </c>
       <c r="M674">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N674">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O674">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P674">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q674">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R674">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S674">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T674">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U674">
         <v>1.775</v>
@@ -60562,25 +60562,25 @@
         <v>2.025</v>
       </c>
       <c r="W674">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X674">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y674">
         <v>-1</v>
       </c>
       <c r="Z674">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA674">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB674">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC674">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="675" spans="1:29">
@@ -60588,7 +60588,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>4650815</v>
+        <v>4651133</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60600,49 +60600,49 @@
         <v>44782.89583333334</v>
       </c>
       <c r="F675" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G675" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675">
         <v>0</v>
       </c>
       <c r="J675" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K675">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L675">
         <v>2.8</v>
       </c>
       <c r="M675">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N675">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O675">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P675">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q675">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R675">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S675">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="T675">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U675">
         <v>1.775</v>
@@ -60651,25 +60651,25 @@
         <v>2.025</v>
       </c>
       <c r="W675">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X675">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y675">
         <v>-1</v>
       </c>
       <c r="Z675">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA675">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB675">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC675">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -60677,7 +60677,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>4713924</v>
+        <v>4658973</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60689,19 +60689,19 @@
         <v>44783.79166666666</v>
       </c>
       <c r="F676" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G676" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H676">
         <v>2</v>
       </c>
       <c r="I676">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J676" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K676">
         <v>2.25</v>
@@ -60710,52 +60710,52 @@
         <v>2.9</v>
       </c>
       <c r="M676">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N676">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O676">
         <v>3</v>
       </c>
       <c r="P676">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q676">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R676">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S676">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T676">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U676">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V676">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W676">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X676">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y676">
         <v>-1</v>
       </c>
       <c r="Z676">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA676">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB676">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC676">
         <v>-1</v>
@@ -60766,7 +60766,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>4658973</v>
+        <v>4713924</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60778,19 +60778,19 @@
         <v>44783.79166666666</v>
       </c>
       <c r="F677" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G677" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H677">
         <v>2</v>
       </c>
       <c r="I677">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J677" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K677">
         <v>2.25</v>
@@ -60799,52 +60799,52 @@
         <v>2.9</v>
       </c>
       <c r="M677">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N677">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O677">
         <v>3</v>
       </c>
       <c r="P677">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q677">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R677">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S677">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T677">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U677">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V677">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W677">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X677">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y677">
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA677">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB677">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC677">
         <v>-1</v>
@@ -61033,7 +61033,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>4683955</v>
+        <v>4651162</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -61045,58 +61045,58 @@
         <v>44785.89583333334</v>
       </c>
       <c r="F680" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G680" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H680">
         <v>2</v>
       </c>
       <c r="I680">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J680" t="s">
         <v>70</v>
       </c>
       <c r="K680">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L680">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M680">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N680">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O680">
+        <v>2.9</v>
+      </c>
+      <c r="P680">
         <v>3.6</v>
       </c>
-      <c r="P680">
-        <v>5.5</v>
-      </c>
       <c r="Q680">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R680">
+        <v>1.95</v>
+      </c>
+      <c r="S680">
+        <v>1.85</v>
+      </c>
+      <c r="T680">
+        <v>2</v>
+      </c>
+      <c r="U680">
+        <v>2</v>
+      </c>
+      <c r="V680">
         <v>1.8</v>
       </c>
-      <c r="S680">
-        <v>2</v>
-      </c>
-      <c r="T680">
-        <v>2.25</v>
-      </c>
-      <c r="U680">
-        <v>1.975</v>
-      </c>
-      <c r="V680">
-        <v>1.825</v>
-      </c>
       <c r="W680">
-        <v>0.6659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X680">
         <v>-1</v>
@@ -61105,16 +61105,16 @@
         <v>-1</v>
       </c>
       <c r="Z680">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA680">
         <v>-1</v>
       </c>
       <c r="AB680">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC680">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61122,7 +61122,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>4651162</v>
+        <v>4683955</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61134,58 +61134,58 @@
         <v>44785.89583333334</v>
       </c>
       <c r="F681" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G681" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H681">
         <v>2</v>
       </c>
       <c r="I681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J681" t="s">
         <v>70</v>
       </c>
       <c r="K681">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L681">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M681">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="N681">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O681">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P681">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q681">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R681">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S681">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T681">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U681">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V681">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W681">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X681">
         <v>-1</v>
@@ -61194,16 +61194,16 @@
         <v>-1</v>
       </c>
       <c r="Z681">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA681">
         <v>-1</v>
       </c>
       <c r="AB681">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC681">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="682" spans="1:29">
@@ -64771,7 +64771,7 @@
         <v>720</v>
       </c>
       <c r="B722">
-        <v>4780168</v>
+        <v>4729792</v>
       </c>
       <c r="C722" t="s">
         <v>28</v>
@@ -64783,13 +64783,13 @@
         <v>44807.6875</v>
       </c>
       <c r="F722" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G722" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H722">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I722">
         <v>0</v>
@@ -64798,43 +64798,43 @@
         <v>70</v>
       </c>
       <c r="K722">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L722">
+        <v>3</v>
+      </c>
+      <c r="M722">
         <v>3.1</v>
       </c>
-      <c r="M722">
-        <v>4.2</v>
-      </c>
       <c r="N722">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O722">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P722">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q722">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R722">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S722">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T722">
         <v>2</v>
       </c>
       <c r="U722">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V722">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W722">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="X722">
         <v>-1</v>
@@ -64843,16 +64843,16 @@
         <v>-1</v>
       </c>
       <c r="Z722">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AA722">
         <v>-1</v>
       </c>
       <c r="AB722">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC722">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="723" spans="1:29">
@@ -64860,7 +64860,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>4729792</v>
+        <v>4780168</v>
       </c>
       <c r="C723" t="s">
         <v>28</v>
@@ -64872,13 +64872,13 @@
         <v>44807.6875</v>
       </c>
       <c r="F723" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G723" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I723">
         <v>0</v>
@@ -64887,43 +64887,43 @@
         <v>70</v>
       </c>
       <c r="K723">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L723">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M723">
+        <v>4.2</v>
+      </c>
+      <c r="N723">
+        <v>2</v>
+      </c>
+      <c r="O723">
         <v>3.1</v>
       </c>
-      <c r="N723">
-        <v>2.45</v>
-      </c>
-      <c r="O723">
-        <v>3</v>
-      </c>
       <c r="P723">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q723">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R723">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S723">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T723">
         <v>2</v>
       </c>
       <c r="U723">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V723">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W723">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="X723">
         <v>-1</v>
@@ -64932,16 +64932,16 @@
         <v>-1</v>
       </c>
       <c r="Z723">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AA723">
         <v>-1</v>
       </c>
       <c r="AB723">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC723">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="724" spans="1:29">
@@ -70467,7 +70467,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>4956598</v>
+        <v>4942408</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70479,73 +70479,73 @@
         <v>44842.77083333334</v>
       </c>
       <c r="F786" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G786" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H786">
+        <v>3</v>
+      </c>
+      <c r="I786">
+        <v>0</v>
+      </c>
+      <c r="J786" t="s">
+        <v>70</v>
+      </c>
+      <c r="K786">
+        <v>1.615</v>
+      </c>
+      <c r="L786">
+        <v>3.6</v>
+      </c>
+      <c r="M786">
+        <v>6.5</v>
+      </c>
+      <c r="N786">
+        <v>1.666</v>
+      </c>
+      <c r="O786">
+        <v>3.3</v>
+      </c>
+      <c r="P786">
+        <v>7</v>
+      </c>
+      <c r="Q786">
+        <v>-0.75</v>
+      </c>
+      <c r="R786">
+        <v>1.85</v>
+      </c>
+      <c r="S786">
+        <v>1.95</v>
+      </c>
+      <c r="T786">
+        <v>2.25</v>
+      </c>
+      <c r="U786">
+        <v>2</v>
+      </c>
+      <c r="V786">
+        <v>1.8</v>
+      </c>
+      <c r="W786">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X786">
+        <v>-1</v>
+      </c>
+      <c r="Y786">
+        <v>-1</v>
+      </c>
+      <c r="Z786">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA786">
+        <v>-1</v>
+      </c>
+      <c r="AB786">
         <v>1</v>
-      </c>
-      <c r="I786">
-        <v>2</v>
-      </c>
-      <c r="J786" t="s">
-        <v>71</v>
-      </c>
-      <c r="K786">
-        <v>2.625</v>
-      </c>
-      <c r="L786">
-        <v>2.8</v>
-      </c>
-      <c r="M786">
-        <v>2.9</v>
-      </c>
-      <c r="N786">
-        <v>2.45</v>
-      </c>
-      <c r="O786">
-        <v>2.9</v>
-      </c>
-      <c r="P786">
-        <v>3.4</v>
-      </c>
-      <c r="Q786">
-        <v>-0.25</v>
-      </c>
-      <c r="R786">
-        <v>1.975</v>
-      </c>
-      <c r="S786">
-        <v>1.825</v>
-      </c>
-      <c r="T786">
-        <v>1.75</v>
-      </c>
-      <c r="U786">
-        <v>1.85</v>
-      </c>
-      <c r="V786">
-        <v>1.95</v>
-      </c>
-      <c r="W786">
-        <v>-1</v>
-      </c>
-      <c r="X786">
-        <v>-1</v>
-      </c>
-      <c r="Y786">
-        <v>2.4</v>
-      </c>
-      <c r="Z786">
-        <v>-1</v>
-      </c>
-      <c r="AA786">
-        <v>0.825</v>
-      </c>
-      <c r="AB786">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC786">
         <v>-1</v>
@@ -70556,7 +70556,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>4942408</v>
+        <v>4956598</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70568,73 +70568,73 @@
         <v>44842.77083333334</v>
       </c>
       <c r="F787" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G787" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H787">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I787">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J787" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K787">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L787">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M787">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N787">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O787">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P787">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q787">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R787">
+        <v>1.975</v>
+      </c>
+      <c r="S787">
+        <v>1.825</v>
+      </c>
+      <c r="T787">
+        <v>1.75</v>
+      </c>
+      <c r="U787">
         <v>1.85</v>
       </c>
-      <c r="S787">
+      <c r="V787">
         <v>1.95</v>
       </c>
-      <c r="T787">
-        <v>2.25</v>
-      </c>
-      <c r="U787">
-        <v>2</v>
-      </c>
-      <c r="V787">
-        <v>1.8</v>
-      </c>
       <c r="W787">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X787">
         <v>-1</v>
       </c>
       <c r="Y787">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z787">
+        <v>-1</v>
+      </c>
+      <c r="AA787">
+        <v>0.825</v>
+      </c>
+      <c r="AB787">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA787">
-        <v>-1</v>
-      </c>
-      <c r="AB787">
-        <v>1</v>
       </c>
       <c r="AC787">
         <v>-1</v>
@@ -72247,7 +72247,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>4983762</v>
+        <v>4969151</v>
       </c>
       <c r="C806" t="s">
         <v>28</v>
@@ -72259,76 +72259,76 @@
         <v>44856.6875</v>
       </c>
       <c r="F806" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G806" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I806">
         <v>1</v>
       </c>
       <c r="J806" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K806">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L806">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M806">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N806">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O806">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P806">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q806">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R806">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S806">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T806">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U806">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V806">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W806">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X806">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y806">
         <v>-1</v>
       </c>
       <c r="Z806">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA806">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB806">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC806">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="807" spans="1:29">
@@ -72336,7 +72336,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>4969151</v>
+        <v>4983762</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72348,76 +72348,76 @@
         <v>44856.6875</v>
       </c>
       <c r="F807" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G807" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I807">
         <v>1</v>
       </c>
       <c r="J807" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K807">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L807">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M807">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N807">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O807">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P807">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q807">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R807">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S807">
+        <v>2.1</v>
+      </c>
+      <c r="T807">
+        <v>2.25</v>
+      </c>
+      <c r="U807">
+        <v>2.05</v>
+      </c>
+      <c r="V807">
         <v>1.8</v>
       </c>
-      <c r="T807">
-        <v>1.75</v>
-      </c>
-      <c r="U807">
-        <v>1.8</v>
-      </c>
-      <c r="V807">
-        <v>2</v>
-      </c>
       <c r="W807">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X807">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y807">
         <v>-1</v>
       </c>
       <c r="Z807">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA807">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB807">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC807">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="808" spans="1:29">
@@ -72959,7 +72959,7 @@
         <v>812</v>
       </c>
       <c r="B814">
-        <v>5024401</v>
+        <v>5027585</v>
       </c>
       <c r="C814" t="s">
         <v>28</v>
@@ -72971,73 +72971,73 @@
         <v>44862.79166666666</v>
       </c>
       <c r="F814" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G814" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H814">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I814">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J814" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K814">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="L814">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M814">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="N814">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="O814">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P814">
-        <v>9.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q814">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R814">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S814">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T814">
         <v>2.25</v>
       </c>
       <c r="U814">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V814">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W814">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X814">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y814">
         <v>-1</v>
       </c>
       <c r="Z814">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA814">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB814">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AC814">
         <v>-1</v>
@@ -73048,7 +73048,7 @@
         <v>813</v>
       </c>
       <c r="B815">
-        <v>5027584</v>
+        <v>5027583</v>
       </c>
       <c r="C815" t="s">
         <v>28</v>
@@ -73060,76 +73060,76 @@
         <v>44862.79166666666</v>
       </c>
       <c r="F815" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G815" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I815">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J815" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K815">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L815">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M815">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N815">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="O815">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P815">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q815">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R815">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S815">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T815">
         <v>2.25</v>
       </c>
       <c r="U815">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V815">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W815">
         <v>-1</v>
       </c>
       <c r="X815">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y815">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z815">
         <v>-1</v>
       </c>
       <c r="AA815">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB815">
         <v>-0.5</v>
       </c>
       <c r="AC815">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="816" spans="1:29">
@@ -73137,7 +73137,7 @@
         <v>814</v>
       </c>
       <c r="B816">
-        <v>5027583</v>
+        <v>5027584</v>
       </c>
       <c r="C816" t="s">
         <v>28</v>
@@ -73149,76 +73149,76 @@
         <v>44862.79166666666</v>
       </c>
       <c r="F816" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G816" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I816">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J816" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K816">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L816">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M816">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="N816">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="O816">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P816">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q816">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R816">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S816">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T816">
         <v>2.25</v>
       </c>
       <c r="U816">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V816">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W816">
         <v>-1</v>
       </c>
       <c r="X816">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y816">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z816">
         <v>-1</v>
       </c>
       <c r="AA816">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB816">
         <v>-0.5</v>
       </c>
       <c r="AC816">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="817" spans="1:29">
@@ -73226,7 +73226,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>5027585</v>
+        <v>5024401</v>
       </c>
       <c r="C817" t="s">
         <v>28</v>
@@ -73238,73 +73238,73 @@
         <v>44862.79166666666</v>
       </c>
       <c r="F817" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G817" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I817">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J817" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K817">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="L817">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M817">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="N817">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="O817">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P817">
-        <v>2.625</v>
+        <v>9.5</v>
       </c>
       <c r="Q817">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R817">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S817">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T817">
         <v>2.25</v>
       </c>
       <c r="U817">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V817">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W817">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X817">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y817">
         <v>-1</v>
       </c>
       <c r="Z817">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA817">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB817">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AC817">
         <v>-1</v>
@@ -74650,7 +74650,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>6289142</v>
+        <v>6281959</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74662,76 +74662,76 @@
         <v>45031.70833333334</v>
       </c>
       <c r="F833" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G833" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I833">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J833" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K833">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L833">
+        <v>3.1</v>
+      </c>
+      <c r="M833">
+        <v>2.9</v>
+      </c>
+      <c r="N833">
+        <v>2.625</v>
+      </c>
+      <c r="O833">
         <v>3</v>
       </c>
-      <c r="M833">
-        <v>3.5</v>
-      </c>
-      <c r="N833">
-        <v>2.25</v>
-      </c>
-      <c r="O833">
-        <v>3.1</v>
-      </c>
       <c r="P833">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q833">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R833">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S833">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T833">
         <v>2</v>
       </c>
       <c r="U833">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V833">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W833">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X833">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y833">
         <v>-1</v>
       </c>
       <c r="Z833">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA833">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB833">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC833">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="834" spans="1:29">
@@ -74739,7 +74739,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>6281959</v>
+        <v>6289142</v>
       </c>
       <c r="C834" t="s">
         <v>28</v>
@@ -74751,76 +74751,76 @@
         <v>45031.70833333334</v>
       </c>
       <c r="F834" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G834" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H834">
+        <v>1</v>
+      </c>
+      <c r="I834">
+        <v>0</v>
+      </c>
+      <c r="J834" t="s">
+        <v>70</v>
+      </c>
+      <c r="K834">
+        <v>2.15</v>
+      </c>
+      <c r="L834">
         <v>3</v>
       </c>
-      <c r="I834">
-        <v>3</v>
-      </c>
-      <c r="J834" t="s">
-        <v>72</v>
-      </c>
-      <c r="K834">
-        <v>2.4</v>
-      </c>
-      <c r="L834">
+      <c r="M834">
+        <v>3.5</v>
+      </c>
+      <c r="N834">
+        <v>2.25</v>
+      </c>
+      <c r="O834">
         <v>3.1</v>
       </c>
-      <c r="M834">
-        <v>2.9</v>
-      </c>
-      <c r="N834">
-        <v>2.625</v>
-      </c>
-      <c r="O834">
-        <v>3</v>
-      </c>
       <c r="P834">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q834">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R834">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S834">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T834">
         <v>2</v>
       </c>
       <c r="U834">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V834">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W834">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X834">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y834">
         <v>-1</v>
       </c>
       <c r="Z834">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA834">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB834">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC834">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="835" spans="1:29">
@@ -85864,7 +85864,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>6286549</v>
+        <v>6285530</v>
       </c>
       <c r="C959" t="s">
         <v>28</v>
@@ -85876,76 +85876,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F959" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G959" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I959">
         <v>1</v>
       </c>
       <c r="J959" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K959">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L959">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M959">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N959">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O959">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P959">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q959">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R959">
         <v>1.875</v>
       </c>
       <c r="S959">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T959">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U959">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V959">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W959">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X959">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y959">
         <v>-1</v>
       </c>
       <c r="Z959">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA959">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB959">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC959">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="960" spans="1:29">
@@ -85953,7 +85953,7 @@
         <v>958</v>
       </c>
       <c r="B960">
-        <v>6285530</v>
+        <v>6286549</v>
       </c>
       <c r="C960" t="s">
         <v>28</v>
@@ -85965,76 +85965,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F960" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G960" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H960">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I960">
         <v>1</v>
       </c>
       <c r="J960" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K960">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L960">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M960">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N960">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O960">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P960">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q960">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R960">
         <v>1.875</v>
       </c>
       <c r="S960">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T960">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U960">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V960">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W960">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X960">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y960">
         <v>-1</v>
       </c>
       <c r="Z960">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA960">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB960">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC960">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="961" spans="1:29">
@@ -86932,7 +86932,7 @@
         <v>969</v>
       </c>
       <c r="B971">
-        <v>6285667</v>
+        <v>6281970</v>
       </c>
       <c r="C971" t="s">
         <v>28</v>
@@ -86944,10 +86944,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F971" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G971" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H971">
         <v>0</v>
@@ -86959,37 +86959,37 @@
         <v>71</v>
       </c>
       <c r="K971">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L971">
+        <v>2.9</v>
+      </c>
+      <c r="M971">
         <v>3</v>
       </c>
-      <c r="M971">
-        <v>4.333</v>
-      </c>
       <c r="N971">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O971">
         <v>3</v>
       </c>
       <c r="P971">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q971">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R971">
+        <v>1.775</v>
+      </c>
+      <c r="S971">
+        <v>2.025</v>
+      </c>
+      <c r="T971">
+        <v>2</v>
+      </c>
+      <c r="U971">
         <v>1.975</v>
-      </c>
-      <c r="S971">
-        <v>1.875</v>
-      </c>
-      <c r="T971">
-        <v>2</v>
-      </c>
-      <c r="U971">
-        <v>2.025</v>
       </c>
       <c r="V971">
         <v>1.825</v>
@@ -87001,13 +87001,13 @@
         <v>-1</v>
       </c>
       <c r="Y971">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z971">
         <v>-1</v>
       </c>
       <c r="AA971">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB971">
         <v>0</v>
@@ -87021,7 +87021,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>6281970</v>
+        <v>6285667</v>
       </c>
       <c r="C972" t="s">
         <v>28</v>
@@ -87033,10 +87033,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F972" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G972" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H972">
         <v>0</v>
@@ -87048,37 +87048,37 @@
         <v>71</v>
       </c>
       <c r="K972">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L972">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M972">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N972">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O972">
         <v>3</v>
       </c>
       <c r="P972">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q972">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R972">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S972">
+        <v>1.875</v>
+      </c>
+      <c r="T972">
+        <v>2</v>
+      </c>
+      <c r="U972">
         <v>2.025</v>
-      </c>
-      <c r="T972">
-        <v>2</v>
-      </c>
-      <c r="U972">
-        <v>1.975</v>
       </c>
       <c r="V972">
         <v>1.825</v>
@@ -87090,13 +87090,13 @@
         <v>-1</v>
       </c>
       <c r="Y972">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z972">
         <v>-1</v>
       </c>
       <c r="AA972">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB972">
         <v>0</v>
@@ -89691,7 +89691,7 @@
         <v>1000</v>
       </c>
       <c r="B1002">
-        <v>6289124</v>
+        <v>6285537</v>
       </c>
       <c r="C1002" t="s">
         <v>28</v>
@@ -89703,73 +89703,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F1002" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G1002" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1002">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1002" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1002">
+        <v>1.4</v>
+      </c>
+      <c r="L1002">
+        <v>3.8</v>
+      </c>
+      <c r="M1002">
+        <v>8</v>
+      </c>
+      <c r="N1002">
+        <v>1.5</v>
+      </c>
+      <c r="O1002">
+        <v>4.2</v>
+      </c>
+      <c r="P1002">
+        <v>6.5</v>
+      </c>
+      <c r="Q1002">
+        <v>-1</v>
+      </c>
+      <c r="R1002">
+        <v>1.9</v>
+      </c>
+      <c r="S1002">
+        <v>1.95</v>
+      </c>
+      <c r="T1002">
         <v>2.25</v>
       </c>
-      <c r="L1002">
-        <v>2.875</v>
-      </c>
-      <c r="M1002">
-        <v>3.2</v>
-      </c>
-      <c r="N1002">
-        <v>2.25</v>
-      </c>
-      <c r="O1002">
-        <v>3</v>
-      </c>
-      <c r="P1002">
-        <v>3.6</v>
-      </c>
-      <c r="Q1002">
-        <v>-0.25</v>
-      </c>
-      <c r="R1002">
-        <v>1.875</v>
-      </c>
-      <c r="S1002">
-        <v>1.925</v>
-      </c>
-      <c r="T1002">
-        <v>2</v>
-      </c>
       <c r="U1002">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V1002">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W1002">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X1002">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y1002">
         <v>-1</v>
       </c>
       <c r="Z1002">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1002">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB1002">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC1002">
         <v>-1</v>
@@ -89780,7 +89780,7 @@
         <v>1001</v>
       </c>
       <c r="B1003">
-        <v>6285537</v>
+        <v>6289124</v>
       </c>
       <c r="C1003" t="s">
         <v>28</v>
@@ -89792,73 +89792,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F1003" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1003" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H1003">
+        <v>2</v>
+      </c>
+      <c r="I1003">
+        <v>2</v>
+      </c>
+      <c r="J1003" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1003">
+        <v>2.25</v>
+      </c>
+      <c r="L1003">
+        <v>2.875</v>
+      </c>
+      <c r="M1003">
+        <v>3.2</v>
+      </c>
+      <c r="N1003">
+        <v>2.25</v>
+      </c>
+      <c r="O1003">
         <v>3</v>
       </c>
-      <c r="I1003">
-        <v>0</v>
-      </c>
-      <c r="J1003" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1003">
-        <v>1.4</v>
-      </c>
-      <c r="L1003">
-        <v>3.8</v>
-      </c>
-      <c r="M1003">
-        <v>8</v>
-      </c>
-      <c r="N1003">
-        <v>1.5</v>
-      </c>
-      <c r="O1003">
-        <v>4.2</v>
-      </c>
       <c r="P1003">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q1003">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1003">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S1003">
+        <v>1.925</v>
+      </c>
+      <c r="T1003">
+        <v>2</v>
+      </c>
+      <c r="U1003">
+        <v>1.85</v>
+      </c>
+      <c r="V1003">
         <v>1.95</v>
       </c>
-      <c r="T1003">
-        <v>2.25</v>
-      </c>
-      <c r="U1003">
-        <v>2.1</v>
-      </c>
-      <c r="V1003">
-        <v>1.775</v>
-      </c>
       <c r="W1003">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X1003">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y1003">
         <v>-1</v>
       </c>
       <c r="Z1003">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1003">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB1003">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1003">
         <v>-1</v>
@@ -90047,7 +90047,7 @@
         <v>1004</v>
       </c>
       <c r="B1006">
-        <v>6281972</v>
+        <v>6282102</v>
       </c>
       <c r="C1006" t="s">
         <v>28</v>
@@ -90059,13 +90059,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F1006" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G1006" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1006">
         <v>0</v>
@@ -90074,43 +90074,43 @@
         <v>70</v>
       </c>
       <c r="K1006">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L1006">
         <v>2.875</v>
       </c>
       <c r="M1006">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N1006">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O1006">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P1006">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q1006">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R1006">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S1006">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="T1006">
         <v>1.75</v>
       </c>
       <c r="U1006">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V1006">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W1006">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="X1006">
         <v>-1</v>
@@ -90119,16 +90119,16 @@
         <v>-1</v>
       </c>
       <c r="Z1006">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="AA1006">
         <v>-1</v>
       </c>
       <c r="AB1006">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC1006">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:29">
@@ -90136,7 +90136,7 @@
         <v>1005</v>
       </c>
       <c r="B1007">
-        <v>6282102</v>
+        <v>6281972</v>
       </c>
       <c r="C1007" t="s">
         <v>28</v>
@@ -90148,13 +90148,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F1007" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G1007" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H1007">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1007">
         <v>0</v>
@@ -90163,43 +90163,43 @@
         <v>70</v>
       </c>
       <c r="K1007">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L1007">
         <v>2.875</v>
       </c>
       <c r="M1007">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N1007">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O1007">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P1007">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q1007">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R1007">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S1007">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="T1007">
         <v>1.75</v>
       </c>
       <c r="U1007">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V1007">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W1007">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="X1007">
         <v>-1</v>
@@ -90208,16 +90208,16 @@
         <v>-1</v>
       </c>
       <c r="Z1007">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="AA1007">
         <v>-1</v>
       </c>
       <c r="AB1007">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC1007">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1008" spans="1:29">
@@ -90403,7 +90403,7 @@
         <v>1008</v>
       </c>
       <c r="B1010">
-        <v>6285539</v>
+        <v>6285669</v>
       </c>
       <c r="C1010" t="s">
         <v>28</v>
@@ -90415,76 +90415,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F1010" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G1010" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1010">
         <v>1</v>
       </c>
       <c r="J1010" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1010">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L1010">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M1010">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N1010">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O1010">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P1010">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q1010">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1010">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S1010">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T1010">
         <v>2</v>
       </c>
       <c r="U1010">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V1010">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W1010">
         <v>-1</v>
       </c>
       <c r="X1010">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y1010">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z1010">
         <v>-1</v>
       </c>
       <c r="AA1010">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB1010">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1010">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1011" spans="1:29">
@@ -90492,7 +90492,7 @@
         <v>1009</v>
       </c>
       <c r="B1011">
-        <v>6285669</v>
+        <v>6285539</v>
       </c>
       <c r="C1011" t="s">
         <v>28</v>
@@ -90504,76 +90504,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F1011" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G1011" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H1011">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1011">
         <v>1</v>
       </c>
       <c r="J1011" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1011">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L1011">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M1011">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N1011">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O1011">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P1011">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q1011">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1011">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S1011">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T1011">
         <v>2</v>
       </c>
       <c r="U1011">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V1011">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W1011">
         <v>-1</v>
       </c>
       <c r="X1011">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y1011">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z1011">
         <v>-1</v>
       </c>
       <c r="AA1011">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1011">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1011">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1012" spans="1:29">
@@ -90937,7 +90937,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>6286300</v>
+        <v>6281811</v>
       </c>
       <c r="C1016" t="s">
         <v>28</v>
@@ -90949,76 +90949,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F1016" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G1016" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H1016">
         <v>1</v>
       </c>
       <c r="I1016">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1016" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1016">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L1016">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M1016">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N1016">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O1016">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P1016">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q1016">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R1016">
+        <v>1.775</v>
+      </c>
+      <c r="S1016">
+        <v>2.025</v>
+      </c>
+      <c r="T1016">
+        <v>1.75</v>
+      </c>
+      <c r="U1016">
+        <v>1.8</v>
+      </c>
+      <c r="V1016">
+        <v>2</v>
+      </c>
+      <c r="W1016">
+        <v>-1</v>
+      </c>
+      <c r="X1016">
+        <v>-1</v>
+      </c>
+      <c r="Y1016">
         <v>1.9</v>
       </c>
-      <c r="S1016">
-        <v>1.95</v>
-      </c>
-      <c r="T1016">
-        <v>2.25</v>
-      </c>
-      <c r="U1016">
-        <v>2.05</v>
-      </c>
-      <c r="V1016">
-        <v>1.8</v>
-      </c>
-      <c r="W1016">
-        <v>0.7</v>
-      </c>
-      <c r="X1016">
-        <v>-1</v>
-      </c>
-      <c r="Y1016">
-        <v>-1</v>
-      </c>
       <c r="Z1016">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA1016">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB1016">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC1016">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1017" spans="1:29">
@@ -91026,7 +91026,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>6281811</v>
+        <v>6286300</v>
       </c>
       <c r="C1017" t="s">
         <v>28</v>
@@ -91038,76 +91038,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F1017" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G1017" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H1017">
         <v>1</v>
       </c>
       <c r="I1017">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1017" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1017">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L1017">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M1017">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N1017">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O1017">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P1017">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q1017">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1017">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S1017">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T1017">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1017">
+        <v>2.05</v>
+      </c>
+      <c r="V1017">
         <v>1.8</v>
       </c>
-      <c r="V1017">
-        <v>2</v>
-      </c>
       <c r="W1017">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X1017">
         <v>-1</v>
       </c>
       <c r="Y1017">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z1017">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA1017">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1017">
+        <v>-1</v>
+      </c>
+      <c r="AC1017">
         <v>0.8</v>
-      </c>
-      <c r="AC1017">
-        <v>-1</v>
       </c>
     </row>
     <row r="1018" spans="1:29">
@@ -99481,7 +99481,7 @@
         <v>1110</v>
       </c>
       <c r="B1112">
-        <v>6285766</v>
+        <v>6343950</v>
       </c>
       <c r="C1112" t="s">
         <v>28</v>
@@ -99493,76 +99493,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F1112" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1112" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="H1112">
+        <v>0</v>
+      </c>
+      <c r="I1112">
+        <v>2</v>
+      </c>
+      <c r="J1112" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1112">
+        <v>2.5</v>
+      </c>
+      <c r="L1112">
+        <v>2.9</v>
+      </c>
+      <c r="M1112">
+        <v>2.9</v>
+      </c>
+      <c r="N1112">
+        <v>2.3</v>
+      </c>
+      <c r="O1112">
         <v>3</v>
       </c>
-      <c r="I1112">
-        <v>1</v>
-      </c>
-      <c r="J1112" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1112">
-        <v>1.909</v>
-      </c>
-      <c r="L1112">
-        <v>3.1</v>
-      </c>
-      <c r="M1112">
-        <v>4</v>
-      </c>
-      <c r="N1112">
-        <v>1.909</v>
-      </c>
-      <c r="O1112">
-        <v>3.25</v>
-      </c>
       <c r="P1112">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q1112">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1112">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S1112">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T1112">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1112">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V1112">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W1112">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X1112">
         <v>-1</v>
       </c>
       <c r="Y1112">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z1112">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA1112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1112">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC1112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1113" spans="1:29">
@@ -99570,7 +99570,7 @@
         <v>1111</v>
       </c>
       <c r="B1113">
-        <v>6343950</v>
+        <v>6285766</v>
       </c>
       <c r="C1113" t="s">
         <v>28</v>
@@ -99582,76 +99582,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F1113" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G1113" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1113">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L1113">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M1113">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N1113">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O1113">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P1113">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q1113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1113">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S1113">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T1113">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1113">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V1113">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W1113">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X1113">
         <v>-1</v>
       </c>
       <c r="Y1113">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z1113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1113">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1114" spans="1:29">
@@ -99659,7 +99659,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>6326524</v>
+        <v>6355831</v>
       </c>
       <c r="C1114" t="s">
         <v>28</v>
@@ -99671,76 +99671,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F1114" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G1114" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="H1114">
         <v>1</v>
       </c>
       <c r="I1114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1114" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1114">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L1114">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M1114">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N1114">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O1114">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P1114">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q1114">
         <v>-0.25</v>
       </c>
       <c r="R1114">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S1114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T1114">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U1114">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V1114">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W1114">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X1114">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y1114">
         <v>-1</v>
       </c>
       <c r="Z1114">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1114">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB1114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1114">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1115" spans="1:29">
@@ -99748,7 +99748,7 @@
         <v>1113</v>
       </c>
       <c r="B1115">
-        <v>6355831</v>
+        <v>6326524</v>
       </c>
       <c r="C1115" t="s">
         <v>28</v>
@@ -99760,76 +99760,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F1115" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G1115" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H1115">
         <v>1</v>
       </c>
       <c r="I1115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1115" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1115">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L1115">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M1115">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N1115">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O1115">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P1115">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q1115">
         <v>-0.25</v>
       </c>
       <c r="R1115">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S1115">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T1115">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U1115">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V1115">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W1115">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X1115">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y1115">
         <v>-1</v>
       </c>
       <c r="Z1115">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA1115">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB1115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1115">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1116" spans="1:29">
@@ -100638,7 +100638,7 @@
         <v>1123</v>
       </c>
       <c r="B1125">
-        <v>7258771</v>
+        <v>6390961</v>
       </c>
       <c r="C1125" t="s">
         <v>28</v>
@@ -100650,76 +100650,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F1125" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G1125" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H1125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1125">
         <v>1</v>
       </c>
       <c r="J1125" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1125">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L1125">
         <v>3</v>
       </c>
       <c r="M1125">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N1125">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O1125">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P1125">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q1125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1125">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S1125">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T1125">
         <v>1.75</v>
       </c>
       <c r="U1125">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V1125">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W1125">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X1125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1125">
         <v>-1</v>
       </c>
       <c r="Z1125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA1125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1125">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC1125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1126" spans="1:29">
@@ -100727,7 +100727,7 @@
         <v>1124</v>
       </c>
       <c r="B1126">
-        <v>6390961</v>
+        <v>7258771</v>
       </c>
       <c r="C1126" t="s">
         <v>28</v>
@@ -100739,76 +100739,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F1126" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G1126" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H1126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1126">
         <v>1</v>
       </c>
       <c r="J1126" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1126">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L1126">
         <v>3</v>
       </c>
       <c r="M1126">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N1126">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="O1126">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P1126">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q1126">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1126">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S1126">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T1126">
         <v>1.75</v>
       </c>
       <c r="U1126">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V1126">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W1126">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X1126">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1126">
         <v>-1</v>
       </c>
       <c r="Z1126">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA1126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1126">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC1126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1127" spans="1:29">
@@ -101261,7 +101261,7 @@
         <v>1130</v>
       </c>
       <c r="B1132">
-        <v>6537870</v>
+        <v>6571262</v>
       </c>
       <c r="C1132" t="s">
         <v>28</v>
@@ -101273,13 +101273,13 @@
         <v>45205.89583333334</v>
       </c>
       <c r="F1132" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G1132" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1132">
         <v>0</v>
@@ -101288,43 +101288,43 @@
         <v>70</v>
       </c>
       <c r="K1132">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L1132">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M1132">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="N1132">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O1132">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P1132">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q1132">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1132">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S1132">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T1132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1132">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V1132">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W1132">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X1132">
         <v>-1</v>
@@ -101333,16 +101333,16 @@
         <v>-1</v>
       </c>
       <c r="Z1132">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA1132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1132">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1133" spans="1:29">
@@ -101350,7 +101350,7 @@
         <v>1131</v>
       </c>
       <c r="B1133">
-        <v>6571262</v>
+        <v>6537870</v>
       </c>
       <c r="C1133" t="s">
         <v>28</v>
@@ -101362,13 +101362,13 @@
         <v>45205.89583333334</v>
       </c>
       <c r="F1133" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G1133" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1133">
         <v>0</v>
@@ -101377,61 +101377,61 @@
         <v>70</v>
       </c>
       <c r="K1133">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L1133">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M1133">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="N1133">
+        <v>1.65</v>
+      </c>
+      <c r="O1133">
+        <v>3.6</v>
+      </c>
+      <c r="P1133">
+        <v>5.75</v>
+      </c>
+      <c r="Q1133">
+        <v>-0.75</v>
+      </c>
+      <c r="R1133">
+        <v>1.8</v>
+      </c>
+      <c r="S1133">
+        <v>2.05</v>
+      </c>
+      <c r="T1133">
+        <v>2.25</v>
+      </c>
+      <c r="U1133">
+        <v>1.9</v>
+      </c>
+      <c r="V1133">
         <v>1.95</v>
       </c>
-      <c r="O1133">
-        <v>3.25</v>
-      </c>
-      <c r="P1133">
-        <v>4.333</v>
-      </c>
-      <c r="Q1133">
+      <c r="W1133">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X1133">
+        <v>-1</v>
+      </c>
+      <c r="Y1133">
+        <v>-1</v>
+      </c>
+      <c r="Z1133">
+        <v>0.4</v>
+      </c>
+      <c r="AA1133">
         <v>-0.5</v>
       </c>
-      <c r="R1133">
-        <v>1.925</v>
-      </c>
-      <c r="S1133">
-        <v>1.875</v>
-      </c>
-      <c r="T1133">
-        <v>2</v>
-      </c>
-      <c r="U1133">
-        <v>1.775</v>
-      </c>
-      <c r="V1133">
-        <v>2.025</v>
-      </c>
-      <c r="W1133">
+      <c r="AB1133">
+        <v>-1</v>
+      </c>
+      <c r="AC1133">
         <v>0.95</v>
-      </c>
-      <c r="X1133">
-        <v>-1</v>
-      </c>
-      <c r="Y1133">
-        <v>-1</v>
-      </c>
-      <c r="Z1133">
-        <v>0.925</v>
-      </c>
-      <c r="AA1133">
-        <v>-1</v>
-      </c>
-      <c r="AB1133">
-        <v>0</v>
-      </c>
-      <c r="AC1133">
-        <v>-0</v>
       </c>
     </row>
     <row r="1134" spans="1:29">

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -50442,7 +50442,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>4643932</v>
+        <v>4643565</v>
       </c>
       <c r="C561" t="s">
         <v>28</v>
@@ -50454,76 +50454,76 @@
         <v>44723.6875</v>
       </c>
       <c r="F561" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G561" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H561">
         <v>1</v>
       </c>
       <c r="I561">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J561" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K561">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L561">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M561">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N561">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O561">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P561">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q561">
         <v>-0.25</v>
       </c>
       <c r="R561">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S561">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T561">
         <v>1.75</v>
       </c>
       <c r="U561">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V561">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W561">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X561">
         <v>-1</v>
       </c>
       <c r="Y561">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z561">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA561">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB561">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC561">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="562" spans="1:29">
@@ -50531,7 +50531,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>4643565</v>
+        <v>4643932</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
@@ -50543,76 +50543,76 @@
         <v>44723.6875</v>
       </c>
       <c r="F562" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G562" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H562">
         <v>1</v>
       </c>
       <c r="I562">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J562" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K562">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L562">
+        <v>2.9</v>
+      </c>
+      <c r="M562">
+        <v>4</v>
+      </c>
+      <c r="N562">
+        <v>2.15</v>
+      </c>
+      <c r="O562">
         <v>2.875</v>
       </c>
-      <c r="M562">
-        <v>3.2</v>
-      </c>
-      <c r="N562">
-        <v>2.5</v>
-      </c>
-      <c r="O562">
-        <v>2.8</v>
-      </c>
       <c r="P562">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q562">
         <v>-0.25</v>
       </c>
       <c r="R562">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S562">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T562">
         <v>1.75</v>
       </c>
       <c r="U562">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V562">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W562">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X562">
         <v>-1</v>
       </c>
       <c r="Y562">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z562">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA562">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB562">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC562">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="563" spans="1:29">
@@ -52756,7 +52756,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>4643572</v>
+        <v>4643634</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52768,58 +52768,58 @@
         <v>44739.83333333334</v>
       </c>
       <c r="F587" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G587" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H587">
         <v>2</v>
       </c>
       <c r="I587">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J587" t="s">
         <v>70</v>
       </c>
       <c r="K587">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L587">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M587">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N587">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O587">
+        <v>2.75</v>
+      </c>
+      <c r="P587">
         <v>3</v>
       </c>
-      <c r="P587">
-        <v>3.1</v>
-      </c>
       <c r="Q587">
         <v>0</v>
       </c>
       <c r="R587">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S587">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T587">
         <v>1.75</v>
       </c>
       <c r="U587">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V587">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W587">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="X587">
         <v>-1</v>
@@ -52828,16 +52828,16 @@
         <v>-1</v>
       </c>
       <c r="Z587">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA587">
         <v>-1</v>
       </c>
       <c r="AB587">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC587">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="588" spans="1:29">
@@ -52845,7 +52845,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>4643634</v>
+        <v>4643572</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52857,58 +52857,58 @@
         <v>44739.83333333334</v>
       </c>
       <c r="F588" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G588" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H588">
         <v>2</v>
       </c>
       <c r="I588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J588" t="s">
         <v>70</v>
       </c>
       <c r="K588">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="L588">
+        <v>3.1</v>
+      </c>
+      <c r="M588">
         <v>2.9</v>
       </c>
-      <c r="M588">
-        <v>3.5</v>
-      </c>
       <c r="N588">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O588">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P588">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q588">
         <v>0</v>
       </c>
       <c r="R588">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S588">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T588">
         <v>1.75</v>
       </c>
       <c r="U588">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V588">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W588">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="X588">
         <v>-1</v>
@@ -52917,16 +52917,16 @@
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA588">
         <v>-1</v>
       </c>
       <c r="AB588">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AC588">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -53201,7 +53201,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>4644089</v>
+        <v>4644870</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53213,52 +53213,52 @@
         <v>44740.89583333334</v>
       </c>
       <c r="F592" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G592" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J592" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K592">
         <v>2.2</v>
       </c>
       <c r="L592">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M592">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N592">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O592">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P592">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q592">
         <v>-0.25</v>
       </c>
       <c r="R592">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S592">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T592">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U592">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V592">
         <v>1.9</v>
@@ -53267,22 +53267,22 @@
         <v>-1</v>
       </c>
       <c r="X592">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y592">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z592">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA592">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB592">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC592">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53290,7 +53290,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>4644870</v>
+        <v>4644089</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53302,52 +53302,52 @@
         <v>44740.89583333334</v>
       </c>
       <c r="F593" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="G593" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I593">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J593" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K593">
         <v>2.2</v>
       </c>
       <c r="L593">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M593">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N593">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O593">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P593">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q593">
         <v>-0.25</v>
       </c>
       <c r="R593">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S593">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T593">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U593">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V593">
         <v>1.9</v>
@@ -53356,22 +53356,22 @@
         <v>-1</v>
       </c>
       <c r="X593">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y593">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z593">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA593">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB593">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC593">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -53468,7 +53468,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>4644869</v>
+        <v>4658981</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53480,76 +53480,76 @@
         <v>44741.89583333334</v>
       </c>
       <c r="F595" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G595" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595">
         <v>0</v>
       </c>
       <c r="J595" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K595">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L595">
         <v>3</v>
       </c>
       <c r="M595">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="N595">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O595">
+        <v>2.8</v>
+      </c>
+      <c r="P595">
         <v>2.9</v>
       </c>
-      <c r="P595">
-        <v>4</v>
-      </c>
       <c r="Q595">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R595">
+        <v>1.875</v>
+      </c>
+      <c r="S595">
+        <v>1.925</v>
+      </c>
+      <c r="T595">
+        <v>1.75</v>
+      </c>
+      <c r="U595">
+        <v>1.825</v>
+      </c>
+      <c r="V595">
+        <v>1.975</v>
+      </c>
+      <c r="W595">
         <v>1.8</v>
       </c>
-      <c r="S595">
-        <v>2</v>
-      </c>
-      <c r="T595">
-        <v>2</v>
-      </c>
-      <c r="U595">
-        <v>2.025</v>
-      </c>
-      <c r="V595">
-        <v>1.775</v>
-      </c>
-      <c r="W595">
-        <v>-1</v>
-      </c>
       <c r="X595">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y595">
         <v>-1</v>
       </c>
       <c r="Z595">
+        <v>0.875</v>
+      </c>
+      <c r="AA595">
+        <v>-1</v>
+      </c>
+      <c r="AB595">
+        <v>0.4125</v>
+      </c>
+      <c r="AC595">
         <v>-0.5</v>
-      </c>
-      <c r="AA595">
-        <v>0.5</v>
-      </c>
-      <c r="AB595">
-        <v>-1</v>
-      </c>
-      <c r="AC595">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="596" spans="1:29">
@@ -53557,7 +53557,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>4658981</v>
+        <v>4644869</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53569,76 +53569,76 @@
         <v>44741.89583333334</v>
       </c>
       <c r="F596" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G596" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596">
         <v>0</v>
       </c>
       <c r="J596" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K596">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L596">
         <v>3</v>
       </c>
       <c r="M596">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="N596">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O596">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P596">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q596">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R596">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S596">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T596">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U596">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V596">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W596">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X596">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y596">
         <v>-1</v>
       </c>
       <c r="Z596">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA596">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB596">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC596">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -54536,7 +54536,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>5192081</v>
+        <v>5228172</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54548,43 +54548,43 @@
         <v>44747.79166666666</v>
       </c>
       <c r="F607" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G607" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I607">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J607" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K607">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="L607">
         <v>3</v>
       </c>
       <c r="M607">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="N607">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="O607">
         <v>3.1</v>
       </c>
       <c r="P607">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q607">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R607">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S607">
         <v>1.825</v>
@@ -54593,31 +54593,31 @@
         <v>2</v>
       </c>
       <c r="U607">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V607">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W607">
         <v>-1</v>
       </c>
       <c r="X607">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y607">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z607">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA607">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB607">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC607">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -54625,7 +54625,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5228172</v>
+        <v>5192081</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54637,43 +54637,43 @@
         <v>44747.79166666666</v>
       </c>
       <c r="F608" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G608" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I608">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J608" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K608">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="L608">
         <v>3</v>
       </c>
       <c r="M608">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="N608">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="O608">
         <v>3.1</v>
       </c>
       <c r="P608">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q608">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R608">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S608">
         <v>1.825</v>
@@ -54682,31 +54682,31 @@
         <v>2</v>
       </c>
       <c r="U608">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V608">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W608">
         <v>-1</v>
       </c>
       <c r="X608">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y608">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z608">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA608">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB608">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC608">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -56049,7 +56049,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>4643506</v>
+        <v>4644470</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -56061,58 +56061,58 @@
         <v>44758.6875</v>
       </c>
       <c r="F624" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="G624" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H624">
         <v>3</v>
       </c>
       <c r="I624">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J624" t="s">
         <v>70</v>
       </c>
       <c r="K624">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="L624">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M624">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="N624">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O624">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P624">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="Q624">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R624">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S624">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T624">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U624">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V624">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W624">
-        <v>1.45</v>
+        <v>0.363</v>
       </c>
       <c r="X624">
         <v>-1</v>
@@ -56121,13 +56121,13 @@
         <v>-1</v>
       </c>
       <c r="Z624">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA624">
         <v>-1</v>
       </c>
       <c r="AB624">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC624">
         <v>-1</v>
@@ -56138,7 +56138,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>4644470</v>
+        <v>4643506</v>
       </c>
       <c r="C625" t="s">
         <v>28</v>
@@ -56150,58 +56150,58 @@
         <v>44758.6875</v>
       </c>
       <c r="F625" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G625" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H625">
         <v>3</v>
       </c>
       <c r="I625">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J625" t="s">
         <v>70</v>
       </c>
       <c r="K625">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="L625">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M625">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="N625">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O625">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P625">
-        <v>9</v>
+        <v>3.1</v>
       </c>
       <c r="Q625">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R625">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S625">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T625">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U625">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V625">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W625">
-        <v>0.363</v>
+        <v>1.45</v>
       </c>
       <c r="X625">
         <v>-1</v>
@@ -56210,13 +56210,13 @@
         <v>-1</v>
       </c>
       <c r="Z625">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA625">
         <v>-1</v>
       </c>
       <c r="AB625">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC625">
         <v>-1</v>
@@ -56672,7 +56672,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>4643581</v>
+        <v>4644550</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56684,76 +56684,76 @@
         <v>44761.79166666666</v>
       </c>
       <c r="F631" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G631" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H631">
         <v>1</v>
       </c>
       <c r="I631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J631" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K631">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L631">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M631">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="N631">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="O631">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P631">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q631">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R631">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S631">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T631">
         <v>2</v>
       </c>
       <c r="U631">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V631">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W631">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X631">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y631">
         <v>-1</v>
       </c>
       <c r="Z631">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA631">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB631">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC631">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -56761,7 +56761,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>4644550</v>
+        <v>4643581</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56773,76 +56773,76 @@
         <v>44761.79166666666</v>
       </c>
       <c r="F632" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G632" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H632">
         <v>1</v>
       </c>
       <c r="I632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J632" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K632">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L632">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M632">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="N632">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O632">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P632">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q632">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R632">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S632">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T632">
         <v>2</v>
       </c>
       <c r="U632">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V632">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W632">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X632">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y632">
         <v>-1</v>
       </c>
       <c r="Z632">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA632">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB632">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC632">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -60232,7 +60232,7 @@
         <v>669</v>
       </c>
       <c r="B671">
-        <v>4643609</v>
+        <v>4668750</v>
       </c>
       <c r="C671" t="s">
         <v>28</v>
@@ -60244,58 +60244,58 @@
         <v>44782.85416666666</v>
       </c>
       <c r="F671" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G671" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H671">
+        <v>3</v>
+      </c>
+      <c r="I671">
         <v>1</v>
-      </c>
-      <c r="I671">
-        <v>0</v>
       </c>
       <c r="J671" t="s">
         <v>70</v>
       </c>
       <c r="K671">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="L671">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M671">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="N671">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O671">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P671">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q671">
         <v>-0.25</v>
       </c>
       <c r="R671">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S671">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T671">
         <v>1.75</v>
       </c>
       <c r="U671">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V671">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W671">
-        <v>1.1</v>
+        <v>1.625</v>
       </c>
       <c r="X671">
         <v>-1</v>
@@ -60304,16 +60304,16 @@
         <v>-1</v>
       </c>
       <c r="Z671">
-        <v>0.7749999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AA671">
         <v>-1</v>
       </c>
       <c r="AB671">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC671">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="672" spans="1:29">
@@ -60321,7 +60321,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>4668750</v>
+        <v>4643609</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60333,58 +60333,58 @@
         <v>44782.85416666666</v>
       </c>
       <c r="F672" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G672" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H672">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I672">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J672" t="s">
         <v>70</v>
       </c>
       <c r="K672">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="L672">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M672">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N672">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O672">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P672">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="Q672">
         <v>-0.25</v>
       </c>
       <c r="R672">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S672">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T672">
         <v>1.75</v>
       </c>
       <c r="U672">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V672">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W672">
-        <v>1.625</v>
+        <v>1.1</v>
       </c>
       <c r="X672">
         <v>-1</v>
@@ -60393,16 +60393,16 @@
         <v>-1</v>
       </c>
       <c r="Z672">
-        <v>1.075</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA672">
         <v>-1</v>
       </c>
       <c r="AB672">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC672">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="673" spans="1:29">
@@ -60499,7 +60499,7 @@
         <v>672</v>
       </c>
       <c r="B674">
-        <v>4650815</v>
+        <v>4651133</v>
       </c>
       <c r="C674" t="s">
         <v>28</v>
@@ -60511,49 +60511,49 @@
         <v>44782.89583333334</v>
       </c>
       <c r="F674" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G674" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674">
         <v>0</v>
       </c>
       <c r="J674" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K674">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="L674">
         <v>2.8</v>
       </c>
       <c r="M674">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N674">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O674">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P674">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q674">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R674">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S674">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="T674">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U674">
         <v>1.775</v>
@@ -60562,25 +60562,25 @@
         <v>2.025</v>
       </c>
       <c r="W674">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X674">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y674">
         <v>-1</v>
       </c>
       <c r="Z674">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA674">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB674">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC674">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="675" spans="1:29">
@@ -60588,7 +60588,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>4651133</v>
+        <v>4650815</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60600,49 +60600,49 @@
         <v>44782.89583333334</v>
       </c>
       <c r="F675" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G675" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675">
         <v>0</v>
       </c>
       <c r="J675" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K675">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="L675">
         <v>2.8</v>
       </c>
       <c r="M675">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N675">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O675">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P675">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q675">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R675">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S675">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T675">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U675">
         <v>1.775</v>
@@ -60651,25 +60651,25 @@
         <v>2.025</v>
       </c>
       <c r="W675">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X675">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y675">
         <v>-1</v>
       </c>
       <c r="Z675">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA675">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB675">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC675">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -65038,7 +65038,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>4780316</v>
+        <v>4735911</v>
       </c>
       <c r="C725" t="s">
         <v>28</v>
@@ -65050,58 +65050,58 @@
         <v>44807.79166666666</v>
       </c>
       <c r="F725" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G725" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H725">
         <v>3</v>
       </c>
       <c r="I725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J725" t="s">
         <v>70</v>
       </c>
       <c r="K725">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L725">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M725">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N725">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O725">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P725">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q725">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R725">
+        <v>1.875</v>
+      </c>
+      <c r="S725">
+        <v>1.925</v>
+      </c>
+      <c r="T725">
         <v>1.75</v>
       </c>
-      <c r="S725">
-        <v>2.05</v>
-      </c>
-      <c r="T725">
-        <v>2.25</v>
-      </c>
       <c r="U725">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V725">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W725">
-        <v>0.45</v>
+        <v>1.3</v>
       </c>
       <c r="X725">
         <v>-1</v>
@@ -65110,13 +65110,13 @@
         <v>-1</v>
       </c>
       <c r="Z725">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA725">
         <v>-1</v>
       </c>
       <c r="AB725">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC725">
         <v>-1</v>
@@ -65127,7 +65127,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>4735911</v>
+        <v>4780316</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65139,58 +65139,58 @@
         <v>44807.79166666666</v>
       </c>
       <c r="F726" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G726" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H726">
         <v>3</v>
       </c>
       <c r="I726">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J726" t="s">
         <v>70</v>
       </c>
       <c r="K726">
+        <v>1.533</v>
+      </c>
+      <c r="L726">
+        <v>3.75</v>
+      </c>
+      <c r="M726">
+        <v>7.5</v>
+      </c>
+      <c r="N726">
+        <v>1.45</v>
+      </c>
+      <c r="O726">
+        <v>4</v>
+      </c>
+      <c r="P726">
+        <v>8</v>
+      </c>
+      <c r="Q726">
+        <v>-1</v>
+      </c>
+      <c r="R726">
+        <v>1.75</v>
+      </c>
+      <c r="S726">
+        <v>2.05</v>
+      </c>
+      <c r="T726">
         <v>2.25</v>
       </c>
-      <c r="L726">
-        <v>3</v>
-      </c>
-      <c r="M726">
-        <v>3.6</v>
-      </c>
-      <c r="N726">
-        <v>2.3</v>
-      </c>
-      <c r="O726">
-        <v>2.8</v>
-      </c>
-      <c r="P726">
-        <v>3.8</v>
-      </c>
-      <c r="Q726">
-        <v>-0.25</v>
-      </c>
-      <c r="R726">
-        <v>1.875</v>
-      </c>
-      <c r="S726">
-        <v>1.925</v>
-      </c>
-      <c r="T726">
-        <v>1.75</v>
-      </c>
       <c r="U726">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V726">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W726">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="X726">
         <v>-1</v>
@@ -65199,13 +65199,13 @@
         <v>-1</v>
       </c>
       <c r="Z726">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA726">
         <v>-1</v>
       </c>
       <c r="AB726">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC726">
         <v>-1</v>
@@ -69043,7 +69043,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>4983763</v>
+        <v>5002859</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69055,34 +69055,34 @@
         <v>44837.83333333334</v>
       </c>
       <c r="F770" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G770" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H770">
+        <v>2</v>
+      </c>
+      <c r="I770">
         <v>1</v>
-      </c>
-      <c r="I770">
-        <v>0</v>
       </c>
       <c r="J770" t="s">
         <v>70</v>
       </c>
       <c r="K770">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L770">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M770">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N770">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O770">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P770">
         <v>4.333</v>
@@ -69091,40 +69091,40 @@
         <v>-0.5</v>
       </c>
       <c r="R770">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S770">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T770">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U770">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V770">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W770">
+        <v>0.95</v>
+      </c>
+      <c r="X770">
+        <v>-1</v>
+      </c>
+      <c r="Y770">
+        <v>-1</v>
+      </c>
+      <c r="Z770">
         <v>1</v>
       </c>
-      <c r="X770">
-        <v>-1</v>
-      </c>
-      <c r="Y770">
-        <v>-1</v>
-      </c>
-      <c r="Z770">
-        <v>0.925</v>
-      </c>
       <c r="AA770">
         <v>-1</v>
       </c>
       <c r="AB770">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC770">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -69132,7 +69132,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>5002859</v>
+        <v>4983763</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69144,34 +69144,34 @@
         <v>44837.83333333334</v>
       </c>
       <c r="F771" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G771" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I771">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J771" t="s">
         <v>70</v>
       </c>
       <c r="K771">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L771">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M771">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N771">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O771">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P771">
         <v>4.333</v>
@@ -69180,22 +69180,22 @@
         <v>-0.5</v>
       </c>
       <c r="R771">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S771">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T771">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U771">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V771">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W771">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="X771">
         <v>-1</v>
@@ -69204,16 +69204,16 @@
         <v>-1</v>
       </c>
       <c r="Z771">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA771">
         <v>-1</v>
       </c>
       <c r="AB771">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC771">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="772" spans="1:29">
@@ -69221,7 +69221,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>4992221</v>
+        <v>5686217</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69233,58 +69233,58 @@
         <v>44838.79166666666</v>
       </c>
       <c r="F772" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G772" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H772">
         <v>2</v>
       </c>
       <c r="I772">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J772" t="s">
         <v>70</v>
       </c>
       <c r="K772">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L772">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M772">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N772">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O772">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P772">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="Q772">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R772">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S772">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T772">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U772">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V772">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W772">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="X772">
         <v>-1</v>
@@ -69293,16 +69293,16 @@
         <v>-1</v>
       </c>
       <c r="Z772">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA772">
         <v>-1</v>
       </c>
       <c r="AB772">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC772">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69310,7 +69310,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>4999957</v>
+        <v>4992222</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69322,55 +69322,55 @@
         <v>44838.79166666666</v>
       </c>
       <c r="F773" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G773" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J773" t="s">
         <v>71</v>
       </c>
       <c r="K773">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="L773">
         <v>2.8</v>
       </c>
       <c r="M773">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="N773">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O773">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P773">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q773">
         <v>0</v>
       </c>
       <c r="R773">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S773">
+        <v>2.05</v>
+      </c>
+      <c r="T773">
+        <v>1.75</v>
+      </c>
+      <c r="U773">
         <v>1.8</v>
       </c>
-      <c r="T773">
-        <v>2</v>
-      </c>
-      <c r="U773">
-        <v>1.925</v>
-      </c>
       <c r="V773">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W773">
         <v>-1</v>
@@ -69379,19 +69379,19 @@
         <v>-1</v>
       </c>
       <c r="Y773">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z773">
         <v>-1</v>
       </c>
       <c r="AA773">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB773">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC773">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -69399,7 +69399,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>4999959</v>
+        <v>4999957</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69411,76 +69411,76 @@
         <v>44838.79166666666</v>
       </c>
       <c r="F774" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G774" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I774">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J774" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K774">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="L774">
+        <v>2.8</v>
+      </c>
+      <c r="M774">
+        <v>2.6</v>
+      </c>
+      <c r="N774">
         <v>3</v>
-      </c>
-      <c r="M774">
-        <v>3.5</v>
-      </c>
-      <c r="N774">
-        <v>2.25</v>
       </c>
       <c r="O774">
         <v>3</v>
       </c>
       <c r="P774">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q774">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R774">
+        <v>2</v>
+      </c>
+      <c r="S774">
+        <v>1.8</v>
+      </c>
+      <c r="T774">
+        <v>2</v>
+      </c>
+      <c r="U774">
+        <v>1.925</v>
+      </c>
+      <c r="V774">
         <v>1.875</v>
       </c>
-      <c r="S774">
-        <v>1.925</v>
-      </c>
-      <c r="T774">
-        <v>1.75</v>
-      </c>
-      <c r="U774">
-        <v>1.8</v>
-      </c>
-      <c r="V774">
-        <v>2</v>
-      </c>
       <c r="W774">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X774">
         <v>-1</v>
       </c>
       <c r="Y774">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z774">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA774">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB774">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC774">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -69488,7 +69488,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>4992222</v>
+        <v>4999959</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69500,46 +69500,46 @@
         <v>44838.79166666666</v>
       </c>
       <c r="F775" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G775" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I775">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J775" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K775">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L775">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M775">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N775">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O775">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P775">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q775">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R775">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S775">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T775">
         <v>1.75</v>
@@ -69551,19 +69551,19 @@
         <v>2</v>
       </c>
       <c r="W775">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X775">
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z775">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA775">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB775">
         <v>-1</v>
@@ -69577,7 +69577,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>5686217</v>
+        <v>4992221</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69589,59 +69589,59 @@
         <v>44838.79166666666</v>
       </c>
       <c r="F776" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G776" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H776">
         <v>2</v>
       </c>
       <c r="I776">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J776" t="s">
         <v>70</v>
       </c>
       <c r="K776">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L776">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M776">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N776">
+        <v>2.3</v>
+      </c>
+      <c r="O776">
+        <v>2.875</v>
+      </c>
+      <c r="P776">
+        <v>3.75</v>
+      </c>
+      <c r="Q776">
+        <v>-0.25</v>
+      </c>
+      <c r="R776">
+        <v>1.925</v>
+      </c>
+      <c r="S776">
+        <v>1.875</v>
+      </c>
+      <c r="T776">
+        <v>1.75</v>
+      </c>
+      <c r="U776">
+        <v>1.75</v>
+      </c>
+      <c r="V776">
+        <v>2.05</v>
+      </c>
+      <c r="W776">
         <v>1.3</v>
       </c>
-      <c r="O776">
-        <v>4.5</v>
-      </c>
-      <c r="P776">
-        <v>13</v>
-      </c>
-      <c r="Q776">
-        <v>-1.25</v>
-      </c>
-      <c r="R776">
-        <v>1.775</v>
-      </c>
-      <c r="S776">
-        <v>2.025</v>
-      </c>
-      <c r="T776">
-        <v>2</v>
-      </c>
-      <c r="U776">
-        <v>1.825</v>
-      </c>
-      <c r="V776">
-        <v>1.975</v>
-      </c>
-      <c r="W776">
-        <v>0.3</v>
-      </c>
       <c r="X776">
         <v>-1</v>
       </c>
@@ -69649,16 +69649,16 @@
         <v>-1</v>
       </c>
       <c r="Z776">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA776">
         <v>-1</v>
       </c>
       <c r="AB776">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC776">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -69666,7 +69666,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>4999956</v>
+        <v>4996044</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69678,40 +69678,40 @@
         <v>44838.89583333334</v>
       </c>
       <c r="F777" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G777" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I777">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J777" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K777">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L777">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M777">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N777">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O777">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P777">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q777">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R777">
         <v>1.9</v>
@@ -69723,31 +69723,31 @@
         <v>2</v>
       </c>
       <c r="U777">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V777">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W777">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X777">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y777">
         <v>-1</v>
       </c>
       <c r="Z777">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA777">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB777">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC777">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="778" spans="1:29">
@@ -69755,7 +69755,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>4996044</v>
+        <v>4999956</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69767,40 +69767,40 @@
         <v>44838.89583333334</v>
       </c>
       <c r="F778" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G778" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H778">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I778">
+        <v>1</v>
+      </c>
+      <c r="J778" t="s">
+        <v>72</v>
+      </c>
+      <c r="K778">
+        <v>2.6</v>
+      </c>
+      <c r="L778">
+        <v>2.9</v>
+      </c>
+      <c r="M778">
+        <v>2.8</v>
+      </c>
+      <c r="N778">
+        <v>2.875</v>
+      </c>
+      <c r="O778">
         <v>3</v>
       </c>
-      <c r="J778" t="s">
-        <v>70</v>
-      </c>
-      <c r="K778">
-        <v>1.95</v>
-      </c>
-      <c r="L778">
-        <v>3.2</v>
-      </c>
-      <c r="M778">
-        <v>4</v>
-      </c>
-      <c r="N778">
-        <v>1.909</v>
-      </c>
-      <c r="O778">
-        <v>3.3</v>
-      </c>
       <c r="P778">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q778">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R778">
         <v>1.9</v>
@@ -69812,31 +69812,31 @@
         <v>2</v>
       </c>
       <c r="U778">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V778">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W778">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X778">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y778">
         <v>-1</v>
       </c>
       <c r="Z778">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA778">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB778">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC778">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -70467,7 +70467,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>4942408</v>
+        <v>4956598</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70479,73 +70479,73 @@
         <v>44842.77083333334</v>
       </c>
       <c r="F786" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G786" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H786">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I786">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J786" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K786">
-        <v>1.615</v>
+        <v>2.625</v>
       </c>
       <c r="L786">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M786">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N786">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="O786">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P786">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="Q786">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R786">
+        <v>1.975</v>
+      </c>
+      <c r="S786">
+        <v>1.825</v>
+      </c>
+      <c r="T786">
+        <v>1.75</v>
+      </c>
+      <c r="U786">
         <v>1.85</v>
       </c>
-      <c r="S786">
+      <c r="V786">
         <v>1.95</v>
       </c>
-      <c r="T786">
-        <v>2.25</v>
-      </c>
-      <c r="U786">
-        <v>2</v>
-      </c>
-      <c r="V786">
-        <v>1.8</v>
-      </c>
       <c r="W786">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X786">
         <v>-1</v>
       </c>
       <c r="Y786">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z786">
+        <v>-1</v>
+      </c>
+      <c r="AA786">
+        <v>0.825</v>
+      </c>
+      <c r="AB786">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA786">
-        <v>-1</v>
-      </c>
-      <c r="AB786">
-        <v>1</v>
       </c>
       <c r="AC786">
         <v>-1</v>
@@ -70556,7 +70556,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>4956598</v>
+        <v>4942408</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70568,73 +70568,73 @@
         <v>44842.77083333334</v>
       </c>
       <c r="F787" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G787" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H787">
+        <v>3</v>
+      </c>
+      <c r="I787">
+        <v>0</v>
+      </c>
+      <c r="J787" t="s">
+        <v>70</v>
+      </c>
+      <c r="K787">
+        <v>1.615</v>
+      </c>
+      <c r="L787">
+        <v>3.6</v>
+      </c>
+      <c r="M787">
+        <v>6.5</v>
+      </c>
+      <c r="N787">
+        <v>1.666</v>
+      </c>
+      <c r="O787">
+        <v>3.3</v>
+      </c>
+      <c r="P787">
+        <v>7</v>
+      </c>
+      <c r="Q787">
+        <v>-0.75</v>
+      </c>
+      <c r="R787">
+        <v>1.85</v>
+      </c>
+      <c r="S787">
+        <v>1.95</v>
+      </c>
+      <c r="T787">
+        <v>2.25</v>
+      </c>
+      <c r="U787">
+        <v>2</v>
+      </c>
+      <c r="V787">
+        <v>1.8</v>
+      </c>
+      <c r="W787">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X787">
+        <v>-1</v>
+      </c>
+      <c r="Y787">
+        <v>-1</v>
+      </c>
+      <c r="Z787">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA787">
+        <v>-1</v>
+      </c>
+      <c r="AB787">
         <v>1</v>
-      </c>
-      <c r="I787">
-        <v>2</v>
-      </c>
-      <c r="J787" t="s">
-        <v>71</v>
-      </c>
-      <c r="K787">
-        <v>2.625</v>
-      </c>
-      <c r="L787">
-        <v>2.8</v>
-      </c>
-      <c r="M787">
-        <v>2.9</v>
-      </c>
-      <c r="N787">
-        <v>2.45</v>
-      </c>
-      <c r="O787">
-        <v>2.9</v>
-      </c>
-      <c r="P787">
-        <v>3.4</v>
-      </c>
-      <c r="Q787">
-        <v>-0.25</v>
-      </c>
-      <c r="R787">
-        <v>1.975</v>
-      </c>
-      <c r="S787">
-        <v>1.825</v>
-      </c>
-      <c r="T787">
-        <v>1.75</v>
-      </c>
-      <c r="U787">
-        <v>1.85</v>
-      </c>
-      <c r="V787">
-        <v>1.95</v>
-      </c>
-      <c r="W787">
-        <v>-1</v>
-      </c>
-      <c r="X787">
-        <v>-1</v>
-      </c>
-      <c r="Y787">
-        <v>2.4</v>
-      </c>
-      <c r="Z787">
-        <v>-1</v>
-      </c>
-      <c r="AA787">
-        <v>0.825</v>
-      </c>
-      <c r="AB787">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC787">
         <v>-1</v>
@@ -71535,7 +71535,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>4956252</v>
+        <v>4961062</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71547,10 +71547,10 @@
         <v>44850.66666666666</v>
       </c>
       <c r="F798" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G798" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H798">
         <v>1</v>
@@ -71562,46 +71562,46 @@
         <v>72</v>
       </c>
       <c r="K798">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L798">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M798">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N798">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O798">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P798">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q798">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R798">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S798">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T798">
         <v>2</v>
       </c>
       <c r="U798">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V798">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W798">
         <v>-1</v>
       </c>
       <c r="X798">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y798">
         <v>-1</v>
@@ -71610,7 +71610,7 @@
         <v>-1</v>
       </c>
       <c r="AA798">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB798">
         <v>0</v>
@@ -71624,7 +71624,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>4961062</v>
+        <v>4956252</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71636,10 +71636,10 @@
         <v>44850.66666666666</v>
       </c>
       <c r="F799" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G799" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H799">
         <v>1</v>
@@ -71651,46 +71651,46 @@
         <v>72</v>
       </c>
       <c r="K799">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L799">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M799">
+        <v>4.2</v>
+      </c>
+      <c r="N799">
+        <v>1.909</v>
+      </c>
+      <c r="O799">
+        <v>3.1</v>
+      </c>
+      <c r="P799">
         <v>4.75</v>
       </c>
-      <c r="N799">
-        <v>1.615</v>
-      </c>
-      <c r="O799">
-        <v>3.5</v>
-      </c>
-      <c r="P799">
-        <v>6.5</v>
-      </c>
       <c r="Q799">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R799">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S799">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T799">
         <v>2</v>
       </c>
       <c r="U799">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V799">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W799">
         <v>-1</v>
       </c>
       <c r="X799">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y799">
         <v>-1</v>
@@ -71699,7 +71699,7 @@
         <v>-1</v>
       </c>
       <c r="AA799">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB799">
         <v>0</v>
@@ -72247,7 +72247,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>4969151</v>
+        <v>4968820</v>
       </c>
       <c r="C806" t="s">
         <v>28</v>
@@ -72259,58 +72259,58 @@
         <v>44856.6875</v>
       </c>
       <c r="F806" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G806" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I806">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J806" t="s">
         <v>70</v>
       </c>
       <c r="K806">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L806">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M806">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="N806">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O806">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P806">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q806">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R806">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S806">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T806">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U806">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V806">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W806">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="X806">
         <v>-1</v>
@@ -72319,16 +72319,16 @@
         <v>-1</v>
       </c>
       <c r="Z806">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA806">
         <v>-1</v>
       </c>
       <c r="AB806">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC806">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="807" spans="1:29">
@@ -72336,7 +72336,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>4983762</v>
+        <v>4969151</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72348,76 +72348,76 @@
         <v>44856.6875</v>
       </c>
       <c r="F807" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G807" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I807">
         <v>1</v>
       </c>
       <c r="J807" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K807">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="L807">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M807">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N807">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O807">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P807">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q807">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R807">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S807">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T807">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U807">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V807">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W807">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X807">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y807">
         <v>-1</v>
       </c>
       <c r="Z807">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA807">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB807">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC807">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="808" spans="1:29">
@@ -72425,7 +72425,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>4968820</v>
+        <v>4983762</v>
       </c>
       <c r="C808" t="s">
         <v>28</v>
@@ -72437,76 +72437,76 @@
         <v>44856.6875</v>
       </c>
       <c r="F808" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G808" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H808">
         <v>1</v>
       </c>
       <c r="I808">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J808" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K808">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="L808">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M808">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N808">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O808">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P808">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q808">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R808">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S808">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T808">
         <v>2.25</v>
       </c>
       <c r="U808">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V808">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W808">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X808">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y808">
         <v>-1</v>
       </c>
       <c r="Z808">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA808">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB808">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC808">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="809" spans="1:29">
@@ -75985,7 +75985,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>6286296</v>
+        <v>6286544</v>
       </c>
       <c r="C848" t="s">
         <v>28</v>
@@ -75997,13 +75997,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F848" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G848" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848">
         <v>0</v>
@@ -76012,61 +76012,61 @@
         <v>70</v>
       </c>
       <c r="K848">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L848">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M848">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N848">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O848">
         <v>3.4</v>
       </c>
       <c r="P848">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q848">
+        <v>-0.75</v>
+      </c>
+      <c r="R848">
+        <v>1.95</v>
+      </c>
+      <c r="S848">
+        <v>1.85</v>
+      </c>
+      <c r="T848">
+        <v>2</v>
+      </c>
+      <c r="U848">
+        <v>1.8</v>
+      </c>
+      <c r="V848">
+        <v>2</v>
+      </c>
+      <c r="W848">
+        <v>0.7</v>
+      </c>
+      <c r="X848">
+        <v>-1</v>
+      </c>
+      <c r="Y848">
+        <v>-1</v>
+      </c>
+      <c r="Z848">
+        <v>0.475</v>
+      </c>
+      <c r="AA848">
         <v>-0.5</v>
       </c>
-      <c r="R848">
-        <v>1.8</v>
-      </c>
-      <c r="S848">
-        <v>2.05</v>
-      </c>
-      <c r="T848">
-        <v>2.25</v>
-      </c>
-      <c r="U848">
-        <v>2.025</v>
-      </c>
-      <c r="V848">
-        <v>1.825</v>
-      </c>
-      <c r="W848">
-        <v>0.833</v>
-      </c>
-      <c r="X848">
-        <v>-1</v>
-      </c>
-      <c r="Y848">
-        <v>-1</v>
-      </c>
-      <c r="Z848">
-        <v>0.8</v>
-      </c>
-      <c r="AA848">
-        <v>-1</v>
-      </c>
       <c r="AB848">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC848">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:29">
@@ -76074,7 +76074,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>6286544</v>
+        <v>6286296</v>
       </c>
       <c r="C849" t="s">
         <v>28</v>
@@ -76086,13 +76086,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F849" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G849" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I849">
         <v>0</v>
@@ -76101,43 +76101,43 @@
         <v>70</v>
       </c>
       <c r="K849">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L849">
+        <v>3.1</v>
+      </c>
+      <c r="M849">
         <v>3.2</v>
       </c>
-      <c r="M849">
-        <v>3.75</v>
-      </c>
       <c r="N849">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O849">
         <v>3.4</v>
       </c>
       <c r="P849">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q849">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R849">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S849">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T849">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U849">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V849">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W849">
-        <v>0.7</v>
+        <v>0.833</v>
       </c>
       <c r="X849">
         <v>-1</v>
@@ -76146,16 +76146,16 @@
         <v>-1</v>
       </c>
       <c r="Z849">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA849">
+        <v>-1</v>
+      </c>
+      <c r="AB849">
         <v>-0.5</v>
       </c>
-      <c r="AB849">
-        <v>-1</v>
-      </c>
       <c r="AC849">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="850" spans="1:29">
@@ -85864,7 +85864,7 @@
         <v>957</v>
       </c>
       <c r="B959">
-        <v>6285530</v>
+        <v>6286549</v>
       </c>
       <c r="C959" t="s">
         <v>28</v>
@@ -85876,76 +85876,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F959" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G959" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H959">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I959">
         <v>1</v>
       </c>
       <c r="J959" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K959">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L959">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M959">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N959">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O959">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P959">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q959">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R959">
         <v>1.875</v>
       </c>
       <c r="S959">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T959">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U959">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V959">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W959">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X959">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y959">
         <v>-1</v>
       </c>
       <c r="Z959">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA959">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB959">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC959">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="960" spans="1:29">
@@ -85953,7 +85953,7 @@
         <v>958</v>
       </c>
       <c r="B960">
-        <v>6286549</v>
+        <v>6285530</v>
       </c>
       <c r="C960" t="s">
         <v>28</v>
@@ -85965,76 +85965,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F960" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G960" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I960">
         <v>1</v>
       </c>
       <c r="J960" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K960">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L960">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M960">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N960">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O960">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P960">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q960">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R960">
         <v>1.875</v>
       </c>
       <c r="S960">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T960">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U960">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V960">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W960">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X960">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y960">
         <v>-1</v>
       </c>
       <c r="Z960">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA960">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB960">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC960">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="961" spans="1:29">
@@ -86932,7 +86932,7 @@
         <v>969</v>
       </c>
       <c r="B971">
-        <v>6281970</v>
+        <v>6285667</v>
       </c>
       <c r="C971" t="s">
         <v>28</v>
@@ -86944,10 +86944,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F971" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G971" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H971">
         <v>0</v>
@@ -86959,37 +86959,37 @@
         <v>71</v>
       </c>
       <c r="K971">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L971">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M971">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N971">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O971">
         <v>3</v>
       </c>
       <c r="P971">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q971">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R971">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S971">
+        <v>1.875</v>
+      </c>
+      <c r="T971">
+        <v>2</v>
+      </c>
+      <c r="U971">
         <v>2.025</v>
-      </c>
-      <c r="T971">
-        <v>2</v>
-      </c>
-      <c r="U971">
-        <v>1.975</v>
       </c>
       <c r="V971">
         <v>1.825</v>
@@ -87001,13 +87001,13 @@
         <v>-1</v>
       </c>
       <c r="Y971">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z971">
         <v>-1</v>
       </c>
       <c r="AA971">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB971">
         <v>0</v>
@@ -87021,7 +87021,7 @@
         <v>970</v>
       </c>
       <c r="B972">
-        <v>6285667</v>
+        <v>6281970</v>
       </c>
       <c r="C972" t="s">
         <v>28</v>
@@ -87033,10 +87033,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F972" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G972" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H972">
         <v>0</v>
@@ -87048,37 +87048,37 @@
         <v>71</v>
       </c>
       <c r="K972">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L972">
+        <v>2.9</v>
+      </c>
+      <c r="M972">
         <v>3</v>
       </c>
-      <c r="M972">
-        <v>4.333</v>
-      </c>
       <c r="N972">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O972">
         <v>3</v>
       </c>
       <c r="P972">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q972">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R972">
+        <v>1.775</v>
+      </c>
+      <c r="S972">
+        <v>2.025</v>
+      </c>
+      <c r="T972">
+        <v>2</v>
+      </c>
+      <c r="U972">
         <v>1.975</v>
-      </c>
-      <c r="S972">
-        <v>1.875</v>
-      </c>
-      <c r="T972">
-        <v>2</v>
-      </c>
-      <c r="U972">
-        <v>2.025</v>
       </c>
       <c r="V972">
         <v>1.825</v>
@@ -87090,13 +87090,13 @@
         <v>-1</v>
       </c>
       <c r="Y972">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z972">
         <v>-1</v>
       </c>
       <c r="AA972">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB972">
         <v>0</v>
@@ -89691,7 +89691,7 @@
         <v>1000</v>
       </c>
       <c r="B1002">
-        <v>6285537</v>
+        <v>6289124</v>
       </c>
       <c r="C1002" t="s">
         <v>28</v>
@@ -89703,73 +89703,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F1002" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1002" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H1002">
+        <v>2</v>
+      </c>
+      <c r="I1002">
+        <v>2</v>
+      </c>
+      <c r="J1002" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1002">
+        <v>2.25</v>
+      </c>
+      <c r="L1002">
+        <v>2.875</v>
+      </c>
+      <c r="M1002">
+        <v>3.2</v>
+      </c>
+      <c r="N1002">
+        <v>2.25</v>
+      </c>
+      <c r="O1002">
         <v>3</v>
       </c>
-      <c r="I1002">
-        <v>0</v>
-      </c>
-      <c r="J1002" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1002">
-        <v>1.4</v>
-      </c>
-      <c r="L1002">
-        <v>3.8</v>
-      </c>
-      <c r="M1002">
-        <v>8</v>
-      </c>
-      <c r="N1002">
-        <v>1.5</v>
-      </c>
-      <c r="O1002">
-        <v>4.2</v>
-      </c>
       <c r="P1002">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q1002">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1002">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S1002">
+        <v>1.925</v>
+      </c>
+      <c r="T1002">
+        <v>2</v>
+      </c>
+      <c r="U1002">
+        <v>1.85</v>
+      </c>
+      <c r="V1002">
         <v>1.95</v>
       </c>
-      <c r="T1002">
-        <v>2.25</v>
-      </c>
-      <c r="U1002">
-        <v>2.1</v>
-      </c>
-      <c r="V1002">
-        <v>1.775</v>
-      </c>
       <c r="W1002">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X1002">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y1002">
         <v>-1</v>
       </c>
       <c r="Z1002">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1002">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB1002">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1002">
         <v>-1</v>
@@ -89780,7 +89780,7 @@
         <v>1001</v>
       </c>
       <c r="B1003">
-        <v>6289124</v>
+        <v>6285537</v>
       </c>
       <c r="C1003" t="s">
         <v>28</v>
@@ -89792,73 +89792,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F1003" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G1003" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1003">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1003" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1003">
+        <v>1.4</v>
+      </c>
+      <c r="L1003">
+        <v>3.8</v>
+      </c>
+      <c r="M1003">
+        <v>8</v>
+      </c>
+      <c r="N1003">
+        <v>1.5</v>
+      </c>
+      <c r="O1003">
+        <v>4.2</v>
+      </c>
+      <c r="P1003">
+        <v>6.5</v>
+      </c>
+      <c r="Q1003">
+        <v>-1</v>
+      </c>
+      <c r="R1003">
+        <v>1.9</v>
+      </c>
+      <c r="S1003">
+        <v>1.95</v>
+      </c>
+      <c r="T1003">
         <v>2.25</v>
       </c>
-      <c r="L1003">
-        <v>2.875</v>
-      </c>
-      <c r="M1003">
-        <v>3.2</v>
-      </c>
-      <c r="N1003">
-        <v>2.25</v>
-      </c>
-      <c r="O1003">
-        <v>3</v>
-      </c>
-      <c r="P1003">
-        <v>3.6</v>
-      </c>
-      <c r="Q1003">
-        <v>-0.25</v>
-      </c>
-      <c r="R1003">
-        <v>1.875</v>
-      </c>
-      <c r="S1003">
-        <v>1.925</v>
-      </c>
-      <c r="T1003">
-        <v>2</v>
-      </c>
       <c r="U1003">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V1003">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W1003">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X1003">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y1003">
         <v>-1</v>
       </c>
       <c r="Z1003">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1003">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB1003">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC1003">
         <v>-1</v>
@@ -90047,7 +90047,7 @@
         <v>1004</v>
       </c>
       <c r="B1006">
-        <v>6282102</v>
+        <v>6281972</v>
       </c>
       <c r="C1006" t="s">
         <v>28</v>
@@ -90059,13 +90059,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F1006" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G1006" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H1006">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1006">
         <v>0</v>
@@ -90074,43 +90074,43 @@
         <v>70</v>
       </c>
       <c r="K1006">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L1006">
         <v>2.875</v>
       </c>
       <c r="M1006">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N1006">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O1006">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P1006">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q1006">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R1006">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S1006">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="T1006">
         <v>1.75</v>
       </c>
       <c r="U1006">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V1006">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W1006">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="X1006">
         <v>-1</v>
@@ -90119,16 +90119,16 @@
         <v>-1</v>
       </c>
       <c r="Z1006">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="AA1006">
         <v>-1</v>
       </c>
       <c r="AB1006">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC1006">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1007" spans="1:29">
@@ -90136,7 +90136,7 @@
         <v>1005</v>
       </c>
       <c r="B1007">
-        <v>6281972</v>
+        <v>6282102</v>
       </c>
       <c r="C1007" t="s">
         <v>28</v>
@@ -90148,13 +90148,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F1007" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G1007" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1007">
         <v>0</v>
@@ -90163,43 +90163,43 @@
         <v>70</v>
       </c>
       <c r="K1007">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L1007">
         <v>2.875</v>
       </c>
       <c r="M1007">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N1007">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O1007">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P1007">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q1007">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R1007">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S1007">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="T1007">
         <v>1.75</v>
       </c>
       <c r="U1007">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V1007">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W1007">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="X1007">
         <v>-1</v>
@@ -90208,16 +90208,16 @@
         <v>-1</v>
       </c>
       <c r="Z1007">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="AA1007">
         <v>-1</v>
       </c>
       <c r="AB1007">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC1007">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:29">
@@ -90403,7 +90403,7 @@
         <v>1008</v>
       </c>
       <c r="B1010">
-        <v>6285669</v>
+        <v>6285539</v>
       </c>
       <c r="C1010" t="s">
         <v>28</v>
@@ -90415,76 +90415,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F1010" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G1010" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H1010">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1010">
         <v>1</v>
       </c>
       <c r="J1010" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1010">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L1010">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M1010">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N1010">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O1010">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P1010">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q1010">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1010">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S1010">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T1010">
         <v>2</v>
       </c>
       <c r="U1010">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V1010">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W1010">
         <v>-1</v>
       </c>
       <c r="X1010">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y1010">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z1010">
         <v>-1</v>
       </c>
       <c r="AA1010">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1010">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1010">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1011" spans="1:29">
@@ -90492,7 +90492,7 @@
         <v>1009</v>
       </c>
       <c r="B1011">
-        <v>6285539</v>
+        <v>6285669</v>
       </c>
       <c r="C1011" t="s">
         <v>28</v>
@@ -90504,76 +90504,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F1011" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G1011" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1011">
         <v>1</v>
       </c>
       <c r="J1011" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1011">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L1011">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M1011">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N1011">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O1011">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P1011">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q1011">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1011">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S1011">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T1011">
         <v>2</v>
       </c>
       <c r="U1011">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V1011">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W1011">
         <v>-1</v>
       </c>
       <c r="X1011">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y1011">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z1011">
         <v>-1</v>
       </c>
       <c r="AA1011">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB1011">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1011">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1012" spans="1:29">
@@ -90937,7 +90937,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>6281811</v>
+        <v>6286300</v>
       </c>
       <c r="C1016" t="s">
         <v>28</v>
@@ -90949,76 +90949,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F1016" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G1016" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H1016">
         <v>1</v>
       </c>
       <c r="I1016">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1016" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1016">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L1016">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M1016">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N1016">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O1016">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P1016">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q1016">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1016">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S1016">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T1016">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1016">
+        <v>2.05</v>
+      </c>
+      <c r="V1016">
         <v>1.8</v>
       </c>
-      <c r="V1016">
-        <v>2</v>
-      </c>
       <c r="W1016">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X1016">
         <v>-1</v>
       </c>
       <c r="Y1016">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z1016">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA1016">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1016">
+        <v>-1</v>
+      </c>
+      <c r="AC1016">
         <v>0.8</v>
-      </c>
-      <c r="AC1016">
-        <v>-1</v>
       </c>
     </row>
     <row r="1017" spans="1:29">
@@ -91026,7 +91026,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>6286300</v>
+        <v>6281811</v>
       </c>
       <c r="C1017" t="s">
         <v>28</v>
@@ -91038,76 +91038,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F1017" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G1017" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H1017">
         <v>1</v>
       </c>
       <c r="I1017">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1017" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1017">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L1017">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M1017">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N1017">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O1017">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P1017">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q1017">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R1017">
+        <v>1.775</v>
+      </c>
+      <c r="S1017">
+        <v>2.025</v>
+      </c>
+      <c r="T1017">
+        <v>1.75</v>
+      </c>
+      <c r="U1017">
+        <v>1.8</v>
+      </c>
+      <c r="V1017">
+        <v>2</v>
+      </c>
+      <c r="W1017">
+        <v>-1</v>
+      </c>
+      <c r="X1017">
+        <v>-1</v>
+      </c>
+      <c r="Y1017">
         <v>1.9</v>
       </c>
-      <c r="S1017">
-        <v>1.95</v>
-      </c>
-      <c r="T1017">
-        <v>2.25</v>
-      </c>
-      <c r="U1017">
-        <v>2.05</v>
-      </c>
-      <c r="V1017">
-        <v>1.8</v>
-      </c>
-      <c r="W1017">
-        <v>0.7</v>
-      </c>
-      <c r="X1017">
-        <v>-1</v>
-      </c>
-      <c r="Y1017">
-        <v>-1</v>
-      </c>
       <c r="Z1017">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA1017">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB1017">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC1017">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1018" spans="1:29">
@@ -99481,7 +99481,7 @@
         <v>1110</v>
       </c>
       <c r="B1112">
-        <v>6343950</v>
+        <v>6285766</v>
       </c>
       <c r="C1112" t="s">
         <v>28</v>
@@ -99493,76 +99493,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F1112" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G1112" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1112" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1112">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L1112">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M1112">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N1112">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O1112">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P1112">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q1112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1112">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S1112">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T1112">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1112">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V1112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W1112">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X1112">
         <v>-1</v>
       </c>
       <c r="Y1112">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z1112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1112">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1113" spans="1:29">
@@ -99570,7 +99570,7 @@
         <v>1111</v>
       </c>
       <c r="B1113">
-        <v>6285766</v>
+        <v>6343950</v>
       </c>
       <c r="C1113" t="s">
         <v>28</v>
@@ -99582,76 +99582,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F1113" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1113" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="H1113">
+        <v>0</v>
+      </c>
+      <c r="I1113">
+        <v>2</v>
+      </c>
+      <c r="J1113" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1113">
+        <v>2.5</v>
+      </c>
+      <c r="L1113">
+        <v>2.9</v>
+      </c>
+      <c r="M1113">
+        <v>2.9</v>
+      </c>
+      <c r="N1113">
+        <v>2.3</v>
+      </c>
+      <c r="O1113">
         <v>3</v>
       </c>
-      <c r="I1113">
-        <v>1</v>
-      </c>
-      <c r="J1113" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1113">
-        <v>1.909</v>
-      </c>
-      <c r="L1113">
-        <v>3.1</v>
-      </c>
-      <c r="M1113">
-        <v>4</v>
-      </c>
-      <c r="N1113">
-        <v>1.909</v>
-      </c>
-      <c r="O1113">
-        <v>3.25</v>
-      </c>
       <c r="P1113">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q1113">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S1113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T1113">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1113">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V1113">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W1113">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X1113">
         <v>-1</v>
       </c>
       <c r="Y1113">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z1113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA1113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1113">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC1113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1114" spans="1:29">
@@ -99659,7 +99659,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>6355831</v>
+        <v>6326524</v>
       </c>
       <c r="C1114" t="s">
         <v>28</v>
@@ -99671,76 +99671,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F1114" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G1114" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H1114">
         <v>1</v>
       </c>
       <c r="I1114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1114" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1114">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L1114">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M1114">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N1114">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O1114">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P1114">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q1114">
         <v>-0.25</v>
       </c>
       <c r="R1114">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S1114">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T1114">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U1114">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V1114">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W1114">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X1114">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y1114">
         <v>-1</v>
       </c>
       <c r="Z1114">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA1114">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB1114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1114">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1115" spans="1:29">
@@ -99748,7 +99748,7 @@
         <v>1113</v>
       </c>
       <c r="B1115">
-        <v>6326524</v>
+        <v>6355831</v>
       </c>
       <c r="C1115" t="s">
         <v>28</v>
@@ -99760,76 +99760,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F1115" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G1115" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="H1115">
         <v>1</v>
       </c>
       <c r="I1115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1115" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1115">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L1115">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M1115">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N1115">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O1115">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P1115">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q1115">
         <v>-0.25</v>
       </c>
       <c r="R1115">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S1115">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T1115">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U1115">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V1115">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W1115">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X1115">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y1115">
         <v>-1</v>
       </c>
       <c r="Z1115">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1115">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB1115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1115">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1116" spans="1:29">
@@ -100638,7 +100638,7 @@
         <v>1123</v>
       </c>
       <c r="B1125">
-        <v>6390961</v>
+        <v>7258771</v>
       </c>
       <c r="C1125" t="s">
         <v>28</v>
@@ -100650,76 +100650,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F1125" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G1125" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H1125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1125">
         <v>1</v>
       </c>
       <c r="J1125" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1125">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L1125">
         <v>3</v>
       </c>
       <c r="M1125">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N1125">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="O1125">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P1125">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q1125">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1125">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S1125">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T1125">
         <v>1.75</v>
       </c>
       <c r="U1125">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V1125">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W1125">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X1125">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1125">
         <v>-1</v>
       </c>
       <c r="Z1125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA1125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1125">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC1125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1126" spans="1:29">
@@ -100727,7 +100727,7 @@
         <v>1124</v>
       </c>
       <c r="B1126">
-        <v>7258771</v>
+        <v>6390961</v>
       </c>
       <c r="C1126" t="s">
         <v>28</v>
@@ -100739,76 +100739,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F1126" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G1126" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H1126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1126">
         <v>1</v>
       </c>
       <c r="J1126" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1126">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L1126">
         <v>3</v>
       </c>
       <c r="M1126">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N1126">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O1126">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P1126">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q1126">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1126">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S1126">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T1126">
         <v>1.75</v>
       </c>
       <c r="U1126">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V1126">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W1126">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X1126">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1126">
         <v>-1</v>
       </c>
       <c r="Z1126">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA1126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1126">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC1126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1127" spans="1:29">
@@ -101261,7 +101261,7 @@
         <v>1130</v>
       </c>
       <c r="B1132">
-        <v>6571262</v>
+        <v>6537870</v>
       </c>
       <c r="C1132" t="s">
         <v>28</v>
@@ -101273,13 +101273,13 @@
         <v>45205.89583333334</v>
       </c>
       <c r="F1132" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G1132" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H1132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1132">
         <v>0</v>
@@ -101288,61 +101288,61 @@
         <v>70</v>
       </c>
       <c r="K1132">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L1132">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M1132">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="N1132">
+        <v>1.65</v>
+      </c>
+      <c r="O1132">
+        <v>3.6</v>
+      </c>
+      <c r="P1132">
+        <v>5.75</v>
+      </c>
+      <c r="Q1132">
+        <v>-0.75</v>
+      </c>
+      <c r="R1132">
+        <v>1.8</v>
+      </c>
+      <c r="S1132">
+        <v>2.05</v>
+      </c>
+      <c r="T1132">
+        <v>2.25</v>
+      </c>
+      <c r="U1132">
+        <v>1.9</v>
+      </c>
+      <c r="V1132">
         <v>1.95</v>
       </c>
-      <c r="O1132">
-        <v>3.25</v>
-      </c>
-      <c r="P1132">
-        <v>4.333</v>
-      </c>
-      <c r="Q1132">
+      <c r="W1132">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X1132">
+        <v>-1</v>
+      </c>
+      <c r="Y1132">
+        <v>-1</v>
+      </c>
+      <c r="Z1132">
+        <v>0.4</v>
+      </c>
+      <c r="AA1132">
         <v>-0.5</v>
       </c>
-      <c r="R1132">
-        <v>1.925</v>
-      </c>
-      <c r="S1132">
-        <v>1.875</v>
-      </c>
-      <c r="T1132">
-        <v>2</v>
-      </c>
-      <c r="U1132">
-        <v>1.775</v>
-      </c>
-      <c r="V1132">
-        <v>2.025</v>
-      </c>
-      <c r="W1132">
+      <c r="AB1132">
+        <v>-1</v>
+      </c>
+      <c r="AC1132">
         <v>0.95</v>
-      </c>
-      <c r="X1132">
-        <v>-1</v>
-      </c>
-      <c r="Y1132">
-        <v>-1</v>
-      </c>
-      <c r="Z1132">
-        <v>0.925</v>
-      </c>
-      <c r="AA1132">
-        <v>-1</v>
-      </c>
-      <c r="AB1132">
-        <v>0</v>
-      </c>
-      <c r="AC1132">
-        <v>-0</v>
       </c>
     </row>
     <row r="1133" spans="1:29">
@@ -101350,7 +101350,7 @@
         <v>1131</v>
       </c>
       <c r="B1133">
-        <v>6537870</v>
+        <v>6571262</v>
       </c>
       <c r="C1133" t="s">
         <v>28</v>
@@ -101362,13 +101362,13 @@
         <v>45205.89583333334</v>
       </c>
       <c r="F1133" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G1133" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1133">
         <v>0</v>
@@ -101377,43 +101377,43 @@
         <v>70</v>
       </c>
       <c r="K1133">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L1133">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M1133">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="N1133">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O1133">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P1133">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q1133">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1133">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S1133">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T1133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1133">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V1133">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W1133">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X1133">
         <v>-1</v>
@@ -101422,16 +101422,16 @@
         <v>-1</v>
       </c>
       <c r="Z1133">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA1133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1133">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1133">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1134" spans="1:29">
@@ -104999,7 +104999,7 @@
         <v>1172</v>
       </c>
       <c r="B1174">
-        <v>6619374</v>
+        <v>6615398</v>
       </c>
       <c r="C1174" t="s">
         <v>28</v>
@@ -105011,76 +105011,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F1174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1174" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1174" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1174">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L1174">
         <v>3</v>
       </c>
       <c r="M1174">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N1174">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O1174">
         <v>3.1</v>
       </c>
       <c r="P1174">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q1174">
         <v>-0.25</v>
       </c>
       <c r="R1174">
+        <v>1.9</v>
+      </c>
+      <c r="S1174">
+        <v>1.95</v>
+      </c>
+      <c r="T1174">
+        <v>2</v>
+      </c>
+      <c r="U1174">
+        <v>2.025</v>
+      </c>
+      <c r="V1174">
+        <v>1.825</v>
+      </c>
+      <c r="W1174">
+        <v>-1</v>
+      </c>
+      <c r="X1174">
         <v>2.1</v>
       </c>
-      <c r="S1174">
-        <v>1.775</v>
-      </c>
-      <c r="T1174">
-        <v>2</v>
-      </c>
-      <c r="U1174">
-        <v>2.05</v>
-      </c>
-      <c r="V1174">
-        <v>1.8</v>
-      </c>
-      <c r="W1174">
-        <v>-1</v>
-      </c>
-      <c r="X1174">
-        <v>-1</v>
-      </c>
       <c r="Y1174">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1174">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB1174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC1174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1175" spans="1:29">
@@ -105088,7 +105088,7 @@
         <v>1173</v>
       </c>
       <c r="B1175">
-        <v>6615398</v>
+        <v>6619374</v>
       </c>
       <c r="C1175" t="s">
         <v>28</v>
@@ -105100,76 +105100,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F1175" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1175" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H1175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1175" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1175">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L1175">
         <v>3</v>
       </c>
       <c r="M1175">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N1175">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O1175">
         <v>3.1</v>
       </c>
       <c r="P1175">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q1175">
         <v>-0.25</v>
       </c>
       <c r="R1175">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S1175">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T1175">
         <v>2</v>
       </c>
       <c r="U1175">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V1175">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W1175">
         <v>-1</v>
       </c>
       <c r="X1175">
+        <v>-1</v>
+      </c>
+      <c r="Y1175">
         <v>2.1</v>
       </c>
-      <c r="Y1175">
-        <v>-1</v>
-      </c>
       <c r="Z1175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1175">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC1175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1176" spans="1:29">
@@ -107313,7 +107313,7 @@
         <v>1198</v>
       </c>
       <c r="B1200">
-        <v>6693031</v>
+        <v>6689425</v>
       </c>
       <c r="C1200" t="s">
         <v>28</v>
@@ -107325,58 +107325,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F1200" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="G1200" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H1200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1200" t="s">
         <v>70</v>
       </c>
       <c r="K1200">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L1200">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M1200">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="N1200">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="O1200">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P1200">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q1200">
         <v>-1</v>
       </c>
       <c r="R1200">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S1200">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T1200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U1200">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V1200">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W1200">
-        <v>0.615</v>
+        <v>0.45</v>
       </c>
       <c r="X1200">
         <v>-1</v>
@@ -107385,16 +107385,16 @@
         <v>-1</v>
       </c>
       <c r="Z1200">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA1200">
         <v>-1</v>
       </c>
       <c r="AB1200">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1200">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="1201" spans="1:29">
@@ -107402,7 +107402,7 @@
         <v>1199</v>
       </c>
       <c r="B1201">
-        <v>6693028</v>
+        <v>6689427</v>
       </c>
       <c r="C1201" t="s">
         <v>28</v>
@@ -107414,76 +107414,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F1201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1201" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="H1201">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1201">
         <v>0</v>
       </c>
       <c r="J1201" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1201">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L1201">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M1201">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N1201">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O1201">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P1201">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q1201">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1201">
+        <v>2.05</v>
+      </c>
+      <c r="S1201">
+        <v>1.75</v>
+      </c>
+      <c r="T1201">
+        <v>2.25</v>
+      </c>
+      <c r="U1201">
+        <v>1.825</v>
+      </c>
+      <c r="V1201">
         <v>1.975</v>
       </c>
-      <c r="S1201">
-        <v>1.875</v>
-      </c>
-      <c r="T1201">
-        <v>2</v>
-      </c>
-      <c r="U1201">
-        <v>1.775</v>
-      </c>
-      <c r="V1201">
-        <v>2.1</v>
-      </c>
       <c r="W1201">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X1201">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y1201">
         <v>-1</v>
       </c>
       <c r="Z1201">
+        <v>-0.5</v>
+      </c>
+      <c r="AA1201">
+        <v>0.375</v>
+      </c>
+      <c r="AB1201">
+        <v>-1</v>
+      </c>
+      <c r="AC1201">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA1201">
-        <v>-1</v>
-      </c>
-      <c r="AB1201">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC1201">
-        <v>-1</v>
       </c>
     </row>
     <row r="1202" spans="1:29">
@@ -107491,7 +107491,7 @@
         <v>1200</v>
       </c>
       <c r="B1202">
-        <v>6689429</v>
+        <v>6689428</v>
       </c>
       <c r="C1202" t="s">
         <v>28</v>
@@ -107503,76 +107503,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F1202" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G1202" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H1202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1202" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1202">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="L1202">
+        <v>3.5</v>
+      </c>
+      <c r="M1202">
+        <v>6</v>
+      </c>
+      <c r="N1202">
+        <v>1.615</v>
+      </c>
+      <c r="O1202">
+        <v>3.8</v>
+      </c>
+      <c r="P1202">
+        <v>5.75</v>
+      </c>
+      <c r="Q1202">
+        <v>-0.75</v>
+      </c>
+      <c r="R1202">
+        <v>1.825</v>
+      </c>
+      <c r="S1202">
+        <v>1.975</v>
+      </c>
+      <c r="T1202">
+        <v>2.5</v>
+      </c>
+      <c r="U1202">
+        <v>2</v>
+      </c>
+      <c r="V1202">
+        <v>1.8</v>
+      </c>
+      <c r="W1202">
+        <v>-1</v>
+      </c>
+      <c r="X1202">
+        <v>-1</v>
+      </c>
+      <c r="Y1202">
         <v>4.75</v>
       </c>
-      <c r="M1202">
-        <v>1.363</v>
-      </c>
-      <c r="N1202">
-        <v>6.5</v>
-      </c>
-      <c r="O1202">
-        <v>4.2</v>
-      </c>
-      <c r="P1202">
-        <v>1.45</v>
-      </c>
-      <c r="Q1202">
-        <v>1</v>
-      </c>
-      <c r="R1202">
-        <v>2</v>
-      </c>
-      <c r="S1202">
-        <v>1.8</v>
-      </c>
-      <c r="T1202">
-        <v>2.25</v>
-      </c>
-      <c r="U1202">
-        <v>1.9</v>
-      </c>
-      <c r="V1202">
-        <v>1.9</v>
-      </c>
-      <c r="W1202">
-        <v>5.5</v>
-      </c>
-      <c r="X1202">
-        <v>-1</v>
-      </c>
-      <c r="Y1202">
-        <v>-1</v>
-      </c>
       <c r="Z1202">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA1202">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB1202">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC1202">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1203" spans="1:29">
@@ -107580,7 +107580,7 @@
         <v>1201</v>
       </c>
       <c r="B1203">
-        <v>6689428</v>
+        <v>6689429</v>
       </c>
       <c r="C1203" t="s">
         <v>28</v>
@@ -107592,76 +107592,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F1203" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G1203" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1203">
+        <v>2</v>
+      </c>
+      <c r="J1203" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1203">
+        <v>8</v>
+      </c>
+      <c r="L1203">
+        <v>4.75</v>
+      </c>
+      <c r="M1203">
+        <v>1.363</v>
+      </c>
+      <c r="N1203">
+        <v>6.5</v>
+      </c>
+      <c r="O1203">
+        <v>4.2</v>
+      </c>
+      <c r="P1203">
+        <v>1.45</v>
+      </c>
+      <c r="Q1203">
         <v>1</v>
       </c>
-      <c r="J1203" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1203">
-        <v>1.615</v>
-      </c>
-      <c r="L1203">
-        <v>3.5</v>
-      </c>
-      <c r="M1203">
-        <v>6</v>
-      </c>
-      <c r="N1203">
-        <v>1.615</v>
-      </c>
-      <c r="O1203">
-        <v>3.8</v>
-      </c>
-      <c r="P1203">
-        <v>5.75</v>
-      </c>
-      <c r="Q1203">
-        <v>-0.75</v>
-      </c>
       <c r="R1203">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S1203">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T1203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U1203">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V1203">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W1203">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X1203">
         <v>-1</v>
       </c>
       <c r="Y1203">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z1203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA1203">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1203">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC1203">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1204" spans="1:29">
@@ -107669,7 +107669,7 @@
         <v>1202</v>
       </c>
       <c r="B1204">
-        <v>6689427</v>
+        <v>6693031</v>
       </c>
       <c r="C1204" t="s">
         <v>28</v>
@@ -107681,76 +107681,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F1204" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G1204" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1204" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1204">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L1204">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M1204">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N1204">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O1204">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P1204">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q1204">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1204">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S1204">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T1204">
         <v>2.25</v>
       </c>
       <c r="U1204">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V1204">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W1204">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X1204">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y1204">
         <v>-1</v>
       </c>
       <c r="Z1204">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA1204">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB1204">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC1204">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1205" spans="1:29">
@@ -107758,7 +107758,7 @@
         <v>1203</v>
       </c>
       <c r="B1205">
-        <v>6689425</v>
+        <v>6693029</v>
       </c>
       <c r="C1205" t="s">
         <v>28</v>
@@ -107770,13 +107770,13 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F1205" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1205" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H1205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1205">
         <v>0</v>
@@ -107785,43 +107785,43 @@
         <v>70</v>
       </c>
       <c r="K1205">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L1205">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M1205">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="N1205">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="O1205">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="P1205">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q1205">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R1205">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S1205">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T1205">
         <v>2.5</v>
       </c>
       <c r="U1205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V1205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W1205">
-        <v>0.45</v>
+        <v>0.333</v>
       </c>
       <c r="X1205">
         <v>-1</v>
@@ -107830,16 +107830,16 @@
         <v>-1</v>
       </c>
       <c r="Z1205">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA1205">
         <v>-1</v>
       </c>
       <c r="AB1205">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC1205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1206" spans="1:29">
@@ -107936,7 +107936,7 @@
         <v>1205</v>
       </c>
       <c r="B1207">
-        <v>6693029</v>
+        <v>6693028</v>
       </c>
       <c r="C1207" t="s">
         <v>28</v>
@@ -107948,10 +107948,10 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F1207" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G1207" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H1207">
         <v>3</v>
@@ -107963,43 +107963,43 @@
         <v>70</v>
       </c>
       <c r="K1207">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L1207">
+        <v>3.5</v>
+      </c>
+      <c r="M1207">
         <v>4</v>
       </c>
-      <c r="M1207">
-        <v>8</v>
-      </c>
       <c r="N1207">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="O1207">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="P1207">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q1207">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1207">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S1207">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T1207">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U1207">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V1207">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W1207">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X1207">
         <v>-1</v>
@@ -108008,13 +108008,13 @@
         <v>-1</v>
       </c>
       <c r="Z1207">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1207">
         <v>-1</v>
       </c>
       <c r="AB1207">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC1207">
         <v>-1</v>

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -56583,7 +56583,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>4644863</v>
+        <v>4643580</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56595,76 +56595,76 @@
         <v>44761.79166666666</v>
       </c>
       <c r="F630" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G630" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H630">
         <v>1</v>
       </c>
       <c r="I630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J630" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K630">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="L630">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M630">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N630">
+        <v>1.95</v>
+      </c>
+      <c r="O630">
+        <v>3.4</v>
+      </c>
+      <c r="P630">
         <v>4.2</v>
       </c>
-      <c r="O630">
-        <v>3.1</v>
-      </c>
-      <c r="P630">
-        <v>2.05</v>
-      </c>
       <c r="Q630">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R630">
+        <v>1.9</v>
+      </c>
+      <c r="S630">
+        <v>1.9</v>
+      </c>
+      <c r="T630">
+        <v>2.25</v>
+      </c>
+      <c r="U630">
+        <v>2.025</v>
+      </c>
+      <c r="V630">
         <v>1.775</v>
       </c>
-      <c r="S630">
-        <v>2.025</v>
-      </c>
-      <c r="T630">
-        <v>1.75</v>
-      </c>
-      <c r="U630">
-        <v>1.8</v>
-      </c>
-      <c r="V630">
-        <v>2</v>
-      </c>
       <c r="W630">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X630">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y630">
         <v>-1</v>
       </c>
       <c r="Z630">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA630">
+        <v>-1</v>
+      </c>
+      <c r="AB630">
+        <v>-1</v>
+      </c>
+      <c r="AC630">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA630">
-        <v>-1</v>
-      </c>
-      <c r="AB630">
-        <v>0.4</v>
-      </c>
-      <c r="AC630">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="631" spans="1:29">
@@ -56672,7 +56672,7 @@
         <v>629</v>
       </c>
       <c r="B631">
-        <v>4644550</v>
+        <v>4643581</v>
       </c>
       <c r="C631" t="s">
         <v>28</v>
@@ -56684,76 +56684,76 @@
         <v>44761.79166666666</v>
       </c>
       <c r="F631" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G631" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="H631">
         <v>1</v>
       </c>
       <c r="I631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J631" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K631">
-        <v>2.5</v>
+        <v>1.615</v>
       </c>
       <c r="L631">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M631">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="N631">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O631">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P631">
-        <v>2.625</v>
+        <v>6</v>
       </c>
       <c r="Q631">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R631">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="S631">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="T631">
         <v>2</v>
       </c>
       <c r="U631">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V631">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W631">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X631">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y631">
         <v>-1</v>
       </c>
       <c r="Z631">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA631">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB631">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC631">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="632" spans="1:29">
@@ -56761,7 +56761,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>4643581</v>
+        <v>4644550</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56773,76 +56773,76 @@
         <v>44761.79166666666</v>
       </c>
       <c r="F632" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G632" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H632">
         <v>1</v>
       </c>
       <c r="I632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J632" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K632">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L632">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M632">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="N632">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="O632">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P632">
-        <v>6</v>
+        <v>2.625</v>
       </c>
       <c r="Q632">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R632">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S632">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T632">
         <v>2</v>
       </c>
       <c r="U632">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V632">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W632">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X632">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y632">
         <v>-1</v>
       </c>
       <c r="Z632">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA632">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB632">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC632">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -56850,7 +56850,7 @@
         <v>631</v>
       </c>
       <c r="B633">
-        <v>4643580</v>
+        <v>4644863</v>
       </c>
       <c r="C633" t="s">
         <v>28</v>
@@ -56862,76 +56862,76 @@
         <v>44761.79166666666</v>
       </c>
       <c r="F633" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G633" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H633">
         <v>1</v>
       </c>
       <c r="I633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J633" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K633">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="L633">
+        <v>3</v>
+      </c>
+      <c r="M633">
+        <v>2.15</v>
+      </c>
+      <c r="N633">
+        <v>4.2</v>
+      </c>
+      <c r="O633">
         <v>3.1</v>
       </c>
-      <c r="M633">
-        <v>3.75</v>
-      </c>
-      <c r="N633">
-        <v>1.95</v>
-      </c>
-      <c r="O633">
-        <v>3.4</v>
-      </c>
       <c r="P633">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q633">
+        <v>0.5</v>
+      </c>
+      <c r="R633">
+        <v>1.775</v>
+      </c>
+      <c r="S633">
+        <v>2.025</v>
+      </c>
+      <c r="T633">
+        <v>1.75</v>
+      </c>
+      <c r="U633">
+        <v>1.8</v>
+      </c>
+      <c r="V633">
+        <v>2</v>
+      </c>
+      <c r="W633">
+        <v>-1</v>
+      </c>
+      <c r="X633">
+        <v>2.1</v>
+      </c>
+      <c r="Y633">
+        <v>-1</v>
+      </c>
+      <c r="Z633">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA633">
+        <v>-1</v>
+      </c>
+      <c r="AB633">
+        <v>0.4</v>
+      </c>
+      <c r="AC633">
         <v>-0.5</v>
-      </c>
-      <c r="R633">
-        <v>1.9</v>
-      </c>
-      <c r="S633">
-        <v>1.9</v>
-      </c>
-      <c r="T633">
-        <v>2.25</v>
-      </c>
-      <c r="U633">
-        <v>2.025</v>
-      </c>
-      <c r="V633">
-        <v>1.775</v>
-      </c>
-      <c r="W633">
-        <v>0.95</v>
-      </c>
-      <c r="X633">
-        <v>-1</v>
-      </c>
-      <c r="Y633">
-        <v>-1</v>
-      </c>
-      <c r="Z633">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA633">
-        <v>-1</v>
-      </c>
-      <c r="AB633">
-        <v>-1</v>
-      </c>
-      <c r="AC633">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="634" spans="1:29">
@@ -57028,7 +57028,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>5314604</v>
+        <v>4643636</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -57040,76 +57040,76 @@
         <v>44762.79166666666</v>
       </c>
       <c r="F635" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G635" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635">
         <v>0</v>
       </c>
       <c r="J635" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K635">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L635">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M635">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N635">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O635">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P635">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q635">
         <v>-0.5</v>
       </c>
       <c r="R635">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S635">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T635">
         <v>2</v>
       </c>
       <c r="U635">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V635">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W635">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X635">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA635">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB635">
         <v>-1</v>
       </c>
       <c r="AC635">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="636" spans="1:29">
@@ -57117,7 +57117,7 @@
         <v>634</v>
       </c>
       <c r="B636">
-        <v>4643636</v>
+        <v>5314604</v>
       </c>
       <c r="C636" t="s">
         <v>28</v>
@@ -57129,76 +57129,76 @@
         <v>44762.79166666666</v>
       </c>
       <c r="F636" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G636" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I636">
         <v>0</v>
       </c>
       <c r="J636" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K636">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L636">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M636">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N636">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O636">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P636">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="Q636">
         <v>-0.5</v>
       </c>
       <c r="R636">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S636">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T636">
         <v>2</v>
       </c>
       <c r="U636">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V636">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W636">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X636">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y636">
         <v>-1</v>
       </c>
       <c r="Z636">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA636">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB636">
         <v>-1</v>
       </c>
       <c r="AC636">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:29">
@@ -58096,7 +58096,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>4643944</v>
+        <v>4646843</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58108,46 +58108,46 @@
         <v>44767.79166666666</v>
       </c>
       <c r="F647" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G647" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J647" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K647">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L647">
         <v>3</v>
       </c>
       <c r="M647">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N647">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O647">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P647">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q647">
         <v>-0.25</v>
       </c>
       <c r="R647">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S647">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T647">
         <v>1.75</v>
@@ -58156,28 +58156,28 @@
         <v>1.775</v>
       </c>
       <c r="V647">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W647">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X647">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y647">
         <v>-1</v>
       </c>
       <c r="Z647">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA647">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB647">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC647">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -58185,7 +58185,7 @@
         <v>646</v>
       </c>
       <c r="B648">
-        <v>4646843</v>
+        <v>4643944</v>
       </c>
       <c r="C648" t="s">
         <v>28</v>
@@ -58197,46 +58197,46 @@
         <v>44767.79166666666</v>
       </c>
       <c r="F648" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G648" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J648" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K648">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L648">
         <v>3</v>
       </c>
       <c r="M648">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N648">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O648">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P648">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q648">
         <v>-0.25</v>
       </c>
       <c r="R648">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S648">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T648">
         <v>1.75</v>
@@ -58245,28 +58245,28 @@
         <v>1.775</v>
       </c>
       <c r="V648">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W648">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X648">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y648">
         <v>-1</v>
       </c>
       <c r="Z648">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA648">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB648">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC648">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="649" spans="1:29">
@@ -61033,7 +61033,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>4651162</v>
+        <v>4683955</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -61045,58 +61045,58 @@
         <v>44785.89583333334</v>
       </c>
       <c r="F680" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G680" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H680">
         <v>2</v>
       </c>
       <c r="I680">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J680" t="s">
         <v>70</v>
       </c>
       <c r="K680">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L680">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M680">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="N680">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O680">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P680">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q680">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R680">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S680">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T680">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U680">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V680">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W680">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X680">
         <v>-1</v>
@@ -61105,16 +61105,16 @@
         <v>-1</v>
       </c>
       <c r="Z680">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA680">
         <v>-1</v>
       </c>
       <c r="AB680">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC680">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61122,7 +61122,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>4683955</v>
+        <v>4651162</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61134,58 +61134,58 @@
         <v>44785.89583333334</v>
       </c>
       <c r="F681" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G681" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H681">
         <v>2</v>
       </c>
       <c r="I681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J681" t="s">
         <v>70</v>
       </c>
       <c r="K681">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L681">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M681">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N681">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O681">
+        <v>2.9</v>
+      </c>
+      <c r="P681">
         <v>3.6</v>
       </c>
-      <c r="P681">
-        <v>5.5</v>
-      </c>
       <c r="Q681">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R681">
+        <v>1.95</v>
+      </c>
+      <c r="S681">
+        <v>1.85</v>
+      </c>
+      <c r="T681">
+        <v>2</v>
+      </c>
+      <c r="U681">
+        <v>2</v>
+      </c>
+      <c r="V681">
         <v>1.8</v>
       </c>
-      <c r="S681">
-        <v>2</v>
-      </c>
-      <c r="T681">
-        <v>2.25</v>
-      </c>
-      <c r="U681">
-        <v>1.975</v>
-      </c>
-      <c r="V681">
-        <v>1.825</v>
-      </c>
       <c r="W681">
-        <v>0.6659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X681">
         <v>-1</v>
@@ -61194,16 +61194,16 @@
         <v>-1</v>
       </c>
       <c r="Z681">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA681">
         <v>-1</v>
       </c>
       <c r="AB681">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC681">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682" spans="1:29">
@@ -63703,7 +63703,7 @@
         <v>708</v>
       </c>
       <c r="B710">
-        <v>4713927</v>
+        <v>4726845</v>
       </c>
       <c r="C710" t="s">
         <v>28</v>
@@ -63715,76 +63715,76 @@
         <v>44803.79166666666</v>
       </c>
       <c r="F710" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G710" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H710">
         <v>1</v>
       </c>
       <c r="I710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J710" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K710">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="L710">
         <v>3.1</v>
       </c>
       <c r="M710">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="N710">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="O710">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P710">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q710">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R710">
+        <v>1.975</v>
+      </c>
+      <c r="S710">
         <v>1.825</v>
       </c>
-      <c r="S710">
-        <v>1.975</v>
-      </c>
       <c r="T710">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U710">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V710">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W710">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X710">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y710">
         <v>-1</v>
       </c>
       <c r="Z710">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AA710">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB710">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC710">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="711" spans="1:29">
@@ -63792,7 +63792,7 @@
         <v>709</v>
       </c>
       <c r="B711">
-        <v>4726845</v>
+        <v>4713927</v>
       </c>
       <c r="C711" t="s">
         <v>28</v>
@@ -63804,76 +63804,76 @@
         <v>44803.79166666666</v>
       </c>
       <c r="F711" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G711" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H711">
         <v>1</v>
       </c>
       <c r="I711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J711" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K711">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="L711">
         <v>3.1</v>
       </c>
       <c r="M711">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="N711">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="O711">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P711">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q711">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R711">
+        <v>1.825</v>
+      </c>
+      <c r="S711">
         <v>1.975</v>
       </c>
-      <c r="S711">
+      <c r="T711">
+        <v>1.75</v>
+      </c>
+      <c r="U711">
+        <v>1.975</v>
+      </c>
+      <c r="V711">
         <v>1.825</v>
       </c>
-      <c r="T711">
-        <v>2</v>
-      </c>
-      <c r="U711">
-        <v>1.775</v>
-      </c>
-      <c r="V711">
-        <v>2.025</v>
-      </c>
       <c r="W711">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X711">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y711">
         <v>-1</v>
       </c>
       <c r="Z711">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA711">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB711">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC711">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="712" spans="1:29">
@@ -64059,7 +64059,7 @@
         <v>712</v>
       </c>
       <c r="B714">
-        <v>4646848</v>
+        <v>4749110</v>
       </c>
       <c r="C714" t="s">
         <v>28</v>
@@ -64071,10 +64071,10 @@
         <v>44803.89583333334</v>
       </c>
       <c r="F714" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="G714" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H714">
         <v>2</v>
@@ -64086,43 +64086,43 @@
         <v>70</v>
       </c>
       <c r="K714">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="L714">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M714">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="N714">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="O714">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P714">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q714">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R714">
+        <v>1.85</v>
+      </c>
+      <c r="S714">
         <v>1.95</v>
       </c>
-      <c r="S714">
-        <v>1.9</v>
-      </c>
       <c r="T714">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U714">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V714">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W714">
-        <v>2.8</v>
+        <v>0.833</v>
       </c>
       <c r="X714">
         <v>-1</v>
@@ -64131,16 +64131,16 @@
         <v>-1</v>
       </c>
       <c r="Z714">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA714">
         <v>-1</v>
       </c>
       <c r="AB714">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC714">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="715" spans="1:29">
@@ -64148,7 +64148,7 @@
         <v>713</v>
       </c>
       <c r="B715">
-        <v>4714309</v>
+        <v>4646848</v>
       </c>
       <c r="C715" t="s">
         <v>28</v>
@@ -64160,13 +64160,13 @@
         <v>44803.89583333334</v>
       </c>
       <c r="F715" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G715" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I715">
         <v>0</v>
@@ -64175,43 +64175,43 @@
         <v>70</v>
       </c>
       <c r="K715">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="L715">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M715">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N715">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="O715">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P715">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q715">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R715">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S715">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T715">
         <v>1.75</v>
       </c>
       <c r="U715">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V715">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W715">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="X715">
         <v>-1</v>
@@ -64220,16 +64220,16 @@
         <v>-1</v>
       </c>
       <c r="Z715">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA715">
         <v>-1</v>
       </c>
       <c r="AB715">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC715">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="716" spans="1:29">
@@ -64237,7 +64237,7 @@
         <v>714</v>
       </c>
       <c r="B716">
-        <v>4749110</v>
+        <v>4714309</v>
       </c>
       <c r="C716" t="s">
         <v>28</v>
@@ -64249,13 +64249,13 @@
         <v>44803.89583333334</v>
       </c>
       <c r="F716" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="G716" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I716">
         <v>0</v>
@@ -64264,43 +64264,43 @@
         <v>70</v>
       </c>
       <c r="K716">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="L716">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M716">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N716">
-        <v>1.833</v>
+        <v>2.75</v>
       </c>
       <c r="O716">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P716">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q716">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R716">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S716">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T716">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U716">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V716">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W716">
-        <v>0.833</v>
+        <v>1.75</v>
       </c>
       <c r="X716">
         <v>-1</v>
@@ -64309,16 +64309,16 @@
         <v>-1</v>
       </c>
       <c r="Z716">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA716">
         <v>-1</v>
       </c>
       <c r="AB716">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC716">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:29">
@@ -65038,7 +65038,7 @@
         <v>723</v>
       </c>
       <c r="B725">
-        <v>4735911</v>
+        <v>4780316</v>
       </c>
       <c r="C725" t="s">
         <v>28</v>
@@ -65050,58 +65050,58 @@
         <v>44807.79166666666</v>
       </c>
       <c r="F725" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G725" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H725">
         <v>3</v>
       </c>
       <c r="I725">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J725" t="s">
         <v>70</v>
       </c>
       <c r="K725">
+        <v>1.533</v>
+      </c>
+      <c r="L725">
+        <v>3.75</v>
+      </c>
+      <c r="M725">
+        <v>7.5</v>
+      </c>
+      <c r="N725">
+        <v>1.45</v>
+      </c>
+      <c r="O725">
+        <v>4</v>
+      </c>
+      <c r="P725">
+        <v>8</v>
+      </c>
+      <c r="Q725">
+        <v>-1</v>
+      </c>
+      <c r="R725">
+        <v>1.75</v>
+      </c>
+      <c r="S725">
+        <v>2.05</v>
+      </c>
+      <c r="T725">
         <v>2.25</v>
       </c>
-      <c r="L725">
-        <v>3</v>
-      </c>
-      <c r="M725">
-        <v>3.6</v>
-      </c>
-      <c r="N725">
-        <v>2.3</v>
-      </c>
-      <c r="O725">
-        <v>2.8</v>
-      </c>
-      <c r="P725">
-        <v>3.8</v>
-      </c>
-      <c r="Q725">
-        <v>-0.25</v>
-      </c>
-      <c r="R725">
-        <v>1.875</v>
-      </c>
-      <c r="S725">
-        <v>1.925</v>
-      </c>
-      <c r="T725">
-        <v>1.75</v>
-      </c>
       <c r="U725">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V725">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W725">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="X725">
         <v>-1</v>
@@ -65110,13 +65110,13 @@
         <v>-1</v>
       </c>
       <c r="Z725">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA725">
         <v>-1</v>
       </c>
       <c r="AB725">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC725">
         <v>-1</v>
@@ -65127,7 +65127,7 @@
         <v>724</v>
       </c>
       <c r="B726">
-        <v>4780316</v>
+        <v>4735911</v>
       </c>
       <c r="C726" t="s">
         <v>28</v>
@@ -65139,58 +65139,58 @@
         <v>44807.79166666666</v>
       </c>
       <c r="F726" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G726" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H726">
         <v>3</v>
       </c>
       <c r="I726">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J726" t="s">
         <v>70</v>
       </c>
       <c r="K726">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="L726">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M726">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N726">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O726">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P726">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="Q726">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R726">
+        <v>1.875</v>
+      </c>
+      <c r="S726">
+        <v>1.925</v>
+      </c>
+      <c r="T726">
         <v>1.75</v>
       </c>
-      <c r="S726">
-        <v>2.05</v>
-      </c>
-      <c r="T726">
-        <v>2.25</v>
-      </c>
       <c r="U726">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V726">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W726">
-        <v>0.45</v>
+        <v>1.3</v>
       </c>
       <c r="X726">
         <v>-1</v>
@@ -65199,13 +65199,13 @@
         <v>-1</v>
       </c>
       <c r="Z726">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA726">
         <v>-1</v>
       </c>
       <c r="AB726">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC726">
         <v>-1</v>
@@ -69221,7 +69221,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>5686217</v>
+        <v>4992221</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69233,59 +69233,59 @@
         <v>44838.79166666666</v>
       </c>
       <c r="F772" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G772" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H772">
         <v>2</v>
       </c>
       <c r="I772">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J772" t="s">
         <v>70</v>
       </c>
       <c r="K772">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L772">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M772">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N772">
+        <v>2.3</v>
+      </c>
+      <c r="O772">
+        <v>2.875</v>
+      </c>
+      <c r="P772">
+        <v>3.75</v>
+      </c>
+      <c r="Q772">
+        <v>-0.25</v>
+      </c>
+      <c r="R772">
+        <v>1.925</v>
+      </c>
+      <c r="S772">
+        <v>1.875</v>
+      </c>
+      <c r="T772">
+        <v>1.75</v>
+      </c>
+      <c r="U772">
+        <v>1.75</v>
+      </c>
+      <c r="V772">
+        <v>2.05</v>
+      </c>
+      <c r="W772">
         <v>1.3</v>
       </c>
-      <c r="O772">
-        <v>4.5</v>
-      </c>
-      <c r="P772">
-        <v>13</v>
-      </c>
-      <c r="Q772">
-        <v>-1.25</v>
-      </c>
-      <c r="R772">
-        <v>1.775</v>
-      </c>
-      <c r="S772">
-        <v>2.025</v>
-      </c>
-      <c r="T772">
-        <v>2</v>
-      </c>
-      <c r="U772">
-        <v>1.825</v>
-      </c>
-      <c r="V772">
-        <v>1.975</v>
-      </c>
-      <c r="W772">
-        <v>0.3</v>
-      </c>
       <c r="X772">
         <v>-1</v>
       </c>
@@ -69293,16 +69293,16 @@
         <v>-1</v>
       </c>
       <c r="Z772">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA772">
         <v>-1</v>
       </c>
       <c r="AB772">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC772">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69310,7 +69310,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>4992222</v>
+        <v>4999957</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69322,55 +69322,55 @@
         <v>44838.79166666666</v>
       </c>
       <c r="F773" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G773" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J773" t="s">
         <v>71</v>
       </c>
       <c r="K773">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="L773">
         <v>2.8</v>
       </c>
       <c r="M773">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="N773">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="O773">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P773">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q773">
         <v>0</v>
       </c>
       <c r="R773">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S773">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T773">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U773">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V773">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W773">
         <v>-1</v>
@@ -69379,19 +69379,19 @@
         <v>-1</v>
       </c>
       <c r="Y773">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="Z773">
         <v>-1</v>
       </c>
       <c r="AA773">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB773">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC773">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -69399,7 +69399,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>4999957</v>
+        <v>4999959</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69411,76 +69411,76 @@
         <v>44838.79166666666</v>
       </c>
       <c r="F774" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G774" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I774">
+        <v>0</v>
+      </c>
+      <c r="J774" t="s">
+        <v>70</v>
+      </c>
+      <c r="K774">
+        <v>2.2</v>
+      </c>
+      <c r="L774">
         <v>3</v>
       </c>
-      <c r="J774" t="s">
-        <v>71</v>
-      </c>
-      <c r="K774">
-        <v>2.875</v>
-      </c>
-      <c r="L774">
-        <v>2.8</v>
-      </c>
       <c r="M774">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N774">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="O774">
         <v>3</v>
       </c>
       <c r="P774">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q774">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R774">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S774">
+        <v>1.925</v>
+      </c>
+      <c r="T774">
+        <v>1.75</v>
+      </c>
+      <c r="U774">
         <v>1.8</v>
       </c>
-      <c r="T774">
-        <v>2</v>
-      </c>
-      <c r="U774">
-        <v>1.925</v>
-      </c>
       <c r="V774">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W774">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X774">
         <v>-1</v>
       </c>
       <c r="Y774">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z774">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA774">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB774">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC774">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -69488,7 +69488,7 @@
         <v>773</v>
       </c>
       <c r="B775">
-        <v>4999959</v>
+        <v>4992222</v>
       </c>
       <c r="C775" t="s">
         <v>28</v>
@@ -69500,46 +69500,46 @@
         <v>44838.79166666666</v>
       </c>
       <c r="F775" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G775" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H775">
+        <v>0</v>
+      </c>
+      <c r="I775">
         <v>1</v>
       </c>
-      <c r="I775">
-        <v>0</v>
-      </c>
       <c r="J775" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K775">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L775">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M775">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N775">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O775">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P775">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q775">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R775">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S775">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T775">
         <v>1.75</v>
@@ -69551,19 +69551,19 @@
         <v>2</v>
       </c>
       <c r="W775">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X775">
         <v>-1</v>
       </c>
       <c r="Y775">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z775">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA775">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB775">
         <v>-1</v>
@@ -69577,7 +69577,7 @@
         <v>774</v>
       </c>
       <c r="B776">
-        <v>4992221</v>
+        <v>5686217</v>
       </c>
       <c r="C776" t="s">
         <v>28</v>
@@ -69589,58 +69589,58 @@
         <v>44838.79166666666</v>
       </c>
       <c r="F776" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G776" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H776">
         <v>2</v>
       </c>
       <c r="I776">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J776" t="s">
         <v>70</v>
       </c>
       <c r="K776">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L776">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M776">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="N776">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="O776">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P776">
-        <v>3.75</v>
+        <v>13</v>
       </c>
       <c r="Q776">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R776">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S776">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T776">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U776">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V776">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W776">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="X776">
         <v>-1</v>
@@ -69649,16 +69649,16 @@
         <v>-1</v>
       </c>
       <c r="Z776">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA776">
         <v>-1</v>
       </c>
       <c r="AB776">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC776">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="777" spans="1:29">
@@ -69666,7 +69666,7 @@
         <v>775</v>
       </c>
       <c r="B777">
-        <v>4996044</v>
+        <v>4999956</v>
       </c>
       <c r="C777" t="s">
         <v>28</v>
@@ -69678,40 +69678,40 @@
         <v>44838.89583333334</v>
       </c>
       <c r="F777" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G777" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H777">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I777">
+        <v>1</v>
+      </c>
+      <c r="J777" t="s">
+        <v>72</v>
+      </c>
+      <c r="K777">
+        <v>2.6</v>
+      </c>
+      <c r="L777">
+        <v>2.9</v>
+      </c>
+      <c r="M777">
+        <v>2.8</v>
+      </c>
+      <c r="N777">
+        <v>2.875</v>
+      </c>
+      <c r="O777">
         <v>3</v>
       </c>
-      <c r="J777" t="s">
-        <v>70</v>
-      </c>
-      <c r="K777">
-        <v>1.95</v>
-      </c>
-      <c r="L777">
-        <v>3.2</v>
-      </c>
-      <c r="M777">
-        <v>4</v>
-      </c>
-      <c r="N777">
-        <v>1.909</v>
-      </c>
-      <c r="O777">
-        <v>3.3</v>
-      </c>
       <c r="P777">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q777">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R777">
         <v>1.9</v>
@@ -69723,31 +69723,31 @@
         <v>2</v>
       </c>
       <c r="U777">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V777">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W777">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X777">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y777">
         <v>-1</v>
       </c>
       <c r="Z777">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA777">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB777">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC777">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="778" spans="1:29">
@@ -69755,7 +69755,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>4999956</v>
+        <v>4996044</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69767,40 +69767,40 @@
         <v>44838.89583333334</v>
       </c>
       <c r="F778" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G778" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I778">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J778" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K778">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L778">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M778">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N778">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="O778">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P778">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q778">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R778">
         <v>1.9</v>
@@ -69812,31 +69812,31 @@
         <v>2</v>
       </c>
       <c r="U778">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V778">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W778">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X778">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y778">
         <v>-1</v>
       </c>
       <c r="Z778">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA778">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB778">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC778">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -70378,7 +70378,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>4937876</v>
+        <v>4956598</v>
       </c>
       <c r="C785" t="s">
         <v>28</v>
@@ -70390,73 +70390,73 @@
         <v>44842.77083333334</v>
       </c>
       <c r="F785" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G785" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I785">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J785" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K785">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L785">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M785">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="N785">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O785">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P785">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q785">
         <v>-0.25</v>
       </c>
       <c r="R785">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S785">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T785">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U785">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V785">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W785">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X785">
         <v>-1</v>
       </c>
       <c r="Y785">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z785">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA785">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB785">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC785">
         <v>-1</v>
@@ -70467,7 +70467,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>4956598</v>
+        <v>4942408</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70479,73 +70479,73 @@
         <v>44842.77083333334</v>
       </c>
       <c r="F786" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G786" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H786">
+        <v>3</v>
+      </c>
+      <c r="I786">
+        <v>0</v>
+      </c>
+      <c r="J786" t="s">
+        <v>70</v>
+      </c>
+      <c r="K786">
+        <v>1.615</v>
+      </c>
+      <c r="L786">
+        <v>3.6</v>
+      </c>
+      <c r="M786">
+        <v>6.5</v>
+      </c>
+      <c r="N786">
+        <v>1.666</v>
+      </c>
+      <c r="O786">
+        <v>3.3</v>
+      </c>
+      <c r="P786">
+        <v>7</v>
+      </c>
+      <c r="Q786">
+        <v>-0.75</v>
+      </c>
+      <c r="R786">
+        <v>1.85</v>
+      </c>
+      <c r="S786">
+        <v>1.95</v>
+      </c>
+      <c r="T786">
+        <v>2.25</v>
+      </c>
+      <c r="U786">
+        <v>2</v>
+      </c>
+      <c r="V786">
+        <v>1.8</v>
+      </c>
+      <c r="W786">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X786">
+        <v>-1</v>
+      </c>
+      <c r="Y786">
+        <v>-1</v>
+      </c>
+      <c r="Z786">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA786">
+        <v>-1</v>
+      </c>
+      <c r="AB786">
         <v>1</v>
-      </c>
-      <c r="I786">
-        <v>2</v>
-      </c>
-      <c r="J786" t="s">
-        <v>71</v>
-      </c>
-      <c r="K786">
-        <v>2.625</v>
-      </c>
-      <c r="L786">
-        <v>2.8</v>
-      </c>
-      <c r="M786">
-        <v>2.9</v>
-      </c>
-      <c r="N786">
-        <v>2.45</v>
-      </c>
-      <c r="O786">
-        <v>2.9</v>
-      </c>
-      <c r="P786">
-        <v>3.4</v>
-      </c>
-      <c r="Q786">
-        <v>-0.25</v>
-      </c>
-      <c r="R786">
-        <v>1.975</v>
-      </c>
-      <c r="S786">
-        <v>1.825</v>
-      </c>
-      <c r="T786">
-        <v>1.75</v>
-      </c>
-      <c r="U786">
-        <v>1.85</v>
-      </c>
-      <c r="V786">
-        <v>1.95</v>
-      </c>
-      <c r="W786">
-        <v>-1</v>
-      </c>
-      <c r="X786">
-        <v>-1</v>
-      </c>
-      <c r="Y786">
-        <v>2.4</v>
-      </c>
-      <c r="Z786">
-        <v>-1</v>
-      </c>
-      <c r="AA786">
-        <v>0.825</v>
-      </c>
-      <c r="AB786">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC786">
         <v>-1</v>
@@ -70556,7 +70556,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>4942408</v>
+        <v>4937876</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70568,58 +70568,58 @@
         <v>44842.77083333334</v>
       </c>
       <c r="F787" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G787" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H787">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I787">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J787" t="s">
         <v>70</v>
       </c>
       <c r="K787">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L787">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M787">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N787">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="O787">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P787">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="Q787">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R787">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S787">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T787">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U787">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V787">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W787">
-        <v>0.6659999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X787">
         <v>-1</v>
@@ -70628,13 +70628,13 @@
         <v>-1</v>
       </c>
       <c r="Z787">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA787">
         <v>-1</v>
       </c>
       <c r="AB787">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC787">
         <v>-1</v>
@@ -71535,7 +71535,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>4961062</v>
+        <v>4956252</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71547,10 +71547,10 @@
         <v>44850.66666666666</v>
       </c>
       <c r="F798" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G798" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H798">
         <v>1</v>
@@ -71562,46 +71562,46 @@
         <v>72</v>
       </c>
       <c r="K798">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L798">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M798">
+        <v>4.2</v>
+      </c>
+      <c r="N798">
+        <v>1.909</v>
+      </c>
+      <c r="O798">
+        <v>3.1</v>
+      </c>
+      <c r="P798">
         <v>4.75</v>
       </c>
-      <c r="N798">
-        <v>1.615</v>
-      </c>
-      <c r="O798">
-        <v>3.5</v>
-      </c>
-      <c r="P798">
-        <v>6.5</v>
-      </c>
       <c r="Q798">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R798">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S798">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T798">
         <v>2</v>
       </c>
       <c r="U798">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V798">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W798">
         <v>-1</v>
       </c>
       <c r="X798">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y798">
         <v>-1</v>
@@ -71610,7 +71610,7 @@
         <v>-1</v>
       </c>
       <c r="AA798">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AB798">
         <v>0</v>
@@ -71624,7 +71624,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>4956252</v>
+        <v>4961062</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71636,10 +71636,10 @@
         <v>44850.66666666666</v>
       </c>
       <c r="F799" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G799" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H799">
         <v>1</v>
@@ -71651,46 +71651,46 @@
         <v>72</v>
       </c>
       <c r="K799">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L799">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M799">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="N799">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O799">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P799">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q799">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R799">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S799">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T799">
         <v>2</v>
       </c>
       <c r="U799">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V799">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W799">
         <v>-1</v>
       </c>
       <c r="X799">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Y799">
         <v>-1</v>
@@ -71699,7 +71699,7 @@
         <v>-1</v>
       </c>
       <c r="AA799">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB799">
         <v>0</v>
@@ -72158,7 +72158,7 @@
         <v>803</v>
       </c>
       <c r="B805">
-        <v>5768423</v>
+        <v>4969151</v>
       </c>
       <c r="C805" t="s">
         <v>28</v>
@@ -72170,10 +72170,10 @@
         <v>44856.6875</v>
       </c>
       <c r="F805" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G805" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H805">
         <v>2</v>
@@ -72185,43 +72185,43 @@
         <v>70</v>
       </c>
       <c r="K805">
+        <v>3</v>
+      </c>
+      <c r="L805">
+        <v>3</v>
+      </c>
+      <c r="M805">
+        <v>2.45</v>
+      </c>
+      <c r="N805">
+        <v>3</v>
+      </c>
+      <c r="O805">
+        <v>2.9</v>
+      </c>
+      <c r="P805">
+        <v>2.625</v>
+      </c>
+      <c r="Q805">
+        <v>0</v>
+      </c>
+      <c r="R805">
+        <v>2</v>
+      </c>
+      <c r="S805">
         <v>1.8</v>
       </c>
-      <c r="L805">
-        <v>3.2</v>
-      </c>
-      <c r="M805">
-        <v>5</v>
-      </c>
-      <c r="N805">
-        <v>1.85</v>
-      </c>
-      <c r="O805">
-        <v>3.2</v>
-      </c>
-      <c r="P805">
-        <v>4.75</v>
-      </c>
-      <c r="Q805">
-        <v>-0.5</v>
-      </c>
-      <c r="R805">
-        <v>1.875</v>
-      </c>
-      <c r="S805">
-        <v>1.975</v>
-      </c>
       <c r="T805">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U805">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V805">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W805">
-        <v>0.8500000000000001</v>
+        <v>2</v>
       </c>
       <c r="X805">
         <v>-1</v>
@@ -72230,13 +72230,13 @@
         <v>-1</v>
       </c>
       <c r="Z805">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA805">
         <v>-1</v>
       </c>
       <c r="AB805">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC805">
         <v>-1</v>
@@ -72247,7 +72247,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>4968820</v>
+        <v>5768423</v>
       </c>
       <c r="C806" t="s">
         <v>28</v>
@@ -72259,58 +72259,58 @@
         <v>44856.6875</v>
       </c>
       <c r="F806" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G806" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H806">
+        <v>2</v>
+      </c>
+      <c r="I806">
         <v>1</v>
-      </c>
-      <c r="I806">
-        <v>0</v>
       </c>
       <c r="J806" t="s">
         <v>70</v>
       </c>
       <c r="K806">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L806">
         <v>3.2</v>
       </c>
       <c r="M806">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N806">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O806">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P806">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q806">
         <v>-0.5</v>
       </c>
       <c r="R806">
+        <v>1.875</v>
+      </c>
+      <c r="S806">
         <v>1.975</v>
       </c>
-      <c r="S806">
-        <v>1.825</v>
-      </c>
       <c r="T806">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U806">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V806">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W806">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X806">
         <v>-1</v>
@@ -72319,16 +72319,16 @@
         <v>-1</v>
       </c>
       <c r="Z806">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA806">
         <v>-1</v>
       </c>
       <c r="AB806">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC806">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="807" spans="1:29">
@@ -72336,7 +72336,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>4969151</v>
+        <v>4983762</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72348,76 +72348,76 @@
         <v>44856.6875</v>
       </c>
       <c r="F807" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G807" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I807">
         <v>1</v>
       </c>
       <c r="J807" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K807">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L807">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M807">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N807">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O807">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P807">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q807">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R807">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S807">
+        <v>2.1</v>
+      </c>
+      <c r="T807">
+        <v>2.25</v>
+      </c>
+      <c r="U807">
+        <v>2.05</v>
+      </c>
+      <c r="V807">
         <v>1.8</v>
       </c>
-      <c r="T807">
-        <v>1.75</v>
-      </c>
-      <c r="U807">
-        <v>1.8</v>
-      </c>
-      <c r="V807">
-        <v>2</v>
-      </c>
       <c r="W807">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X807">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y807">
         <v>-1</v>
       </c>
       <c r="Z807">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA807">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB807">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC807">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="808" spans="1:29">
@@ -72425,7 +72425,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>4983762</v>
+        <v>4968820</v>
       </c>
       <c r="C808" t="s">
         <v>28</v>
@@ -72437,76 +72437,76 @@
         <v>44856.6875</v>
       </c>
       <c r="F808" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G808" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H808">
         <v>1</v>
       </c>
       <c r="I808">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J808" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K808">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="L808">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M808">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N808">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O808">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P808">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q808">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R808">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S808">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T808">
         <v>2.25</v>
       </c>
       <c r="U808">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V808">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W808">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X808">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y808">
         <v>-1</v>
       </c>
       <c r="Z808">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA808">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB808">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC808">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="809" spans="1:29">
@@ -74650,7 +74650,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>6281959</v>
+        <v>6289142</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74662,76 +74662,76 @@
         <v>45031.70833333334</v>
       </c>
       <c r="F833" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G833" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H833">
+        <v>1</v>
+      </c>
+      <c r="I833">
+        <v>0</v>
+      </c>
+      <c r="J833" t="s">
+        <v>70</v>
+      </c>
+      <c r="K833">
+        <v>2.15</v>
+      </c>
+      <c r="L833">
         <v>3</v>
       </c>
-      <c r="I833">
-        <v>3</v>
-      </c>
-      <c r="J833" t="s">
-        <v>72</v>
-      </c>
-      <c r="K833">
-        <v>2.4</v>
-      </c>
-      <c r="L833">
+      <c r="M833">
+        <v>3.5</v>
+      </c>
+      <c r="N833">
+        <v>2.25</v>
+      </c>
+      <c r="O833">
         <v>3.1</v>
       </c>
-      <c r="M833">
-        <v>2.9</v>
-      </c>
-      <c r="N833">
-        <v>2.625</v>
-      </c>
-      <c r="O833">
-        <v>3</v>
-      </c>
       <c r="P833">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q833">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R833">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S833">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T833">
         <v>2</v>
       </c>
       <c r="U833">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V833">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W833">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X833">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y833">
         <v>-1</v>
       </c>
       <c r="Z833">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA833">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB833">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC833">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="834" spans="1:29">
@@ -74739,7 +74739,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>6289142</v>
+        <v>6281959</v>
       </c>
       <c r="C834" t="s">
         <v>28</v>
@@ -74751,76 +74751,76 @@
         <v>45031.70833333334</v>
       </c>
       <c r="F834" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G834" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H834">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I834">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J834" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K834">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L834">
+        <v>3.1</v>
+      </c>
+      <c r="M834">
+        <v>2.9</v>
+      </c>
+      <c r="N834">
+        <v>2.625</v>
+      </c>
+      <c r="O834">
         <v>3</v>
       </c>
-      <c r="M834">
-        <v>3.5</v>
-      </c>
-      <c r="N834">
-        <v>2.25</v>
-      </c>
-      <c r="O834">
-        <v>3.1</v>
-      </c>
       <c r="P834">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q834">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R834">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S834">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T834">
         <v>2</v>
       </c>
       <c r="U834">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V834">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W834">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X834">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y834">
         <v>-1</v>
       </c>
       <c r="Z834">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA834">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB834">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC834">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="835" spans="1:29">
@@ -89691,7 +89691,7 @@
         <v>1000</v>
       </c>
       <c r="B1002">
-        <v>6289124</v>
+        <v>6285537</v>
       </c>
       <c r="C1002" t="s">
         <v>28</v>
@@ -89703,73 +89703,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F1002" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G1002" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1002">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1002" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1002">
+        <v>1.4</v>
+      </c>
+      <c r="L1002">
+        <v>3.8</v>
+      </c>
+      <c r="M1002">
+        <v>8</v>
+      </c>
+      <c r="N1002">
+        <v>1.5</v>
+      </c>
+      <c r="O1002">
+        <v>4.2</v>
+      </c>
+      <c r="P1002">
+        <v>6.5</v>
+      </c>
+      <c r="Q1002">
+        <v>-1</v>
+      </c>
+      <c r="R1002">
+        <v>1.9</v>
+      </c>
+      <c r="S1002">
+        <v>1.95</v>
+      </c>
+      <c r="T1002">
         <v>2.25</v>
       </c>
-      <c r="L1002">
-        <v>2.875</v>
-      </c>
-      <c r="M1002">
-        <v>3.2</v>
-      </c>
-      <c r="N1002">
-        <v>2.25</v>
-      </c>
-      <c r="O1002">
-        <v>3</v>
-      </c>
-      <c r="P1002">
-        <v>3.6</v>
-      </c>
-      <c r="Q1002">
-        <v>-0.25</v>
-      </c>
-      <c r="R1002">
-        <v>1.875</v>
-      </c>
-      <c r="S1002">
-        <v>1.925</v>
-      </c>
-      <c r="T1002">
-        <v>2</v>
-      </c>
       <c r="U1002">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V1002">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W1002">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X1002">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y1002">
         <v>-1</v>
       </c>
       <c r="Z1002">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1002">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB1002">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC1002">
         <v>-1</v>
@@ -89780,7 +89780,7 @@
         <v>1001</v>
       </c>
       <c r="B1003">
-        <v>6285537</v>
+        <v>6289124</v>
       </c>
       <c r="C1003" t="s">
         <v>28</v>
@@ -89792,73 +89792,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F1003" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1003" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H1003">
+        <v>2</v>
+      </c>
+      <c r="I1003">
+        <v>2</v>
+      </c>
+      <c r="J1003" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1003">
+        <v>2.25</v>
+      </c>
+      <c r="L1003">
+        <v>2.875</v>
+      </c>
+      <c r="M1003">
+        <v>3.2</v>
+      </c>
+      <c r="N1003">
+        <v>2.25</v>
+      </c>
+      <c r="O1003">
         <v>3</v>
       </c>
-      <c r="I1003">
-        <v>0</v>
-      </c>
-      <c r="J1003" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1003">
-        <v>1.4</v>
-      </c>
-      <c r="L1003">
-        <v>3.8</v>
-      </c>
-      <c r="M1003">
-        <v>8</v>
-      </c>
-      <c r="N1003">
-        <v>1.5</v>
-      </c>
-      <c r="O1003">
-        <v>4.2</v>
-      </c>
       <c r="P1003">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q1003">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1003">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S1003">
+        <v>1.925</v>
+      </c>
+      <c r="T1003">
+        <v>2</v>
+      </c>
+      <c r="U1003">
+        <v>1.85</v>
+      </c>
+      <c r="V1003">
         <v>1.95</v>
       </c>
-      <c r="T1003">
-        <v>2.25</v>
-      </c>
-      <c r="U1003">
-        <v>2.1</v>
-      </c>
-      <c r="V1003">
-        <v>1.775</v>
-      </c>
       <c r="W1003">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X1003">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y1003">
         <v>-1</v>
       </c>
       <c r="Z1003">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1003">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB1003">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1003">
         <v>-1</v>
@@ -89958,7 +89958,7 @@
         <v>1003</v>
       </c>
       <c r="B1005">
-        <v>6285538</v>
+        <v>6282102</v>
       </c>
       <c r="C1005" t="s">
         <v>28</v>
@@ -89970,76 +89970,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F1005" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G1005" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H1005">
         <v>1</v>
       </c>
       <c r="I1005">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1005" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1005">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L1005">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M1005">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N1005">
+        <v>2.7</v>
+      </c>
+      <c r="O1005">
+        <v>2.8</v>
+      </c>
+      <c r="P1005">
+        <v>3.1</v>
+      </c>
+      <c r="Q1005">
+        <v>0</v>
+      </c>
+      <c r="R1005">
         <v>1.7</v>
       </c>
-      <c r="O1005">
-        <v>3.4</v>
-      </c>
-      <c r="P1005">
-        <v>6</v>
-      </c>
-      <c r="Q1005">
-        <v>-0.75</v>
-      </c>
-      <c r="R1005">
-        <v>1.925</v>
-      </c>
       <c r="S1005">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="T1005">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U1005">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V1005">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W1005">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X1005">
         <v>-1</v>
       </c>
       <c r="Y1005">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z1005">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA1005">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB1005">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC1005">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:29">
@@ -90136,7 +90136,7 @@
         <v>1005</v>
       </c>
       <c r="B1007">
-        <v>6282102</v>
+        <v>6285538</v>
       </c>
       <c r="C1007" t="s">
         <v>28</v>
@@ -90148,76 +90148,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F1007" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G1007" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H1007">
         <v>1</v>
       </c>
       <c r="I1007">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1007" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1007">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L1007">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M1007">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N1007">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O1007">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P1007">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q1007">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1007">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="S1007">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="T1007">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U1007">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V1007">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W1007">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X1007">
         <v>-1</v>
       </c>
       <c r="Y1007">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z1007">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA1007">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB1007">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC1007">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1008" spans="1:29">
@@ -90403,7 +90403,7 @@
         <v>1008</v>
       </c>
       <c r="B1010">
-        <v>6285539</v>
+        <v>6285669</v>
       </c>
       <c r="C1010" t="s">
         <v>28</v>
@@ -90415,76 +90415,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F1010" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G1010" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1010">
         <v>1</v>
       </c>
       <c r="J1010" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1010">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L1010">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M1010">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N1010">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O1010">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P1010">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q1010">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1010">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S1010">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T1010">
         <v>2</v>
       </c>
       <c r="U1010">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V1010">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W1010">
         <v>-1</v>
       </c>
       <c r="X1010">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y1010">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z1010">
         <v>-1</v>
       </c>
       <c r="AA1010">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB1010">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1010">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1011" spans="1:29">
@@ -90492,7 +90492,7 @@
         <v>1009</v>
       </c>
       <c r="B1011">
-        <v>6285669</v>
+        <v>6285539</v>
       </c>
       <c r="C1011" t="s">
         <v>28</v>
@@ -90504,76 +90504,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F1011" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G1011" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H1011">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1011">
         <v>1</v>
       </c>
       <c r="J1011" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1011">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L1011">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M1011">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N1011">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O1011">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P1011">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q1011">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1011">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S1011">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T1011">
         <v>2</v>
       </c>
       <c r="U1011">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V1011">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W1011">
         <v>-1</v>
       </c>
       <c r="X1011">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y1011">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z1011">
         <v>-1</v>
       </c>
       <c r="AA1011">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1011">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1011">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1012" spans="1:29">
@@ -104999,7 +104999,7 @@
         <v>1172</v>
       </c>
       <c r="B1174">
-        <v>6615398</v>
+        <v>6619374</v>
       </c>
       <c r="C1174" t="s">
         <v>28</v>
@@ -105011,76 +105011,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F1174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1174" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H1174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1174" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1174">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L1174">
         <v>3</v>
       </c>
       <c r="M1174">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N1174">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O1174">
         <v>3.1</v>
       </c>
       <c r="P1174">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q1174">
         <v>-0.25</v>
       </c>
       <c r="R1174">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S1174">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T1174">
         <v>2</v>
       </c>
       <c r="U1174">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V1174">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W1174">
         <v>-1</v>
       </c>
       <c r="X1174">
+        <v>-1</v>
+      </c>
+      <c r="Y1174">
         <v>2.1</v>
       </c>
-      <c r="Y1174">
-        <v>-1</v>
-      </c>
       <c r="Z1174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1174">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC1174">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1175" spans="1:29">
@@ -105088,7 +105088,7 @@
         <v>1173</v>
       </c>
       <c r="B1175">
-        <v>6619374</v>
+        <v>6615398</v>
       </c>
       <c r="C1175" t="s">
         <v>28</v>
@@ -105100,76 +105100,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F1175" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1175" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1175" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1175">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L1175">
         <v>3</v>
       </c>
       <c r="M1175">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N1175">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O1175">
         <v>3.1</v>
       </c>
       <c r="P1175">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q1175">
         <v>-0.25</v>
       </c>
       <c r="R1175">
+        <v>1.9</v>
+      </c>
+      <c r="S1175">
+        <v>1.95</v>
+      </c>
+      <c r="T1175">
+        <v>2</v>
+      </c>
+      <c r="U1175">
+        <v>2.025</v>
+      </c>
+      <c r="V1175">
+        <v>1.825</v>
+      </c>
+      <c r="W1175">
+        <v>-1</v>
+      </c>
+      <c r="X1175">
         <v>2.1</v>
       </c>
-      <c r="S1175">
-        <v>1.775</v>
-      </c>
-      <c r="T1175">
-        <v>2</v>
-      </c>
-      <c r="U1175">
-        <v>2.05</v>
-      </c>
-      <c r="V1175">
-        <v>1.8</v>
-      </c>
-      <c r="W1175">
-        <v>-1</v>
-      </c>
-      <c r="X1175">
-        <v>-1</v>
-      </c>
       <c r="Y1175">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1175">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB1175">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC1175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1176" spans="1:29">
@@ -106601,7 +106601,7 @@
         <v>1190</v>
       </c>
       <c r="B1192">
-        <v>6677287</v>
+        <v>6673197</v>
       </c>
       <c r="C1192" t="s">
         <v>28</v>
@@ -106613,13 +106613,13 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F1192" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G1192" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="H1192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1192">
         <v>0</v>
@@ -106628,43 +106628,43 @@
         <v>70</v>
       </c>
       <c r="K1192">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L1192">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M1192">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N1192">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O1192">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P1192">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q1192">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1192">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S1192">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T1192">
         <v>2</v>
       </c>
       <c r="U1192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V1192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W1192">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X1192">
         <v>-1</v>
@@ -106673,16 +106673,16 @@
         <v>-1</v>
       </c>
       <c r="Z1192">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA1192">
         <v>-1</v>
       </c>
       <c r="AB1192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1193" spans="1:29">
@@ -106690,7 +106690,7 @@
         <v>1191</v>
       </c>
       <c r="B1193">
-        <v>6680024</v>
+        <v>6679229</v>
       </c>
       <c r="C1193" t="s">
         <v>28</v>
@@ -106702,40 +106702,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F1193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1193" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H1193">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1193" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1193">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L1193">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M1193">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N1193">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O1193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P1193">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q1193">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1193">
         <v>2.05</v>
@@ -106744,34 +106744,34 @@
         <v>1.8</v>
       </c>
       <c r="T1193">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1193">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V1193">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W1193">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X1193">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1193">
         <v>-1</v>
       </c>
       <c r="Z1193">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB1193">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1193">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="1194" spans="1:29">
@@ -106779,7 +106779,7 @@
         <v>1192</v>
       </c>
       <c r="B1194">
-        <v>6673197</v>
+        <v>6680024</v>
       </c>
       <c r="C1194" t="s">
         <v>28</v>
@@ -106791,40 +106791,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F1194" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G1194" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H1194">
+        <v>3</v>
+      </c>
+      <c r="I1194">
         <v>1</v>
-      </c>
-      <c r="I1194">
-        <v>0</v>
       </c>
       <c r="J1194" t="s">
         <v>70</v>
       </c>
       <c r="K1194">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L1194">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1194">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N1194">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="O1194">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P1194">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q1194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R1194">
         <v>2.05</v>
@@ -106833,16 +106833,16 @@
         <v>1.8</v>
       </c>
       <c r="T1194">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1194">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V1194">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W1194">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="X1194">
         <v>-1</v>
@@ -106857,10 +106857,10 @@
         <v>-1</v>
       </c>
       <c r="AB1194">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1195" spans="1:29">
@@ -106957,7 +106957,7 @@
         <v>1194</v>
       </c>
       <c r="B1196">
-        <v>6679229</v>
+        <v>6677287</v>
       </c>
       <c r="C1196" t="s">
         <v>28</v>
@@ -106969,76 +106969,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F1196" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G1196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1196">
         <v>0</v>
       </c>
       <c r="J1196" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1196">
-        <v>1.45</v>
+        <v>1.615</v>
       </c>
       <c r="L1196">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1196">
         <v>6.5</v>
       </c>
       <c r="N1196">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O1196">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P1196">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q1196">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R1196">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S1196">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T1196">
         <v>2</v>
       </c>
       <c r="U1196">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V1196">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W1196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X1196">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1196">
         <v>-1</v>
       </c>
       <c r="Z1196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1196">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB1196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1197" spans="1:29">
@@ -107669,7 +107669,7 @@
         <v>1202</v>
       </c>
       <c r="B1204">
-        <v>6693031</v>
+        <v>6693028</v>
       </c>
       <c r="C1204" t="s">
         <v>28</v>
@@ -107681,58 +107681,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F1204" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G1204" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1204">
         <v>3</v>
       </c>
       <c r="I1204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1204" t="s">
         <v>70</v>
       </c>
       <c r="K1204">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L1204">
+        <v>3.5</v>
+      </c>
+      <c r="M1204">
+        <v>4</v>
+      </c>
+      <c r="N1204">
+        <v>1.7</v>
+      </c>
+      <c r="O1204">
         <v>3.6</v>
       </c>
-      <c r="M1204">
-        <v>4.333</v>
-      </c>
-      <c r="N1204">
-        <v>1.615</v>
-      </c>
-      <c r="O1204">
-        <v>4</v>
-      </c>
       <c r="P1204">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q1204">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1204">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S1204">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T1204">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1204">
         <v>1.775</v>
       </c>
       <c r="V1204">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W1204">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="X1204">
         <v>-1</v>
@@ -107741,7 +107741,7 @@
         <v>-1</v>
       </c>
       <c r="Z1204">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1204">
         <v>-1</v>
@@ -107936,7 +107936,7 @@
         <v>1205</v>
       </c>
       <c r="B1207">
-        <v>6693028</v>
+        <v>6693031</v>
       </c>
       <c r="C1207" t="s">
         <v>28</v>
@@ -107948,58 +107948,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F1207" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G1207" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H1207">
         <v>3</v>
       </c>
       <c r="I1207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1207" t="s">
         <v>70</v>
       </c>
       <c r="K1207">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L1207">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M1207">
+        <v>4.333</v>
+      </c>
+      <c r="N1207">
+        <v>1.615</v>
+      </c>
+      <c r="O1207">
         <v>4</v>
       </c>
-      <c r="N1207">
-        <v>1.7</v>
-      </c>
-      <c r="O1207">
-        <v>3.6</v>
-      </c>
       <c r="P1207">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q1207">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R1207">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S1207">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T1207">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1207">
         <v>1.775</v>
       </c>
       <c r="V1207">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W1207">
-        <v>0.7</v>
+        <v>0.615</v>
       </c>
       <c r="X1207">
         <v>-1</v>
@@ -108008,7 +108008,7 @@
         <v>-1</v>
       </c>
       <c r="Z1207">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA1207">
         <v>-1</v>
@@ -108025,7 +108025,7 @@
         <v>1206</v>
       </c>
       <c r="B1208">
-        <v>6693030</v>
+        <v>6693367</v>
       </c>
       <c r="C1208" t="s">
         <v>28</v>
@@ -108037,73 +108037,73 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F1208" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G1208" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H1208">
+        <v>4</v>
+      </c>
+      <c r="I1208">
         <v>1</v>
       </c>
-      <c r="I1208">
-        <v>3</v>
-      </c>
       <c r="J1208" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1208">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L1208">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M1208">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="N1208">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="O1208">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P1208">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q1208">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1208">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S1208">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T1208">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1208">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V1208">
         <v>2.025</v>
       </c>
       <c r="W1208">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X1208">
         <v>-1</v>
       </c>
       <c r="Y1208">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z1208">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA1208">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB1208">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC1208">
         <v>-1</v>
@@ -108114,7 +108114,7 @@
         <v>1207</v>
       </c>
       <c r="B1209">
-        <v>6693367</v>
+        <v>6693030</v>
       </c>
       <c r="C1209" t="s">
         <v>28</v>
@@ -108126,73 +108126,73 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F1209" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G1209" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H1209">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I1209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1209" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1209">
-        <v>1.444</v>
+        <v>3.25</v>
       </c>
       <c r="L1209">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M1209">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="N1209">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O1209">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P1209">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q1209">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R1209">
+        <v>1.875</v>
+      </c>
+      <c r="S1209">
         <v>1.975</v>
       </c>
-      <c r="S1209">
+      <c r="T1209">
+        <v>2</v>
+      </c>
+      <c r="U1209">
         <v>1.825</v>
-      </c>
-      <c r="T1209">
-        <v>2.25</v>
-      </c>
-      <c r="U1209">
-        <v>1.775</v>
       </c>
       <c r="V1209">
         <v>2.025</v>
       </c>
       <c r="W1209">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X1209">
         <v>-1</v>
       </c>
       <c r="Y1209">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z1209">
+        <v>-1</v>
+      </c>
+      <c r="AA1209">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA1209">
-        <v>-1</v>
-      </c>
       <c r="AB1209">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC1209">
         <v>-1</v>

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -68598,7 +68598,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>4918630</v>
+        <v>4914127</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68610,73 +68610,73 @@
         <v>44834.79166666666</v>
       </c>
       <c r="F765" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G765" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H765">
+        <v>2</v>
+      </c>
+      <c r="I765">
         <v>1</v>
       </c>
-      <c r="I765">
-        <v>2</v>
-      </c>
       <c r="J765" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K765">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L765">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M765">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N765">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O765">
         <v>3.1</v>
       </c>
       <c r="P765">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q765">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R765">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S765">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T765">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U765">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V765">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W765">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X765">
         <v>-1</v>
       </c>
       <c r="Y765">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z765">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA765">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB765">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC765">
         <v>-1</v>
@@ -68687,7 +68687,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>4914127</v>
+        <v>4918630</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68699,73 +68699,73 @@
         <v>44834.79166666666</v>
       </c>
       <c r="F766" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G766" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J766" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K766">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L766">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M766">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="N766">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O766">
         <v>3.1</v>
       </c>
       <c r="P766">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q766">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R766">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S766">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T766">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U766">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V766">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W766">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X766">
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z766">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA766">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB766">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC766">
         <v>-1</v>
@@ -74650,7 +74650,7 @@
         <v>831</v>
       </c>
       <c r="B833">
-        <v>6289142</v>
+        <v>6281959</v>
       </c>
       <c r="C833" t="s">
         <v>28</v>
@@ -74662,76 +74662,76 @@
         <v>45031.70833333334</v>
       </c>
       <c r="F833" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G833" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I833">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J833" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K833">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L833">
+        <v>3.1</v>
+      </c>
+      <c r="M833">
+        <v>2.9</v>
+      </c>
+      <c r="N833">
+        <v>2.625</v>
+      </c>
+      <c r="O833">
         <v>3</v>
       </c>
-      <c r="M833">
-        <v>3.5</v>
-      </c>
-      <c r="N833">
-        <v>2.25</v>
-      </c>
-      <c r="O833">
-        <v>3.1</v>
-      </c>
       <c r="P833">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q833">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R833">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S833">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T833">
         <v>2</v>
       </c>
       <c r="U833">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V833">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W833">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X833">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y833">
         <v>-1</v>
       </c>
       <c r="Z833">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA833">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB833">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC833">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="834" spans="1:29">
@@ -74739,7 +74739,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>6281959</v>
+        <v>6289142</v>
       </c>
       <c r="C834" t="s">
         <v>28</v>
@@ -74751,76 +74751,76 @@
         <v>45031.70833333334</v>
       </c>
       <c r="F834" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G834" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H834">
+        <v>1</v>
+      </c>
+      <c r="I834">
+        <v>0</v>
+      </c>
+      <c r="J834" t="s">
+        <v>70</v>
+      </c>
+      <c r="K834">
+        <v>2.15</v>
+      </c>
+      <c r="L834">
         <v>3</v>
       </c>
-      <c r="I834">
-        <v>3</v>
-      </c>
-      <c r="J834" t="s">
-        <v>72</v>
-      </c>
-      <c r="K834">
-        <v>2.4</v>
-      </c>
-      <c r="L834">
+      <c r="M834">
+        <v>3.5</v>
+      </c>
+      <c r="N834">
+        <v>2.25</v>
+      </c>
+      <c r="O834">
         <v>3.1</v>
       </c>
-      <c r="M834">
-        <v>2.9</v>
-      </c>
-      <c r="N834">
-        <v>2.625</v>
-      </c>
-      <c r="O834">
-        <v>3</v>
-      </c>
       <c r="P834">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q834">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R834">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S834">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T834">
         <v>2</v>
       </c>
       <c r="U834">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V834">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W834">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X834">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y834">
         <v>-1</v>
       </c>
       <c r="Z834">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA834">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB834">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC834">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="835" spans="1:29">
@@ -75985,7 +75985,7 @@
         <v>846</v>
       </c>
       <c r="B848">
-        <v>6286544</v>
+        <v>6286296</v>
       </c>
       <c r="C848" t="s">
         <v>28</v>
@@ -75997,13 +75997,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F848" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G848" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H848">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I848">
         <v>0</v>
@@ -76012,43 +76012,43 @@
         <v>70</v>
       </c>
       <c r="K848">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L848">
+        <v>3.1</v>
+      </c>
+      <c r="M848">
         <v>3.2</v>
       </c>
-      <c r="M848">
-        <v>3.75</v>
-      </c>
       <c r="N848">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O848">
         <v>3.4</v>
       </c>
       <c r="P848">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q848">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R848">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S848">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T848">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U848">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V848">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W848">
-        <v>0.7</v>
+        <v>0.833</v>
       </c>
       <c r="X848">
         <v>-1</v>
@@ -76057,16 +76057,16 @@
         <v>-1</v>
       </c>
       <c r="Z848">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA848">
+        <v>-1</v>
+      </c>
+      <c r="AB848">
         <v>-0.5</v>
       </c>
-      <c r="AB848">
-        <v>-1</v>
-      </c>
       <c r="AC848">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="849" spans="1:29">
@@ -76074,7 +76074,7 @@
         <v>847</v>
       </c>
       <c r="B849">
-        <v>6286296</v>
+        <v>6286544</v>
       </c>
       <c r="C849" t="s">
         <v>28</v>
@@ -76086,13 +76086,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F849" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="G849" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I849">
         <v>0</v>
@@ -76101,61 +76101,61 @@
         <v>70</v>
       </c>
       <c r="K849">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L849">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M849">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N849">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O849">
         <v>3.4</v>
       </c>
       <c r="P849">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q849">
+        <v>-0.75</v>
+      </c>
+      <c r="R849">
+        <v>1.95</v>
+      </c>
+      <c r="S849">
+        <v>1.85</v>
+      </c>
+      <c r="T849">
+        <v>2</v>
+      </c>
+      <c r="U849">
+        <v>1.8</v>
+      </c>
+      <c r="V849">
+        <v>2</v>
+      </c>
+      <c r="W849">
+        <v>0.7</v>
+      </c>
+      <c r="X849">
+        <v>-1</v>
+      </c>
+      <c r="Y849">
+        <v>-1</v>
+      </c>
+      <c r="Z849">
+        <v>0.475</v>
+      </c>
+      <c r="AA849">
         <v>-0.5</v>
       </c>
-      <c r="R849">
-        <v>1.8</v>
-      </c>
-      <c r="S849">
-        <v>2.05</v>
-      </c>
-      <c r="T849">
-        <v>2.25</v>
-      </c>
-      <c r="U849">
-        <v>2.025</v>
-      </c>
-      <c r="V849">
-        <v>1.825</v>
-      </c>
-      <c r="W849">
-        <v>0.833</v>
-      </c>
-      <c r="X849">
-        <v>-1</v>
-      </c>
-      <c r="Y849">
-        <v>-1</v>
-      </c>
-      <c r="Z849">
-        <v>0.8</v>
-      </c>
-      <c r="AA849">
-        <v>-1</v>
-      </c>
       <c r="AB849">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC849">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:29">
@@ -76341,7 +76341,7 @@
         <v>850</v>
       </c>
       <c r="B852">
-        <v>6281767</v>
+        <v>6285514</v>
       </c>
       <c r="C852" t="s">
         <v>28</v>
@@ -76353,43 +76353,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F852" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G852" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I852">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J852" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K852">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L852">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M852">
         <v>3.3</v>
       </c>
       <c r="N852">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O852">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P852">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q852">
         <v>-0.25</v>
       </c>
       <c r="R852">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S852">
         <v>1.85</v>
@@ -76398,25 +76398,25 @@
         <v>2</v>
       </c>
       <c r="U852">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V852">
         <v>1.925</v>
       </c>
       <c r="W852">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X852">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y852">
         <v>-1</v>
       </c>
       <c r="Z852">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA852">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB852">
         <v>0</v>
@@ -76430,7 +76430,7 @@
         <v>851</v>
       </c>
       <c r="B853">
-        <v>6285514</v>
+        <v>6281767</v>
       </c>
       <c r="C853" t="s">
         <v>28</v>
@@ -76442,43 +76442,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F853" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G853" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I853">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J853" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K853">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L853">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M853">
         <v>3.3</v>
       </c>
       <c r="N853">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O853">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P853">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q853">
         <v>-0.25</v>
       </c>
       <c r="R853">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S853">
         <v>1.85</v>
@@ -76487,25 +76487,25 @@
         <v>2</v>
       </c>
       <c r="U853">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V853">
         <v>1.925</v>
       </c>
       <c r="W853">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X853">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y853">
         <v>-1</v>
       </c>
       <c r="Z853">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA853">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB853">
         <v>0</v>
@@ -77765,7 +77765,7 @@
         <v>866</v>
       </c>
       <c r="B868">
-        <v>6285943</v>
+        <v>6281961</v>
       </c>
       <c r="C868" t="s">
         <v>28</v>
@@ -77777,34 +77777,34 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F868" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G868" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868">
         <v>1</v>
       </c>
       <c r="J868" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K868">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L868">
         <v>3</v>
       </c>
       <c r="M868">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N868">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O868">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P868">
         <v>4</v>
@@ -77813,40 +77813,40 @@
         <v>-0.5</v>
       </c>
       <c r="R868">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S868">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T868">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U868">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V868">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W868">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X868">
         <v>-1</v>
       </c>
       <c r="Y868">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z868">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA868">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB868">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC868">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="869" spans="1:29">
@@ -77854,7 +77854,7 @@
         <v>867</v>
       </c>
       <c r="B869">
-        <v>6289138</v>
+        <v>6285943</v>
       </c>
       <c r="C869" t="s">
         <v>28</v>
@@ -77866,76 +77866,76 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F869" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G869" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I869">
         <v>1</v>
       </c>
       <c r="J869" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K869">
+        <v>2.25</v>
+      </c>
+      <c r="L869">
+        <v>3</v>
+      </c>
+      <c r="M869">
+        <v>3.2</v>
+      </c>
+      <c r="N869">
         <v>2.05</v>
       </c>
-      <c r="L869">
-        <v>3.1</v>
-      </c>
-      <c r="M869">
-        <v>3.4</v>
-      </c>
-      <c r="N869">
-        <v>1.909</v>
-      </c>
       <c r="O869">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P869">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q869">
         <v>-0.5</v>
       </c>
       <c r="R869">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S869">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T869">
         <v>2</v>
       </c>
       <c r="U869">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V869">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W869">
         <v>-1</v>
       </c>
       <c r="X869">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y869">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z869">
         <v>-1</v>
       </c>
       <c r="AA869">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB869">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC869">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="870" spans="1:29">
@@ -77943,7 +77943,7 @@
         <v>868</v>
       </c>
       <c r="B870">
-        <v>6281961</v>
+        <v>6289138</v>
       </c>
       <c r="C870" t="s">
         <v>28</v>
@@ -77955,37 +77955,37 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F870" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G870" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I870">
         <v>1</v>
       </c>
       <c r="J870" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K870">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L870">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M870">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N870">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O870">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P870">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q870">
         <v>-0.5</v>
@@ -77997,34 +77997,34 @@
         <v>1.9</v>
       </c>
       <c r="T870">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U870">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V870">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W870">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X870">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y870">
         <v>-1</v>
       </c>
       <c r="Z870">
+        <v>-1</v>
+      </c>
+      <c r="AA870">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA870">
-        <v>-1</v>
-      </c>
       <c r="AB870">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC870">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="871" spans="1:29">
@@ -78922,7 +78922,7 @@
         <v>879</v>
       </c>
       <c r="B881">
-        <v>6281774</v>
+        <v>6285517</v>
       </c>
       <c r="C881" t="s">
         <v>28</v>
@@ -78934,76 +78934,76 @@
         <v>45059.70833333334</v>
       </c>
       <c r="F881" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G881" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J881" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K881">
+        <v>1.727</v>
+      </c>
+      <c r="L881">
+        <v>3.5</v>
+      </c>
+      <c r="M881">
+        <v>5.5</v>
+      </c>
+      <c r="N881">
         <v>1.75</v>
       </c>
-      <c r="L881">
+      <c r="O881">
         <v>3.4</v>
       </c>
-      <c r="M881">
+      <c r="P881">
         <v>5.25</v>
       </c>
-      <c r="N881">
-        <v>1.909</v>
-      </c>
-      <c r="O881">
-        <v>3.3</v>
-      </c>
-      <c r="P881">
-        <v>4.5</v>
-      </c>
       <c r="Q881">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R881">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S881">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T881">
         <v>2.25</v>
       </c>
       <c r="U881">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V881">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W881">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X881">
         <v>-1</v>
       </c>
       <c r="Y881">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z881">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA881">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB881">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC881">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="882" spans="1:29">
@@ -79011,7 +79011,7 @@
         <v>880</v>
       </c>
       <c r="B882">
-        <v>6285517</v>
+        <v>6281774</v>
       </c>
       <c r="C882" t="s">
         <v>28</v>
@@ -79023,76 +79023,76 @@
         <v>45059.70833333334</v>
       </c>
       <c r="F882" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G882" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J882" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K882">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L882">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M882">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N882">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O882">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P882">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q882">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R882">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S882">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T882">
         <v>2.25</v>
       </c>
       <c r="U882">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V882">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W882">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X882">
         <v>-1</v>
       </c>
       <c r="Y882">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z882">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA882">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB882">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC882">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="883" spans="1:29">
@@ -79901,7 +79901,7 @@
         <v>890</v>
       </c>
       <c r="B892">
-        <v>6281778</v>
+        <v>6281962</v>
       </c>
       <c r="C892" t="s">
         <v>28</v>
@@ -79913,76 +79913,76 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F892" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G892" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I892">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J892" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K892">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L892">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M892">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N892">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O892">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P892">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q892">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R892">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S892">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T892">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U892">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V892">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W892">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X892">
         <v>-1</v>
       </c>
       <c r="Y892">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z892">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA892">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB892">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC892">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="893" spans="1:29">
@@ -79990,7 +79990,7 @@
         <v>891</v>
       </c>
       <c r="B893">
-        <v>6281962</v>
+        <v>6281778</v>
       </c>
       <c r="C893" t="s">
         <v>28</v>
@@ -80002,76 +80002,76 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F893" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G893" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I893">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J893" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K893">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L893">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M893">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N893">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O893">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P893">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q893">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R893">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S893">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T893">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U893">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V893">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W893">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X893">
         <v>-1</v>
       </c>
       <c r="Y893">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z893">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA893">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB893">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC893">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="894" spans="1:29">
@@ -80791,7 +80791,7 @@
         <v>900</v>
       </c>
       <c r="B902">
-        <v>6282095</v>
+        <v>6281781</v>
       </c>
       <c r="C902" t="s">
         <v>28</v>
@@ -80803,76 +80803,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F902" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G902" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H902">
         <v>1</v>
       </c>
       <c r="I902">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J902" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K902">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L902">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M902">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N902">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O902">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P902">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q902">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R902">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S902">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T902">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U902">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V902">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W902">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X902">
         <v>-1</v>
       </c>
       <c r="Y902">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z902">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA902">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB902">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC902">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="903" spans="1:29">
@@ -80880,7 +80880,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <v>6281781</v>
+        <v>6282008</v>
       </c>
       <c r="C903" t="s">
         <v>28</v>
@@ -80892,13 +80892,13 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F903" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G903" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I903">
         <v>0</v>
@@ -80907,43 +80907,43 @@
         <v>70</v>
       </c>
       <c r="K903">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L903">
         <v>3.1</v>
       </c>
       <c r="M903">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N903">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O903">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P903">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q903">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R903">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S903">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T903">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U903">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V903">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W903">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="X903">
         <v>-1</v>
@@ -80952,16 +80952,16 @@
         <v>-1</v>
       </c>
       <c r="Z903">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA903">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB903">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC903">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="904" spans="1:29">
@@ -80969,7 +80969,7 @@
         <v>902</v>
       </c>
       <c r="B904">
-        <v>6282008</v>
+        <v>6282095</v>
       </c>
       <c r="C904" t="s">
         <v>28</v>
@@ -80981,73 +80981,73 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F904" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G904" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H904">
+        <v>1</v>
+      </c>
+      <c r="I904">
         <v>3</v>
       </c>
-      <c r="I904">
-        <v>0</v>
-      </c>
       <c r="J904" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K904">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L904">
+        <v>2.875</v>
+      </c>
+      <c r="M904">
+        <v>2.7</v>
+      </c>
+      <c r="N904">
+        <v>3</v>
+      </c>
+      <c r="O904">
         <v>3.1</v>
       </c>
-      <c r="M904">
+      <c r="P904">
         <v>2.6</v>
       </c>
-      <c r="N904">
-        <v>2.1</v>
-      </c>
-      <c r="O904">
-        <v>3.3</v>
-      </c>
-      <c r="P904">
-        <v>3.6</v>
-      </c>
       <c r="Q904">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R904">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S904">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T904">
         <v>2.25</v>
       </c>
       <c r="U904">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V904">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W904">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X904">
         <v>-1</v>
       </c>
       <c r="Y904">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z904">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA904">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB904">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC904">
         <v>-1</v>
@@ -82215,7 +82215,7 @@
         <v>916</v>
       </c>
       <c r="B918">
-        <v>6282097</v>
+        <v>6281786</v>
       </c>
       <c r="C918" t="s">
         <v>28</v>
@@ -82227,76 +82227,76 @@
         <v>45079.79166666666</v>
       </c>
       <c r="F918" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G918" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918">
         <v>0</v>
       </c>
       <c r="J918" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K918">
+        <v>2</v>
+      </c>
+      <c r="L918">
+        <v>3.2</v>
+      </c>
+      <c r="M918">
+        <v>4</v>
+      </c>
+      <c r="N918">
+        <v>2</v>
+      </c>
+      <c r="O918">
+        <v>3.3</v>
+      </c>
+      <c r="P918">
+        <v>3.8</v>
+      </c>
+      <c r="Q918">
+        <v>-0.5</v>
+      </c>
+      <c r="R918">
+        <v>2</v>
+      </c>
+      <c r="S918">
         <v>1.8</v>
-      </c>
-      <c r="L918">
-        <v>3.5</v>
-      </c>
-      <c r="M918">
-        <v>4.5</v>
-      </c>
-      <c r="N918">
-        <v>1.571</v>
-      </c>
-      <c r="O918">
-        <v>3.8</v>
-      </c>
-      <c r="P918">
-        <v>6</v>
-      </c>
-      <c r="Q918">
-        <v>-0.75</v>
-      </c>
-      <c r="R918">
-        <v>1.75</v>
-      </c>
-      <c r="S918">
-        <v>2.05</v>
       </c>
       <c r="T918">
         <v>2.25</v>
       </c>
       <c r="U918">
+        <v>1.95</v>
+      </c>
+      <c r="V918">
         <v>1.85</v>
       </c>
-      <c r="V918">
-        <v>1.95</v>
-      </c>
       <c r="W918">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X918">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y918">
         <v>-1</v>
       </c>
       <c r="Z918">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA918">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB918">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC918">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="919" spans="1:29">
@@ -82304,7 +82304,7 @@
         <v>917</v>
       </c>
       <c r="B919">
-        <v>6281786</v>
+        <v>6282097</v>
       </c>
       <c r="C919" t="s">
         <v>28</v>
@@ -82316,76 +82316,76 @@
         <v>45079.79166666666</v>
       </c>
       <c r="F919" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G919" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919">
         <v>0</v>
       </c>
       <c r="J919" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K919">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L919">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M919">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N919">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O919">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P919">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q919">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R919">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S919">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T919">
         <v>2.25</v>
       </c>
       <c r="U919">
+        <v>1.85</v>
+      </c>
+      <c r="V919">
         <v>1.95</v>
       </c>
-      <c r="V919">
-        <v>1.85</v>
-      </c>
       <c r="W919">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X919">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y919">
         <v>-1</v>
       </c>
       <c r="Z919">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA919">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB919">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC919">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="920" spans="1:29">
@@ -83105,7 +83105,7 @@
         <v>926</v>
       </c>
       <c r="B928">
-        <v>6285525</v>
+        <v>6285748</v>
       </c>
       <c r="C928" t="s">
         <v>28</v>
@@ -83117,76 +83117,76 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F928" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G928" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H928">
         <v>0</v>
       </c>
       <c r="I928">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J928" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K928">
+        <v>2.45</v>
+      </c>
+      <c r="L928">
+        <v>3</v>
+      </c>
+      <c r="M928">
+        <v>2.8</v>
+      </c>
+      <c r="N928">
+        <v>2.7</v>
+      </c>
+      <c r="O928">
+        <v>3.1</v>
+      </c>
+      <c r="P928">
+        <v>2.8</v>
+      </c>
+      <c r="Q928">
+        <v>0</v>
+      </c>
+      <c r="R928">
+        <v>1.875</v>
+      </c>
+      <c r="S928">
+        <v>1.975</v>
+      </c>
+      <c r="T928">
+        <v>2</v>
+      </c>
+      <c r="U928">
+        <v>1.975</v>
+      </c>
+      <c r="V928">
+        <v>1.875</v>
+      </c>
+      <c r="W928">
+        <v>-1</v>
+      </c>
+      <c r="X928">
+        <v>-1</v>
+      </c>
+      <c r="Y928">
         <v>1.8</v>
       </c>
-      <c r="L928">
-        <v>3.2</v>
-      </c>
-      <c r="M928">
-        <v>4.333</v>
-      </c>
-      <c r="N928">
-        <v>1.6</v>
-      </c>
-      <c r="O928">
-        <v>3.6</v>
-      </c>
-      <c r="P928">
-        <v>7</v>
-      </c>
-      <c r="Q928">
-        <v>-1</v>
-      </c>
-      <c r="R928">
-        <v>2</v>
-      </c>
-      <c r="S928">
-        <v>1.8</v>
-      </c>
-      <c r="T928">
-        <v>2.25</v>
-      </c>
-      <c r="U928">
-        <v>2.025</v>
-      </c>
-      <c r="V928">
-        <v>1.775</v>
-      </c>
-      <c r="W928">
-        <v>-1</v>
-      </c>
-      <c r="X928">
-        <v>2.6</v>
-      </c>
-      <c r="Y928">
-        <v>-1</v>
-      </c>
       <c r="Z928">
         <v>-1</v>
       </c>
       <c r="AA928">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB928">
         <v>-1</v>
       </c>
       <c r="AC928">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="929" spans="1:29">
@@ -83194,7 +83194,7 @@
         <v>927</v>
       </c>
       <c r="B929">
-        <v>6285748</v>
+        <v>6285525</v>
       </c>
       <c r="C929" t="s">
         <v>28</v>
@@ -83206,76 +83206,76 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F929" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G929" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="H929">
         <v>0</v>
       </c>
       <c r="I929">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J929" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K929">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L929">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M929">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N929">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O929">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P929">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Q929">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R929">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S929">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T929">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U929">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V929">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W929">
         <v>-1</v>
       </c>
       <c r="X929">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y929">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z929">
         <v>-1</v>
       </c>
       <c r="AA929">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB929">
         <v>-1</v>
       </c>
       <c r="AC929">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="930" spans="1:29">
@@ -86042,7 +86042,7 @@
         <v>959</v>
       </c>
       <c r="B961">
-        <v>6281798</v>
+        <v>6285749</v>
       </c>
       <c r="C961" t="s">
         <v>28</v>
@@ -86054,40 +86054,40 @@
         <v>45104.89583333334</v>
       </c>
       <c r="F961" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G961" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I961">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J961" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K961">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L961">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M961">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N961">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O961">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P961">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="Q961">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R961">
         <v>1.875</v>
@@ -86096,34 +86096,34 @@
         <v>1.925</v>
       </c>
       <c r="T961">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U961">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V961">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W961">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X961">
         <v>-1</v>
       </c>
       <c r="Y961">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z961">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA961">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB961">
         <v>-1</v>
       </c>
       <c r="AC961">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="962" spans="1:29">
@@ -86131,7 +86131,7 @@
         <v>960</v>
       </c>
       <c r="B962">
-        <v>6285749</v>
+        <v>6281798</v>
       </c>
       <c r="C962" t="s">
         <v>28</v>
@@ -86143,40 +86143,40 @@
         <v>45104.89583333334</v>
       </c>
       <c r="F962" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G962" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H962">
+        <v>0</v>
+      </c>
+      <c r="I962">
         <v>1</v>
       </c>
-      <c r="I962">
-        <v>0</v>
-      </c>
       <c r="J962" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K962">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L962">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M962">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N962">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O962">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P962">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q962">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R962">
         <v>1.875</v>
@@ -86185,34 +86185,34 @@
         <v>1.925</v>
       </c>
       <c r="T962">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U962">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V962">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W962">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X962">
         <v>-1</v>
       </c>
       <c r="Y962">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z962">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA962">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB962">
         <v>-1</v>
       </c>
       <c r="AC962">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="963" spans="1:29">
@@ -86398,7 +86398,7 @@
         <v>963</v>
       </c>
       <c r="B965">
-        <v>6282014</v>
+        <v>6281797</v>
       </c>
       <c r="C965" t="s">
         <v>28</v>
@@ -86410,76 +86410,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F965" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G965" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H965">
+        <v>0</v>
+      </c>
+      <c r="I965">
         <v>1</v>
-      </c>
-      <c r="I965">
-        <v>2</v>
       </c>
       <c r="J965" t="s">
         <v>71</v>
       </c>
       <c r="K965">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L965">
+        <v>3</v>
+      </c>
+      <c r="M965">
+        <v>3.2</v>
+      </c>
+      <c r="N965">
+        <v>2.05</v>
+      </c>
+      <c r="O965">
         <v>3.1</v>
       </c>
-      <c r="M965">
-        <v>2.6</v>
-      </c>
-      <c r="N965">
-        <v>2.9</v>
-      </c>
-      <c r="O965">
+      <c r="P965">
+        <v>4</v>
+      </c>
+      <c r="Q965">
+        <v>-0.25</v>
+      </c>
+      <c r="R965">
+        <v>1.75</v>
+      </c>
+      <c r="S965">
+        <v>2.05</v>
+      </c>
+      <c r="T965">
+        <v>2</v>
+      </c>
+      <c r="U965">
+        <v>1.9</v>
+      </c>
+      <c r="V965">
+        <v>1.9</v>
+      </c>
+      <c r="W965">
+        <v>-1</v>
+      </c>
+      <c r="X965">
+        <v>-1</v>
+      </c>
+      <c r="Y965">
         <v>3</v>
       </c>
-      <c r="P965">
-        <v>2.7</v>
-      </c>
-      <c r="Q965">
-        <v>0</v>
-      </c>
-      <c r="R965">
-        <v>2</v>
-      </c>
-      <c r="S965">
-        <v>1.8</v>
-      </c>
-      <c r="T965">
-        <v>2</v>
-      </c>
-      <c r="U965">
-        <v>1.825</v>
-      </c>
-      <c r="V965">
-        <v>1.975</v>
-      </c>
-      <c r="W965">
-        <v>-1</v>
-      </c>
-      <c r="X965">
-        <v>-1</v>
-      </c>
-      <c r="Y965">
-        <v>1.7</v>
-      </c>
       <c r="Z965">
         <v>-1</v>
       </c>
       <c r="AA965">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB965">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC965">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="966" spans="1:29">
@@ -86487,7 +86487,7 @@
         <v>964</v>
       </c>
       <c r="B966">
-        <v>6281797</v>
+        <v>6281969</v>
       </c>
       <c r="C966" t="s">
         <v>28</v>
@@ -86499,76 +86499,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F966" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="G966" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966">
         <v>1</v>
       </c>
       <c r="J966" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K966">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L966">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M966">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N966">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O966">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P966">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q966">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R966">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S966">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T966">
         <v>2</v>
       </c>
       <c r="U966">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V966">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W966">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X966">
         <v>-1</v>
       </c>
       <c r="Y966">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z966">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA966">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB966">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC966">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="967" spans="1:29">
@@ -86576,7 +86576,7 @@
         <v>965</v>
       </c>
       <c r="B967">
-        <v>6281969</v>
+        <v>6289129</v>
       </c>
       <c r="C967" t="s">
         <v>28</v>
@@ -86588,10 +86588,10 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F967" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G967" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H967">
         <v>2</v>
@@ -86603,43 +86603,43 @@
         <v>70</v>
       </c>
       <c r="K967">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L967">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M967">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N967">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O967">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P967">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q967">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R967">
         <v>1.975</v>
       </c>
       <c r="S967">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T967">
         <v>2</v>
       </c>
       <c r="U967">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V967">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W967">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="X967">
         <v>-1</v>
@@ -86648,13 +86648,13 @@
         <v>-1</v>
       </c>
       <c r="Z967">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA967">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB967">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC967">
         <v>-1</v>
@@ -86665,7 +86665,7 @@
         <v>966</v>
       </c>
       <c r="B968">
-        <v>6289129</v>
+        <v>6282014</v>
       </c>
       <c r="C968" t="s">
         <v>28</v>
@@ -86677,34 +86677,34 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F968" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G968" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I968">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J968" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K968">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L968">
         <v>3.1</v>
       </c>
       <c r="M968">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="N968">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O968">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P968">
         <v>2.7</v>
@@ -86713,37 +86713,37 @@
         <v>0</v>
       </c>
       <c r="R968">
+        <v>2</v>
+      </c>
+      <c r="S968">
+        <v>1.8</v>
+      </c>
+      <c r="T968">
+        <v>2</v>
+      </c>
+      <c r="U968">
+        <v>1.825</v>
+      </c>
+      <c r="V968">
         <v>1.975</v>
       </c>
-      <c r="S968">
-        <v>1.875</v>
-      </c>
-      <c r="T968">
-        <v>2</v>
-      </c>
-      <c r="U968">
-        <v>1.85</v>
-      </c>
-      <c r="V968">
-        <v>2</v>
-      </c>
       <c r="W968">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X968">
         <v>-1</v>
       </c>
       <c r="Y968">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z968">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA968">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB968">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC968">
         <v>-1</v>
@@ -88712,7 +88712,7 @@
         <v>989</v>
       </c>
       <c r="B991">
-        <v>6285535</v>
+        <v>6890591</v>
       </c>
       <c r="C991" t="s">
         <v>28</v>
@@ -88724,76 +88724,76 @@
         <v>45121.89583333334</v>
       </c>
       <c r="F991" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="G991" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H991">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I991">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J991" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K991">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L991">
+        <v>2.9</v>
+      </c>
+      <c r="M991">
+        <v>4.5</v>
+      </c>
+      <c r="N991">
+        <v>1.95</v>
+      </c>
+      <c r="O991">
         <v>3.2</v>
       </c>
-      <c r="M991">
-        <v>2.75</v>
-      </c>
-      <c r="N991">
-        <v>2.6</v>
-      </c>
-      <c r="O991">
-        <v>2.9</v>
-      </c>
       <c r="P991">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q991">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R991">
+        <v>1.95</v>
+      </c>
+      <c r="S991">
+        <v>1.9</v>
+      </c>
+      <c r="T991">
+        <v>2</v>
+      </c>
+      <c r="U991">
+        <v>2.05</v>
+      </c>
+      <c r="V991">
         <v>1.8</v>
       </c>
-      <c r="S991">
-        <v>2.05</v>
-      </c>
-      <c r="T991">
-        <v>2</v>
-      </c>
-      <c r="U991">
-        <v>2.025</v>
-      </c>
-      <c r="V991">
-        <v>1.775</v>
-      </c>
       <c r="W991">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X991">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y991">
         <v>-1</v>
       </c>
       <c r="Z991">
+        <v>-1</v>
+      </c>
+      <c r="AA991">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB991">
+        <v>-1</v>
+      </c>
+      <c r="AC991">
         <v>0.8</v>
-      </c>
-      <c r="AA991">
-        <v>-1</v>
-      </c>
-      <c r="AB991">
-        <v>1.025</v>
-      </c>
-      <c r="AC991">
-        <v>-1</v>
       </c>
     </row>
     <row r="992" spans="1:29">
@@ -88801,7 +88801,7 @@
         <v>990</v>
       </c>
       <c r="B992">
-        <v>6890591</v>
+        <v>6285535</v>
       </c>
       <c r="C992" t="s">
         <v>28</v>
@@ -88813,76 +88813,76 @@
         <v>45121.89583333334</v>
       </c>
       <c r="F992" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G992" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I992">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J992" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K992">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L992">
+        <v>3.2</v>
+      </c>
+      <c r="M992">
+        <v>2.75</v>
+      </c>
+      <c r="N992">
+        <v>2.6</v>
+      </c>
+      <c r="O992">
         <v>2.9</v>
       </c>
-      <c r="M992">
-        <v>4.5</v>
-      </c>
-      <c r="N992">
-        <v>1.95</v>
-      </c>
-      <c r="O992">
-        <v>3.2</v>
-      </c>
       <c r="P992">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q992">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R992">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S992">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T992">
         <v>2</v>
       </c>
       <c r="U992">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V992">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W992">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X992">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y992">
         <v>-1</v>
       </c>
       <c r="Z992">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA992">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB992">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC992">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="993" spans="1:29">
@@ -89691,7 +89691,7 @@
         <v>1000</v>
       </c>
       <c r="B1002">
-        <v>6285537</v>
+        <v>6289124</v>
       </c>
       <c r="C1002" t="s">
         <v>28</v>
@@ -89703,73 +89703,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F1002" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G1002" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H1002">
+        <v>2</v>
+      </c>
+      <c r="I1002">
+        <v>2</v>
+      </c>
+      <c r="J1002" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1002">
+        <v>2.25</v>
+      </c>
+      <c r="L1002">
+        <v>2.875</v>
+      </c>
+      <c r="M1002">
+        <v>3.2</v>
+      </c>
+      <c r="N1002">
+        <v>2.25</v>
+      </c>
+      <c r="O1002">
         <v>3</v>
       </c>
-      <c r="I1002">
-        <v>0</v>
-      </c>
-      <c r="J1002" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1002">
-        <v>1.4</v>
-      </c>
-      <c r="L1002">
-        <v>3.8</v>
-      </c>
-      <c r="M1002">
-        <v>8</v>
-      </c>
-      <c r="N1002">
-        <v>1.5</v>
-      </c>
-      <c r="O1002">
-        <v>4.2</v>
-      </c>
       <c r="P1002">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q1002">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R1002">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S1002">
+        <v>1.925</v>
+      </c>
+      <c r="T1002">
+        <v>2</v>
+      </c>
+      <c r="U1002">
+        <v>1.85</v>
+      </c>
+      <c r="V1002">
         <v>1.95</v>
       </c>
-      <c r="T1002">
-        <v>2.25</v>
-      </c>
-      <c r="U1002">
-        <v>2.1</v>
-      </c>
-      <c r="V1002">
-        <v>1.775</v>
-      </c>
       <c r="W1002">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X1002">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y1002">
         <v>-1</v>
       </c>
       <c r="Z1002">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1002">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB1002">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1002">
         <v>-1</v>
@@ -89780,7 +89780,7 @@
         <v>1001</v>
       </c>
       <c r="B1003">
-        <v>6289124</v>
+        <v>6285537</v>
       </c>
       <c r="C1003" t="s">
         <v>28</v>
@@ -89792,73 +89792,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F1003" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G1003" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1003">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1003" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1003">
+        <v>1.4</v>
+      </c>
+      <c r="L1003">
+        <v>3.8</v>
+      </c>
+      <c r="M1003">
+        <v>8</v>
+      </c>
+      <c r="N1003">
+        <v>1.5</v>
+      </c>
+      <c r="O1003">
+        <v>4.2</v>
+      </c>
+      <c r="P1003">
+        <v>6.5</v>
+      </c>
+      <c r="Q1003">
+        <v>-1</v>
+      </c>
+      <c r="R1003">
+        <v>1.9</v>
+      </c>
+      <c r="S1003">
+        <v>1.95</v>
+      </c>
+      <c r="T1003">
         <v>2.25</v>
       </c>
-      <c r="L1003">
-        <v>2.875</v>
-      </c>
-      <c r="M1003">
-        <v>3.2</v>
-      </c>
-      <c r="N1003">
-        <v>2.25</v>
-      </c>
-      <c r="O1003">
-        <v>3</v>
-      </c>
-      <c r="P1003">
-        <v>3.6</v>
-      </c>
-      <c r="Q1003">
-        <v>-0.25</v>
-      </c>
-      <c r="R1003">
-        <v>1.875</v>
-      </c>
-      <c r="S1003">
-        <v>1.925</v>
-      </c>
-      <c r="T1003">
-        <v>2</v>
-      </c>
       <c r="U1003">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V1003">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W1003">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X1003">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y1003">
         <v>-1</v>
       </c>
       <c r="Z1003">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA1003">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB1003">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC1003">
         <v>-1</v>
@@ -89869,7 +89869,7 @@
         <v>1002</v>
       </c>
       <c r="B1004">
-        <v>6281807</v>
+        <v>6285538</v>
       </c>
       <c r="C1004" t="s">
         <v>28</v>
@@ -89881,55 +89881,55 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F1004" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G1004" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1004">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1004" t="s">
         <v>71</v>
       </c>
       <c r="K1004">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L1004">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M1004">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N1004">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O1004">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P1004">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q1004">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1004">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S1004">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T1004">
         <v>2</v>
       </c>
       <c r="U1004">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V1004">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W1004">
         <v>-1</v>
@@ -89938,19 +89938,19 @@
         <v>-1</v>
       </c>
       <c r="Y1004">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Z1004">
         <v>-1</v>
       </c>
       <c r="AA1004">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB1004">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC1004">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1005" spans="1:29">
@@ -89958,7 +89958,7 @@
         <v>1003</v>
       </c>
       <c r="B1005">
-        <v>6282102</v>
+        <v>6281807</v>
       </c>
       <c r="C1005" t="s">
         <v>28</v>
@@ -89970,76 +89970,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F1005" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1005" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H1005">
+        <v>0</v>
+      </c>
+      <c r="I1005">
         <v>1</v>
       </c>
-      <c r="I1005">
-        <v>0</v>
-      </c>
       <c r="J1005" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1005">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L1005">
         <v>2.875</v>
       </c>
       <c r="M1005">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N1005">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O1005">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P1005">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q1005">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R1005">
-        <v>1.7</v>
+        <v>2.075</v>
       </c>
       <c r="S1005">
-        <v>2.2</v>
+        <v>1.725</v>
       </c>
       <c r="T1005">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U1005">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V1005">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W1005">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X1005">
         <v>-1</v>
       </c>
       <c r="Y1005">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z1005">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA1005">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB1005">
         <v>-1</v>
       </c>
       <c r="AC1005">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1006" spans="1:29">
@@ -90047,7 +90047,7 @@
         <v>1004</v>
       </c>
       <c r="B1006">
-        <v>6281972</v>
+        <v>6282102</v>
       </c>
       <c r="C1006" t="s">
         <v>28</v>
@@ -90059,13 +90059,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F1006" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G1006" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1006">
         <v>0</v>
@@ -90074,43 +90074,43 @@
         <v>70</v>
       </c>
       <c r="K1006">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L1006">
         <v>2.875</v>
       </c>
       <c r="M1006">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N1006">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O1006">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P1006">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q1006">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R1006">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S1006">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="T1006">
         <v>1.75</v>
       </c>
       <c r="U1006">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V1006">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W1006">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="X1006">
         <v>-1</v>
@@ -90119,16 +90119,16 @@
         <v>-1</v>
       </c>
       <c r="Z1006">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="AA1006">
         <v>-1</v>
       </c>
       <c r="AB1006">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC1006">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:29">
@@ -90136,7 +90136,7 @@
         <v>1005</v>
       </c>
       <c r="B1007">
-        <v>6285538</v>
+        <v>6281972</v>
       </c>
       <c r="C1007" t="s">
         <v>28</v>
@@ -90148,49 +90148,49 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F1007" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G1007" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H1007">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1007">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1007" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1007">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L1007">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M1007">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N1007">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O1007">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P1007">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q1007">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1007">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S1007">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T1007">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U1007">
         <v>1.825</v>
@@ -90199,25 +90199,25 @@
         <v>1.975</v>
       </c>
       <c r="W1007">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X1007">
         <v>-1</v>
       </c>
       <c r="Y1007">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z1007">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1007">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB1007">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC1007">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1008" spans="1:29">
@@ -90937,7 +90937,7 @@
         <v>1014</v>
       </c>
       <c r="B1016">
-        <v>6286300</v>
+        <v>6281811</v>
       </c>
       <c r="C1016" t="s">
         <v>28</v>
@@ -90949,76 +90949,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F1016" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="G1016" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H1016">
         <v>1</v>
       </c>
       <c r="I1016">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1016" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1016">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L1016">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M1016">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N1016">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O1016">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P1016">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q1016">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R1016">
+        <v>1.775</v>
+      </c>
+      <c r="S1016">
+        <v>2.025</v>
+      </c>
+      <c r="T1016">
+        <v>1.75</v>
+      </c>
+      <c r="U1016">
+        <v>1.8</v>
+      </c>
+      <c r="V1016">
+        <v>2</v>
+      </c>
+      <c r="W1016">
+        <v>-1</v>
+      </c>
+      <c r="X1016">
+        <v>-1</v>
+      </c>
+      <c r="Y1016">
         <v>1.9</v>
       </c>
-      <c r="S1016">
-        <v>1.95</v>
-      </c>
-      <c r="T1016">
-        <v>2.25</v>
-      </c>
-      <c r="U1016">
-        <v>2.05</v>
-      </c>
-      <c r="V1016">
-        <v>1.8</v>
-      </c>
-      <c r="W1016">
-        <v>0.7</v>
-      </c>
-      <c r="X1016">
-        <v>-1</v>
-      </c>
-      <c r="Y1016">
-        <v>-1</v>
-      </c>
       <c r="Z1016">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA1016">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB1016">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC1016">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1017" spans="1:29">
@@ -91026,7 +91026,7 @@
         <v>1015</v>
       </c>
       <c r="B1017">
-        <v>6281811</v>
+        <v>6286300</v>
       </c>
       <c r="C1017" t="s">
         <v>28</v>
@@ -91038,76 +91038,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F1017" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G1017" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H1017">
         <v>1</v>
       </c>
       <c r="I1017">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1017" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1017">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L1017">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M1017">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N1017">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O1017">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P1017">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q1017">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R1017">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S1017">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T1017">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1017">
+        <v>2.05</v>
+      </c>
+      <c r="V1017">
         <v>1.8</v>
       </c>
-      <c r="V1017">
-        <v>2</v>
-      </c>
       <c r="W1017">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X1017">
         <v>-1</v>
       </c>
       <c r="Y1017">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z1017">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA1017">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1017">
+        <v>-1</v>
+      </c>
+      <c r="AC1017">
         <v>0.8</v>
-      </c>
-      <c r="AC1017">
-        <v>-1</v>
       </c>
     </row>
     <row r="1018" spans="1:29">
@@ -92005,7 +92005,7 @@
         <v>1026</v>
       </c>
       <c r="B1028">
-        <v>6289120</v>
+        <v>6281874</v>
       </c>
       <c r="C1028" t="s">
         <v>28</v>
@@ -92017,61 +92017,61 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F1028" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G1028" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1028" t="s">
         <v>72</v>
       </c>
       <c r="K1028">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L1028">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M1028">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N1028">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O1028">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P1028">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q1028">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1028">
+        <v>2.025</v>
+      </c>
+      <c r="S1028">
         <v>1.825</v>
       </c>
-      <c r="S1028">
-        <v>1.975</v>
-      </c>
       <c r="T1028">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U1028">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V1028">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W1028">
         <v>-1</v>
       </c>
       <c r="X1028">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y1028">
         <v>-1</v>
@@ -92080,13 +92080,13 @@
         <v>-1</v>
       </c>
       <c r="AA1028">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB1028">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC1028">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1029" spans="1:29">
@@ -92094,7 +92094,7 @@
         <v>1027</v>
       </c>
       <c r="B1029">
-        <v>6281874</v>
+        <v>6289120</v>
       </c>
       <c r="C1029" t="s">
         <v>28</v>
@@ -92106,61 +92106,61 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F1029" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G1029" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1029" t="s">
         <v>72</v>
       </c>
       <c r="K1029">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L1029">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M1029">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N1029">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O1029">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P1029">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q1029">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R1029">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S1029">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T1029">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U1029">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V1029">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W1029">
         <v>-1</v>
       </c>
       <c r="X1029">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y1029">
         <v>-1</v>
@@ -92169,13 +92169,13 @@
         <v>-1</v>
       </c>
       <c r="AA1029">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB1029">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC1029">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1030" spans="1:29">
@@ -92450,7 +92450,7 @@
         <v>1031</v>
       </c>
       <c r="B1033">
-        <v>6282019</v>
+        <v>6285544</v>
       </c>
       <c r="C1033" t="s">
         <v>28</v>
@@ -92462,76 +92462,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F1033" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1033" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H1033">
+        <v>0</v>
+      </c>
+      <c r="I1033">
         <v>1</v>
       </c>
-      <c r="I1033">
-        <v>0</v>
-      </c>
       <c r="J1033" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1033">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L1033">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M1033">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N1033">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O1033">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P1033">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q1033">
         <v>-0.25</v>
       </c>
       <c r="R1033">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S1033">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T1033">
         <v>1.75</v>
       </c>
       <c r="U1033">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V1033">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W1033">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X1033">
         <v>-1</v>
       </c>
       <c r="Y1033">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z1033">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA1033">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB1033">
         <v>-1</v>
       </c>
       <c r="AC1033">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1034" spans="1:29">
@@ -92539,7 +92539,7 @@
         <v>1032</v>
       </c>
       <c r="B1034">
-        <v>6281815</v>
+        <v>6282019</v>
       </c>
       <c r="C1034" t="s">
         <v>28</v>
@@ -92551,76 +92551,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F1034" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G1034" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1034">
         <v>0</v>
       </c>
       <c r="J1034" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1034">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L1034">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M1034">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N1034">
+        <v>2.375</v>
+      </c>
+      <c r="O1034">
+        <v>3.1</v>
+      </c>
+      <c r="P1034">
+        <v>3.3</v>
+      </c>
+      <c r="Q1034">
+        <v>-0.25</v>
+      </c>
+      <c r="R1034">
         <v>2.05</v>
       </c>
-      <c r="O1034">
-        <v>3.25</v>
-      </c>
-      <c r="P1034">
-        <v>4</v>
-      </c>
-      <c r="Q1034">
-        <v>-0.5</v>
-      </c>
-      <c r="R1034">
-        <v>2.025</v>
-      </c>
       <c r="S1034">
+        <v>1.8</v>
+      </c>
+      <c r="T1034">
+        <v>1.75</v>
+      </c>
+      <c r="U1034">
         <v>1.775</v>
       </c>
-      <c r="T1034">
-        <v>2</v>
-      </c>
-      <c r="U1034">
-        <v>1.95</v>
-      </c>
       <c r="V1034">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W1034">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X1034">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y1034">
         <v>-1</v>
       </c>
       <c r="Z1034">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA1034">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1034">
         <v>-1</v>
       </c>
       <c r="AC1034">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="1035" spans="1:29">
@@ -92628,7 +92628,7 @@
         <v>1033</v>
       </c>
       <c r="B1035">
-        <v>6285544</v>
+        <v>6281815</v>
       </c>
       <c r="C1035" t="s">
         <v>28</v>
@@ -92640,76 +92640,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F1035" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G1035" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H1035">
         <v>0</v>
       </c>
       <c r="I1035">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1035" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1035">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L1035">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M1035">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N1035">
+        <v>2.05</v>
+      </c>
+      <c r="O1035">
+        <v>3.25</v>
+      </c>
+      <c r="P1035">
+        <v>4</v>
+      </c>
+      <c r="Q1035">
+        <v>-0.5</v>
+      </c>
+      <c r="R1035">
+        <v>2.025</v>
+      </c>
+      <c r="S1035">
+        <v>1.775</v>
+      </c>
+      <c r="T1035">
+        <v>2</v>
+      </c>
+      <c r="U1035">
+        <v>1.95</v>
+      </c>
+      <c r="V1035">
+        <v>1.85</v>
+      </c>
+      <c r="W1035">
+        <v>-1</v>
+      </c>
+      <c r="X1035">
         <v>2.25</v>
       </c>
-      <c r="O1035">
-        <v>2.875</v>
-      </c>
-      <c r="P1035">
-        <v>3.8</v>
-      </c>
-      <c r="Q1035">
-        <v>-0.25</v>
-      </c>
-      <c r="R1035">
-        <v>1.9</v>
-      </c>
-      <c r="S1035">
-        <v>1.95</v>
-      </c>
-      <c r="T1035">
-        <v>1.75</v>
-      </c>
-      <c r="U1035">
-        <v>1.825</v>
-      </c>
-      <c r="V1035">
-        <v>2.025</v>
-      </c>
-      <c r="W1035">
-        <v>-1</v>
-      </c>
-      <c r="X1035">
-        <v>-1</v>
-      </c>
       <c r="Y1035">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z1035">
         <v>-1</v>
       </c>
       <c r="AA1035">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1035">
         <v>-1</v>
       </c>
       <c r="AC1035">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1036" spans="1:29">
@@ -93607,7 +93607,7 @@
         <v>1044</v>
       </c>
       <c r="B1046">
-        <v>6959080</v>
+        <v>6286301</v>
       </c>
       <c r="C1046" t="s">
         <v>28</v>
@@ -93619,58 +93619,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F1046" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G1046" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="H1046">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1046">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1046" t="s">
         <v>70</v>
       </c>
       <c r="K1046">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L1046">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M1046">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="N1046">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O1046">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P1046">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q1046">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R1046">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S1046">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T1046">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U1046">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V1046">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W1046">
-        <v>0.7270000000000001</v>
+        <v>2</v>
       </c>
       <c r="X1046">
         <v>-1</v>
@@ -93679,16 +93679,16 @@
         <v>-1</v>
       </c>
       <c r="Z1046">
-        <v>0.4875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA1046">
+        <v>-1</v>
+      </c>
+      <c r="AB1046">
+        <v>0.3875</v>
+      </c>
+      <c r="AC1046">
         <v>-0.5</v>
-      </c>
-      <c r="AB1046">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC1046">
-        <v>-1</v>
       </c>
     </row>
     <row r="1047" spans="1:29">
@@ -93696,7 +93696,7 @@
         <v>1045</v>
       </c>
       <c r="B1047">
-        <v>6286301</v>
+        <v>6959080</v>
       </c>
       <c r="C1047" t="s">
         <v>28</v>
@@ -93708,58 +93708,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F1047" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="G1047" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1047">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1047" t="s">
         <v>70</v>
       </c>
       <c r="K1047">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L1047">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M1047">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N1047">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O1047">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P1047">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q1047">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1047">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S1047">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T1047">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1047">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V1047">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W1047">
-        <v>2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X1047">
         <v>-1</v>
@@ -93768,16 +93768,16 @@
         <v>-1</v>
       </c>
       <c r="Z1047">
-        <v>0.7250000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA1047">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1047">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1047">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1048" spans="1:29">
@@ -99659,7 +99659,7 @@
         <v>1112</v>
       </c>
       <c r="B1114">
-        <v>6326524</v>
+        <v>6355831</v>
       </c>
       <c r="C1114" t="s">
         <v>28</v>
@@ -99671,76 +99671,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F1114" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G1114" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="H1114">
         <v>1</v>
       </c>
       <c r="I1114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1114" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1114">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L1114">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M1114">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N1114">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O1114">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P1114">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q1114">
         <v>-0.25</v>
       </c>
       <c r="R1114">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S1114">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T1114">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U1114">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V1114">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W1114">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X1114">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y1114">
         <v>-1</v>
       </c>
       <c r="Z1114">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1114">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB1114">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1114">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1115" spans="1:29">
@@ -99748,7 +99748,7 @@
         <v>1113</v>
       </c>
       <c r="B1115">
-        <v>6355831</v>
+        <v>6326524</v>
       </c>
       <c r="C1115" t="s">
         <v>28</v>
@@ -99760,76 +99760,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F1115" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G1115" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H1115">
         <v>1</v>
       </c>
       <c r="I1115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1115" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1115">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L1115">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M1115">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N1115">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O1115">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P1115">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q1115">
         <v>-0.25</v>
       </c>
       <c r="R1115">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S1115">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T1115">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U1115">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V1115">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W1115">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X1115">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y1115">
         <v>-1</v>
       </c>
       <c r="Z1115">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA1115">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB1115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC1115">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="1116" spans="1:29">
@@ -100638,7 +100638,7 @@
         <v>1123</v>
       </c>
       <c r="B1125">
-        <v>7258771</v>
+        <v>6390961</v>
       </c>
       <c r="C1125" t="s">
         <v>28</v>
@@ -100650,76 +100650,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F1125" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G1125" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H1125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1125">
         <v>1</v>
       </c>
       <c r="J1125" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1125">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L1125">
         <v>3</v>
       </c>
       <c r="M1125">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N1125">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O1125">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P1125">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q1125">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1125">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S1125">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T1125">
         <v>1.75</v>
       </c>
       <c r="U1125">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V1125">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W1125">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X1125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1125">
         <v>-1</v>
       </c>
       <c r="Z1125">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA1125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1125">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC1125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1126" spans="1:29">
@@ -100727,7 +100727,7 @@
         <v>1124</v>
       </c>
       <c r="B1126">
-        <v>6390961</v>
+        <v>7258771</v>
       </c>
       <c r="C1126" t="s">
         <v>28</v>
@@ -100739,76 +100739,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F1126" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G1126" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H1126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1126">
         <v>1</v>
       </c>
       <c r="J1126" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1126">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L1126">
         <v>3</v>
       </c>
       <c r="M1126">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N1126">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="O1126">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P1126">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q1126">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1126">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S1126">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T1126">
         <v>1.75</v>
       </c>
       <c r="U1126">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V1126">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W1126">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X1126">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1126">
         <v>-1</v>
       </c>
       <c r="Z1126">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA1126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1126">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC1126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1127" spans="1:29">
@@ -101261,7 +101261,7 @@
         <v>1130</v>
       </c>
       <c r="B1132">
-        <v>6537870</v>
+        <v>6571262</v>
       </c>
       <c r="C1132" t="s">
         <v>28</v>
@@ -101273,13 +101273,13 @@
         <v>45205.89583333334</v>
       </c>
       <c r="F1132" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="G1132" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1132">
         <v>0</v>
@@ -101288,43 +101288,43 @@
         <v>70</v>
       </c>
       <c r="K1132">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L1132">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M1132">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="N1132">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O1132">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P1132">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q1132">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R1132">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S1132">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T1132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1132">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V1132">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W1132">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X1132">
         <v>-1</v>
@@ -101333,16 +101333,16 @@
         <v>-1</v>
       </c>
       <c r="Z1132">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA1132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC1132">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1133" spans="1:29">
@@ -101350,7 +101350,7 @@
         <v>1131</v>
       </c>
       <c r="B1133">
-        <v>6571262</v>
+        <v>6537870</v>
       </c>
       <c r="C1133" t="s">
         <v>28</v>
@@ -101362,13 +101362,13 @@
         <v>45205.89583333334</v>
       </c>
       <c r="F1133" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G1133" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H1133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1133">
         <v>0</v>
@@ -101377,61 +101377,61 @@
         <v>70</v>
       </c>
       <c r="K1133">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L1133">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M1133">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="N1133">
+        <v>1.65</v>
+      </c>
+      <c r="O1133">
+        <v>3.6</v>
+      </c>
+      <c r="P1133">
+        <v>5.75</v>
+      </c>
+      <c r="Q1133">
+        <v>-0.75</v>
+      </c>
+      <c r="R1133">
+        <v>1.8</v>
+      </c>
+      <c r="S1133">
+        <v>2.05</v>
+      </c>
+      <c r="T1133">
+        <v>2.25</v>
+      </c>
+      <c r="U1133">
+        <v>1.9</v>
+      </c>
+      <c r="V1133">
         <v>1.95</v>
       </c>
-      <c r="O1133">
-        <v>3.25</v>
-      </c>
-      <c r="P1133">
-        <v>4.333</v>
-      </c>
-      <c r="Q1133">
+      <c r="W1133">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X1133">
+        <v>-1</v>
+      </c>
+      <c r="Y1133">
+        <v>-1</v>
+      </c>
+      <c r="Z1133">
+        <v>0.4</v>
+      </c>
+      <c r="AA1133">
         <v>-0.5</v>
       </c>
-      <c r="R1133">
-        <v>1.925</v>
-      </c>
-      <c r="S1133">
-        <v>1.875</v>
-      </c>
-      <c r="T1133">
-        <v>2</v>
-      </c>
-      <c r="U1133">
-        <v>1.775</v>
-      </c>
-      <c r="V1133">
-        <v>2.025</v>
-      </c>
-      <c r="W1133">
+      <c r="AB1133">
+        <v>-1</v>
+      </c>
+      <c r="AC1133">
         <v>0.95</v>
-      </c>
-      <c r="X1133">
-        <v>-1</v>
-      </c>
-      <c r="Y1133">
-        <v>-1</v>
-      </c>
-      <c r="Z1133">
-        <v>0.925</v>
-      </c>
-      <c r="AA1133">
-        <v>-1</v>
-      </c>
-      <c r="AB1133">
-        <v>0</v>
-      </c>
-      <c r="AC1133">
-        <v>-0</v>
       </c>
     </row>
     <row r="1134" spans="1:29">

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -48929,7 +48929,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>4643561</v>
+        <v>4658986</v>
       </c>
       <c r="C544" t="s">
         <v>28</v>
@@ -48941,37 +48941,37 @@
         <v>44716.6875</v>
       </c>
       <c r="F544" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G544" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J544" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K544">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L544">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M544">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="N544">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O544">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P544">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q544">
         <v>-0.5</v>
@@ -48986,31 +48986,31 @@
         <v>2</v>
       </c>
       <c r="U544">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V544">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W544">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X544">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y544">
         <v>-1</v>
       </c>
       <c r="Z544">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA544">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB544">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC544">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="545" spans="1:29">
@@ -49018,7 +49018,7 @@
         <v>543</v>
       </c>
       <c r="B545">
-        <v>4658986</v>
+        <v>4643561</v>
       </c>
       <c r="C545" t="s">
         <v>28</v>
@@ -49030,37 +49030,37 @@
         <v>44716.6875</v>
       </c>
       <c r="F545" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G545" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J545" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K545">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L545">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M545">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N545">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O545">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P545">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q545">
         <v>-0.5</v>
@@ -49075,31 +49075,31 @@
         <v>2</v>
       </c>
       <c r="U545">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V545">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W545">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X545">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y545">
         <v>-1</v>
       </c>
       <c r="Z545">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA545">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB545">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC545">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546" spans="1:29">
@@ -52044,7 +52044,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>4643569</v>
+        <v>4644873</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -52056,76 +52056,76 @@
         <v>44735.89583333334</v>
       </c>
       <c r="F579" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G579" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I579">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J579" t="s">
         <v>72</v>
       </c>
       <c r="K579">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L579">
+        <v>3</v>
+      </c>
+      <c r="M579">
+        <v>2.6</v>
+      </c>
+      <c r="N579">
         <v>3.3</v>
       </c>
-      <c r="M579">
-        <v>3.6</v>
-      </c>
-      <c r="N579">
-        <v>2.25</v>
-      </c>
       <c r="O579">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P579">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q579">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R579">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S579">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="T579">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U579">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V579">
+        <v>1.8</v>
+      </c>
+      <c r="W579">
+        <v>-1</v>
+      </c>
+      <c r="X579">
         <v>1.875</v>
       </c>
-      <c r="W579">
-        <v>-1</v>
-      </c>
-      <c r="X579">
-        <v>2</v>
-      </c>
       <c r="Y579">
         <v>-1</v>
       </c>
       <c r="Z579">
+        <v>0.3625</v>
+      </c>
+      <c r="AA579">
         <v>-0.5</v>
       </c>
-      <c r="AA579">
-        <v>0.475</v>
-      </c>
       <c r="AB579">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC579">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -52133,7 +52133,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>4644873</v>
+        <v>4643569</v>
       </c>
       <c r="C580" t="s">
         <v>28</v>
@@ -52145,76 +52145,76 @@
         <v>44735.89583333334</v>
       </c>
       <c r="F580" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G580" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J580" t="s">
         <v>72</v>
       </c>
       <c r="K580">
+        <v>2.1</v>
+      </c>
+      <c r="L580">
+        <v>3.3</v>
+      </c>
+      <c r="M580">
+        <v>3.6</v>
+      </c>
+      <c r="N580">
+        <v>2.25</v>
+      </c>
+      <c r="O580">
         <v>3</v>
       </c>
-      <c r="L580">
-        <v>3</v>
-      </c>
-      <c r="M580">
-        <v>2.6</v>
-      </c>
-      <c r="N580">
-        <v>3.3</v>
-      </c>
-      <c r="O580">
-        <v>2.875</v>
-      </c>
       <c r="P580">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q580">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R580">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S580">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="T580">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U580">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V580">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W580">
         <v>-1</v>
       </c>
       <c r="X580">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y580">
         <v>-1</v>
       </c>
       <c r="Z580">
-        <v>0.3625</v>
+        <v>-0.5</v>
       </c>
       <c r="AA580">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB580">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC580">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="581" spans="1:29">
@@ -52934,7 +52934,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>4643571</v>
+        <v>4643935</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52946,76 +52946,76 @@
         <v>44740.79166666666</v>
       </c>
       <c r="F589" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G589" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I589">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J589" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K589">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L589">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="M589">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N589">
-        <v>3</v>
+        <v>1.45</v>
       </c>
       <c r="O589">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="P589">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="Q589">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R589">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S589">
+        <v>1.775</v>
+      </c>
+      <c r="T589">
+        <v>2.25</v>
+      </c>
+      <c r="U589">
         <v>1.875</v>
       </c>
-      <c r="T589">
-        <v>1.75</v>
-      </c>
-      <c r="U589">
-        <v>1.975</v>
-      </c>
       <c r="V589">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W589">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X589">
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z589">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA589">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
       <c r="AB589">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC589">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53023,7 +53023,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>4643935</v>
+        <v>4643571</v>
       </c>
       <c r="C590" t="s">
         <v>28</v>
@@ -53035,76 +53035,76 @@
         <v>44740.79166666666</v>
       </c>
       <c r="F590" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G590" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H590">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J590" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K590">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L590">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M590">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N590">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O590">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="P590">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="Q590">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R590">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S590">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T590">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U590">
+        <v>1.975</v>
+      </c>
+      <c r="V590">
         <v>1.875</v>
       </c>
-      <c r="V590">
-        <v>1.925</v>
-      </c>
       <c r="W590">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X590">
         <v>-1</v>
       </c>
       <c r="Y590">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z590">
+        <v>-1</v>
+      </c>
+      <c r="AA590">
+        <v>0.875</v>
+      </c>
+      <c r="AB590">
+        <v>0.4875</v>
+      </c>
+      <c r="AC590">
         <v>-0.5</v>
-      </c>
-      <c r="AA590">
-        <v>0.3875</v>
-      </c>
-      <c r="AB590">
-        <v>-1</v>
-      </c>
-      <c r="AC590">
-        <v>0.925</v>
       </c>
     </row>
     <row r="591" spans="1:29">
@@ -53112,7 +53112,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>4643539</v>
+        <v>4644089</v>
       </c>
       <c r="C591" t="s">
         <v>28</v>
@@ -53124,76 +53124,76 @@
         <v>44740.89583333334</v>
       </c>
       <c r="F591" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G591" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I591">
         <v>1</v>
       </c>
       <c r="J591" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K591">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L591">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M591">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N591">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O591">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P591">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q591">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R591">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S591">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T591">
         <v>1.75</v>
       </c>
       <c r="U591">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V591">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W591">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X591">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y591">
         <v>-1</v>
       </c>
       <c r="Z591">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA591">
+        <v>0.5</v>
+      </c>
+      <c r="AB591">
+        <v>0.475</v>
+      </c>
+      <c r="AC591">
         <v>-0.5</v>
-      </c>
-      <c r="AB591">
-        <v>0.8</v>
-      </c>
-      <c r="AC591">
-        <v>-1</v>
       </c>
     </row>
     <row r="592" spans="1:29">
@@ -53201,7 +53201,7 @@
         <v>590</v>
       </c>
       <c r="B592">
-        <v>4644089</v>
+        <v>4644870</v>
       </c>
       <c r="C592" t="s">
         <v>28</v>
@@ -53213,52 +53213,52 @@
         <v>44740.89583333334</v>
       </c>
       <c r="F592" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G592" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J592" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K592">
         <v>2.2</v>
       </c>
       <c r="L592">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M592">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N592">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O592">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P592">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q592">
         <v>-0.25</v>
       </c>
       <c r="R592">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S592">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T592">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U592">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V592">
         <v>1.9</v>
@@ -53267,22 +53267,22 @@
         <v>-1</v>
       </c>
       <c r="X592">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y592">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z592">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA592">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB592">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC592">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="593" spans="1:29">
@@ -53290,7 +53290,7 @@
         <v>591</v>
       </c>
       <c r="B593">
-        <v>4644870</v>
+        <v>4643539</v>
       </c>
       <c r="C593" t="s">
         <v>28</v>
@@ -53302,76 +53302,76 @@
         <v>44740.89583333334</v>
       </c>
       <c r="F593" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G593" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J593" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K593">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L593">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M593">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N593">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="O593">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P593">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="Q593">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R593">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S593">
+        <v>1.95</v>
+      </c>
+      <c r="T593">
+        <v>1.75</v>
+      </c>
+      <c r="U593">
         <v>1.8</v>
       </c>
-      <c r="T593">
-        <v>2</v>
-      </c>
-      <c r="U593">
-        <v>1.9</v>
-      </c>
       <c r="V593">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W593">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X593">
         <v>-1</v>
       </c>
       <c r="Y593">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z593">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA593">
+        <v>-0.5</v>
+      </c>
+      <c r="AB593">
         <v>0.8</v>
       </c>
-      <c r="AB593">
-        <v>0</v>
-      </c>
       <c r="AC593">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="594" spans="1:29">
@@ -53468,7 +53468,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>4644869</v>
+        <v>4658981</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53480,76 +53480,76 @@
         <v>44741.89583333334</v>
       </c>
       <c r="F595" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G595" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595">
         <v>0</v>
       </c>
       <c r="J595" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K595">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L595">
         <v>3</v>
       </c>
       <c r="M595">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="N595">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O595">
+        <v>2.8</v>
+      </c>
+      <c r="P595">
         <v>2.9</v>
       </c>
-      <c r="P595">
-        <v>4</v>
-      </c>
       <c r="Q595">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R595">
+        <v>1.875</v>
+      </c>
+      <c r="S595">
+        <v>1.925</v>
+      </c>
+      <c r="T595">
+        <v>1.75</v>
+      </c>
+      <c r="U595">
+        <v>1.825</v>
+      </c>
+      <c r="V595">
+        <v>1.975</v>
+      </c>
+      <c r="W595">
         <v>1.8</v>
       </c>
-      <c r="S595">
-        <v>2</v>
-      </c>
-      <c r="T595">
-        <v>2</v>
-      </c>
-      <c r="U595">
-        <v>2.025</v>
-      </c>
-      <c r="V595">
-        <v>1.775</v>
-      </c>
-      <c r="W595">
-        <v>-1</v>
-      </c>
       <c r="X595">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y595">
         <v>-1</v>
       </c>
       <c r="Z595">
+        <v>0.875</v>
+      </c>
+      <c r="AA595">
+        <v>-1</v>
+      </c>
+      <c r="AB595">
+        <v>0.4125</v>
+      </c>
+      <c r="AC595">
         <v>-0.5</v>
-      </c>
-      <c r="AA595">
-        <v>0.5</v>
-      </c>
-      <c r="AB595">
-        <v>-1</v>
-      </c>
-      <c r="AC595">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="596" spans="1:29">
@@ -53557,7 +53557,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>4658981</v>
+        <v>4644869</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53569,76 +53569,76 @@
         <v>44741.89583333334</v>
       </c>
       <c r="F596" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="G596" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596">
         <v>0</v>
       </c>
       <c r="J596" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K596">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L596">
         <v>3</v>
       </c>
       <c r="M596">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="N596">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O596">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P596">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q596">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R596">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S596">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T596">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U596">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V596">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W596">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X596">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y596">
         <v>-1</v>
       </c>
       <c r="Z596">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA596">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB596">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC596">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53735,7 +53735,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>4644090</v>
+        <v>4643605</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53747,10 +53747,10 @@
         <v>44743.89583333334</v>
       </c>
       <c r="F598" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G598" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H598">
         <v>2</v>
@@ -53762,25 +53762,25 @@
         <v>70</v>
       </c>
       <c r="K598">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="L598">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M598">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N598">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O598">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P598">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q598">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R598">
         <v>1.925</v>
@@ -53792,13 +53792,13 @@
         <v>2</v>
       </c>
       <c r="U598">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V598">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W598">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X598">
         <v>-1</v>
@@ -53824,7 +53824,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>4643605</v>
+        <v>4644090</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53836,10 +53836,10 @@
         <v>44743.89583333334</v>
       </c>
       <c r="F599" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G599" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H599">
         <v>2</v>
@@ -53851,25 +53851,25 @@
         <v>70</v>
       </c>
       <c r="K599">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="L599">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M599">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="N599">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O599">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P599">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q599">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R599">
         <v>1.925</v>
@@ -53881,13 +53881,13 @@
         <v>2</v>
       </c>
       <c r="U599">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V599">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W599">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X599">
         <v>-1</v>
@@ -56583,7 +56583,7 @@
         <v>628</v>
       </c>
       <c r="B630">
-        <v>4644863</v>
+        <v>4644550</v>
       </c>
       <c r="C630" t="s">
         <v>28</v>
@@ -56595,76 +56595,76 @@
         <v>44761.79166666666</v>
       </c>
       <c r="F630" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G630" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H630">
         <v>1</v>
       </c>
       <c r="I630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J630" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K630">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L630">
+        <v>2.9</v>
+      </c>
+      <c r="M630">
         <v>3</v>
       </c>
-      <c r="M630">
-        <v>2.15</v>
-      </c>
       <c r="N630">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="O630">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P630">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="Q630">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R630">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S630">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T630">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U630">
+        <v>2</v>
+      </c>
+      <c r="V630">
         <v>1.8</v>
       </c>
-      <c r="V630">
-        <v>2</v>
-      </c>
       <c r="W630">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X630">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y630">
         <v>-1</v>
       </c>
       <c r="Z630">
-        <v>0.7749999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AA630">
         <v>-1</v>
       </c>
       <c r="AB630">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC630">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="631" spans="1:29">
@@ -56761,7 +56761,7 @@
         <v>630</v>
       </c>
       <c r="B632">
-        <v>4644550</v>
+        <v>4644863</v>
       </c>
       <c r="C632" t="s">
         <v>28</v>
@@ -56773,76 +56773,76 @@
         <v>44761.79166666666</v>
       </c>
       <c r="F632" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G632" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H632">
         <v>1</v>
       </c>
       <c r="I632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J632" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K632">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L632">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M632">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="N632">
+        <v>4.2</v>
+      </c>
+      <c r="O632">
         <v>3.1</v>
       </c>
-      <c r="O632">
-        <v>2.875</v>
-      </c>
       <c r="P632">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="Q632">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R632">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S632">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T632">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U632">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V632">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W632">
+        <v>-1</v>
+      </c>
+      <c r="X632">
         <v>2.1</v>
       </c>
-      <c r="X632">
-        <v>-1</v>
-      </c>
       <c r="Y632">
         <v>-1</v>
       </c>
       <c r="Z632">
-        <v>1.075</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA632">
         <v>-1</v>
       </c>
       <c r="AB632">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC632">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="633" spans="1:29">
@@ -59520,7 +59520,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>5396391</v>
+        <v>4643947</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59532,76 +59532,76 @@
         <v>44778.79166666666</v>
       </c>
       <c r="F663" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G663" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H663">
         <v>1</v>
       </c>
       <c r="I663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J663" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K663">
+        <v>2.1</v>
+      </c>
+      <c r="L663">
+        <v>3</v>
+      </c>
+      <c r="M663">
+        <v>3.75</v>
+      </c>
+      <c r="N663">
         <v>2.3</v>
       </c>
-      <c r="L663">
-        <v>3.1</v>
-      </c>
-      <c r="M663">
-        <v>2.875</v>
-      </c>
-      <c r="N663">
-        <v>2.625</v>
-      </c>
       <c r="O663">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P663">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q663">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R663">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S663">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T663">
         <v>2</v>
       </c>
       <c r="U663">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V663">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W663">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X663">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y663">
         <v>-1</v>
       </c>
       <c r="Z663">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA663">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB663">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC663">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -59609,7 +59609,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>4643947</v>
+        <v>5396391</v>
       </c>
       <c r="C664" t="s">
         <v>28</v>
@@ -59621,76 +59621,76 @@
         <v>44778.79166666666</v>
       </c>
       <c r="F664" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G664" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H664">
         <v>1</v>
       </c>
       <c r="I664">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J664" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K664">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L664">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M664">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N664">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O664">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P664">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q664">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R664">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S664">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T664">
         <v>2</v>
       </c>
       <c r="U664">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V664">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W664">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X664">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y664">
         <v>-1</v>
       </c>
       <c r="Z664">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA664">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB664">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC664">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="665" spans="1:29">
@@ -59876,7 +59876,7 @@
         <v>665</v>
       </c>
       <c r="B667">
-        <v>4651118</v>
+        <v>5396390</v>
       </c>
       <c r="C667" t="s">
         <v>28</v>
@@ -59888,76 +59888,76 @@
         <v>44779.79166666666</v>
       </c>
       <c r="F667" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G667" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J667" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K667">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="L667">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M667">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="N667">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O667">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P667">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q667">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R667">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S667">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T667">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U667">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V667">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W667">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X667">
         <v>-1</v>
       </c>
       <c r="Y667">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z667">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA667">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB667">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC667">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="668" spans="1:29">
@@ -59965,7 +59965,7 @@
         <v>666</v>
       </c>
       <c r="B668">
-        <v>5396390</v>
+        <v>4651118</v>
       </c>
       <c r="C668" t="s">
         <v>28</v>
@@ -59977,76 +59977,76 @@
         <v>44779.79166666666</v>
       </c>
       <c r="F668" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G668" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J668" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K668">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="L668">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M668">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N668">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O668">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P668">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="Q668">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R668">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S668">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T668">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U668">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V668">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W668">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X668">
         <v>-1</v>
       </c>
       <c r="Y668">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z668">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA668">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB668">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC668">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="669" spans="1:29">
@@ -68598,7 +68598,7 @@
         <v>763</v>
       </c>
       <c r="B765">
-        <v>4918630</v>
+        <v>4914127</v>
       </c>
       <c r="C765" t="s">
         <v>28</v>
@@ -68610,73 +68610,73 @@
         <v>44834.79166666666</v>
       </c>
       <c r="F765" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G765" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H765">
+        <v>2</v>
+      </c>
+      <c r="I765">
         <v>1</v>
       </c>
-      <c r="I765">
-        <v>2</v>
-      </c>
       <c r="J765" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K765">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L765">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M765">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N765">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O765">
         <v>3.1</v>
       </c>
       <c r="P765">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="Q765">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R765">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S765">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T765">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U765">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V765">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W765">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X765">
         <v>-1</v>
       </c>
       <c r="Y765">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z765">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA765">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB765">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC765">
         <v>-1</v>
@@ -68687,7 +68687,7 @@
         <v>764</v>
       </c>
       <c r="B766">
-        <v>4914127</v>
+        <v>4918630</v>
       </c>
       <c r="C766" t="s">
         <v>28</v>
@@ -68699,73 +68699,73 @@
         <v>44834.79166666666</v>
       </c>
       <c r="F766" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G766" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J766" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K766">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L766">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M766">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="N766">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O766">
         <v>3.1</v>
       </c>
       <c r="P766">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="Q766">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R766">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S766">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T766">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U766">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V766">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W766">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X766">
         <v>-1</v>
       </c>
       <c r="Y766">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z766">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA766">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB766">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC766">
         <v>-1</v>
@@ -72247,7 +72247,7 @@
         <v>804</v>
       </c>
       <c r="B806">
-        <v>4968820</v>
+        <v>4969151</v>
       </c>
       <c r="C806" t="s">
         <v>28</v>
@@ -72259,58 +72259,58 @@
         <v>44856.6875</v>
       </c>
       <c r="F806" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G806" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H806">
+        <v>2</v>
+      </c>
+      <c r="I806">
         <v>1</v>
-      </c>
-      <c r="I806">
-        <v>0</v>
       </c>
       <c r="J806" t="s">
         <v>70</v>
       </c>
       <c r="K806">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L806">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M806">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="N806">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O806">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P806">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q806">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R806">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S806">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T806">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U806">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V806">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W806">
-        <v>0.95</v>
+        <v>2</v>
       </c>
       <c r="X806">
         <v>-1</v>
@@ -72319,16 +72319,16 @@
         <v>-1</v>
       </c>
       <c r="Z806">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA806">
         <v>-1</v>
       </c>
       <c r="AB806">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC806">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="807" spans="1:29">
@@ -72336,7 +72336,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>4969151</v>
+        <v>4983762</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72348,76 +72348,76 @@
         <v>44856.6875</v>
       </c>
       <c r="F807" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G807" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I807">
         <v>1</v>
       </c>
       <c r="J807" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K807">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="L807">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M807">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="N807">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O807">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P807">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q807">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R807">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S807">
+        <v>2.1</v>
+      </c>
+      <c r="T807">
+        <v>2.25</v>
+      </c>
+      <c r="U807">
+        <v>2.05</v>
+      </c>
+      <c r="V807">
         <v>1.8</v>
       </c>
-      <c r="T807">
-        <v>1.75</v>
-      </c>
-      <c r="U807">
-        <v>1.8</v>
-      </c>
-      <c r="V807">
-        <v>2</v>
-      </c>
       <c r="W807">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X807">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y807">
         <v>-1</v>
       </c>
       <c r="Z807">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA807">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB807">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC807">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="808" spans="1:29">
@@ -72425,7 +72425,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>4983762</v>
+        <v>4968820</v>
       </c>
       <c r="C808" t="s">
         <v>28</v>
@@ -72437,76 +72437,76 @@
         <v>44856.6875</v>
       </c>
       <c r="F808" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G808" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H808">
         <v>1</v>
       </c>
       <c r="I808">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J808" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K808">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="L808">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M808">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N808">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O808">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P808">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q808">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R808">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S808">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T808">
         <v>2.25</v>
       </c>
       <c r="U808">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V808">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W808">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X808">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y808">
         <v>-1</v>
       </c>
       <c r="Z808">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA808">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB808">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC808">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="809" spans="1:29">
@@ -76341,7 +76341,7 @@
         <v>850</v>
       </c>
       <c r="B852">
-        <v>6285514</v>
+        <v>6281767</v>
       </c>
       <c r="C852" t="s">
         <v>28</v>
@@ -76353,43 +76353,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F852" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G852" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I852">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J852" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K852">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L852">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M852">
         <v>3.3</v>
       </c>
       <c r="N852">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O852">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P852">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q852">
         <v>-0.25</v>
       </c>
       <c r="R852">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S852">
         <v>1.85</v>
@@ -76398,25 +76398,25 @@
         <v>2</v>
       </c>
       <c r="U852">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V852">
         <v>1.925</v>
       </c>
       <c r="W852">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X852">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y852">
         <v>-1</v>
       </c>
       <c r="Z852">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA852">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB852">
         <v>0</v>
@@ -76430,7 +76430,7 @@
         <v>851</v>
       </c>
       <c r="B853">
-        <v>6281767</v>
+        <v>6285514</v>
       </c>
       <c r="C853" t="s">
         <v>28</v>
@@ -76442,43 +76442,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F853" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G853" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I853">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J853" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K853">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L853">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M853">
         <v>3.3</v>
       </c>
       <c r="N853">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O853">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P853">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q853">
         <v>-0.25</v>
       </c>
       <c r="R853">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S853">
         <v>1.85</v>
@@ -76487,25 +76487,25 @@
         <v>2</v>
       </c>
       <c r="U853">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V853">
         <v>1.925</v>
       </c>
       <c r="W853">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X853">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y853">
         <v>-1</v>
       </c>
       <c r="Z853">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA853">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB853">
         <v>0</v>
@@ -99481,7 +99481,7 @@
         <v>1110</v>
       </c>
       <c r="B1112">
-        <v>6343950</v>
+        <v>6285766</v>
       </c>
       <c r="C1112" t="s">
         <v>28</v>
@@ -99493,76 +99493,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F1112" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G1112" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1112" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1112">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L1112">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M1112">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N1112">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O1112">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P1112">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q1112">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R1112">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S1112">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T1112">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1112">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V1112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W1112">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X1112">
         <v>-1</v>
       </c>
       <c r="Y1112">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z1112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1112">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1113" spans="1:29">
@@ -99570,7 +99570,7 @@
         <v>1111</v>
       </c>
       <c r="B1113">
-        <v>6285766</v>
+        <v>6343950</v>
       </c>
       <c r="C1113" t="s">
         <v>28</v>
@@ -99582,76 +99582,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F1113" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1113" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="H1113">
+        <v>0</v>
+      </c>
+      <c r="I1113">
+        <v>2</v>
+      </c>
+      <c r="J1113" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1113">
+        <v>2.5</v>
+      </c>
+      <c r="L1113">
+        <v>2.9</v>
+      </c>
+      <c r="M1113">
+        <v>2.9</v>
+      </c>
+      <c r="N1113">
+        <v>2.3</v>
+      </c>
+      <c r="O1113">
         <v>3</v>
       </c>
-      <c r="I1113">
-        <v>1</v>
-      </c>
-      <c r="J1113" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1113">
-        <v>1.909</v>
-      </c>
-      <c r="L1113">
-        <v>3.1</v>
-      </c>
-      <c r="M1113">
-        <v>4</v>
-      </c>
-      <c r="N1113">
-        <v>1.909</v>
-      </c>
-      <c r="O1113">
-        <v>3.25</v>
-      </c>
       <c r="P1113">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q1113">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R1113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S1113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T1113">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1113">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V1113">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W1113">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X1113">
         <v>-1</v>
       </c>
       <c r="Y1113">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z1113">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA1113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1113">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC1113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="1114" spans="1:29">
@@ -103931,7 +103931,7 @@
         <v>1160</v>
       </c>
       <c r="B1162">
-        <v>6602792</v>
+        <v>6602793</v>
       </c>
       <c r="C1162" t="s">
         <v>28</v>
@@ -103943,76 +103943,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F1162" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G1162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1162" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K1162">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L1162">
         <v>3.6</v>
       </c>
       <c r="M1162">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N1162">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O1162">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P1162">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q1162">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R1162">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S1162">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T1162">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1162">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V1162">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W1162">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X1162">
         <v>-1</v>
       </c>
       <c r="Y1162">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z1162">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA1162">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB1162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC1162">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="1163" spans="1:29">
@@ -104020,7 +104020,7 @@
         <v>1161</v>
       </c>
       <c r="B1163">
-        <v>6602793</v>
+        <v>6602792</v>
       </c>
       <c r="C1163" t="s">
         <v>28</v>
@@ -104032,76 +104032,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F1163" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G1163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H1163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1163" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K1163">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L1163">
         <v>3.6</v>
       </c>
       <c r="M1163">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="N1163">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O1163">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P1163">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q1163">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1163">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S1163">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T1163">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1163">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V1163">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W1163">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X1163">
         <v>-1</v>
       </c>
       <c r="Y1163">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z1163">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA1163">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB1163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC1163">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="1164" spans="1:29">
@@ -104109,7 +104109,7 @@
         <v>1162</v>
       </c>
       <c r="B1164">
-        <v>6598119</v>
+        <v>6607583</v>
       </c>
       <c r="C1164" t="s">
         <v>28</v>
@@ -104121,76 +104121,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F1164" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1164" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H1164">
+        <v>0</v>
+      </c>
+      <c r="I1164">
+        <v>0</v>
+      </c>
+      <c r="J1164" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1164">
         <v>3</v>
       </c>
-      <c r="I1164">
-        <v>0</v>
-      </c>
-      <c r="J1164" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1164">
-        <v>1.8</v>
-      </c>
       <c r="L1164">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M1164">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N1164">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O1164">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P1164">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q1164">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R1164">
+        <v>1.875</v>
+      </c>
+      <c r="S1164">
+        <v>1.975</v>
+      </c>
+      <c r="T1164">
         <v>1.75</v>
       </c>
-      <c r="S1164">
-        <v>2.05</v>
-      </c>
-      <c r="T1164">
-        <v>2.25</v>
-      </c>
       <c r="U1164">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V1164">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W1164">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X1164">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y1164">
         <v>-1</v>
       </c>
       <c r="Z1164">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AA1164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB1164">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC1164">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="1165" spans="1:29">
@@ -104198,7 +104198,7 @@
         <v>1163</v>
       </c>
       <c r="B1165">
-        <v>6607583</v>
+        <v>6598119</v>
       </c>
       <c r="C1165" t="s">
         <v>28</v>
@@ -104210,76 +104210,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F1165" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G1165" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1165">
         <v>0</v>
       </c>
       <c r="J1165" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1165">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L1165">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M1165">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N1165">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O1165">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P1165">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q1165">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R1165">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S1165">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T1165">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U1165">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V1165">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W1165">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X1165">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y1165">
         <v>-1</v>
       </c>
       <c r="Z1165">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="AA1165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB1165">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC1165">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1166" spans="1:29">
@@ -104821,7 +104821,7 @@
         <v>1170</v>
       </c>
       <c r="B1172">
-        <v>6619161</v>
+        <v>6623672</v>
       </c>
       <c r="C1172" t="s">
         <v>28</v>
@@ -104833,46 +104833,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F1172" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G1172" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="H1172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1172" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1172">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L1172">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M1172">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N1172">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O1172">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P1172">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q1172">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R1172">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S1172">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T1172">
         <v>2</v>
@@ -104881,28 +104881,28 @@
         <v>1.925</v>
       </c>
       <c r="V1172">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W1172">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X1172">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y1172">
         <v>-1</v>
       </c>
       <c r="Z1172">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA1172">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB1172">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC1172">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="1173" spans="1:29">
@@ -104910,7 +104910,7 @@
         <v>1171</v>
       </c>
       <c r="B1173">
-        <v>6623672</v>
+        <v>6619161</v>
       </c>
       <c r="C1173" t="s">
         <v>28</v>
@@ -104922,46 +104922,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F1173" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G1173" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1173" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1173">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L1173">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M1173">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N1173">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O1173">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P1173">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q1173">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R1173">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S1173">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T1173">
         <v>2</v>
@@ -104970,28 +104970,28 @@
         <v>1.925</v>
       </c>
       <c r="V1173">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W1173">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X1173">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y1173">
         <v>-1</v>
       </c>
       <c r="Z1173">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA1173">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB1173">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC1173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1174" spans="1:29">
@@ -104999,7 +104999,7 @@
         <v>1172</v>
       </c>
       <c r="B1174">
-        <v>6619374</v>
+        <v>6615398</v>
       </c>
       <c r="C1174" t="s">
         <v>28</v>
@@ -105011,76 +105011,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F1174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1174" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1174" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1174">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L1174">
         <v>3</v>
       </c>
       <c r="M1174">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N1174">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O1174">
         <v>3.1</v>
       </c>
       <c r="P1174">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q1174">
         <v>-0.25</v>
       </c>
       <c r="R1174">
+        <v>1.9</v>
+      </c>
+      <c r="S1174">
+        <v>1.95</v>
+      </c>
+      <c r="T1174">
+        <v>2</v>
+      </c>
+      <c r="U1174">
+        <v>2.025</v>
+      </c>
+      <c r="V1174">
+        <v>1.825</v>
+      </c>
+      <c r="W1174">
+        <v>-1</v>
+      </c>
+      <c r="X1174">
         <v>2.1</v>
       </c>
-      <c r="S1174">
-        <v>1.775</v>
-      </c>
-      <c r="T1174">
-        <v>2</v>
-      </c>
-      <c r="U1174">
-        <v>2.05</v>
-      </c>
-      <c r="V1174">
-        <v>1.8</v>
-      </c>
-      <c r="W1174">
-        <v>-1</v>
-      </c>
-      <c r="X1174">
-        <v>-1</v>
-      </c>
       <c r="Y1174">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z1174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA1174">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB1174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC1174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1175" spans="1:29">
@@ -105088,7 +105088,7 @@
         <v>1173</v>
       </c>
       <c r="B1175">
-        <v>6615398</v>
+        <v>6619374</v>
       </c>
       <c r="C1175" t="s">
         <v>28</v>
@@ -105100,76 +105100,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F1175" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1175" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H1175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1175" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1175">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L1175">
         <v>3</v>
       </c>
       <c r="M1175">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N1175">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O1175">
         <v>3.1</v>
       </c>
       <c r="P1175">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q1175">
         <v>-0.25</v>
       </c>
       <c r="R1175">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S1175">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T1175">
         <v>2</v>
       </c>
       <c r="U1175">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V1175">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W1175">
         <v>-1</v>
       </c>
       <c r="X1175">
+        <v>-1</v>
+      </c>
+      <c r="Y1175">
         <v>2.1</v>
       </c>
-      <c r="Y1175">
-        <v>-1</v>
-      </c>
       <c r="Z1175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA1175">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB1175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC1175">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="1176" spans="1:29">
@@ -106601,7 +106601,7 @@
         <v>1190</v>
       </c>
       <c r="B1192">
-        <v>6677287</v>
+        <v>6679229</v>
       </c>
       <c r="C1192" t="s">
         <v>28</v>
@@ -106613,76 +106613,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F1192" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G1192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1192">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1192">
         <v>0</v>
       </c>
       <c r="J1192" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K1192">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="L1192">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M1192">
         <v>6.5</v>
       </c>
       <c r="N1192">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O1192">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P1192">
-        <v>8.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q1192">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R1192">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S1192">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T1192">
         <v>2</v>
       </c>
       <c r="U1192">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V1192">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W1192">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X1192">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y1192">
         <v>-1</v>
       </c>
       <c r="Z1192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA1192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB1192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1192">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="1193" spans="1:29">
@@ -106690,7 +106690,7 @@
         <v>1191</v>
       </c>
       <c r="B1193">
-        <v>6680024</v>
+        <v>6673197</v>
       </c>
       <c r="C1193" t="s">
         <v>28</v>
@@ -106702,40 +106702,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F1193" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G1193" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H1193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1193" t="s">
         <v>70</v>
       </c>
       <c r="K1193">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L1193">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M1193">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N1193">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="O1193">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P1193">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q1193">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R1193">
         <v>2.05</v>
@@ -106744,16 +106744,16 @@
         <v>1.8</v>
       </c>
       <c r="T1193">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U1193">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V1193">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W1193">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="X1193">
         <v>-1</v>
@@ -106768,10 +106768,10 @@
         <v>-1</v>
       </c>
       <c r="AB1193">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC1193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1194" spans="1:29">
@@ -106779,7 +106779,7 @@
         <v>1192</v>
       </c>
       <c r="B1194">
-        <v>6673197</v>
+        <v>6680024</v>
       </c>
       <c r="C1194" t="s">
         <v>28</v>
@@ -106791,40 +106791,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F1194" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G1194" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H1194">
+        <v>3</v>
+      </c>
+      <c r="I1194">
         <v>1</v>
-      </c>
-      <c r="I1194">
-        <v>0</v>
       </c>
       <c r="J1194" t="s">
         <v>70</v>
       </c>
       <c r="K1194">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L1194">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M1194">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N1194">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="O1194">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P1194">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q1194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R1194">
         <v>2.05</v>
@@ -106833,16 +106833,16 @@
         <v>1.8</v>
       </c>
       <c r="T1194">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U1194">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V1194">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W1194">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="X1194">
         <v>-1</v>
@@ -106857,10 +106857,10 @@
         <v>-1</v>
       </c>
       <c r="AB1194">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC1194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1195" spans="1:29">
@@ -106868,7 +106868,7 @@
         <v>1193</v>
       </c>
       <c r="B1195">
-        <v>6673199</v>
+        <v>6677287</v>
       </c>
       <c r="C1195" t="s">
         <v>28</v>
@@ -106880,46 +106880,46 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F1195" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G1195" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H1195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1195" t="s">
         <v>70</v>
       </c>
       <c r="K1195">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L1195">
         <v>3.4</v>
       </c>
       <c r="M1195">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N1195">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O1195">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P1195">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q1195">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R1195">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S1195">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T1195">
         <v>2</v>
@@ -106931,7 +106931,7 @@
         <v>2</v>
       </c>
       <c r="W1195">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="X1195">
         <v>-1</v>
@@ -106940,7 +106940,7 @@
         <v>-1</v>
       </c>
       <c r="Z1195">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA1195">
         <v>-1</v>
@@ -106957,7 +106957,7 @@
         <v>1194</v>
       </c>
       <c r="B1196">
-        <v>6679229</v>
+        <v>6673199</v>
       </c>
       <c r="C1196" t="s">
         <v>28</v>
@@ -106969,76 +106969,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F1196" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G1196" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I1196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1196" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1196">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L1196">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M1196">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N1196">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O1196">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P1196">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q1196">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R1196">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S1196">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T1196">
         <v>2</v>
       </c>
       <c r="U1196">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V1196">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W1196">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X1196">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y1196">
         <v>-1</v>
       </c>
       <c r="Z1196">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA1196">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB1196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC1196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1197" spans="1:29">

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6281770</v>
+        <v>6289139</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,46 +3577,46 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>3.2</v>
+      </c>
+      <c r="N35">
+        <v>2.15</v>
+      </c>
+      <c r="O35">
         <v>3.1</v>
       </c>
-      <c r="M35">
-        <v>2.875</v>
-      </c>
-      <c r="N35">
-        <v>2.3</v>
-      </c>
-      <c r="O35">
-        <v>3</v>
-      </c>
       <c r="P35">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
+        <v>1.825</v>
+      </c>
+      <c r="S35">
         <v>1.975</v>
-      </c>
-      <c r="S35">
-        <v>1.825</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3628,25 +3628,25 @@
         <v>1.775</v>
       </c>
       <c r="W35">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z35">
+        <v>-1</v>
+      </c>
+      <c r="AA35">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA35">
-        <v>-1</v>
-      </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6289139</v>
+        <v>6281770</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,46 +3666,46 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L36">
+        <v>3.1</v>
+      </c>
+      <c r="M36">
+        <v>2.875</v>
+      </c>
+      <c r="N36">
+        <v>2.3</v>
+      </c>
+      <c r="O36">
         <v>3</v>
       </c>
-      <c r="M36">
-        <v>3.2</v>
-      </c>
-      <c r="N36">
-        <v>2.15</v>
-      </c>
-      <c r="O36">
-        <v>3.1</v>
-      </c>
       <c r="P36">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
+        <v>1.975</v>
+      </c>
+      <c r="S36">
         <v>1.825</v>
-      </c>
-      <c r="S36">
-        <v>1.975</v>
       </c>
       <c r="T36">
         <v>2.25</v>
@@ -3717,25 +3717,25 @@
         <v>1.775</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6289138</v>
+        <v>6285943</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
+        <v>2.25</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>3.2</v>
+      </c>
+      <c r="N40">
         <v>2.05</v>
       </c>
-      <c r="L40">
-        <v>3.1</v>
-      </c>
-      <c r="M40">
-        <v>3.4</v>
-      </c>
-      <c r="N40">
-        <v>1.909</v>
-      </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q40">
         <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6281961</v>
+        <v>6289138</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,37 +4111,37 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N41">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
@@ -4153,34 +4153,34 @@
         <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6285943</v>
+        <v>6281961</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,34 +4200,34 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
         <v>3</v>
       </c>
       <c r="M42">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N42">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P42">
         <v>4</v>
@@ -4236,40 +4236,40 @@
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6285516</v>
+        <v>6285663</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,10 +4289,10 @@
         <v>45052.85416666666</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4304,31 +4304,31 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O43">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2</v>
@@ -4343,16 +4343,16 @@
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6285663</v>
+        <v>6285516</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,10 +4378,10 @@
         <v>45052.85416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4393,31 +4393,31 @@
         <v>50</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
         <v>3.2</v>
       </c>
-      <c r="M44">
-        <v>3.75</v>
-      </c>
       <c r="N44">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T44">
         <v>2</v>
@@ -4432,16 +4432,16 @@
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6631893</v>
+        <v>6285744</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,16 +5535,16 @@
         <v>45060.75</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
         <v>51</v>
@@ -5553,37 +5553,37 @@
         <v>2.2</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5592,16 +5592,16 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6285744</v>
+        <v>6631893</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,16 +5624,16 @@
         <v>45060.75</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>51</v>
@@ -5642,38 +5642,38 @@
         <v>2.2</v>
       </c>
       <c r="L58">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.775</v>
+      </c>
+      <c r="S58">
+        <v>2.025</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
         <v>1.925</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>1.875</v>
       </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
-      <c r="V58">
-        <v>1.95</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5681,16 +5681,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6289136</v>
+        <v>6285944</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,76 +5802,76 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K60">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
         <v>3</v>
       </c>
       <c r="M60">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O60">
         <v>3.1</v>
       </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W60">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB60">
         <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6285944</v>
+        <v>6289136</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,76 +5891,76 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N61">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
         <v>3.1</v>
       </c>
       <c r="P61">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-0.5</v>
       </c>
       <c r="AC61">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6282095</v>
+        <v>6286297</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,76 +6959,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.85</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
+        <v>1.8</v>
+      </c>
+      <c r="V73">
         <v>2.05</v>
       </c>
-      <c r="S73">
-        <v>1.75</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>1.975</v>
-      </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6286297</v>
+        <v>6282095</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K74">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M74">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74">
+        <v>3.1</v>
+      </c>
+      <c r="P74">
+        <v>2.6</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
         <v>1.75</v>
       </c>
-      <c r="O74">
-        <v>3.4</v>
-      </c>
-      <c r="P74">
-        <v>5.5</v>
-      </c>
-      <c r="Q74">
-        <v>-0.75</v>
-      </c>
-      <c r="R74">
-        <v>2</v>
-      </c>
-      <c r="S74">
-        <v>1.85</v>
-      </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>1.6</v>
+      </c>
+      <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
         <v>0.75</v>
       </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
-        <v>0.5</v>
-      </c>
-      <c r="AA74">
-        <v>-0.5</v>
-      </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6281963</v>
+        <v>6285519</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,76 +7404,76 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N78">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O78">
         <v>3</v>
       </c>
       <c r="P78">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q78">
         <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X78">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA78">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6285519</v>
+        <v>6281963</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L79">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N79">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O79">
         <v>3</v>
       </c>
       <c r="P79">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q79">
         <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W79">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6282009</v>
+        <v>6281783</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,73 +7582,73 @@
         <v>45073.70833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L80">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N80">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O80">
         <v>3.2</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7659,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6281783</v>
+        <v>6282009</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7671,73 +7671,73 @@
         <v>45073.70833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81" t="s">
+        <v>51</v>
+      </c>
+      <c r="K81">
+        <v>2.25</v>
+      </c>
+      <c r="L81">
+        <v>3.1</v>
+      </c>
+      <c r="M81">
         <v>3</v>
       </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81" t="s">
-        <v>49</v>
-      </c>
-      <c r="K81">
-        <v>2.15</v>
-      </c>
-      <c r="L81">
-        <v>3</v>
-      </c>
-      <c r="M81">
-        <v>3.3</v>
-      </c>
       <c r="N81">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O81">
         <v>3.2</v>
       </c>
       <c r="P81">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W81">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6289133</v>
+        <v>6285524</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,40 +8917,40 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N95">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P95">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
         <v>1.975</v>
@@ -8959,34 +8959,34 @@
         <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6285524</v>
+        <v>6289133</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,40 +9006,40 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M96">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
+        <v>1.727</v>
+      </c>
+      <c r="O96">
         <v>3.6</v>
       </c>
-      <c r="O96">
-        <v>3.1</v>
-      </c>
       <c r="P96">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
         <v>1.975</v>
@@ -9048,34 +9048,34 @@
         <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA96">
+        <v>-0.5</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.825</v>
-      </c>
-      <c r="AB96">
-        <v>-1</v>
-      </c>
-      <c r="AC96">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6285525</v>
+        <v>6285945</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,46 +9362,46 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K100">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2.625</v>
+      </c>
+      <c r="N100">
+        <v>2.4</v>
+      </c>
+      <c r="O100">
         <v>3.2</v>
       </c>
-      <c r="M100">
-        <v>4.333</v>
-      </c>
-      <c r="N100">
-        <v>1.6</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
       <c r="P100">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T100">
         <v>2.25</v>
@@ -9416,22 +9416,22 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC100">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6285945</v>
+        <v>6285525</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,46 +9540,46 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N102">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P102">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
         <v>2.25</v>
@@ -9594,22 +9594,22 @@
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y102">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
+        <v>0.8</v>
+      </c>
+      <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB102">
-        <v>1.025</v>
-      </c>
-      <c r="AC102">
-        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6282098</v>
+        <v>6281788</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,56 +9629,56 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M103">
         <v>3.2</v>
       </c>
       <c r="N103">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.85</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
+        <v>1.925</v>
+      </c>
+      <c r="V103">
         <v>1.875</v>
       </c>
-      <c r="S103">
-        <v>1.975</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>2.025</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
@@ -9686,19 +9686,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6281788</v>
+        <v>6282098</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,55 +9718,55 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>51</v>
       </c>
       <c r="K104">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
         <v>3.2</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9775,19 +9775,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6285526</v>
+        <v>6281789</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,58 +9807,58 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>49</v>
       </c>
       <c r="K105">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="O105">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>0.3999999999999999</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,16 +9867,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.4875</v>
+      </c>
+      <c r="AA105">
         <v>-0.5</v>
       </c>
-      <c r="AA105">
-        <v>0.4625</v>
-      </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6281789</v>
+        <v>6285526</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,58 +9985,58 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
         <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>49</v>
       </c>
       <c r="K107">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N107">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2.5</v>
+      </c>
+      <c r="U107">
         <v>1.975</v>
       </c>
-      <c r="S107">
+      <c r="V107">
         <v>1.875</v>
       </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
-      <c r="U107">
-        <v>1.85</v>
-      </c>
-      <c r="V107">
-        <v>2</v>
-      </c>
       <c r="W107">
-        <v>0.7270000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10045,16 +10045,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC107">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6281792</v>
+        <v>6281967</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,76 +10430,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O112">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X112">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>0.3875</v>
+      </c>
+      <c r="AA112">
         <v>-0.5</v>
       </c>
-      <c r="AA112">
-        <v>0.4625</v>
-      </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6281967</v>
+        <v>6281792</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,76 +10519,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K113">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N113">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P113">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
+        <v>0.4625</v>
+      </c>
+      <c r="AB113">
         <v>-0.5</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6285527</v>
+        <v>6289131</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,34 +10697,34 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O115">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P115">
         <v>2.2</v>
@@ -10736,13 +10736,13 @@
         <v>1.975</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V115">
         <v>2.05</v>
@@ -10751,22 +10751,22 @@
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z115">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6289131</v>
+        <v>6285527</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,34 +10786,34 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P116">
         <v>2.2</v>
@@ -10825,13 +10825,13 @@
         <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
         <v>2.05</v>
@@ -10840,22 +10840,22 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y116">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA116">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6286549</v>
+        <v>6285530</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,76 +12121,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M131">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P131">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
         <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6285530</v>
+        <v>6286549</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L132">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N132">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
         <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12465,7 +12465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6282100</v>
+        <v>6285666</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12477,76 +12477,76 @@
         <v>45105.79166666666</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G135" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>50</v>
       </c>
       <c r="K135">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M135">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N135">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="O135">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P135">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12554,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6285666</v>
+        <v>6282100</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12566,76 +12566,76 @@
         <v>45105.79166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>50</v>
       </c>
       <c r="K136">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L136">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="N136">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6281969</v>
+        <v>6281797</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N137">
+        <v>2.05</v>
+      </c>
+      <c r="O137">
+        <v>3.1</v>
+      </c>
+      <c r="P137">
+        <v>4</v>
+      </c>
+      <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
         <v>1.75</v>
       </c>
-      <c r="O137">
-        <v>3.3</v>
-      </c>
-      <c r="P137">
-        <v>5.5</v>
-      </c>
-      <c r="Q137">
-        <v>-0.75</v>
-      </c>
-      <c r="R137">
-        <v>1.975</v>
-      </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z137">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6281797</v>
+        <v>6281969</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6289124</v>
+        <v>6285537</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,73 +15948,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K174">
+        <v>1.4</v>
+      </c>
+      <c r="L174">
+        <v>3.8</v>
+      </c>
+      <c r="M174">
+        <v>8</v>
+      </c>
+      <c r="N174">
+        <v>1.5</v>
+      </c>
+      <c r="O174">
+        <v>4.2</v>
+      </c>
+      <c r="P174">
+        <v>6.5</v>
+      </c>
+      <c r="Q174">
+        <v>-1</v>
+      </c>
+      <c r="R174">
+        <v>1.9</v>
+      </c>
+      <c r="S174">
+        <v>1.95</v>
+      </c>
+      <c r="T174">
         <v>2.25</v>
       </c>
-      <c r="L174">
-        <v>2.875</v>
-      </c>
-      <c r="M174">
-        <v>3.2</v>
-      </c>
-      <c r="N174">
-        <v>2.25</v>
-      </c>
-      <c r="O174">
-        <v>3</v>
-      </c>
-      <c r="P174">
-        <v>3.6</v>
-      </c>
-      <c r="Q174">
-        <v>-0.25</v>
-      </c>
-      <c r="R174">
-        <v>1.875</v>
-      </c>
-      <c r="S174">
-        <v>1.925</v>
-      </c>
-      <c r="T174">
-        <v>2</v>
-      </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X174">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA174">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6285537</v>
+        <v>6289124</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,73 +16037,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175" t="s">
+        <v>50</v>
+      </c>
+      <c r="K175">
+        <v>2.25</v>
+      </c>
+      <c r="L175">
+        <v>2.875</v>
+      </c>
+      <c r="M175">
+        <v>3.2</v>
+      </c>
+      <c r="N175">
+        <v>2.25</v>
+      </c>
+      <c r="O175">
         <v>3</v>
       </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175" t="s">
-        <v>49</v>
-      </c>
-      <c r="K175">
-        <v>1.4</v>
-      </c>
-      <c r="L175">
-        <v>3.8</v>
-      </c>
-      <c r="M175">
-        <v>8</v>
-      </c>
-      <c r="N175">
-        <v>1.5</v>
-      </c>
-      <c r="O175">
-        <v>4.2</v>
-      </c>
       <c r="P175">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q175">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S175">
+        <v>1.925</v>
+      </c>
+      <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
         <v>1.95</v>
       </c>
-      <c r="T175">
-        <v>2.25</v>
-      </c>
-      <c r="U175">
-        <v>2.1</v>
-      </c>
-      <c r="V175">
-        <v>1.775</v>
-      </c>
       <c r="W175">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB175">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6281972</v>
+        <v>6285538</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L177">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N177">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O177">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U177">
         <v>1.825</v>
@@ -16266,25 +16266,25 @@
         <v>1.975</v>
       </c>
       <c r="W177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB177">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6285538</v>
+        <v>6282102</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,76 +16304,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K178">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M178">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N178">
+        <v>2.7</v>
+      </c>
+      <c r="O178">
+        <v>2.8</v>
+      </c>
+      <c r="P178">
+        <v>3.1</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
         <v>1.7</v>
       </c>
-      <c r="O178">
-        <v>3.4</v>
-      </c>
-      <c r="P178">
-        <v>6</v>
-      </c>
-      <c r="Q178">
-        <v>-0.75</v>
-      </c>
-      <c r="R178">
-        <v>1.925</v>
-      </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6282102</v>
+        <v>6281972</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,13 +16393,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16408,43 +16408,43 @@
         <v>49</v>
       </c>
       <c r="K179">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L179">
         <v>2.875</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N179">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O179">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S179">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="T179">
         <v>1.75</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16453,16 +16453,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6281811</v>
+        <v>6286300</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,76 +17194,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K188">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M188">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N188">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
+        <v>2.05</v>
+      </c>
+      <c r="V188">
         <v>1.8</v>
       </c>
-      <c r="V188">
-        <v>2</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA188">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>0.8</v>
-      </c>
-      <c r="AC188">
-        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6286300</v>
+        <v>6281811</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,76 +17283,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K189">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M189">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N189">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P189">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>1.775</v>
+      </c>
+      <c r="S189">
+        <v>2.025</v>
+      </c>
+      <c r="T189">
+        <v>1.75</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.9</v>
       </c>
-      <c r="S189">
-        <v>1.95</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>2.05</v>
-      </c>
-      <c r="V189">
-        <v>1.8</v>
-      </c>
-      <c r="W189">
-        <v>0.7</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6282019</v>
+        <v>6285671</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,13 +18707,13 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -18722,43 +18722,43 @@
         <v>49</v>
       </c>
       <c r="K205">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="N205">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O205">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U205">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>1.375</v>
+        <v>0.5</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18767,16 +18767,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC205">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6287040</v>
+        <v>6282019</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,76 +18885,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K207">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L207">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M207">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N207">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="O207">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P207">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q207">
         <v>-0.25</v>
       </c>
       <c r="R207">
+        <v>2.05</v>
+      </c>
+      <c r="S207">
+        <v>1.8</v>
+      </c>
+      <c r="T207">
+        <v>1.75</v>
+      </c>
+      <c r="U207">
+        <v>1.775</v>
+      </c>
+      <c r="V207">
         <v>2.1</v>
       </c>
-      <c r="S207">
-        <v>1.775</v>
-      </c>
-      <c r="T207">
-        <v>2</v>
-      </c>
-      <c r="U207">
-        <v>2.05</v>
-      </c>
-      <c r="V207">
-        <v>1.8</v>
-      </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X207">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA207">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19051,7 +19051,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6285671</v>
+        <v>6287040</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19063,70 +19063,70 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K209">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M209">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N209">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O209">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P209">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q209">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
+        <v>2.1</v>
+      </c>
+      <c r="S209">
+        <v>1.775</v>
+      </c>
+      <c r="T209">
+        <v>2</v>
+      </c>
+      <c r="U209">
+        <v>2.05</v>
+      </c>
+      <c r="V209">
+        <v>1.8</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
         <v>1.875</v>
       </c>
-      <c r="S209">
-        <v>1.925</v>
-      </c>
-      <c r="T209">
-        <v>2</v>
-      </c>
-      <c r="U209">
-        <v>1.85</v>
-      </c>
-      <c r="V209">
-        <v>1.95</v>
-      </c>
-      <c r="W209">
-        <v>0.5</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB209">
         <v>0</v>
@@ -19852,7 +19852,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6959080</v>
+        <v>6286301</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19864,58 +19864,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>49</v>
       </c>
       <c r="K218">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L218">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M218">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="N218">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T218">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U218">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W218">
-        <v>0.7270000000000001</v>
+        <v>2</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19924,16 +19924,16 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.4875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>0.3875</v>
+      </c>
+      <c r="AC218">
         <v>-0.5</v>
-      </c>
-      <c r="AB218">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC218">
-        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6286301</v>
+        <v>6959080</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19953,58 +19953,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
         <v>49</v>
       </c>
       <c r="K219">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L219">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N219">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20013,16 +20013,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.7250000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB219">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -21365,7 +21365,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6285672</v>
+        <v>6281821</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21377,70 +21377,70 @@
         <v>45157.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G235" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K235">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="L235">
         <v>3.1</v>
       </c>
       <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>2.7</v>
+      </c>
+      <c r="O235">
         <v>2.875</v>
       </c>
-      <c r="N235">
-        <v>2.8</v>
-      </c>
-      <c r="O235">
-        <v>2.9</v>
-      </c>
       <c r="P235">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q235">
         <v>0</v>
       </c>
       <c r="R235">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U235">
         <v>1.95</v>
       </c>
       <c r="V235">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA235">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
         <v>0.95</v>
@@ -21454,7 +21454,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6281821</v>
+        <v>6285672</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21466,70 +21466,70 @@
         <v>45157.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K236">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="L236">
         <v>3.1</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N236">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O236">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P236">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q236">
         <v>0</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U236">
         <v>1.95</v>
       </c>
       <c r="V236">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W236">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z236">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB236">
         <v>0.95</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6285765</v>
+        <v>6330569</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,13 +25026,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -25041,43 +25041,43 @@
         <v>49</v>
       </c>
       <c r="K276">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L276">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M276">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N276">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O276">
         <v>2.9</v>
       </c>
       <c r="P276">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q276">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T276">
         <v>1.75</v>
       </c>
       <c r="U276">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V276">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W276">
-        <v>2.3</v>
+        <v>1.05</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25086,16 +25086,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC276">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6330569</v>
+        <v>6285765</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,13 +25115,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G277" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25130,43 +25130,43 @@
         <v>49</v>
       </c>
       <c r="K277">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L277">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M277">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N277">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="O277">
         <v>2.9</v>
       </c>
       <c r="P277">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q277">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R277">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S277">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T277">
         <v>1.75</v>
       </c>
       <c r="U277">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V277">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W277">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25175,16 +25175,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25904,7 +25904,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6355831</v>
+        <v>6326524</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25916,76 +25916,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F286" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G286" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K286">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L286">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M286">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N286">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O286">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P286">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q286">
         <v>-0.25</v>
       </c>
       <c r="R286">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S286">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T286">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U286">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V286">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W286">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X286">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA286">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25993,7 +25993,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6326524</v>
+        <v>6355831</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26005,76 +26005,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F287" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G287" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K287">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L287">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M287">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N287">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O287">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P287">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q287">
         <v>-0.25</v>
       </c>
       <c r="R287">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S287">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T287">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U287">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V287">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W287">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC287">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26883,7 +26883,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6390961</v>
+        <v>7258771</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26895,76 +26895,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G297" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297">
         <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K297">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L297">
         <v>3</v>
       </c>
       <c r="M297">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N297">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="O297">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P297">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q297">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R297">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S297">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T297">
         <v>1.75</v>
       </c>
       <c r="U297">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V297">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X297">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC297">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26972,7 +26972,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7258771</v>
+        <v>6390961</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26984,76 +26984,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G298" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K298">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L298">
         <v>3</v>
       </c>
       <c r="M298">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N298">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O298">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P298">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q298">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R298">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S298">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T298">
         <v>1.75</v>
       </c>
       <c r="U298">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V298">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W298">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB298">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6590629</v>
+        <v>6590925</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,13 +29120,13 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G322" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I322">
         <v>1</v>
@@ -29135,43 +29135,43 @@
         <v>49</v>
       </c>
       <c r="K322">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L322">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M322">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N322">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="O322">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P322">
+        <v>7.5</v>
+      </c>
+      <c r="Q322">
+        <v>-1.25</v>
+      </c>
+      <c r="R322">
+        <v>1.875</v>
+      </c>
+      <c r="S322">
+        <v>1.925</v>
+      </c>
+      <c r="T322">
         <v>2.5</v>
       </c>
-      <c r="Q322">
-        <v>0.25</v>
-      </c>
-      <c r="R322">
-        <v>1.75</v>
-      </c>
-      <c r="S322">
-        <v>2.05</v>
-      </c>
-      <c r="T322">
-        <v>2</v>
-      </c>
       <c r="U322">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V322">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W322">
-        <v>2.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X322">
         <v>-1</v>
@@ -29180,13 +29180,13 @@
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA322">
         <v>-1</v>
       </c>
       <c r="AB322">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6590925</v>
+        <v>6590629</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,13 +29209,13 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G323" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323">
         <v>1</v>
@@ -29224,43 +29224,43 @@
         <v>49</v>
       </c>
       <c r="K323">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M323">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N323">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O323">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P323">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q323">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R323">
+        <v>1.75</v>
+      </c>
+      <c r="S323">
+        <v>2.05</v>
+      </c>
+      <c r="T323">
+        <v>2</v>
+      </c>
+      <c r="U323">
+        <v>1.925</v>
+      </c>
+      <c r="V323">
         <v>1.875</v>
       </c>
-      <c r="S323">
-        <v>1.925</v>
-      </c>
-      <c r="T323">
-        <v>2.5</v>
-      </c>
-      <c r="U323">
-        <v>2</v>
-      </c>
-      <c r="V323">
-        <v>1.8</v>
-      </c>
       <c r="W323">
-        <v>0.3999999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29269,13 +29269,13 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA323">
         <v>-1</v>
       </c>
       <c r="AB323">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29464,7 +29464,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6586606</v>
+        <v>6589993</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29476,76 +29476,76 @@
         <v>45220.70833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G326" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J326" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K326">
+        <v>2.8</v>
+      </c>
+      <c r="L326">
+        <v>2.8</v>
+      </c>
+      <c r="M326">
+        <v>2.6</v>
+      </c>
+      <c r="N326">
+        <v>3.6</v>
+      </c>
+      <c r="O326">
+        <v>3</v>
+      </c>
+      <c r="P326">
+        <v>2.3</v>
+      </c>
+      <c r="Q326">
+        <v>0.25</v>
+      </c>
+      <c r="R326">
+        <v>1.85</v>
+      </c>
+      <c r="S326">
         <v>1.95</v>
       </c>
-      <c r="L326">
-        <v>3</v>
-      </c>
-      <c r="M326">
-        <v>4</v>
-      </c>
-      <c r="N326">
-        <v>1.95</v>
-      </c>
-      <c r="O326">
-        <v>3.2</v>
-      </c>
-      <c r="P326">
-        <v>4.5</v>
-      </c>
-      <c r="Q326">
+      <c r="T326">
+        <v>1.75</v>
+      </c>
+      <c r="U326">
+        <v>1.775</v>
+      </c>
+      <c r="V326">
+        <v>2.025</v>
+      </c>
+      <c r="W326">
+        <v>2.6</v>
+      </c>
+      <c r="X326">
+        <v>-1</v>
+      </c>
+      <c r="Y326">
+        <v>-1</v>
+      </c>
+      <c r="Z326">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA326">
+        <v>-1</v>
+      </c>
+      <c r="AB326">
+        <v>0.3875</v>
+      </c>
+      <c r="AC326">
         <v>-0.5</v>
-      </c>
-      <c r="R326">
-        <v>2.025</v>
-      </c>
-      <c r="S326">
-        <v>1.825</v>
-      </c>
-      <c r="T326">
-        <v>2</v>
-      </c>
-      <c r="U326">
-        <v>1.8</v>
-      </c>
-      <c r="V326">
-        <v>2.05</v>
-      </c>
-      <c r="W326">
-        <v>-1</v>
-      </c>
-      <c r="X326">
-        <v>-1</v>
-      </c>
-      <c r="Y326">
-        <v>3.5</v>
-      </c>
-      <c r="Z326">
-        <v>-1</v>
-      </c>
-      <c r="AA326">
-        <v>0.825</v>
-      </c>
-      <c r="AB326">
-        <v>-1</v>
-      </c>
-      <c r="AC326">
-        <v>1.05</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29553,7 +29553,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6589993</v>
+        <v>6586606</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29565,76 +29565,76 @@
         <v>45220.70833333334</v>
       </c>
       <c r="F327" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G327" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K327">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L327">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M327">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N327">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O327">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P327">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q327">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R327">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S327">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T327">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U327">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V327">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W327">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X327">
         <v>-1</v>
       </c>
       <c r="Y327">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z327">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA327">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB327">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC327">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6602793</v>
+        <v>6602792</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F334" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G334" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K334">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L334">
         <v>3.6</v>
       </c>
       <c r="M334">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="N334">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O334">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P334">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q334">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R334">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S334">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T334">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W334">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z334">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30265,7 +30265,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6602792</v>
+        <v>6602793</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30277,76 +30277,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F335" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G335" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K335">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L335">
         <v>3.6</v>
       </c>
       <c r="M335">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N335">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O335">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P335">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q335">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R335">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S335">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T335">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U335">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V335">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W335">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA335">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC335">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30354,7 +30354,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6607583</v>
+        <v>6598119</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30366,76 +30366,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F336" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G336" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I336">
         <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K336">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L336">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M336">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N336">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O336">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P336">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q336">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R336">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S336">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T336">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U336">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V336">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X336">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="AA336">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC336">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30443,7 +30443,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6598119</v>
+        <v>6607583</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30455,76 +30455,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F337" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G337" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337" t="s">
+        <v>50</v>
+      </c>
+      <c r="K337">
         <v>3</v>
       </c>
-      <c r="I337">
-        <v>0</v>
-      </c>
-      <c r="J337" t="s">
-        <v>49</v>
-      </c>
-      <c r="K337">
-        <v>1.8</v>
-      </c>
       <c r="L337">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M337">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N337">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O337">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P337">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q337">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R337">
+        <v>1.875</v>
+      </c>
+      <c r="S337">
+        <v>1.975</v>
+      </c>
+      <c r="T337">
         <v>1.75</v>
       </c>
-      <c r="S337">
-        <v>2.05</v>
-      </c>
-      <c r="T337">
-        <v>2.25</v>
-      </c>
       <c r="U337">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V337">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W337">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB337">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -32846,7 +32846,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6680024</v>
+        <v>6673199</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32858,13 +32858,13 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G364" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H364">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I364">
         <v>1</v>
@@ -32873,43 +32873,43 @@
         <v>49</v>
       </c>
       <c r="K364">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L364">
+        <v>3.4</v>
+      </c>
+      <c r="M364">
+        <v>4</v>
+      </c>
+      <c r="N364">
+        <v>2.2</v>
+      </c>
+      <c r="O364">
+        <v>3.25</v>
+      </c>
+      <c r="P364">
         <v>3.5</v>
       </c>
-      <c r="M364">
-        <v>5.5</v>
-      </c>
-      <c r="N364">
-        <v>1.571</v>
-      </c>
-      <c r="O364">
-        <v>3.6</v>
-      </c>
-      <c r="P364">
-        <v>7.5</v>
-      </c>
       <c r="Q364">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R364">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S364">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T364">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U364">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V364">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W364">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32918,13 +32918,13 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA364">
         <v>-1</v>
       </c>
       <c r="AB364">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC364">
         <v>-1</v>
@@ -32935,7 +32935,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6679229</v>
+        <v>6677287</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32947,76 +32947,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G365" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I365">
         <v>0</v>
       </c>
       <c r="J365" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K365">
-        <v>1.45</v>
+        <v>1.615</v>
       </c>
       <c r="L365">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M365">
         <v>6.5</v>
       </c>
       <c r="N365">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O365">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P365">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q365">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R365">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S365">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T365">
         <v>2</v>
       </c>
       <c r="U365">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V365">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W365">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X365">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y365">
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA365">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB365">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC365">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33024,7 +33024,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6673197</v>
+        <v>6679229</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33036,40 +33036,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G366" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366">
         <v>0</v>
       </c>
       <c r="J366" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K366">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L366">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M366">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N366">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O366">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P366">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q366">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R366">
         <v>2.05</v>
@@ -33081,31 +33081,31 @@
         <v>2</v>
       </c>
       <c r="U366">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V366">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W366">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X366">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB366">
         <v>-1</v>
       </c>
       <c r="AC366">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33113,7 +33113,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6673199</v>
+        <v>6680024</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33125,13 +33125,13 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G367" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H367">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I367">
         <v>1</v>
@@ -33140,43 +33140,43 @@
         <v>49</v>
       </c>
       <c r="K367">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L367">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M367">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N367">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O367">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P367">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q367">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R367">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S367">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T367">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U367">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V367">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W367">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="X367">
         <v>-1</v>
@@ -33185,13 +33185,13 @@
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA367">
         <v>-1</v>
       </c>
       <c r="AB367">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -33202,7 +33202,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6677287</v>
+        <v>6673197</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33214,13 +33214,13 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F368" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G368" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H368">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I368">
         <v>0</v>
@@ -33229,43 +33229,43 @@
         <v>49</v>
       </c>
       <c r="K368">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L368">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M368">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N368">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O368">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P368">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q368">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R368">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S368">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T368">
         <v>2</v>
       </c>
       <c r="U368">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V368">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W368">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X368">
         <v>-1</v>
@@ -33274,16 +33274,16 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC368">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33558,7 +33558,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6689428</v>
+        <v>6689427</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33570,76 +33570,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G372" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H372">
         <v>0</v>
       </c>
       <c r="I372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K372">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="L372">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M372">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N372">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O372">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P372">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q372">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
+        <v>2.05</v>
+      </c>
+      <c r="S372">
+        <v>1.75</v>
+      </c>
+      <c r="T372">
+        <v>2.25</v>
+      </c>
+      <c r="U372">
         <v>1.825</v>
       </c>
-      <c r="S372">
+      <c r="V372">
         <v>1.975</v>
       </c>
-      <c r="T372">
-        <v>2.5</v>
-      </c>
-      <c r="U372">
-        <v>2</v>
-      </c>
-      <c r="V372">
-        <v>1.8</v>
-      </c>
       <c r="W372">
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y372">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA372">
+        <v>0.375</v>
+      </c>
+      <c r="AB372">
+        <v>-1</v>
+      </c>
+      <c r="AC372">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB372">
-        <v>-1</v>
-      </c>
-      <c r="AC372">
-        <v>0.8</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33647,7 +33647,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6689425</v>
+        <v>6689350</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,76 +33659,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G373" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J373" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K373">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="L373">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M373">
-        <v>5.75</v>
+        <v>2.25</v>
       </c>
       <c r="N373">
-        <v>1.45</v>
+        <v>3</v>
       </c>
       <c r="O373">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P373">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q373">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R373">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S373">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T373">
         <v>2.5</v>
       </c>
       <c r="U373">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V373">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W373">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z373">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB373">
         <v>-1</v>
       </c>
       <c r="AC373">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33736,7 +33736,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6689350</v>
+        <v>6689428</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33748,10 +33748,10 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G374" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H374">
         <v>0</v>
@@ -33763,31 +33763,31 @@
         <v>51</v>
       </c>
       <c r="K374">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L374">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M374">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="N374">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O374">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P374">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q374">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S374">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T374">
         <v>2.5</v>
@@ -33805,13 +33805,13 @@
         <v>-1</v>
       </c>
       <c r="Y374">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="Z374">
         <v>-1</v>
       </c>
       <c r="AA374">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB374">
         <v>-1</v>
@@ -33825,7 +33825,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6689427</v>
+        <v>6693367</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33837,76 +33837,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G375" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K375">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L375">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M375">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N375">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O375">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P375">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q375">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R375">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S375">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T375">
         <v>2.25</v>
       </c>
       <c r="U375">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V375">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W375">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X375">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y375">
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA375">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB375">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC375">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33914,7 +33914,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6693367</v>
+        <v>6693028</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33926,58 +33926,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G376" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H376">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J376" t="s">
         <v>49</v>
       </c>
       <c r="K376">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L376">
+        <v>3.5</v>
+      </c>
+      <c r="M376">
         <v>4</v>
       </c>
-      <c r="M376">
-        <v>7</v>
-      </c>
       <c r="N376">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O376">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P376">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q376">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R376">
         <v>1.975</v>
       </c>
       <c r="S376">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T376">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U376">
         <v>1.775</v>
       </c>
       <c r="V376">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W376">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -34003,7 +34003,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6689429</v>
+        <v>6693031</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34015,58 +34015,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G377" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H377">
         <v>3</v>
       </c>
       <c r="I377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J377" t="s">
         <v>49</v>
       </c>
       <c r="K377">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="L377">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M377">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="N377">
-        <v>6.5</v>
+        <v>1.615</v>
       </c>
       <c r="O377">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P377">
-        <v>1.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q377">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R377">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S377">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T377">
         <v>2.25</v>
       </c>
       <c r="U377">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V377">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W377">
-        <v>5.5</v>
+        <v>0.615</v>
       </c>
       <c r="X377">
         <v>-1</v>
@@ -34075,13 +34075,13 @@
         <v>-1</v>
       </c>
       <c r="Z377">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AA377">
         <v>-1</v>
       </c>
       <c r="AB377">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34092,7 +34092,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6693029</v>
+        <v>6693030</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34104,73 +34104,73 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F378" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G378" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H378">
+        <v>1</v>
+      </c>
+      <c r="I378">
         <v>3</v>
       </c>
-      <c r="I378">
-        <v>0</v>
-      </c>
       <c r="J378" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K378">
-        <v>1.45</v>
+        <v>3.25</v>
       </c>
       <c r="L378">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M378">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="N378">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O378">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="P378">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q378">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R378">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S378">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T378">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U378">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V378">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W378">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z378">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA378">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB378">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC378">
         <v>-1</v>
@@ -34181,7 +34181,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6693028</v>
+        <v>6693029</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,10 +34193,10 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F379" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G379" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H379">
         <v>3</v>
@@ -34208,43 +34208,43 @@
         <v>49</v>
       </c>
       <c r="K379">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L379">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M379">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N379">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O379">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="P379">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q379">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R379">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S379">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T379">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U379">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V379">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W379">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X379">
         <v>-1</v>
@@ -34253,13 +34253,13 @@
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA379">
         <v>-1</v>
       </c>
       <c r="AB379">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC379">
         <v>-1</v>
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6693031</v>
+        <v>6689429</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34282,58 +34282,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G380" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H380">
         <v>3</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J380" t="s">
         <v>49</v>
       </c>
       <c r="K380">
+        <v>8</v>
+      </c>
+      <c r="L380">
+        <v>4.75</v>
+      </c>
+      <c r="M380">
+        <v>1.363</v>
+      </c>
+      <c r="N380">
+        <v>6.5</v>
+      </c>
+      <c r="O380">
+        <v>4.2</v>
+      </c>
+      <c r="P380">
+        <v>1.45</v>
+      </c>
+      <c r="Q380">
+        <v>1</v>
+      </c>
+      <c r="R380">
+        <v>2</v>
+      </c>
+      <c r="S380">
         <v>1.8</v>
-      </c>
-      <c r="L380">
-        <v>3.6</v>
-      </c>
-      <c r="M380">
-        <v>4.333</v>
-      </c>
-      <c r="N380">
-        <v>1.615</v>
-      </c>
-      <c r="O380">
-        <v>4</v>
-      </c>
-      <c r="P380">
-        <v>5.25</v>
-      </c>
-      <c r="Q380">
-        <v>-1</v>
-      </c>
-      <c r="R380">
-        <v>2.025</v>
-      </c>
-      <c r="S380">
-        <v>1.775</v>
       </c>
       <c r="T380">
         <v>2.25</v>
       </c>
       <c r="U380">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V380">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W380">
-        <v>0.615</v>
+        <v>5.5</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34342,13 +34342,13 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA380">
         <v>-1</v>
       </c>
       <c r="AB380">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -34359,7 +34359,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6693030</v>
+        <v>6689425</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34371,76 +34371,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F381" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G381" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I381">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J381" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K381">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L381">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M381">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="N381">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="O381">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P381">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q381">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R381">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S381">
+        <v>2.05</v>
+      </c>
+      <c r="T381">
+        <v>2.5</v>
+      </c>
+      <c r="U381">
         <v>1.975</v>
       </c>
-      <c r="T381">
-        <v>2</v>
-      </c>
-      <c r="U381">
+      <c r="V381">
         <v>1.825</v>
       </c>
-      <c r="V381">
-        <v>2.025</v>
-      </c>
       <c r="W381">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z381">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA381">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
+        <v>-1</v>
+      </c>
+      <c r="AC381">
         <v>0.825</v>
-      </c>
-      <c r="AC381">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -112,10 +112,10 @@
     <t>Vila Nova</t>
   </si>
   <si>
-    <t>Sampaio Correa</t>
+    <t>Mirassol</t>
   </si>
   <si>
-    <t>Mirassol</t>
+    <t>Sampaio Correa</t>
   </si>
   <si>
     <t>EC Juventude</t>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6281959</v>
+        <v>6289142</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>2.15</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>2.25</v>
+      </c>
+      <c r="O5">
         <v>3.1</v>
       </c>
-      <c r="M5">
-        <v>2.9</v>
-      </c>
-      <c r="N5">
-        <v>2.625</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
       <c r="P5">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6289142</v>
+        <v>6281959</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L6">
+        <v>3.1</v>
+      </c>
+      <c r="M6">
+        <v>2.9</v>
+      </c>
+      <c r="N6">
+        <v>2.625</v>
+      </c>
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>2.25</v>
-      </c>
-      <c r="O6">
-        <v>3.1</v>
-      </c>
       <c r="P6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1533,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6286544</v>
+        <v>6286296</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,13 +2242,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2257,43 +2257,43 @@
         <v>49</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
         <v>3.2</v>
       </c>
-      <c r="M20">
-        <v>3.75</v>
-      </c>
       <c r="N20">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O20">
         <v>3.4</v>
       </c>
       <c r="P20">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
-        <v>0.7</v>
+        <v>0.833</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
         <v>-0.5</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6286296</v>
+        <v>6286544</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,13 +2331,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2346,61 +2346,61 @@
         <v>49</v>
       </c>
       <c r="K21">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N21">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q21">
+        <v>-0.75</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>1.8</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>0.7</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>0.475</v>
+      </c>
+      <c r="AA21">
         <v>-0.5</v>
       </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>2.05</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>2.025</v>
-      </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
-      <c r="W21">
-        <v>0.833</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.8</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2509,10 +2509,10 @@
         <v>45045.66666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
         <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6281769</v>
+        <v>6289139</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,76 +3488,76 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34">
+        <v>2.2</v>
+      </c>
+      <c r="L34">
         <v>3</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34">
-        <v>1.95</v>
-      </c>
-      <c r="L34">
-        <v>3.1</v>
-      </c>
       <c r="M34">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N34">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
         <v>3.1</v>
       </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
         <v>2.025</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W34">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB34">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6289139</v>
+        <v>6281769</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,76 +3577,76 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M35">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N35">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O35">
         <v>3.1</v>
       </c>
       <c r="P35">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U35">
         <v>2.025</v>
       </c>
       <c r="V35">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC35">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6285943</v>
+        <v>6289138</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N40">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
         <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6289138</v>
+        <v>6285943</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,76 +4111,76 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
+        <v>2.25</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>3.2</v>
+      </c>
+      <c r="N41">
         <v>2.05</v>
       </c>
-      <c r="L41">
-        <v>3.1</v>
-      </c>
-      <c r="M41">
-        <v>3.4</v>
-      </c>
-      <c r="N41">
-        <v>1.909</v>
-      </c>
       <c r="O41">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4200,7 +4200,7 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>34</v>
@@ -5093,7 +5093,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6285517</v>
+        <v>6281774</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45059.70833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N53">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q53">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC53">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6281774</v>
+        <v>6285517</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45059.70833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K54">
+        <v>1.727</v>
+      </c>
+      <c r="L54">
+        <v>3.5</v>
+      </c>
+      <c r="M54">
+        <v>5.5</v>
+      </c>
+      <c r="N54">
         <v>1.75</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>3.4</v>
       </c>
-      <c r="M54">
+      <c r="P54">
         <v>5.25</v>
       </c>
-      <c r="N54">
-        <v>1.909</v>
-      </c>
-      <c r="O54">
-        <v>3.3</v>
-      </c>
-      <c r="P54">
-        <v>4.5</v>
-      </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W54">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5891,7 +5891,7 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -6158,7 +6158,7 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6695,7 +6695,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6769,7 +6769,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6285520</v>
+        <v>6285664</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6781,13 +6781,13 @@
         <v>45069.89583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6796,43 +6796,43 @@
         <v>49</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N71">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
-        <v>0.7270000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6841,16 +6841,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6858,7 +6858,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6285664</v>
+        <v>6285520</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6870,13 +6870,13 @@
         <v>45069.89583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6885,43 +6885,43 @@
         <v>49</v>
       </c>
       <c r="K72">
+        <v>1.833</v>
+      </c>
+      <c r="L72">
+        <v>3.25</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>1.727</v>
+      </c>
+      <c r="O72">
+        <v>3.5</v>
+      </c>
+      <c r="P72">
+        <v>5.5</v>
+      </c>
+      <c r="Q72">
+        <v>-0.75</v>
+      </c>
+      <c r="R72">
+        <v>1.925</v>
+      </c>
+      <c r="S72">
+        <v>1.875</v>
+      </c>
+      <c r="T72">
         <v>2.25</v>
       </c>
-      <c r="L72">
-        <v>3</v>
-      </c>
-      <c r="M72">
-        <v>3.1</v>
-      </c>
-      <c r="N72">
-        <v>2.45</v>
-      </c>
-      <c r="O72">
-        <v>3</v>
-      </c>
-      <c r="P72">
-        <v>3.3</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
-        <v>2.1</v>
-      </c>
-      <c r="S72">
-        <v>1.775</v>
-      </c>
-      <c r="T72">
-        <v>2</v>
-      </c>
       <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
         <v>1.8</v>
       </c>
-      <c r="V72">
-        <v>2.05</v>
-      </c>
       <c r="W72">
-        <v>1.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6930,16 +6930,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6285519</v>
+        <v>6281963</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,76 +7404,76 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N78">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O78">
         <v>3</v>
       </c>
       <c r="P78">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q78">
         <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W78">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6281963</v>
+        <v>6285519</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M79">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N79">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O79">
         <v>3</v>
       </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q79">
         <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X79">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA79">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6289134</v>
+        <v>6282096</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q85">
         <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6282096</v>
+        <v>6289134</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,76 +8116,76 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K86">
+        <v>2.15</v>
+      </c>
+      <c r="L86">
+        <v>3.1</v>
+      </c>
+      <c r="M86">
+        <v>3.2</v>
+      </c>
+      <c r="N86">
         <v>1.95</v>
       </c>
-      <c r="L86">
+      <c r="O86">
         <v>3.25</v>
       </c>
-      <c r="M86">
-        <v>3.6</v>
-      </c>
-      <c r="N86">
-        <v>2</v>
-      </c>
-      <c r="O86">
-        <v>3.3</v>
-      </c>
       <c r="P86">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q86">
         <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA86">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8386,7 +8386,7 @@
         <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6285747</v>
+        <v>6281787</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,10 +8650,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8665,43 +8665,43 @@
         <v>49</v>
       </c>
       <c r="K92">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L92">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O92">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8710,13 +8710,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6281787</v>
+        <v>6285747</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,10 +8739,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8754,43 +8754,43 @@
         <v>49</v>
       </c>
       <c r="K93">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M93">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P93">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
       </c>
       <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
         <v>1.8</v>
       </c>
-      <c r="S93">
-        <v>2</v>
-      </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8799,13 +8799,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -9006,7 +9006,7 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9098,7 +9098,7 @@
         <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6285748</v>
+        <v>6285525</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,76 +9451,76 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y101">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6285525</v>
+        <v>6285748</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,76 +9540,76 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K102">
+        <v>2.45</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="M102">
+        <v>2.8</v>
+      </c>
+      <c r="N102">
+        <v>2.7</v>
+      </c>
+      <c r="O102">
+        <v>3.1</v>
+      </c>
+      <c r="P102">
+        <v>2.8</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>1.875</v>
+      </c>
+      <c r="S102">
+        <v>1.975</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="U102">
+        <v>1.975</v>
+      </c>
+      <c r="V102">
+        <v>1.875</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
         <v>1.8</v>
       </c>
-      <c r="L102">
-        <v>3.2</v>
-      </c>
-      <c r="M102">
-        <v>4.333</v>
-      </c>
-      <c r="N102">
-        <v>1.6</v>
-      </c>
-      <c r="O102">
-        <v>3.6</v>
-      </c>
-      <c r="P102">
-        <v>7</v>
-      </c>
-      <c r="Q102">
-        <v>-1</v>
-      </c>
-      <c r="R102">
-        <v>2</v>
-      </c>
-      <c r="S102">
-        <v>1.8</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>2.025</v>
-      </c>
-      <c r="V102">
-        <v>1.775</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>2.6</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6281788</v>
+        <v>6282098</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,55 +9629,55 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
         <v>3.2</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9686,19 +9686,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6282098</v>
+        <v>6281788</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,56 +9718,56 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>51</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M104">
         <v>3.2</v>
       </c>
       <c r="N104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
+        <v>1.925</v>
+      </c>
+      <c r="V104">
         <v>1.875</v>
       </c>
-      <c r="S104">
-        <v>1.975</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
@@ -9775,19 +9775,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6281966</v>
+        <v>6285526</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,58 +9896,58 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
         <v>49</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
         <v>1.875</v>
       </c>
       <c r="W106">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9956,16 +9956,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6285526</v>
+        <v>6281966</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,58 +9985,58 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>49</v>
       </c>
       <c r="K107">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L107">
+        <v>3.2</v>
+      </c>
+      <c r="M107">
+        <v>3.75</v>
+      </c>
+      <c r="N107">
+        <v>1.8</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>6</v>
-      </c>
-      <c r="N107">
-        <v>1.4</v>
-      </c>
-      <c r="O107">
+      <c r="P107">
         <v>4.75</v>
       </c>
-      <c r="P107">
-        <v>7.5</v>
-      </c>
       <c r="Q107">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.775</v>
+      </c>
+      <c r="S107">
+        <v>2.025</v>
+      </c>
+      <c r="T107">
+        <v>2.25</v>
+      </c>
+      <c r="U107">
         <v>1.925</v>
-      </c>
-      <c r="S107">
-        <v>1.925</v>
-      </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>1.975</v>
       </c>
       <c r="V107">
         <v>1.875</v>
       </c>
       <c r="W107">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10045,16 +10045,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>-0.5</v>
       </c>
-      <c r="AA107">
-        <v>0.4625</v>
-      </c>
-      <c r="AB107">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10077,7 +10077,7 @@
         <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10433,7 +10433,7 @@
         <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10700,7 +10700,7 @@
         <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -11854,7 +11854,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
         <v>46</v>
@@ -11943,7 +11943,7 @@
         <v>45102.64583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
         <v>44</v>
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6285530</v>
+        <v>6286549</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,76 +12121,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L131">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
         <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6286549</v>
+        <v>6285530</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K132">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M132">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P132">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
         <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W132">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6281797</v>
+        <v>6289129</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M137">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O137">
         <v>3.1</v>
       </c>
       <c r="P137">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12747,7 +12747,7 @@
         <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6289129</v>
+        <v>6281797</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L140">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M140">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O140">
         <v>3.1</v>
       </c>
       <c r="P140">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13189,7 +13189,7 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
         <v>35</v>
@@ -13723,7 +13723,7 @@
         <v>45110.75</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -14527,7 +14527,7 @@
         <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14705,7 +14705,7 @@
         <v>48</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15058,7 +15058,7 @@
         <v>45121.89583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>30</v>
@@ -15414,7 +15414,7 @@
         <v>45123.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>44</v>
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6285537</v>
+        <v>6289124</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,73 +15948,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174" t="s">
+        <v>50</v>
+      </c>
+      <c r="K174">
+        <v>2.25</v>
+      </c>
+      <c r="L174">
+        <v>2.875</v>
+      </c>
+      <c r="M174">
+        <v>3.2</v>
+      </c>
+      <c r="N174">
+        <v>2.25</v>
+      </c>
+      <c r="O174">
         <v>3</v>
       </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174" t="s">
-        <v>49</v>
-      </c>
-      <c r="K174">
-        <v>1.4</v>
-      </c>
-      <c r="L174">
-        <v>3.8</v>
-      </c>
-      <c r="M174">
-        <v>8</v>
-      </c>
-      <c r="N174">
-        <v>1.5</v>
-      </c>
-      <c r="O174">
-        <v>4.2</v>
-      </c>
       <c r="P174">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q174">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
+        <v>1.925</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
         <v>1.95</v>
       </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>2.1</v>
-      </c>
-      <c r="V174">
-        <v>1.775</v>
-      </c>
       <c r="W174">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB174">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6289124</v>
+        <v>6285537</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,73 +16037,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K175">
+        <v>1.4</v>
+      </c>
+      <c r="L175">
+        <v>3.8</v>
+      </c>
+      <c r="M175">
+        <v>8</v>
+      </c>
+      <c r="N175">
+        <v>1.5</v>
+      </c>
+      <c r="O175">
+        <v>4.2</v>
+      </c>
+      <c r="P175">
+        <v>6.5</v>
+      </c>
+      <c r="Q175">
+        <v>-1</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>1.95</v>
+      </c>
+      <c r="T175">
         <v>2.25</v>
       </c>
-      <c r="L175">
-        <v>2.875</v>
-      </c>
-      <c r="M175">
-        <v>3.2</v>
-      </c>
-      <c r="N175">
-        <v>2.25</v>
-      </c>
-      <c r="O175">
-        <v>3</v>
-      </c>
-      <c r="P175">
-        <v>3.6</v>
-      </c>
-      <c r="Q175">
-        <v>-0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.875</v>
-      </c>
-      <c r="S175">
-        <v>1.925</v>
-      </c>
-      <c r="T175">
-        <v>2</v>
-      </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X175">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6281807</v>
+        <v>6281972</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
         <v>2.875</v>
       </c>
       <c r="M176">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O176">
         <v>2.9</v>
       </c>
       <c r="P176">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA176">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC176">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6285538</v>
+        <v>6282102</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,76 +16215,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M177">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N177">
+        <v>2.7</v>
+      </c>
+      <c r="O177">
+        <v>2.8</v>
+      </c>
+      <c r="P177">
+        <v>3.1</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
         <v>1.7</v>
       </c>
-      <c r="O177">
-        <v>3.4</v>
-      </c>
-      <c r="P177">
-        <v>6</v>
-      </c>
-      <c r="Q177">
-        <v>-0.75</v>
-      </c>
-      <c r="R177">
-        <v>1.925</v>
-      </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6282102</v>
+        <v>6285538</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,76 +16304,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K178">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L178">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N178">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O178">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W178">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z178">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC178">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6281972</v>
+        <v>6281807</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L179">
         <v>2.875</v>
       </c>
       <c r="M179">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N179">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O179">
         <v>2.9</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S179">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T179">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB179">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>41</v>
@@ -17105,7 +17105,7 @@
         <v>45130.75</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
         <v>48</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6286300</v>
+        <v>6281811</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,76 +17194,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K188">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L188">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M188">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N188">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P188">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q188">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R188">
+        <v>1.775</v>
+      </c>
+      <c r="S188">
+        <v>2.025</v>
+      </c>
+      <c r="T188">
+        <v>1.75</v>
+      </c>
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
+        <v>2</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1.9</v>
       </c>
-      <c r="S188">
-        <v>1.95</v>
-      </c>
-      <c r="T188">
-        <v>2.25</v>
-      </c>
-      <c r="U188">
-        <v>2.05</v>
-      </c>
-      <c r="V188">
-        <v>1.8</v>
-      </c>
-      <c r="W188">
-        <v>0.7</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
       <c r="Z188">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6281811</v>
+        <v>6286300</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,76 +17283,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L189">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M189">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N189">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O189">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S189">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
+        <v>2.05</v>
+      </c>
+      <c r="V189">
         <v>1.8</v>
       </c>
-      <c r="V189">
-        <v>2</v>
-      </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA189">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
         <v>0.8</v>
-      </c>
-      <c r="AC189">
-        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17553,7 +17553,7 @@
         <v>45</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17909,7 +17909,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18262,7 +18262,7 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
         <v>42</v>
@@ -18351,7 +18351,7 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
         <v>39</v>
@@ -18517,7 +18517,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6285545</v>
+        <v>6281816</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,58 +18529,58 @@
         <v>45140.79166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>49</v>
       </c>
       <c r="K203">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L203">
+        <v>3</v>
+      </c>
+      <c r="M203">
+        <v>3.25</v>
+      </c>
+      <c r="N203">
+        <v>1.95</v>
+      </c>
+      <c r="O203">
         <v>3.2</v>
       </c>
-      <c r="M203">
+      <c r="P203">
         <v>4.5</v>
       </c>
-      <c r="N203">
-        <v>1.75</v>
-      </c>
-      <c r="O203">
-        <v>3.5</v>
-      </c>
-      <c r="P203">
-        <v>5.25</v>
-      </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S203">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
         <v>2</v>
       </c>
       <c r="U203">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V203">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W203">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18589,16 +18589,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6281816</v>
+        <v>6285545</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,76 +18618,76 @@
         <v>45140.79166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
         <v>1</v>
-      </c>
-      <c r="I204">
-        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>49</v>
       </c>
       <c r="K204">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L204">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N204">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O204">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P204">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q204">
+        <v>-0.75</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>1.8</v>
+      </c>
+      <c r="T204">
+        <v>2</v>
+      </c>
+      <c r="U204">
+        <v>1.875</v>
+      </c>
+      <c r="V204">
+        <v>1.925</v>
+      </c>
+      <c r="W204">
+        <v>0.75</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.5</v>
+      </c>
+      <c r="AA204">
         <v>-0.5</v>
       </c>
-      <c r="R204">
-        <v>1.975</v>
-      </c>
-      <c r="S204">
-        <v>1.825</v>
-      </c>
-      <c r="T204">
-        <v>2</v>
-      </c>
-      <c r="U204">
-        <v>1.95</v>
-      </c>
-      <c r="V204">
-        <v>1.85</v>
-      </c>
-      <c r="W204">
-        <v>0.95</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>-1</v>
-      </c>
-      <c r="Z204">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC204">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6281815</v>
+        <v>6285544</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,76 +18796,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K206">
+        <v>2.2</v>
+      </c>
+      <c r="L206">
+        <v>2.875</v>
+      </c>
+      <c r="M206">
+        <v>3.2</v>
+      </c>
+      <c r="N206">
+        <v>2.25</v>
+      </c>
+      <c r="O206">
+        <v>2.875</v>
+      </c>
+      <c r="P206">
+        <v>3.8</v>
+      </c>
+      <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
+        <v>1.9</v>
+      </c>
+      <c r="S206">
         <v>1.95</v>
       </c>
-      <c r="L206">
-        <v>3.25</v>
-      </c>
-      <c r="M206">
-        <v>3.4</v>
-      </c>
-      <c r="N206">
-        <v>2.05</v>
-      </c>
-      <c r="O206">
-        <v>3.25</v>
-      </c>
-      <c r="P206">
-        <v>4</v>
-      </c>
-      <c r="Q206">
-        <v>-0.5</v>
-      </c>
-      <c r="R206">
+      <c r="T206">
+        <v>1.75</v>
+      </c>
+      <c r="U206">
+        <v>1.825</v>
+      </c>
+      <c r="V206">
         <v>2.025</v>
       </c>
-      <c r="S206">
-        <v>1.775</v>
-      </c>
-      <c r="T206">
-        <v>2</v>
-      </c>
-      <c r="U206">
-        <v>1.95</v>
-      </c>
-      <c r="V206">
-        <v>1.85</v>
-      </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6285544</v>
+        <v>6281815</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,76 +18974,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H208">
         <v>0</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K208">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L208">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
+        <v>2.05</v>
+      </c>
+      <c r="O208">
+        <v>3.25</v>
+      </c>
+      <c r="P208">
+        <v>4</v>
+      </c>
+      <c r="Q208">
+        <v>-0.5</v>
+      </c>
+      <c r="R208">
+        <v>2.025</v>
+      </c>
+      <c r="S208">
+        <v>1.775</v>
+      </c>
+      <c r="T208">
+        <v>2</v>
+      </c>
+      <c r="U208">
+        <v>1.95</v>
+      </c>
+      <c r="V208">
+        <v>1.85</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
         <v>2.25</v>
       </c>
-      <c r="O208">
-        <v>2.875</v>
-      </c>
-      <c r="P208">
-        <v>3.8</v>
-      </c>
-      <c r="Q208">
-        <v>-0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.9</v>
-      </c>
-      <c r="S208">
-        <v>1.95</v>
-      </c>
-      <c r="T208">
-        <v>1.75</v>
-      </c>
-      <c r="U208">
-        <v>1.825</v>
-      </c>
-      <c r="V208">
-        <v>2.025</v>
-      </c>
-      <c r="W208">
-        <v>-1</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
       <c r="Y208">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19152,10 +19152,10 @@
         <v>45142.89583333334</v>
       </c>
       <c r="F210" t="s">
+        <v>32</v>
+      </c>
+      <c r="G210" t="s">
         <v>33</v>
-      </c>
-      <c r="G210" t="s">
-        <v>32</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6281817</v>
+        <v>6281875</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45143.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>50</v>
       </c>
       <c r="K212">
+        <v>1.95</v>
+      </c>
+      <c r="L212">
+        <v>3.2</v>
+      </c>
+      <c r="M212">
+        <v>3.5</v>
+      </c>
+      <c r="N212">
+        <v>1.75</v>
+      </c>
+      <c r="O212">
+        <v>3.4</v>
+      </c>
+      <c r="P212">
+        <v>5</v>
+      </c>
+      <c r="Q212">
+        <v>-0.75</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
+        <v>1.925</v>
+      </c>
+      <c r="V212">
+        <v>1.875</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
         <v>2.4</v>
       </c>
-      <c r="L212">
-        <v>2.9</v>
-      </c>
-      <c r="M212">
-        <v>2.8</v>
-      </c>
-      <c r="N212">
-        <v>2.7</v>
-      </c>
-      <c r="O212">
-        <v>2.9</v>
-      </c>
-      <c r="P212">
-        <v>3.1</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.8</v>
-      </c>
-      <c r="S212">
-        <v>2.05</v>
-      </c>
-      <c r="T212">
-        <v>1.75</v>
-      </c>
-      <c r="U212">
-        <v>1.875</v>
-      </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>1.9</v>
-      </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB212">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6281875</v>
+        <v>6281817</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,76 +19419,76 @@
         <v>45143.70833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>50</v>
       </c>
       <c r="K213">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N213">
+        <v>2.7</v>
+      </c>
+      <c r="O213">
+        <v>2.9</v>
+      </c>
+      <c r="P213">
+        <v>3.1</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>1.8</v>
+      </c>
+      <c r="S213">
+        <v>2.05</v>
+      </c>
+      <c r="T213">
         <v>1.75</v>
       </c>
-      <c r="O213">
-        <v>3.4</v>
-      </c>
-      <c r="P213">
-        <v>5</v>
-      </c>
-      <c r="Q213">
-        <v>-0.75</v>
-      </c>
-      <c r="R213">
-        <v>2</v>
-      </c>
-      <c r="S213">
-        <v>1.8</v>
-      </c>
-      <c r="T213">
-        <v>2</v>
-      </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC213">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -20045,7 +20045,7 @@
         <v>43</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20297,7 +20297,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6281876</v>
+        <v>6281975</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20309,52 +20309,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
         <v>50</v>
       </c>
       <c r="K223">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L223">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N223">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O223">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
         <v>2</v>
       </c>
       <c r="S223">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T223">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
         <v>1.9</v>
@@ -20363,22 +20363,22 @@
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA223">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC223">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6281975</v>
+        <v>6281876</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,52 +20398,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>50</v>
       </c>
       <c r="K224">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L224">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M224">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N224">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O224">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P224">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
         <v>2</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U224">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
         <v>1.9</v>
@@ -20452,22 +20452,22 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -21024,7 +21024,7 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21365,7 +21365,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6281821</v>
+        <v>6285672</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21377,70 +21377,70 @@
         <v>45157.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G235" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K235">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="L235">
         <v>3.1</v>
       </c>
       <c r="M235">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N235">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O235">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P235">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q235">
         <v>0</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U235">
         <v>1.95</v>
       </c>
       <c r="V235">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W235">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z235">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB235">
         <v>0.95</v>
@@ -21454,7 +21454,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6285672</v>
+        <v>6281821</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21466,70 +21466,70 @@
         <v>45157.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G236" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="L236">
         <v>3.1</v>
       </c>
       <c r="M236">
+        <v>3</v>
+      </c>
+      <c r="N236">
+        <v>2.7</v>
+      </c>
+      <c r="O236">
         <v>2.875</v>
       </c>
-      <c r="N236">
-        <v>2.8</v>
-      </c>
-      <c r="O236">
-        <v>2.9</v>
-      </c>
       <c r="P236">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q236">
         <v>0</v>
       </c>
       <c r="R236">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T236">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U236">
         <v>1.95</v>
       </c>
       <c r="V236">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA236">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
         <v>0.95</v>
@@ -21558,7 +21558,7 @@
         <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21822,7 +21822,7 @@
         <v>45160.79166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G240" t="s">
         <v>34</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6285951</v>
+        <v>6281823</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,61 +22356,61 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J246" t="s">
         <v>50</v>
       </c>
       <c r="K246">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L246">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N246">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O246">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P246">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q246">
         <v>-0.25</v>
       </c>
       <c r="R246">
+        <v>1.8</v>
+      </c>
+      <c r="S246">
+        <v>2</v>
+      </c>
+      <c r="T246">
+        <v>1.75</v>
+      </c>
+      <c r="U246">
         <v>1.9</v>
       </c>
-      <c r="S246">
+      <c r="V246">
         <v>1.9</v>
       </c>
-      <c r="T246">
-        <v>2</v>
-      </c>
-      <c r="U246">
+      <c r="W246">
+        <v>-1</v>
+      </c>
+      <c r="X246">
         <v>1.75</v>
-      </c>
-      <c r="V246">
-        <v>2.05</v>
-      </c>
-      <c r="W246">
-        <v>-1</v>
-      </c>
-      <c r="X246">
-        <v>2.1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22419,13 +22419,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA246">
+        <v>0.5</v>
+      </c>
+      <c r="AB246">
         <v>0.45</v>
       </c>
-      <c r="AB246">
-        <v>0.75</v>
-      </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6281823</v>
+        <v>6285951</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,61 +22445,61 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F247" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
         <v>50</v>
       </c>
       <c r="K247">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L247">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O247">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P247">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
         <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
         <v>1.75</v>
       </c>
-      <c r="U247">
-        <v>1.9</v>
-      </c>
       <c r="V247">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22508,13 +22508,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB247">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AC247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -23071,7 +23071,7 @@
         <v>37</v>
       </c>
       <c r="G254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6286554</v>
+        <v>6326936</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23335,76 +23335,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F257" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K257">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L257">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M257">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N257">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O257">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P257">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q257">
+        <v>-0.25</v>
+      </c>
+      <c r="R257">
+        <v>2.025</v>
+      </c>
+      <c r="S257">
+        <v>1.775</v>
+      </c>
+      <c r="T257">
+        <v>1.5</v>
+      </c>
+      <c r="U257">
+        <v>1.8</v>
+      </c>
+      <c r="V257">
+        <v>2</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
+        <v>1.875</v>
+      </c>
+      <c r="Y257">
+        <v>-1</v>
+      </c>
+      <c r="Z257">
         <v>-0.5</v>
       </c>
-      <c r="R257">
-        <v>1.95</v>
-      </c>
-      <c r="S257">
-        <v>1.85</v>
-      </c>
-      <c r="T257">
-        <v>2</v>
-      </c>
-      <c r="U257">
-        <v>1.75</v>
-      </c>
-      <c r="V257">
-        <v>2.05</v>
-      </c>
-      <c r="W257">
-        <v>1</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
-      <c r="Y257">
-        <v>-1</v>
-      </c>
-      <c r="Z257">
-        <v>0.95</v>
-      </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC257">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23412,7 +23412,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6326936</v>
+        <v>6286554</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23424,76 +23424,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G258" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258" t="s">
+        <v>49</v>
+      </c>
+      <c r="K258">
+        <v>2.1</v>
+      </c>
+      <c r="L258">
+        <v>3.2</v>
+      </c>
+      <c r="M258">
+        <v>3.6</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258">
+        <v>3.1</v>
+      </c>
+      <c r="P258">
+        <v>4.2</v>
+      </c>
+      <c r="Q258">
+        <v>-0.5</v>
+      </c>
+      <c r="R258">
+        <v>1.95</v>
+      </c>
+      <c r="S258">
+        <v>1.85</v>
+      </c>
+      <c r="T258">
+        <v>2</v>
+      </c>
+      <c r="U258">
+        <v>1.75</v>
+      </c>
+      <c r="V258">
+        <v>2.05</v>
+      </c>
+      <c r="W258">
         <v>1</v>
       </c>
-      <c r="J258" t="s">
-        <v>50</v>
-      </c>
-      <c r="K258">
-        <v>2.6</v>
-      </c>
-      <c r="L258">
-        <v>2.875</v>
-      </c>
-      <c r="M258">
-        <v>3</v>
-      </c>
-      <c r="N258">
-        <v>2.45</v>
-      </c>
-      <c r="O258">
-        <v>2.875</v>
-      </c>
-      <c r="P258">
-        <v>3.4</v>
-      </c>
-      <c r="Q258">
-        <v>-0.25</v>
-      </c>
-      <c r="R258">
-        <v>2.025</v>
-      </c>
-      <c r="S258">
-        <v>1.775</v>
-      </c>
-      <c r="T258">
-        <v>1.5</v>
-      </c>
-      <c r="U258">
-        <v>1.8</v>
-      </c>
-      <c r="V258">
-        <v>2</v>
-      </c>
-      <c r="W258">
-        <v>-1</v>
-      </c>
       <c r="X258">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA258">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -24139,7 +24139,7 @@
         <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -24225,7 +24225,7 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F267" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G267" t="s">
         <v>39</v>
@@ -24940,7 +24940,7 @@
         <v>35</v>
       </c>
       <c r="G275" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H275">
         <v>2</v>
@@ -25026,7 +25026,7 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G276" t="s">
         <v>45</v>
@@ -25560,7 +25560,7 @@
         <v>45188.89583333334</v>
       </c>
       <c r="F282" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G282" t="s">
         <v>31</v>
@@ -25652,7 +25652,7 @@
         <v>40</v>
       </c>
       <c r="G283" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>45197.79166666666</v>
       </c>
       <c r="F292" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G292" t="s">
         <v>47</v>
@@ -26542,7 +26542,7 @@
         <v>36</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -27340,7 +27340,7 @@
         <v>45202.8125</v>
       </c>
       <c r="F302" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G302" t="s">
         <v>36</v>
@@ -27773,7 +27773,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6534936</v>
+        <v>6537871</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27785,46 +27785,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G307" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307">
         <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K307">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L307">
         <v>2.9</v>
       </c>
       <c r="M307">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N307">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O307">
         <v>2.875</v>
       </c>
       <c r="P307">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q307">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R307">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S307">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T307">
         <v>1.75</v>
@@ -27839,22 +27839,22 @@
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB307">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27862,7 +27862,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6537871</v>
+        <v>6534936</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27874,46 +27874,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G308" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308">
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K308">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L308">
         <v>2.9</v>
       </c>
       <c r="M308">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N308">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O308">
         <v>2.875</v>
       </c>
       <c r="P308">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R308">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S308">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T308">
         <v>1.75</v>
@@ -27928,22 +27928,22 @@
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y308">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA308">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC308">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28233,7 +28233,7 @@
         <v>46</v>
       </c>
       <c r="G312" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6576739</v>
+        <v>6576997</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,10 +28497,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G315" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -28512,25 +28512,25 @@
         <v>50</v>
       </c>
       <c r="K315">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L315">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M315">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N315">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O315">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P315">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q315">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R315">
         <v>1.825</v>
@@ -28539,34 +28539,34 @@
         <v>1.975</v>
       </c>
       <c r="T315">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U315">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V315">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA315">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB315">
         <v>-1</v>
       </c>
       <c r="AC315">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6576997</v>
+        <v>6576739</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,10 +28586,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F316" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G316" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -28601,25 +28601,25 @@
         <v>50</v>
       </c>
       <c r="K316">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L316">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M316">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N316">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O316">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P316">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R316">
         <v>1.825</v>
@@ -28628,34 +28628,34 @@
         <v>1.975</v>
       </c>
       <c r="T316">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U316">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V316">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W316">
         <v>-1</v>
       </c>
       <c r="X316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB316">
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28678,7 +28678,7 @@
         <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6590925</v>
+        <v>6590629</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,13 +29120,13 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G322" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H322">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322">
         <v>1</v>
@@ -29135,43 +29135,43 @@
         <v>49</v>
       </c>
       <c r="K322">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M322">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N322">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O322">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P322">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q322">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R322">
+        <v>1.75</v>
+      </c>
+      <c r="S322">
+        <v>2.05</v>
+      </c>
+      <c r="T322">
+        <v>2</v>
+      </c>
+      <c r="U322">
+        <v>1.925</v>
+      </c>
+      <c r="V322">
         <v>1.875</v>
       </c>
-      <c r="S322">
-        <v>1.925</v>
-      </c>
-      <c r="T322">
-        <v>2.5</v>
-      </c>
-      <c r="U322">
-        <v>2</v>
-      </c>
-      <c r="V322">
-        <v>1.8</v>
-      </c>
       <c r="W322">
-        <v>0.3999999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="X322">
         <v>-1</v>
@@ -29180,13 +29180,13 @@
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA322">
         <v>-1</v>
       </c>
       <c r="AB322">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6590629</v>
+        <v>6590925</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,13 +29209,13 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G323" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I323">
         <v>1</v>
@@ -29224,43 +29224,43 @@
         <v>49</v>
       </c>
       <c r="K323">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L323">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M323">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N323">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="O323">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P323">
+        <v>7.5</v>
+      </c>
+      <c r="Q323">
+        <v>-1.25</v>
+      </c>
+      <c r="R323">
+        <v>1.875</v>
+      </c>
+      <c r="S323">
+        <v>1.925</v>
+      </c>
+      <c r="T323">
         <v>2.5</v>
       </c>
-      <c r="Q323">
-        <v>0.25</v>
-      </c>
-      <c r="R323">
-        <v>1.75</v>
-      </c>
-      <c r="S323">
-        <v>2.05</v>
-      </c>
-      <c r="T323">
-        <v>2</v>
-      </c>
       <c r="U323">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V323">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W323">
-        <v>2.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29269,13 +29269,13 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA323">
         <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29298,7 +29298,7 @@
         <v>45219.79166666666</v>
       </c>
       <c r="F324" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G324" t="s">
         <v>37</v>
@@ -29387,7 +29387,7 @@
         <v>45219.89583333334</v>
       </c>
       <c r="F325" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G325" t="s">
         <v>29</v>
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6602792</v>
+        <v>6602793</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F334" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G334" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K334">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L334">
         <v>3.6</v>
       </c>
       <c r="M334">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N334">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O334">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P334">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q334">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R334">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S334">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T334">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U334">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA334">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC334">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30265,7 +30265,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6602793</v>
+        <v>6602792</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30277,76 +30277,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F335" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G335" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K335">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L335">
         <v>3.6</v>
       </c>
       <c r="M335">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="N335">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O335">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P335">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q335">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R335">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S335">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T335">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U335">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V335">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W335">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z335">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB335">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30369,7 +30369,7 @@
         <v>35</v>
       </c>
       <c r="G336" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H336">
         <v>3</v>
@@ -30458,7 +30458,7 @@
         <v>30</v>
       </c>
       <c r="G337" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H337">
         <v>0</v>
@@ -30989,7 +30989,7 @@
         <v>45233.79166666666</v>
       </c>
       <c r="F343" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G343" t="s">
         <v>48</v>
@@ -31066,7 +31066,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6619161</v>
+        <v>6623672</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31078,46 +31078,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F344" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G344" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K344">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L344">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M344">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N344">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O344">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P344">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q344">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R344">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S344">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T344">
         <v>2</v>
@@ -31126,28 +31126,28 @@
         <v>1.925</v>
       </c>
       <c r="V344">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W344">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X344">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA344">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB344">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC344">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31155,7 +31155,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6623672</v>
+        <v>6619161</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31167,46 +31167,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F345" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G345" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K345">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L345">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M345">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N345">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O345">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P345">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q345">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R345">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S345">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T345">
         <v>2</v>
@@ -31215,28 +31215,28 @@
         <v>1.925</v>
       </c>
       <c r="V345">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X345">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA345">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC345">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31244,7 +31244,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6619374</v>
+        <v>6615398</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31256,76 +31256,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F346" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G346" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J346" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K346">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L346">
         <v>3</v>
       </c>
       <c r="M346">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N346">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O346">
         <v>3.1</v>
       </c>
       <c r="P346">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q346">
         <v>-0.25</v>
       </c>
       <c r="R346">
+        <v>1.9</v>
+      </c>
+      <c r="S346">
+        <v>1.95</v>
+      </c>
+      <c r="T346">
+        <v>2</v>
+      </c>
+      <c r="U346">
+        <v>2.025</v>
+      </c>
+      <c r="V346">
+        <v>1.825</v>
+      </c>
+      <c r="W346">
+        <v>-1</v>
+      </c>
+      <c r="X346">
         <v>2.1</v>
       </c>
-      <c r="S346">
-        <v>1.775</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
-      </c>
-      <c r="U346">
-        <v>2.05</v>
-      </c>
-      <c r="V346">
-        <v>1.8</v>
-      </c>
-      <c r="W346">
-        <v>-1</v>
-      </c>
-      <c r="X346">
-        <v>-1</v>
-      </c>
       <c r="Y346">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC346">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31333,7 +31333,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6615398</v>
+        <v>6619374</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31345,76 +31345,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G347" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K347">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L347">
         <v>3</v>
       </c>
       <c r="M347">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N347">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O347">
         <v>3.1</v>
       </c>
       <c r="P347">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q347">
         <v>-0.25</v>
       </c>
       <c r="R347">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S347">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T347">
         <v>2</v>
       </c>
       <c r="U347">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V347">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
+        <v>-1</v>
+      </c>
+      <c r="Y347">
         <v>2.1</v>
       </c>
-      <c r="Y347">
-        <v>-1</v>
-      </c>
       <c r="Z347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB347">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31434,7 +31434,7 @@
         <v>45234.8125</v>
       </c>
       <c r="F348" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G348" t="s">
         <v>41</v>
@@ -31971,7 +31971,7 @@
         <v>30</v>
       </c>
       <c r="G354" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H354">
         <v>2</v>
@@ -32327,7 +32327,7 @@
         <v>44</v>
       </c>
       <c r="G358" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H358">
         <v>2</v>
@@ -32846,7 +32846,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6673199</v>
+        <v>6679229</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32858,76 +32858,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G364" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H364">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K364">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L364">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M364">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N364">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O364">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P364">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q364">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R364">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S364">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T364">
         <v>2</v>
       </c>
       <c r="U364">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V364">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W364">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X364">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA364">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB364">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC364">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32935,7 +32935,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6677287</v>
+        <v>6673197</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32947,13 +32947,13 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G365" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H365">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I365">
         <v>0</v>
@@ -32962,43 +32962,43 @@
         <v>49</v>
       </c>
       <c r="K365">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L365">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M365">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N365">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O365">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P365">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q365">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R365">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S365">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T365">
         <v>2</v>
       </c>
       <c r="U365">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V365">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W365">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X365">
         <v>-1</v>
@@ -33007,16 +33007,16 @@
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA365">
         <v>-1</v>
       </c>
       <c r="AB365">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC365">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33024,7 +33024,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6679229</v>
+        <v>6677287</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33036,76 +33036,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G366" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I366">
         <v>0</v>
       </c>
       <c r="J366" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K366">
-        <v>1.45</v>
+        <v>1.615</v>
       </c>
       <c r="L366">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M366">
         <v>6.5</v>
       </c>
       <c r="N366">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O366">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P366">
-        <v>5.25</v>
+        <v>8.5</v>
       </c>
       <c r="Q366">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R366">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S366">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T366">
         <v>2</v>
       </c>
       <c r="U366">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V366">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W366">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X366">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA366">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB366">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC366">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33202,7 +33202,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6673197</v>
+        <v>6673199</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33214,16 +33214,16 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F368" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G368" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H368">
+        <v>4</v>
+      </c>
+      <c r="I368">
         <v>1</v>
-      </c>
-      <c r="I368">
-        <v>0</v>
       </c>
       <c r="J368" t="s">
         <v>49</v>
@@ -33232,40 +33232,40 @@
         <v>1.909</v>
       </c>
       <c r="L368">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M368">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N368">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O368">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P368">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q368">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R368">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S368">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T368">
         <v>2</v>
       </c>
       <c r="U368">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V368">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W368">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="X368">
         <v>-1</v>
@@ -33274,16 +33274,16 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC368">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33481,7 +33481,7 @@
         <v>45250.83333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G371" t="s">
         <v>42</v>
@@ -33558,7 +33558,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6689427</v>
+        <v>6689425</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33570,76 +33570,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G372" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372">
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K372">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="L372">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M372">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="N372">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="O372">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P372">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q372">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R372">
+        <v>1.75</v>
+      </c>
+      <c r="S372">
         <v>2.05</v>
       </c>
-      <c r="S372">
-        <v>1.75</v>
-      </c>
       <c r="T372">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
+        <v>1.975</v>
+      </c>
+      <c r="V372">
         <v>1.825</v>
       </c>
-      <c r="V372">
-        <v>1.975</v>
-      </c>
       <c r="W372">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X372">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA372">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
         <v>-1</v>
       </c>
       <c r="AC372">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33647,7 +33647,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6689350</v>
+        <v>6689428</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,10 +33659,10 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G373" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H373">
         <v>0</v>
@@ -33674,31 +33674,31 @@
         <v>51</v>
       </c>
       <c r="K373">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L373">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M373">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="N373">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O373">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P373">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q373">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R373">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S373">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T373">
         <v>2.5</v>
@@ -33716,13 +33716,13 @@
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="Z373">
         <v>-1</v>
       </c>
       <c r="AA373">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB373">
         <v>-1</v>
@@ -33736,7 +33736,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6689428</v>
+        <v>6689427</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33748,76 +33748,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G374" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H374">
         <v>0</v>
       </c>
       <c r="I374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J374" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K374">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="L374">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M374">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N374">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O374">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P374">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q374">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R374">
+        <v>2.05</v>
+      </c>
+      <c r="S374">
+        <v>1.75</v>
+      </c>
+      <c r="T374">
+        <v>2.25</v>
+      </c>
+      <c r="U374">
         <v>1.825</v>
       </c>
-      <c r="S374">
+      <c r="V374">
         <v>1.975</v>
       </c>
-      <c r="T374">
-        <v>2.5</v>
-      </c>
-      <c r="U374">
-        <v>2</v>
-      </c>
-      <c r="V374">
-        <v>1.8</v>
-      </c>
       <c r="W374">
         <v>-1</v>
       </c>
       <c r="X374">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y374">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA374">
+        <v>0.375</v>
+      </c>
+      <c r="AB374">
+        <v>-1</v>
+      </c>
+      <c r="AC374">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB374">
-        <v>-1</v>
-      </c>
-      <c r="AC374">
-        <v>0.8</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33825,7 +33825,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6693367</v>
+        <v>6689350</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33837,76 +33837,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G375" t="s">
         <v>32</v>
       </c>
       <c r="H375">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I375">
         <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K375">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="L375">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M375">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N375">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O375">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P375">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q375">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R375">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S375">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T375">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U375">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V375">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W375">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X375">
         <v>-1</v>
       </c>
       <c r="Y375">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z375">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB375">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC375">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33914,7 +33914,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6693028</v>
+        <v>6689429</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33926,58 +33926,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G376" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H376">
         <v>3</v>
       </c>
       <c r="I376">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J376" t="s">
         <v>49</v>
       </c>
       <c r="K376">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="L376">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M376">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="N376">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="O376">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P376">
-        <v>5</v>
+        <v>1.45</v>
       </c>
       <c r="Q376">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R376">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S376">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T376">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U376">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V376">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W376">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33986,13 +33986,13 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34003,7 +34003,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6693031</v>
+        <v>6693029</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34015,58 +34015,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G377" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H377">
         <v>3</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J377" t="s">
         <v>49</v>
       </c>
       <c r="K377">
+        <v>1.45</v>
+      </c>
+      <c r="L377">
+        <v>4</v>
+      </c>
+      <c r="M377">
+        <v>8</v>
+      </c>
+      <c r="N377">
+        <v>1.333</v>
+      </c>
+      <c r="O377">
+        <v>4.8</v>
+      </c>
+      <c r="P377">
+        <v>10</v>
+      </c>
+      <c r="Q377">
+        <v>-1.25</v>
+      </c>
+      <c r="R377">
         <v>1.8</v>
       </c>
-      <c r="L377">
-        <v>3.6</v>
-      </c>
-      <c r="M377">
-        <v>4.333</v>
-      </c>
-      <c r="N377">
-        <v>1.615</v>
-      </c>
-      <c r="O377">
-        <v>4</v>
-      </c>
-      <c r="P377">
-        <v>5.25</v>
-      </c>
-      <c r="Q377">
-        <v>-1</v>
-      </c>
-      <c r="R377">
-        <v>2.025</v>
-      </c>
       <c r="S377">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T377">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U377">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V377">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W377">
-        <v>0.615</v>
+        <v>0.333</v>
       </c>
       <c r="X377">
         <v>-1</v>
@@ -34075,13 +34075,13 @@
         <v>-1</v>
       </c>
       <c r="Z377">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AA377">
         <v>-1</v>
       </c>
       <c r="AB377">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34181,7 +34181,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6693029</v>
+        <v>6693031</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,58 +34193,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F379" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G379" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H379">
         <v>3</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J379" t="s">
         <v>49</v>
       </c>
       <c r="K379">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="L379">
+        <v>3.6</v>
+      </c>
+      <c r="M379">
+        <v>4.333</v>
+      </c>
+      <c r="N379">
+        <v>1.615</v>
+      </c>
+      <c r="O379">
         <v>4</v>
       </c>
-      <c r="M379">
-        <v>8</v>
-      </c>
-      <c r="N379">
-        <v>1.333</v>
-      </c>
-      <c r="O379">
-        <v>4.8</v>
-      </c>
       <c r="P379">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="Q379">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R379">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S379">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T379">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U379">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V379">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W379">
-        <v>0.333</v>
+        <v>0.615</v>
       </c>
       <c r="X379">
         <v>-1</v>
@@ -34253,13 +34253,13 @@
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA379">
         <v>-1</v>
       </c>
       <c r="AB379">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC379">
         <v>-1</v>
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6689429</v>
+        <v>6693028</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34282,58 +34282,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G380" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H380">
         <v>3</v>
       </c>
       <c r="I380">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J380" t="s">
         <v>49</v>
       </c>
       <c r="K380">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="L380">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M380">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="N380">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="O380">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P380">
-        <v>1.45</v>
+        <v>5</v>
       </c>
       <c r="Q380">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R380">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S380">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T380">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U380">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V380">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W380">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34342,13 +34342,13 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA380">
         <v>-1</v>
       </c>
       <c r="AB380">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -34359,7 +34359,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6689425</v>
+        <v>6693367</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34371,58 +34371,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F381" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G381" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I381">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381" t="s">
         <v>49</v>
       </c>
       <c r="K381">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L381">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M381">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="N381">
-        <v>1.45</v>
+        <v>1.533</v>
       </c>
       <c r="O381">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P381">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q381">
         <v>-1</v>
       </c>
       <c r="R381">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S381">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T381">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U381">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V381">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W381">
-        <v>0.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X381">
         <v>-1</v>
@@ -34431,16 +34431,16 @@
         <v>-1</v>
       </c>
       <c r="Z381">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA381">
         <v>-1</v>
       </c>
       <c r="AB381">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC381">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -112,10 +112,10 @@
     <t>Vila Nova</t>
   </si>
   <si>
-    <t>Mirassol</t>
+    <t>Sampaio Correa</t>
   </si>
   <si>
-    <t>Sampaio Correa</t>
+    <t>Mirassol</t>
   </si>
   <si>
     <t>EC Juventude</t>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6289142</v>
+        <v>6281959</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
+        <v>2.9</v>
+      </c>
+      <c r="N5">
+        <v>2.625</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>2.25</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
       <c r="P5">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6281959</v>
+        <v>6289142</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6">
+        <v>2.15</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6">
-        <v>2.4</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>2.25</v>
+      </c>
+      <c r="O6">
         <v>3.1</v>
       </c>
-      <c r="M6">
-        <v>2.9</v>
-      </c>
-      <c r="N6">
-        <v>2.625</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
       <c r="P6">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1533,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2509,10 +2509,10 @@
         <v>45045.66666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
         <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6285514</v>
+        <v>6281767</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,43 +2598,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
         <v>3.3</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <v>1.85</v>
@@ -2643,25 +2643,25 @@
         <v>2</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
         <v>1.925</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6281767</v>
+        <v>6285514</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,43 +2687,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M25">
         <v>3.3</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
         <v>1.85</v>
@@ -2732,25 +2732,25 @@
         <v>2</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
         <v>1.925</v>
       </c>
       <c r="W25">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6281768</v>
+        <v>6281960</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45048.79166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N31">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6281960</v>
+        <v>6281768</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45048.79166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
         <v>3.1</v>
       </c>
-      <c r="M32">
-        <v>3.3</v>
-      </c>
       <c r="N32">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P32">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.95</v>
+      </c>
+      <c r="S32">
         <v>1.85</v>
       </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X32">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3488,7 +3488,7 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>43</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6289138</v>
+        <v>6285943</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,76 +4022,76 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K40">
+        <v>2.25</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>3.2</v>
+      </c>
+      <c r="N40">
         <v>2.05</v>
       </c>
-      <c r="L40">
-        <v>3.1</v>
-      </c>
-      <c r="M40">
-        <v>3.4</v>
-      </c>
-      <c r="N40">
-        <v>1.909</v>
-      </c>
       <c r="O40">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q40">
         <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6285943</v>
+        <v>6281961</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,34 +4111,34 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L41">
         <v>3</v>
       </c>
       <c r="M41">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N41">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
         <v>4</v>
@@ -4147,40 +4147,40 @@
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6281961</v>
+        <v>6289138</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,34 +4203,34 @@
         <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M42">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
@@ -4242,34 +4242,34 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA42">
-        <v>-1</v>
-      </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -5093,7 +5093,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6285944</v>
+        <v>6289136</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,76 +5802,76 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L60">
         <v>3</v>
       </c>
       <c r="M60">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N60">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
         <v>3.1</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6289136</v>
+        <v>6285944</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,76 +5891,76 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N61">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O61">
         <v>3.1</v>
       </c>
       <c r="P61">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB61">
         <v>-0.5</v>
       </c>
       <c r="AC61">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6695,7 +6695,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6286297</v>
+        <v>6281781</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,10 +6959,10 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -6974,22 +6974,22 @@
         <v>49</v>
       </c>
       <c r="K73">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N73">
         <v>1.75</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P73">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q73">
         <v>-0.75</v>
@@ -7004,10 +7004,10 @@
         <v>2</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
         <v>0.75</v>
@@ -7028,7 +7028,7 @@
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6282095</v>
+        <v>6286297</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M74">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O74">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1.85</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
+        <v>1.8</v>
+      </c>
+      <c r="V74">
         <v>2.05</v>
       </c>
-      <c r="S74">
-        <v>1.75</v>
-      </c>
-      <c r="T74">
-        <v>2.25</v>
-      </c>
-      <c r="U74">
-        <v>1.975</v>
-      </c>
-      <c r="V74">
-        <v>1.825</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6281781</v>
+        <v>6282008</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,13 +7137,13 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7152,43 +7152,43 @@
         <v>49</v>
       </c>
       <c r="K75">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L75">
         <v>3.1</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O75">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P75">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7197,16 +7197,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6282008</v>
+        <v>6282095</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,73 +7226,73 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>3</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K76">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L76">
+        <v>2.875</v>
+      </c>
+      <c r="M76">
+        <v>2.7</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
         <v>3.1</v>
       </c>
-      <c r="M76">
+      <c r="P76">
         <v>2.6</v>
       </c>
-      <c r="N76">
-        <v>2.1</v>
-      </c>
-      <c r="O76">
-        <v>3.3</v>
-      </c>
-      <c r="P76">
-        <v>3.6</v>
-      </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7404,7 +7404,7 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>40</v>
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6281783</v>
+        <v>6282009</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,73 +7582,73 @@
         <v>45073.70833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80" t="s">
+        <v>51</v>
+      </c>
+      <c r="K80">
+        <v>2.25</v>
+      </c>
+      <c r="L80">
+        <v>3.1</v>
+      </c>
+      <c r="M80">
         <v>3</v>
       </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80" t="s">
-        <v>49</v>
-      </c>
-      <c r="K80">
-        <v>2.15</v>
-      </c>
-      <c r="L80">
-        <v>3</v>
-      </c>
-      <c r="M80">
-        <v>3.3</v>
-      </c>
       <c r="N80">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O80">
         <v>3.2</v>
       </c>
       <c r="P80">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W80">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z80">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB80">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7659,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6282009</v>
+        <v>6281783</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7671,73 +7671,73 @@
         <v>45073.70833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
         <v>1</v>
       </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
       <c r="J81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L81">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N81">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O81">
         <v>3.2</v>
       </c>
       <c r="P81">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V81">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA81">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -8116,7 +8116,7 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>35</v>
@@ -8386,7 +8386,7 @@
         <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9098,7 +9098,7 @@
         <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6282098</v>
+        <v>6281788</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,56 +9629,56 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M103">
         <v>3.2</v>
       </c>
       <c r="N103">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.85</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
+        <v>1.925</v>
+      </c>
+      <c r="V103">
         <v>1.875</v>
       </c>
-      <c r="S103">
-        <v>1.975</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>2.025</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
@@ -9686,19 +9686,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6281788</v>
+        <v>6282098</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,55 +9718,55 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>51</v>
       </c>
       <c r="K104">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
         <v>3.2</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9775,19 +9775,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6285526</v>
+        <v>6281966</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,58 +9896,58 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>49</v>
       </c>
       <c r="K106">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L106">
+        <v>3.2</v>
+      </c>
+      <c r="M106">
+        <v>3.75</v>
+      </c>
+      <c r="N106">
+        <v>1.8</v>
+      </c>
+      <c r="O106">
         <v>3.5</v>
       </c>
-      <c r="M106">
-        <v>6</v>
-      </c>
-      <c r="N106">
-        <v>1.4</v>
-      </c>
-      <c r="O106">
+      <c r="P106">
         <v>4.75</v>
       </c>
-      <c r="P106">
-        <v>7.5</v>
-      </c>
       <c r="Q106">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
+        <v>2.25</v>
+      </c>
+      <c r="U106">
         <v>1.925</v>
-      </c>
-      <c r="S106">
-        <v>1.925</v>
-      </c>
-      <c r="T106">
-        <v>2.5</v>
-      </c>
-      <c r="U106">
-        <v>1.975</v>
       </c>
       <c r="V106">
         <v>1.875</v>
       </c>
       <c r="W106">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9956,16 +9956,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
         <v>-0.5</v>
       </c>
-      <c r="AA106">
-        <v>0.4625</v>
-      </c>
-      <c r="AB106">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6281966</v>
+        <v>6285526</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,58 +9985,58 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>49</v>
       </c>
       <c r="K107">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P107">
-        <v>4.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
         <v>1.875</v>
       </c>
       <c r="W107">
-        <v>0.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10045,16 +10045,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC107">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10077,7 +10077,7 @@
         <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6281967</v>
+        <v>6281792</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,76 +10430,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N112">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
+        <v>0.4625</v>
+      </c>
+      <c r="AB112">
         <v>-0.5</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6281792</v>
+        <v>6281967</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,76 +10519,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O113">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X113">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>0.3875</v>
+      </c>
+      <c r="AA113">
         <v>-0.5</v>
       </c>
-      <c r="AA113">
-        <v>0.4625</v>
-      </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10700,7 +10700,7 @@
         <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -11854,7 +11854,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
         <v>46</v>
@@ -11943,7 +11943,7 @@
         <v>45102.64583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>44</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6289129</v>
+        <v>6281969</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,7 +12655,7 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
         <v>32</v>
@@ -12670,43 +12670,43 @@
         <v>49</v>
       </c>
       <c r="K137">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="N137">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
         <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
-        <v>1.8</v>
+        <v>0.75</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12715,13 +12715,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6281969</v>
+        <v>6289129</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,7 +12744,7 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
         <v>33</v>
@@ -12759,43 +12759,43 @@
         <v>49</v>
       </c>
       <c r="K138">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M138">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N138">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R138">
         <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12804,13 +12804,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6281970</v>
+        <v>6285667</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,10 +13189,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13204,37 +13204,37 @@
         <v>51</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L143">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N143">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O143">
         <v>3</v>
       </c>
       <c r="P143">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>2.025</v>
-      </c>
-      <c r="T143">
-        <v>2</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
       </c>
       <c r="V143">
         <v>1.825</v>
@@ -13246,13 +13246,13 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB143">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6285667</v>
+        <v>6281970</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,10 +13278,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13293,37 +13293,37 @@
         <v>51</v>
       </c>
       <c r="K144">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
+        <v>2.9</v>
+      </c>
+      <c r="M144">
         <v>3</v>
       </c>
-      <c r="M144">
-        <v>4.333</v>
-      </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
         <v>3</v>
       </c>
       <c r="P144">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
         <v>1.975</v>
-      </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
-      <c r="U144">
-        <v>2.025</v>
       </c>
       <c r="V144">
         <v>1.825</v>
@@ -13335,13 +13335,13 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB144">
         <v>0</v>
@@ -13723,7 +13723,7 @@
         <v>45110.75</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -14527,7 +14527,7 @@
         <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14705,7 +14705,7 @@
         <v>48</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -15058,7 +15058,7 @@
         <v>45121.89583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
         <v>30</v>
@@ -15414,7 +15414,7 @@
         <v>45123.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
         <v>44</v>
@@ -15951,7 +15951,7 @@
         <v>38</v>
       </c>
       <c r="G174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6281972</v>
+        <v>6282102</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,13 +16126,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16141,43 +16141,43 @@
         <v>49</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L176">
         <v>2.875</v>
       </c>
       <c r="M176">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O176">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P176">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S176">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="T176">
         <v>1.75</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16186,16 +16186,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6282102</v>
+        <v>6285538</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,76 +16215,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L177">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N177">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O177">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z177">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC177">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6285538</v>
+        <v>6281972</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,49 +16304,49 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K178">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M178">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N178">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P178">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T178">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U178">
         <v>1.825</v>
@@ -16355,25 +16355,25 @@
         <v>1.975</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA178">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>41</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6285539</v>
+        <v>6285669</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,76 +16660,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L182">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M182">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N182">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P182">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
         <v>2</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y182">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6285669</v>
+        <v>6285539</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,76 +16749,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M183">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O183">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P183">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T183">
         <v>2</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17105,7 +17105,7 @@
         <v>45130.75</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>48</v>
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6281811</v>
+        <v>6286300</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,76 +17194,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K188">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M188">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N188">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
+        <v>2.05</v>
+      </c>
+      <c r="V188">
         <v>1.8</v>
       </c>
-      <c r="V188">
-        <v>2</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA188">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>0.8</v>
-      </c>
-      <c r="AC188">
-        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6286300</v>
+        <v>6281811</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,76 +17283,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K189">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M189">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N189">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P189">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>1.775</v>
+      </c>
+      <c r="S189">
+        <v>2.025</v>
+      </c>
+      <c r="T189">
+        <v>1.75</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.9</v>
       </c>
-      <c r="S189">
-        <v>1.95</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>2.05</v>
-      </c>
-      <c r="V189">
-        <v>1.8</v>
-      </c>
-      <c r="W189">
-        <v>0.7</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17553,7 +17553,7 @@
         <v>45</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17716,7 +17716,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6281812</v>
+        <v>6285670</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17728,76 +17728,76 @@
         <v>45136.70833333334</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G194" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K194">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L194">
+        <v>3.3</v>
+      </c>
+      <c r="M194">
+        <v>4</v>
+      </c>
+      <c r="N194">
+        <v>2.1</v>
+      </c>
+      <c r="O194">
         <v>3.1</v>
       </c>
-      <c r="M194">
-        <v>3.6</v>
-      </c>
-      <c r="N194">
-        <v>2.25</v>
-      </c>
-      <c r="O194">
-        <v>3</v>
-      </c>
       <c r="P194">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q194">
         <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T194">
         <v>1.75</v>
       </c>
       <c r="U194">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
+        <v>2.05</v>
+      </c>
+      <c r="W194">
+        <v>-1</v>
+      </c>
+      <c r="X194">
         <v>2.1</v>
       </c>
-      <c r="W194">
-        <v>-1</v>
-      </c>
-      <c r="X194">
-        <v>-1</v>
-      </c>
       <c r="Y194">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA194">
-        <v>0.875</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB194">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6285670</v>
+        <v>6281812</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17817,76 +17817,76 @@
         <v>45136.70833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K195">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M195">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N195">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O195">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P195">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q195">
         <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T195">
         <v>1.75</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V195">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.5249999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC195">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17909,7 +17909,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6289120</v>
+        <v>6281874</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18265,58 +18265,58 @@
         <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
         <v>50</v>
       </c>
       <c r="K200">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M200">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N200">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
+        <v>2.025</v>
+      </c>
+      <c r="S200">
         <v>1.825</v>
       </c>
-      <c r="S200">
-        <v>1.975</v>
-      </c>
       <c r="T200">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U200">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V200">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
@@ -18325,13 +18325,13 @@
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB200">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6281874</v>
+        <v>6289120</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,58 +18354,58 @@
         <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
         <v>50</v>
       </c>
       <c r="K201">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L201">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N201">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U201">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -18414,13 +18414,13 @@
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC201">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18517,7 +18517,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6281816</v>
+        <v>6285545</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,76 +18529,76 @@
         <v>45140.79166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
         <v>1</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>49</v>
       </c>
       <c r="K203">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N203">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>1.8</v>
+      </c>
+      <c r="T203">
+        <v>2</v>
+      </c>
+      <c r="U203">
+        <v>1.875</v>
+      </c>
+      <c r="V203">
+        <v>1.925</v>
+      </c>
+      <c r="W203">
+        <v>0.75</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.5</v>
+      </c>
+      <c r="AA203">
         <v>-0.5</v>
       </c>
-      <c r="R203">
-        <v>1.975</v>
-      </c>
-      <c r="S203">
-        <v>1.825</v>
-      </c>
-      <c r="T203">
-        <v>2</v>
-      </c>
-      <c r="U203">
-        <v>1.95</v>
-      </c>
-      <c r="V203">
-        <v>1.85</v>
-      </c>
-      <c r="W203">
-        <v>0.95</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
-      <c r="Z203">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6285545</v>
+        <v>6281816</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,58 +18618,58 @@
         <v>45140.79166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>49</v>
       </c>
       <c r="K204">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>3.25</v>
+      </c>
+      <c r="N204">
+        <v>1.95</v>
+      </c>
+      <c r="O204">
         <v>3.2</v>
       </c>
-      <c r="M204">
+      <c r="P204">
         <v>4.5</v>
       </c>
-      <c r="N204">
-        <v>1.75</v>
-      </c>
-      <c r="O204">
-        <v>3.5</v>
-      </c>
-      <c r="P204">
-        <v>5.25</v>
-      </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
         <v>2</v>
       </c>
       <c r="U204">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V204">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18678,16 +18678,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6285671</v>
+        <v>6287040</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,70 +18707,70 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K205">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M205">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N205">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P205">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
+        <v>2.1</v>
+      </c>
+      <c r="S205">
+        <v>1.775</v>
+      </c>
+      <c r="T205">
+        <v>2</v>
+      </c>
+      <c r="U205">
+        <v>2.05</v>
+      </c>
+      <c r="V205">
+        <v>1.8</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
         <v>1.875</v>
       </c>
-      <c r="S205">
-        <v>1.925</v>
-      </c>
-      <c r="T205">
-        <v>2</v>
-      </c>
-      <c r="U205">
-        <v>1.85</v>
-      </c>
-      <c r="V205">
-        <v>1.95</v>
-      </c>
-      <c r="W205">
-        <v>0.5</v>
-      </c>
-      <c r="X205">
-        <v>-1</v>
-      </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB205">
         <v>0</v>
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6285544</v>
+        <v>6282019</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,76 +18796,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K206">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L206">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M206">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N206">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O206">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P206">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q206">
         <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T206">
         <v>1.75</v>
       </c>
       <c r="U206">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V206">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA206">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6282019</v>
+        <v>6281815</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,76 +18885,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G207" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207">
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K207">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L207">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N207">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P207">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S207">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T207">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6281815</v>
+        <v>6285544</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,76 +18974,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H208">
         <v>0</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K208">
+        <v>2.2</v>
+      </c>
+      <c r="L208">
+        <v>2.875</v>
+      </c>
+      <c r="M208">
+        <v>3.2</v>
+      </c>
+      <c r="N208">
+        <v>2.25</v>
+      </c>
+      <c r="O208">
+        <v>2.875</v>
+      </c>
+      <c r="P208">
+        <v>3.8</v>
+      </c>
+      <c r="Q208">
+        <v>-0.25</v>
+      </c>
+      <c r="R208">
+        <v>1.9</v>
+      </c>
+      <c r="S208">
         <v>1.95</v>
       </c>
-      <c r="L208">
-        <v>3.25</v>
-      </c>
-      <c r="M208">
-        <v>3.4</v>
-      </c>
-      <c r="N208">
-        <v>2.05</v>
-      </c>
-      <c r="O208">
-        <v>3.25</v>
-      </c>
-      <c r="P208">
-        <v>4</v>
-      </c>
-      <c r="Q208">
-        <v>-0.5</v>
-      </c>
-      <c r="R208">
+      <c r="T208">
+        <v>1.75</v>
+      </c>
+      <c r="U208">
+        <v>1.825</v>
+      </c>
+      <c r="V208">
         <v>2.025</v>
       </c>
-      <c r="S208">
-        <v>1.775</v>
-      </c>
-      <c r="T208">
-        <v>2</v>
-      </c>
-      <c r="U208">
-        <v>1.95</v>
-      </c>
-      <c r="V208">
-        <v>1.85</v>
-      </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19051,7 +19051,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6287040</v>
+        <v>6285671</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19063,70 +19063,70 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K209">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L209">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N209">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O209">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P209">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R209">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S209">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T209">
         <v>2</v>
       </c>
       <c r="U209">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V209">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X209">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA209">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
         <v>0</v>
@@ -19152,10 +19152,10 @@
         <v>45142.89583333334</v>
       </c>
       <c r="F210" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210" t="s">
         <v>32</v>
-      </c>
-      <c r="G210" t="s">
-        <v>33</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19852,7 +19852,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6286301</v>
+        <v>6959080</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19864,58 +19864,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
         <v>49</v>
       </c>
       <c r="K218">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L218">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M218">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N218">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O218">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q218">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T218">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U218">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V218">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W218">
-        <v>2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19924,16 +19924,16 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.7250000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB218">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6959080</v>
+        <v>6286301</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19953,58 +19953,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>49</v>
       </c>
       <c r="K219">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L219">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M219">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="N219">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O219">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P219">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V219">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W219">
-        <v>0.7270000000000001</v>
+        <v>2</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20013,16 +20013,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.4875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA219">
+        <v>-1</v>
+      </c>
+      <c r="AB219">
+        <v>0.3875</v>
+      </c>
+      <c r="AC219">
         <v>-0.5</v>
-      </c>
-      <c r="AB219">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC219">
-        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20045,7 +20045,7 @@
         <v>43</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20297,7 +20297,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6281975</v>
+        <v>6281876</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20309,52 +20309,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
         <v>50</v>
       </c>
       <c r="K223">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L223">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M223">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N223">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P223">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
         <v>2</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
         <v>1.9</v>
@@ -20363,22 +20363,22 @@
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6281876</v>
+        <v>6281975</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,52 +20398,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>50</v>
       </c>
       <c r="K224">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L224">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M224">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O224">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P224">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
         <v>2</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V224">
         <v>1.9</v>
@@ -20452,22 +20452,22 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC224">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -21024,7 +21024,7 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21365,7 +21365,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6285672</v>
+        <v>6281821</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21377,70 +21377,70 @@
         <v>45157.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G235" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K235">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="L235">
         <v>3.1</v>
       </c>
       <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>2.7</v>
+      </c>
+      <c r="O235">
         <v>2.875</v>
       </c>
-      <c r="N235">
-        <v>2.8</v>
-      </c>
-      <c r="O235">
-        <v>2.9</v>
-      </c>
       <c r="P235">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q235">
         <v>0</v>
       </c>
       <c r="R235">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U235">
         <v>1.95</v>
       </c>
       <c r="V235">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA235">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
         <v>0.95</v>
@@ -21454,7 +21454,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6281821</v>
+        <v>6285672</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21466,70 +21466,70 @@
         <v>45157.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K236">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="L236">
         <v>3.1</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N236">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O236">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P236">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q236">
         <v>0</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U236">
         <v>1.95</v>
       </c>
       <c r="V236">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W236">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z236">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB236">
         <v>0.95</v>
@@ -21558,7 +21558,7 @@
         <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21822,7 +21822,7 @@
         <v>45160.79166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G240" t="s">
         <v>34</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6281823</v>
+        <v>6285951</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,61 +22356,61 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G246" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
         <v>50</v>
       </c>
       <c r="K246">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L246">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N246">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O246">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P246">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q246">
         <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S246">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T246">
+        <v>2</v>
+      </c>
+      <c r="U246">
         <v>1.75</v>
       </c>
-      <c r="U246">
-        <v>1.9</v>
-      </c>
       <c r="V246">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22419,13 +22419,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB246">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6285951</v>
+        <v>6281823</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,61 +22445,61 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G247" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>50</v>
       </c>
       <c r="K247">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L247">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N247">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O247">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P247">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q247">
         <v>-0.25</v>
       </c>
       <c r="R247">
+        <v>1.8</v>
+      </c>
+      <c r="S247">
+        <v>2</v>
+      </c>
+      <c r="T247">
+        <v>1.75</v>
+      </c>
+      <c r="U247">
         <v>1.9</v>
       </c>
-      <c r="S247">
+      <c r="V247">
         <v>1.9</v>
       </c>
-      <c r="T247">
-        <v>2</v>
-      </c>
-      <c r="U247">
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
         <v>1.75</v>
-      </c>
-      <c r="V247">
-        <v>2.05</v>
-      </c>
-      <c r="W247">
-        <v>-1</v>
-      </c>
-      <c r="X247">
-        <v>2.1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22508,13 +22508,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA247">
+        <v>0.5</v>
+      </c>
+      <c r="AB247">
         <v>0.45</v>
       </c>
-      <c r="AB247">
-        <v>0.75</v>
-      </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -23071,7 +23071,7 @@
         <v>37</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6326936</v>
+        <v>6286554</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23335,76 +23335,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257" t="s">
+        <v>49</v>
+      </c>
+      <c r="K257">
+        <v>2.1</v>
+      </c>
+      <c r="L257">
+        <v>3.2</v>
+      </c>
+      <c r="M257">
+        <v>3.6</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="O257">
+        <v>3.1</v>
+      </c>
+      <c r="P257">
+        <v>4.2</v>
+      </c>
+      <c r="Q257">
+        <v>-0.5</v>
+      </c>
+      <c r="R257">
+        <v>1.95</v>
+      </c>
+      <c r="S257">
+        <v>1.85</v>
+      </c>
+      <c r="T257">
+        <v>2</v>
+      </c>
+      <c r="U257">
+        <v>1.75</v>
+      </c>
+      <c r="V257">
+        <v>2.05</v>
+      </c>
+      <c r="W257">
         <v>1</v>
       </c>
-      <c r="J257" t="s">
-        <v>50</v>
-      </c>
-      <c r="K257">
-        <v>2.6</v>
-      </c>
-      <c r="L257">
-        <v>2.875</v>
-      </c>
-      <c r="M257">
-        <v>3</v>
-      </c>
-      <c r="N257">
-        <v>2.45</v>
-      </c>
-      <c r="O257">
-        <v>2.875</v>
-      </c>
-      <c r="P257">
-        <v>3.4</v>
-      </c>
-      <c r="Q257">
-        <v>-0.25</v>
-      </c>
-      <c r="R257">
-        <v>2.025</v>
-      </c>
-      <c r="S257">
-        <v>1.775</v>
-      </c>
-      <c r="T257">
-        <v>1.5</v>
-      </c>
-      <c r="U257">
-        <v>1.8</v>
-      </c>
-      <c r="V257">
-        <v>2</v>
-      </c>
-      <c r="W257">
-        <v>-1</v>
-      </c>
       <c r="X257">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA257">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23412,7 +23412,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6286554</v>
+        <v>6326936</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23424,76 +23424,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G258" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K258">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L258">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M258">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N258">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O258">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P258">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q258">
+        <v>-0.25</v>
+      </c>
+      <c r="R258">
+        <v>2.025</v>
+      </c>
+      <c r="S258">
+        <v>1.775</v>
+      </c>
+      <c r="T258">
+        <v>1.5</v>
+      </c>
+      <c r="U258">
+        <v>1.8</v>
+      </c>
+      <c r="V258">
+        <v>2</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
+        <v>1.875</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
         <v>-0.5</v>
       </c>
-      <c r="R258">
-        <v>1.95</v>
-      </c>
-      <c r="S258">
-        <v>1.85</v>
-      </c>
-      <c r="T258">
-        <v>2</v>
-      </c>
-      <c r="U258">
-        <v>1.75</v>
-      </c>
-      <c r="V258">
-        <v>2.05</v>
-      </c>
-      <c r="W258">
-        <v>1</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
-      <c r="Y258">
-        <v>-1</v>
-      </c>
-      <c r="Z258">
-        <v>0.95</v>
-      </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC258">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -24139,7 +24139,7 @@
         <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -24225,7 +24225,7 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F267" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G267" t="s">
         <v>39</v>
@@ -24940,7 +24940,7 @@
         <v>35</v>
       </c>
       <c r="G275" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H275">
         <v>2</v>
@@ -25026,7 +25026,7 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
         <v>45</v>
@@ -25560,7 +25560,7 @@
         <v>45188.89583333334</v>
       </c>
       <c r="F282" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G282" t="s">
         <v>31</v>
@@ -25652,7 +25652,7 @@
         <v>40</v>
       </c>
       <c r="G283" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -25904,7 +25904,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6326524</v>
+        <v>6355831</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25916,76 +25916,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G286" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K286">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L286">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M286">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N286">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O286">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P286">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q286">
         <v>-0.25</v>
       </c>
       <c r="R286">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S286">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T286">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U286">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V286">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W286">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC286">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25993,7 +25993,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6355831</v>
+        <v>6326524</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26005,76 +26005,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F287" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G287" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K287">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L287">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M287">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N287">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O287">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P287">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q287">
         <v>-0.25</v>
       </c>
       <c r="R287">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S287">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T287">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U287">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V287">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X287">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA287">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26450,7 +26450,7 @@
         <v>45197.79166666666</v>
       </c>
       <c r="F292" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G292" t="s">
         <v>47</v>
@@ -26542,7 +26542,7 @@
         <v>36</v>
       </c>
       <c r="G293" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -27340,7 +27340,7 @@
         <v>45202.8125</v>
       </c>
       <c r="F302" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G302" t="s">
         <v>36</v>
@@ -27773,7 +27773,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6537871</v>
+        <v>6534936</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27785,46 +27785,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G307" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307">
         <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K307">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L307">
         <v>2.9</v>
       </c>
       <c r="M307">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N307">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O307">
         <v>2.875</v>
       </c>
       <c r="P307">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T307">
         <v>1.75</v>
@@ -27839,22 +27839,22 @@
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y307">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA307">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC307">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27862,7 +27862,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6534936</v>
+        <v>6537871</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27874,46 +27874,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G308" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308">
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K308">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L308">
         <v>2.9</v>
       </c>
       <c r="M308">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N308">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O308">
         <v>2.875</v>
       </c>
       <c r="P308">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q308">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S308">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T308">
         <v>1.75</v>
@@ -27928,22 +27928,22 @@
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB308">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28233,7 +28233,7 @@
         <v>46</v>
       </c>
       <c r="G312" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -28678,7 +28678,7 @@
         <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6590629</v>
+        <v>6590925</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,13 +29120,13 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G322" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I322">
         <v>1</v>
@@ -29135,43 +29135,43 @@
         <v>49</v>
       </c>
       <c r="K322">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L322">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M322">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N322">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="O322">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P322">
+        <v>7.5</v>
+      </c>
+      <c r="Q322">
+        <v>-1.25</v>
+      </c>
+      <c r="R322">
+        <v>1.875</v>
+      </c>
+      <c r="S322">
+        <v>1.925</v>
+      </c>
+      <c r="T322">
         <v>2.5</v>
       </c>
-      <c r="Q322">
-        <v>0.25</v>
-      </c>
-      <c r="R322">
-        <v>1.75</v>
-      </c>
-      <c r="S322">
-        <v>2.05</v>
-      </c>
-      <c r="T322">
-        <v>2</v>
-      </c>
       <c r="U322">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V322">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W322">
-        <v>2.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X322">
         <v>-1</v>
@@ -29180,13 +29180,13 @@
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA322">
         <v>-1</v>
       </c>
       <c r="AB322">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6590925</v>
+        <v>6590629</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,13 +29209,13 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G323" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323">
         <v>1</v>
@@ -29224,43 +29224,43 @@
         <v>49</v>
       </c>
       <c r="K323">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M323">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N323">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O323">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P323">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q323">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R323">
+        <v>1.75</v>
+      </c>
+      <c r="S323">
+        <v>2.05</v>
+      </c>
+      <c r="T323">
+        <v>2</v>
+      </c>
+      <c r="U323">
+        <v>1.925</v>
+      </c>
+      <c r="V323">
         <v>1.875</v>
       </c>
-      <c r="S323">
-        <v>1.925</v>
-      </c>
-      <c r="T323">
-        <v>2.5</v>
-      </c>
-      <c r="U323">
-        <v>2</v>
-      </c>
-      <c r="V323">
-        <v>1.8</v>
-      </c>
       <c r="W323">
-        <v>0.3999999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29269,13 +29269,13 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA323">
         <v>-1</v>
       </c>
       <c r="AB323">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29298,7 +29298,7 @@
         <v>45219.79166666666</v>
       </c>
       <c r="F324" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G324" t="s">
         <v>37</v>
@@ -29387,7 +29387,7 @@
         <v>45219.89583333334</v>
       </c>
       <c r="F325" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G325" t="s">
         <v>29</v>
@@ -29731,7 +29731,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6590928</v>
+        <v>6586605</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29743,58 +29743,58 @@
         <v>45221.75</v>
       </c>
       <c r="F329" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G329" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>49</v>
       </c>
       <c r="K329">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L329">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M329">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N329">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O329">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P329">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q329">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R329">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S329">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T329">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U329">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V329">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W329">
-        <v>0.45</v>
+        <v>1.3</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29803,16 +29803,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA329">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6586605</v>
+        <v>6590928</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,58 +29832,58 @@
         <v>45221.75</v>
       </c>
       <c r="F330" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G330" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H330">
+        <v>2</v>
+      </c>
+      <c r="I330">
         <v>1</v>
-      </c>
-      <c r="I330">
-        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>49</v>
       </c>
       <c r="K330">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L330">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="M330">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N330">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O330">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P330">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q330">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R330">
+        <v>1.75</v>
+      </c>
+      <c r="S330">
+        <v>2.05</v>
+      </c>
+      <c r="T330">
+        <v>2.25</v>
+      </c>
+      <c r="U330">
+        <v>1.825</v>
+      </c>
+      <c r="V330">
         <v>1.975</v>
       </c>
-      <c r="S330">
-        <v>1.825</v>
-      </c>
-      <c r="T330">
-        <v>2</v>
-      </c>
-      <c r="U330">
-        <v>1.775</v>
-      </c>
-      <c r="V330">
-        <v>2.025</v>
-      </c>
       <c r="W330">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29892,16 +29892,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA330">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC330">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6602793</v>
+        <v>6602792</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F334" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G334" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K334">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L334">
         <v>3.6</v>
       </c>
       <c r="M334">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="N334">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O334">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P334">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q334">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R334">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S334">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T334">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W334">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z334">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30265,7 +30265,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6602792</v>
+        <v>6602793</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30277,76 +30277,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F335" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G335" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K335">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L335">
         <v>3.6</v>
       </c>
       <c r="M335">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N335">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O335">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P335">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q335">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R335">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S335">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T335">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U335">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V335">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W335">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA335">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC335">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30354,7 +30354,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6598119</v>
+        <v>6607583</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30366,76 +30366,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F336" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G336" t="s">
         <v>33</v>
       </c>
       <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336" t="s">
+        <v>50</v>
+      </c>
+      <c r="K336">
         <v>3</v>
       </c>
-      <c r="I336">
-        <v>0</v>
-      </c>
-      <c r="J336" t="s">
-        <v>49</v>
-      </c>
-      <c r="K336">
-        <v>1.8</v>
-      </c>
       <c r="L336">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M336">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N336">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O336">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P336">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q336">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R336">
+        <v>1.875</v>
+      </c>
+      <c r="S336">
+        <v>1.975</v>
+      </c>
+      <c r="T336">
         <v>1.75</v>
       </c>
-      <c r="S336">
-        <v>2.05</v>
-      </c>
-      <c r="T336">
-        <v>2.25</v>
-      </c>
       <c r="U336">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V336">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W336">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X336">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AA336">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB336">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30443,7 +30443,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6607583</v>
+        <v>6598119</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30455,76 +30455,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F337" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G337" t="s">
         <v>32</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I337">
         <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K337">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L337">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M337">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N337">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O337">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P337">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q337">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R337">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S337">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T337">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U337">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V337">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W337">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X337">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="AA337">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC337">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30989,7 +30989,7 @@
         <v>45233.79166666666</v>
       </c>
       <c r="F343" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G343" t="s">
         <v>48</v>
@@ -31244,7 +31244,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6615398</v>
+        <v>6619374</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31256,76 +31256,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F346" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G346" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K346">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L346">
         <v>3</v>
       </c>
       <c r="M346">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N346">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O346">
         <v>3.1</v>
       </c>
       <c r="P346">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q346">
         <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S346">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T346">
         <v>2</v>
       </c>
       <c r="U346">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V346">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W346">
         <v>-1</v>
       </c>
       <c r="X346">
+        <v>-1</v>
+      </c>
+      <c r="Y346">
         <v>2.1</v>
       </c>
-      <c r="Y346">
-        <v>-1</v>
-      </c>
       <c r="Z346">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB346">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31333,7 +31333,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6619374</v>
+        <v>6615398</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31345,76 +31345,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G347" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J347" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K347">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L347">
         <v>3</v>
       </c>
       <c r="M347">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N347">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O347">
         <v>3.1</v>
       </c>
       <c r="P347">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q347">
         <v>-0.25</v>
       </c>
       <c r="R347">
+        <v>1.9</v>
+      </c>
+      <c r="S347">
+        <v>1.95</v>
+      </c>
+      <c r="T347">
+        <v>2</v>
+      </c>
+      <c r="U347">
+        <v>2.025</v>
+      </c>
+      <c r="V347">
+        <v>1.825</v>
+      </c>
+      <c r="W347">
+        <v>-1</v>
+      </c>
+      <c r="X347">
         <v>2.1</v>
       </c>
-      <c r="S347">
-        <v>1.775</v>
-      </c>
-      <c r="T347">
-        <v>2</v>
-      </c>
-      <c r="U347">
-        <v>2.05</v>
-      </c>
-      <c r="V347">
-        <v>1.8</v>
-      </c>
-      <c r="W347">
-        <v>-1</v>
-      </c>
-      <c r="X347">
-        <v>-1</v>
-      </c>
       <c r="Y347">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC347">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31434,7 +31434,7 @@
         <v>45234.8125</v>
       </c>
       <c r="F348" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G348" t="s">
         <v>41</v>
@@ -31971,7 +31971,7 @@
         <v>30</v>
       </c>
       <c r="G354" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H354">
         <v>2</v>
@@ -32327,7 +32327,7 @@
         <v>44</v>
       </c>
       <c r="G358" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H358">
         <v>2</v>
@@ -32846,7 +32846,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6679229</v>
+        <v>6673199</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32858,76 +32858,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G364" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J364" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K364">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L364">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M364">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N364">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O364">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P364">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q364">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R364">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S364">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T364">
         <v>2</v>
       </c>
       <c r="U364">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V364">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W364">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X364">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA364">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB364">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC364">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32935,7 +32935,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6673197</v>
+        <v>6680024</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32947,40 +32947,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G365" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H365">
+        <v>3</v>
+      </c>
+      <c r="I365">
         <v>1</v>
-      </c>
-      <c r="I365">
-        <v>0</v>
       </c>
       <c r="J365" t="s">
         <v>49</v>
       </c>
       <c r="K365">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L365">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M365">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N365">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="O365">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P365">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q365">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R365">
         <v>2.05</v>
@@ -32989,16 +32989,16 @@
         <v>1.8</v>
       </c>
       <c r="T365">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U365">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V365">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W365">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="X365">
         <v>-1</v>
@@ -33013,10 +33013,10 @@
         <v>-1</v>
       </c>
       <c r="AB365">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC365">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33024,7 +33024,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6677287</v>
+        <v>6673197</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33036,13 +33036,13 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G366" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H366">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I366">
         <v>0</v>
@@ -33051,43 +33051,43 @@
         <v>49</v>
       </c>
       <c r="K366">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L366">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M366">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N366">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O366">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P366">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q366">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R366">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S366">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T366">
         <v>2</v>
       </c>
       <c r="U366">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V366">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W366">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X366">
         <v>-1</v>
@@ -33096,16 +33096,16 @@
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA366">
         <v>-1</v>
       </c>
       <c r="AB366">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC366">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33113,7 +33113,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6680024</v>
+        <v>6679229</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33125,40 +33125,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G367" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H367">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K367">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L367">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M367">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N367">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O367">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P367">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q367">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R367">
         <v>2.05</v>
@@ -33167,34 +33167,34 @@
         <v>1.8</v>
       </c>
       <c r="T367">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U367">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V367">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W367">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB367">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC367">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33202,7 +33202,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6673199</v>
+        <v>6677287</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33214,46 +33214,46 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F368" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G368" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H368">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J368" t="s">
         <v>49</v>
       </c>
       <c r="K368">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L368">
         <v>3.4</v>
       </c>
       <c r="M368">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N368">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O368">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P368">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q368">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R368">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S368">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T368">
         <v>2</v>
@@ -33265,7 +33265,7 @@
         <v>2</v>
       </c>
       <c r="W368">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="X368">
         <v>-1</v>
@@ -33274,7 +33274,7 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA368">
         <v>-1</v>
@@ -33481,7 +33481,7 @@
         <v>45250.83333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G371" t="s">
         <v>42</v>
@@ -33558,7 +33558,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6689425</v>
+        <v>6693030</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33570,76 +33570,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G372" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J372" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K372">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L372">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M372">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="N372">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="O372">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P372">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q372">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R372">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S372">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U372">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V372">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W372">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z372">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC372">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33647,7 +33647,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6689428</v>
+        <v>6693367</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,76 +33659,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G373" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I373">
         <v>1</v>
       </c>
       <c r="J373" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K373">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L373">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M373">
+        <v>7</v>
+      </c>
+      <c r="N373">
+        <v>1.533</v>
+      </c>
+      <c r="O373">
+        <v>4</v>
+      </c>
+      <c r="P373">
         <v>6</v>
       </c>
-      <c r="N373">
-        <v>1.615</v>
-      </c>
-      <c r="O373">
-        <v>3.8</v>
-      </c>
-      <c r="P373">
-        <v>5.75</v>
-      </c>
       <c r="Q373">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R373">
+        <v>1.975</v>
+      </c>
+      <c r="S373">
         <v>1.825</v>
       </c>
-      <c r="S373">
-        <v>1.975</v>
-      </c>
       <c r="T373">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U373">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V373">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W373">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA373">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB373">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC373">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33736,7 +33736,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6689427</v>
+        <v>6693031</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33748,76 +33748,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G374" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J374" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K374">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L374">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M374">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N374">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="O374">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P374">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q374">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R374">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S374">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T374">
         <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V374">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W374">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X374">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA374">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB374">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC374">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33825,7 +33825,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6689350</v>
+        <v>6693029</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33837,76 +33837,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G375" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J375" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K375">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="L375">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M375">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="N375">
-        <v>3</v>
+        <v>1.333</v>
       </c>
       <c r="O375">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="P375">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="Q375">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R375">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S375">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T375">
         <v>2.5</v>
       </c>
       <c r="U375">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V375">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W375">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X375">
         <v>-1</v>
       </c>
       <c r="Y375">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA375">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB375">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC375">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33914,7 +33914,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6689429</v>
+        <v>6693028</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33926,58 +33926,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G376" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H376">
         <v>3</v>
       </c>
       <c r="I376">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J376" t="s">
         <v>49</v>
       </c>
       <c r="K376">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="L376">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M376">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="N376">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="O376">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P376">
-        <v>1.45</v>
+        <v>5</v>
       </c>
       <c r="Q376">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R376">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S376">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T376">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U376">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V376">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="W376">
-        <v>5.5</v>
+        <v>0.7</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33986,13 +33986,13 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34003,7 +34003,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6693029</v>
+        <v>6689350</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34015,76 +34015,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G377" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377" t="s">
+        <v>51</v>
+      </c>
+      <c r="K377">
+        <v>3.2</v>
+      </c>
+      <c r="L377">
         <v>3</v>
       </c>
-      <c r="I377">
-        <v>0</v>
-      </c>
-      <c r="J377" t="s">
-        <v>49</v>
-      </c>
-      <c r="K377">
-        <v>1.45</v>
-      </c>
-      <c r="L377">
-        <v>4</v>
-      </c>
       <c r="M377">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="N377">
-        <v>1.333</v>
+        <v>3</v>
       </c>
       <c r="O377">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="P377">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="Q377">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R377">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S377">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T377">
         <v>2.5</v>
       </c>
       <c r="U377">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V377">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W377">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z377">
+        <v>-1</v>
+      </c>
+      <c r="AA377">
+        <v>1.025</v>
+      </c>
+      <c r="AB377">
+        <v>-1</v>
+      </c>
+      <c r="AC377">
         <v>0.8</v>
-      </c>
-      <c r="AA377">
-        <v>-1</v>
-      </c>
-      <c r="AB377">
-        <v>0.95</v>
-      </c>
-      <c r="AC377">
-        <v>-1</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34092,7 +34092,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6693030</v>
+        <v>6689425</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34104,76 +34104,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F378" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G378" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K378">
-        <v>3.25</v>
+        <v>1.571</v>
       </c>
       <c r="L378">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M378">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="N378">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="O378">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P378">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="Q378">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R378">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S378">
+        <v>2.05</v>
+      </c>
+      <c r="T378">
+        <v>2.5</v>
+      </c>
+      <c r="U378">
         <v>1.975</v>
       </c>
-      <c r="T378">
-        <v>2</v>
-      </c>
-      <c r="U378">
+      <c r="V378">
         <v>1.825</v>
       </c>
-      <c r="V378">
-        <v>2.025</v>
-      </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X378">
         <v>-1</v>
       </c>
       <c r="Y378">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA378">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
+        <v>-1</v>
+      </c>
+      <c r="AC378">
         <v>0.825</v>
-      </c>
-      <c r="AC378">
-        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34181,7 +34181,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6693031</v>
+        <v>6689427</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,76 +34193,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F379" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G379" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H379">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J379" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K379">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L379">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M379">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N379">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O379">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P379">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q379">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R379">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S379">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T379">
         <v>2.25</v>
       </c>
       <c r="U379">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V379">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W379">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X379">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y379">
         <v>-1</v>
       </c>
       <c r="Z379">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB379">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC379">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6693028</v>
+        <v>6689429</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34282,58 +34282,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G380" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H380">
         <v>3</v>
       </c>
       <c r="I380">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J380" t="s">
         <v>49</v>
       </c>
       <c r="K380">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="L380">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M380">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="N380">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="O380">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P380">
-        <v>5</v>
+        <v>1.45</v>
       </c>
       <c r="Q380">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R380">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S380">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T380">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U380">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V380">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="W380">
-        <v>0.7</v>
+        <v>5.5</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34342,13 +34342,13 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA380">
         <v>-1</v>
       </c>
       <c r="AB380">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC380">
         <v>-1</v>
@@ -34359,7 +34359,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6693367</v>
+        <v>6689428</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34371,76 +34371,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F381" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G381" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H381">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I381">
         <v>1</v>
       </c>
       <c r="J381" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K381">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L381">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M381">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N381">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O381">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P381">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q381">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R381">
+        <v>1.825</v>
+      </c>
+      <c r="S381">
         <v>1.975</v>
       </c>
-      <c r="S381">
-        <v>1.825</v>
-      </c>
       <c r="T381">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U381">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V381">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W381">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z381">
+        <v>-1</v>
+      </c>
+      <c r="AA381">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA381">
-        <v>-1</v>
-      </c>
       <c r="AB381">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC381">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6286296</v>
+        <v>6286544</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,13 +2242,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2257,61 +2257,61 @@
         <v>49</v>
       </c>
       <c r="K20">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N20">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O20">
         <v>3.4</v>
       </c>
       <c r="P20">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q20">
+        <v>-0.75</v>
+      </c>
+      <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
+        <v>1.85</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>1.8</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>0.7</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>0.475</v>
+      </c>
+      <c r="AA20">
         <v>-0.5</v>
       </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2.05</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>2.025</v>
-      </c>
-      <c r="V20">
-        <v>1.825</v>
-      </c>
-      <c r="W20">
-        <v>0.833</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>0.8</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6286544</v>
+        <v>6286296</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,13 +2331,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2346,43 +2346,43 @@
         <v>49</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L21">
+        <v>3.1</v>
+      </c>
+      <c r="M21">
         <v>3.2</v>
       </c>
-      <c r="M21">
-        <v>3.75</v>
-      </c>
       <c r="N21">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W21">
-        <v>0.7</v>
+        <v>0.833</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2391,16 +2391,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
         <v>-0.5</v>
       </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6285514</v>
+        <v>6281767</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,43 +2598,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
         <v>3.3</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <v>1.85</v>
@@ -2643,25 +2643,25 @@
         <v>2</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
         <v>1.925</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6281767</v>
+        <v>6285514</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,43 +2687,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M25">
         <v>3.3</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
         <v>1.85</v>
@@ -2732,25 +2732,25 @@
         <v>2</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
         <v>1.925</v>
       </c>
       <c r="W25">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6289139</v>
+        <v>6281769</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,76 +3488,76 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M34">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O34">
         <v>3.1</v>
       </c>
       <c r="P34">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U34">
         <v>2.025</v>
       </c>
       <c r="V34">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC34">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6281769</v>
+        <v>6289139</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,76 +3666,76 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>2.2</v>
+      </c>
+      <c r="L36">
         <v>3</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36">
-        <v>1.95</v>
-      </c>
-      <c r="L36">
-        <v>3.1</v>
-      </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N36">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O36">
         <v>3.1</v>
       </c>
       <c r="P36">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q36">
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
         <v>2.025</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W36">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB36">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6281961</v>
+        <v>6289138</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,37 +4111,37 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N41">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
@@ -4153,34 +4153,34 @@
         <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6289138</v>
+        <v>6281961</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,37 +4200,37 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M42">
+        <v>2.8</v>
+      </c>
+      <c r="N42">
+        <v>1.95</v>
+      </c>
+      <c r="O42">
         <v>3.4</v>
       </c>
-      <c r="N42">
-        <v>1.909</v>
-      </c>
-      <c r="O42">
-        <v>3.3</v>
-      </c>
       <c r="P42">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
@@ -4242,34 +4242,34 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X42">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6281774</v>
+        <v>6285517</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45059.70833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K53">
+        <v>1.727</v>
+      </c>
+      <c r="L53">
+        <v>3.5</v>
+      </c>
+      <c r="M53">
+        <v>5.5</v>
+      </c>
+      <c r="N53">
         <v>1.75</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>3.4</v>
       </c>
-      <c r="M53">
+      <c r="P53">
         <v>5.25</v>
       </c>
-      <c r="N53">
-        <v>1.909</v>
-      </c>
-      <c r="O53">
-        <v>3.3</v>
-      </c>
-      <c r="P53">
-        <v>4.5</v>
-      </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6285517</v>
+        <v>6281774</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45059.70833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N54">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC54">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6285744</v>
+        <v>6631893</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,16 +5535,16 @@
         <v>45060.75</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>51</v>
@@ -5553,38 +5553,38 @@
         <v>2.2</v>
       </c>
       <c r="L57">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
+        <v>1.775</v>
+      </c>
+      <c r="S57">
+        <v>2.025</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
         <v>1.925</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.875</v>
       </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
         <v>-1</v>
       </c>
@@ -5592,16 +5592,16 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6631893</v>
+        <v>6285744</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,16 +5624,16 @@
         <v>45060.75</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>51</v>
@@ -5642,37 +5642,37 @@
         <v>2.2</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M58">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5681,16 +5681,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6281778</v>
+        <v>6281962</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,76 +6158,76 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L64">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N64">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA64">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6281962</v>
+        <v>6281778</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,76 +6247,76 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K65">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N65">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P65">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6282095</v>
+        <v>6286297</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,76 +6959,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.85</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
+        <v>1.8</v>
+      </c>
+      <c r="V73">
         <v>2.05</v>
       </c>
-      <c r="S73">
-        <v>1.75</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>1.975</v>
-      </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6286297</v>
+        <v>6282008</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,13 +7137,13 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7152,43 +7152,43 @@
         <v>49</v>
       </c>
       <c r="K75">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O75">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P75">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7197,16 +7197,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6282008</v>
+        <v>6282095</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,73 +7226,73 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
         <v>3</v>
       </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K76">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="L76">
+        <v>2.875</v>
+      </c>
+      <c r="M76">
+        <v>2.7</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
         <v>3.1</v>
       </c>
-      <c r="M76">
+      <c r="P76">
         <v>2.6</v>
       </c>
-      <c r="N76">
-        <v>2.1</v>
-      </c>
-      <c r="O76">
-        <v>3.3</v>
-      </c>
-      <c r="P76">
-        <v>3.6</v>
-      </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T76">
         <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6285519</v>
+        <v>6281963</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,76 +7404,76 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N78">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O78">
         <v>3</v>
       </c>
       <c r="P78">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q78">
         <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W78">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6281963</v>
+        <v>6285519</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M79">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N79">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O79">
         <v>3</v>
       </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q79">
         <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X79">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA79">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6282097</v>
+        <v>6281786</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45079.79166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>3.2</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>3.3</v>
+      </c>
+      <c r="P90">
+        <v>3.8</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
         <v>1.8</v>
-      </c>
-      <c r="L90">
-        <v>3.5</v>
-      </c>
-      <c r="M90">
-        <v>4.5</v>
-      </c>
-      <c r="N90">
-        <v>1.571</v>
-      </c>
-      <c r="O90">
-        <v>3.8</v>
-      </c>
-      <c r="P90">
-        <v>6</v>
-      </c>
-      <c r="Q90">
-        <v>-0.75</v>
-      </c>
-      <c r="R90">
-        <v>1.75</v>
-      </c>
-      <c r="S90">
-        <v>2.05</v>
       </c>
       <c r="T90">
         <v>2.25</v>
       </c>
       <c r="U90">
+        <v>1.95</v>
+      </c>
+      <c r="V90">
         <v>1.85</v>
       </c>
-      <c r="V90">
-        <v>1.95</v>
-      </c>
       <c r="W90">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6281786</v>
+        <v>6282097</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,76 +8561,76 @@
         <v>45079.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
+        <v>1.85</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="V91">
-        <v>1.85</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X91">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6281787</v>
+        <v>6285747</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,10 +8650,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8665,43 +8665,43 @@
         <v>49</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M92">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
       </c>
       <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
         <v>1.8</v>
       </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8710,13 +8710,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6285747</v>
+        <v>6281787</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,10 +8739,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8754,43 +8754,43 @@
         <v>49</v>
       </c>
       <c r="K93">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O93">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8799,13 +8799,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6289133</v>
+        <v>6285524</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,40 +8917,40 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N95">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P95">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
         <v>1.975</v>
@@ -8959,34 +8959,34 @@
         <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6285524</v>
+        <v>6289133</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,40 +9006,40 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M96">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
+        <v>1.727</v>
+      </c>
+      <c r="O96">
         <v>3.6</v>
       </c>
-      <c r="O96">
-        <v>3.1</v>
-      </c>
       <c r="P96">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
         <v>1.975</v>
@@ -9048,34 +9048,34 @@
         <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA96">
+        <v>-0.5</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.825</v>
-      </c>
-      <c r="AB96">
-        <v>-1</v>
-      </c>
-      <c r="AC96">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6281792</v>
+        <v>6281967</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,76 +10430,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O112">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X112">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>0.3875</v>
+      </c>
+      <c r="AA112">
         <v>-0.5</v>
       </c>
-      <c r="AA112">
-        <v>0.4625</v>
-      </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6281967</v>
+        <v>6281792</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,76 +10519,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K113">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N113">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P113">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
+        <v>0.4625</v>
+      </c>
+      <c r="AB113">
         <v>-0.5</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6285527</v>
+        <v>6289131</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,34 +10697,34 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O115">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P115">
         <v>2.2</v>
@@ -10736,13 +10736,13 @@
         <v>1.975</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V115">
         <v>2.05</v>
@@ -10751,22 +10751,22 @@
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z115">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6289131</v>
+        <v>6285527</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,34 +10786,34 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P116">
         <v>2.2</v>
@@ -10825,13 +10825,13 @@
         <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
         <v>2.05</v>
@@ -10840,22 +10840,22 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y116">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA116">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6286549</v>
+        <v>6285530</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,76 +12121,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M131">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P131">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
         <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6285530</v>
+        <v>6286549</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L132">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N132">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
         <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6282014</v>
+        <v>6281969</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,46 +12655,46 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
         <v>1</v>
       </c>
-      <c r="I137">
-        <v>2</v>
-      </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N137">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O137">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>2</v>
@@ -12706,19 +12706,19 @@
         <v>1.975</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA137">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
         <v>0.825</v>
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6281797</v>
+        <v>6289129</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
         <v>3.1</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6281969</v>
+        <v>6282014</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,46 +12833,46 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K139">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M139">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N139">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q139">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2</v>
@@ -12884,19 +12884,19 @@
         <v>1.975</v>
       </c>
       <c r="W139">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z139">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB139">
         <v>0.825</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6289129</v>
+        <v>6281797</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L140">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M140">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O140">
         <v>3.1</v>
       </c>
       <c r="P140">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6281970</v>
+        <v>6285667</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,10 +13189,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13204,37 +13204,37 @@
         <v>51</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L143">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N143">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O143">
         <v>3</v>
       </c>
       <c r="P143">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>2.025</v>
-      </c>
-      <c r="T143">
-        <v>2</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
       </c>
       <c r="V143">
         <v>1.825</v>
@@ -13246,13 +13246,13 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB143">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6285667</v>
+        <v>6281970</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,10 +13278,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13293,37 +13293,37 @@
         <v>51</v>
       </c>
       <c r="K144">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
+        <v>2.9</v>
+      </c>
+      <c r="M144">
         <v>3</v>
       </c>
-      <c r="M144">
-        <v>4.333</v>
-      </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
         <v>3</v>
       </c>
       <c r="P144">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
         <v>1.975</v>
-      </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
-      <c r="U144">
-        <v>2.025</v>
       </c>
       <c r="V144">
         <v>1.825</v>
@@ -13335,13 +13335,13 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB144">
         <v>0</v>
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6285537</v>
+        <v>6289124</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,73 +15948,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174" t="s">
+        <v>50</v>
+      </c>
+      <c r="K174">
+        <v>2.25</v>
+      </c>
+      <c r="L174">
+        <v>2.875</v>
+      </c>
+      <c r="M174">
+        <v>3.2</v>
+      </c>
+      <c r="N174">
+        <v>2.25</v>
+      </c>
+      <c r="O174">
         <v>3</v>
       </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174" t="s">
-        <v>49</v>
-      </c>
-      <c r="K174">
-        <v>1.4</v>
-      </c>
-      <c r="L174">
-        <v>3.8</v>
-      </c>
-      <c r="M174">
-        <v>8</v>
-      </c>
-      <c r="N174">
-        <v>1.5</v>
-      </c>
-      <c r="O174">
-        <v>4.2</v>
-      </c>
       <c r="P174">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q174">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
+        <v>1.925</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
         <v>1.95</v>
       </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>2.1</v>
-      </c>
-      <c r="V174">
-        <v>1.775</v>
-      </c>
       <c r="W174">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB174">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6289124</v>
+        <v>6285537</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,73 +16037,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K175">
+        <v>1.4</v>
+      </c>
+      <c r="L175">
+        <v>3.8</v>
+      </c>
+      <c r="M175">
+        <v>8</v>
+      </c>
+      <c r="N175">
+        <v>1.5</v>
+      </c>
+      <c r="O175">
+        <v>4.2</v>
+      </c>
+      <c r="P175">
+        <v>6.5</v>
+      </c>
+      <c r="Q175">
+        <v>-1</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>1.95</v>
+      </c>
+      <c r="T175">
         <v>2.25</v>
       </c>
-      <c r="L175">
-        <v>2.875</v>
-      </c>
-      <c r="M175">
-        <v>3.2</v>
-      </c>
-      <c r="N175">
-        <v>2.25</v>
-      </c>
-      <c r="O175">
-        <v>3</v>
-      </c>
-      <c r="P175">
-        <v>3.6</v>
-      </c>
-      <c r="Q175">
-        <v>-0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.875</v>
-      </c>
-      <c r="S175">
-        <v>1.925</v>
-      </c>
-      <c r="T175">
-        <v>2</v>
-      </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X175">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6282102</v>
+        <v>6281807</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L176">
         <v>2.875</v>
       </c>
       <c r="M176">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N176">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O176">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P176">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.7</v>
+        <v>2.075</v>
       </c>
       <c r="S176">
-        <v>2.2</v>
+        <v>1.725</v>
       </c>
       <c r="T176">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z176">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6281807</v>
+        <v>6285538</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,55 +16304,55 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L178">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N178">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O178">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
         <v>2</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -16361,19 +16361,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6285538</v>
+        <v>6282102</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H179">
         <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K179">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L179">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M179">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N179">
+        <v>2.7</v>
+      </c>
+      <c r="O179">
+        <v>2.8</v>
+      </c>
+      <c r="P179">
+        <v>3.1</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
         <v>1.7</v>
       </c>
-      <c r="O179">
-        <v>3.4</v>
-      </c>
-      <c r="P179">
-        <v>6</v>
-      </c>
-      <c r="Q179">
-        <v>-0.75</v>
-      </c>
-      <c r="R179">
-        <v>1.925</v>
-      </c>
       <c r="S179">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="T179">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA179">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6285539</v>
+        <v>6285669</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,76 +16660,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L182">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M182">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N182">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P182">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
         <v>2</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y182">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6285669</v>
+        <v>6285539</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,76 +16749,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M183">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O183">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P183">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T183">
         <v>2</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6281815</v>
+        <v>6282019</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,76 +18707,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L205">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M205">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N205">
+        <v>2.375</v>
+      </c>
+      <c r="O205">
+        <v>3.1</v>
+      </c>
+      <c r="P205">
+        <v>3.3</v>
+      </c>
+      <c r="Q205">
+        <v>-0.25</v>
+      </c>
+      <c r="R205">
         <v>2.05</v>
       </c>
-      <c r="O205">
-        <v>3.25</v>
-      </c>
-      <c r="P205">
-        <v>4</v>
-      </c>
-      <c r="Q205">
-        <v>-0.5</v>
-      </c>
-      <c r="R205">
-        <v>2.025</v>
-      </c>
       <c r="S205">
+        <v>1.8</v>
+      </c>
+      <c r="T205">
+        <v>1.75</v>
+      </c>
+      <c r="U205">
         <v>1.775</v>
       </c>
-      <c r="T205">
-        <v>2</v>
-      </c>
-      <c r="U205">
-        <v>1.95</v>
-      </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X205">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA205">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6287040</v>
+        <v>6285544</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,76 +18796,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
         <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K206">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L206">
         <v>2.875</v>
       </c>
       <c r="M206">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N206">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O206">
         <v>2.875</v>
       </c>
       <c r="P206">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q206">
         <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S206">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T206">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U206">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AB206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6282019</v>
+        <v>6287040</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,76 +18885,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K207">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L207">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M207">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N207">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P207">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q207">
         <v>-0.25</v>
       </c>
       <c r="R207">
+        <v>2.1</v>
+      </c>
+      <c r="S207">
+        <v>1.775</v>
+      </c>
+      <c r="T207">
+        <v>2</v>
+      </c>
+      <c r="U207">
         <v>2.05</v>
       </c>
-      <c r="S207">
+      <c r="V207">
         <v>1.8</v>
       </c>
-      <c r="T207">
-        <v>1.75</v>
-      </c>
-      <c r="U207">
-        <v>1.775</v>
-      </c>
-      <c r="V207">
-        <v>2.1</v>
-      </c>
       <c r="W207">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6285544</v>
+        <v>6281815</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,76 +18974,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H208">
         <v>0</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K208">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L208">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
+        <v>2.05</v>
+      </c>
+      <c r="O208">
+        <v>3.25</v>
+      </c>
+      <c r="P208">
+        <v>4</v>
+      </c>
+      <c r="Q208">
+        <v>-0.5</v>
+      </c>
+      <c r="R208">
+        <v>2.025</v>
+      </c>
+      <c r="S208">
+        <v>1.775</v>
+      </c>
+      <c r="T208">
+        <v>2</v>
+      </c>
+      <c r="U208">
+        <v>1.95</v>
+      </c>
+      <c r="V208">
+        <v>1.85</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
         <v>2.25</v>
       </c>
-      <c r="O208">
-        <v>2.875</v>
-      </c>
-      <c r="P208">
-        <v>3.8</v>
-      </c>
-      <c r="Q208">
-        <v>-0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.9</v>
-      </c>
-      <c r="S208">
-        <v>1.95</v>
-      </c>
-      <c r="T208">
-        <v>1.75</v>
-      </c>
-      <c r="U208">
-        <v>1.825</v>
-      </c>
-      <c r="V208">
-        <v>2.025</v>
-      </c>
-      <c r="W208">
-        <v>-1</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
       <c r="Y208">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6281817</v>
+        <v>6281875</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45143.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>50</v>
       </c>
       <c r="K212">
+        <v>1.95</v>
+      </c>
+      <c r="L212">
+        <v>3.2</v>
+      </c>
+      <c r="M212">
+        <v>3.5</v>
+      </c>
+      <c r="N212">
+        <v>1.75</v>
+      </c>
+      <c r="O212">
+        <v>3.4</v>
+      </c>
+      <c r="P212">
+        <v>5</v>
+      </c>
+      <c r="Q212">
+        <v>-0.75</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
+        <v>1.925</v>
+      </c>
+      <c r="V212">
+        <v>1.875</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
         <v>2.4</v>
       </c>
-      <c r="L212">
-        <v>2.9</v>
-      </c>
-      <c r="M212">
-        <v>2.8</v>
-      </c>
-      <c r="N212">
-        <v>2.7</v>
-      </c>
-      <c r="O212">
-        <v>2.9</v>
-      </c>
-      <c r="P212">
-        <v>3.1</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.8</v>
-      </c>
-      <c r="S212">
-        <v>2.05</v>
-      </c>
-      <c r="T212">
-        <v>1.75</v>
-      </c>
-      <c r="U212">
-        <v>1.875</v>
-      </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>1.9</v>
-      </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB212">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6281875</v>
+        <v>6281817</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,76 +19419,76 @@
         <v>45143.70833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>50</v>
       </c>
       <c r="K213">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N213">
+        <v>2.7</v>
+      </c>
+      <c r="O213">
+        <v>2.9</v>
+      </c>
+      <c r="P213">
+        <v>3.1</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>1.8</v>
+      </c>
+      <c r="S213">
+        <v>2.05</v>
+      </c>
+      <c r="T213">
         <v>1.75</v>
       </c>
-      <c r="O213">
-        <v>3.4</v>
-      </c>
-      <c r="P213">
-        <v>5</v>
-      </c>
-      <c r="Q213">
-        <v>-0.75</v>
-      </c>
-      <c r="R213">
-        <v>2</v>
-      </c>
-      <c r="S213">
-        <v>1.8</v>
-      </c>
-      <c r="T213">
-        <v>2</v>
-      </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC213">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19852,7 +19852,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6959080</v>
+        <v>6286301</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19864,58 +19864,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>49</v>
       </c>
       <c r="K218">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L218">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M218">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="N218">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T218">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U218">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W218">
-        <v>0.7270000000000001</v>
+        <v>2</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19924,16 +19924,16 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.4875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>0.3875</v>
+      </c>
+      <c r="AC218">
         <v>-0.5</v>
-      </c>
-      <c r="AB218">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC218">
-        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6286301</v>
+        <v>6959080</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19953,58 +19953,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
         <v>49</v>
       </c>
       <c r="K219">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L219">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N219">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20013,16 +20013,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.7250000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB219">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20297,7 +20297,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6281975</v>
+        <v>6281876</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20309,52 +20309,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
         <v>50</v>
       </c>
       <c r="K223">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L223">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M223">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N223">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P223">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
         <v>2</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
         <v>1.9</v>
@@ -20363,22 +20363,22 @@
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6281876</v>
+        <v>6281975</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,52 +20398,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>50</v>
       </c>
       <c r="K224">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L224">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M224">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O224">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P224">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
         <v>2</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V224">
         <v>1.9</v>
@@ -20452,22 +20452,22 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC224">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -21365,7 +21365,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6281821</v>
+        <v>6285672</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21377,70 +21377,70 @@
         <v>45157.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G235" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K235">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="L235">
         <v>3.1</v>
       </c>
       <c r="M235">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N235">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O235">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P235">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q235">
         <v>0</v>
       </c>
       <c r="R235">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U235">
         <v>1.95</v>
       </c>
       <c r="V235">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W235">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z235">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB235">
         <v>0.95</v>
@@ -21454,7 +21454,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6285672</v>
+        <v>6281821</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21466,70 +21466,70 @@
         <v>45157.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G236" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K236">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="L236">
         <v>3.1</v>
       </c>
       <c r="M236">
+        <v>3</v>
+      </c>
+      <c r="N236">
+        <v>2.7</v>
+      </c>
+      <c r="O236">
         <v>2.875</v>
       </c>
-      <c r="N236">
-        <v>2.8</v>
-      </c>
-      <c r="O236">
-        <v>2.9</v>
-      </c>
       <c r="P236">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q236">
         <v>0</v>
       </c>
       <c r="R236">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S236">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T236">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U236">
         <v>1.95</v>
       </c>
       <c r="V236">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA236">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
         <v>0.95</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6330569</v>
+        <v>6285765</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,13 +25026,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -25041,43 +25041,43 @@
         <v>49</v>
       </c>
       <c r="K276">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L276">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M276">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N276">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="O276">
         <v>2.9</v>
       </c>
       <c r="P276">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q276">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R276">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S276">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T276">
         <v>1.75</v>
       </c>
       <c r="U276">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V276">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W276">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25086,16 +25086,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6285765</v>
+        <v>6330569</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,13 +25115,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25130,43 +25130,43 @@
         <v>49</v>
       </c>
       <c r="K277">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L277">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M277">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N277">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O277">
         <v>2.9</v>
       </c>
       <c r="P277">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q277">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R277">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S277">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T277">
         <v>1.75</v>
       </c>
       <c r="U277">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V277">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W277">
-        <v>2.3</v>
+        <v>1.05</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25175,16 +25175,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC277">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -26883,7 +26883,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6390961</v>
+        <v>7258771</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26895,76 +26895,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G297" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297">
         <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K297">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L297">
         <v>3</v>
       </c>
       <c r="M297">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N297">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="O297">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P297">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q297">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R297">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S297">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T297">
         <v>1.75</v>
       </c>
       <c r="U297">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V297">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X297">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC297">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26972,7 +26972,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7258771</v>
+        <v>6390961</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26984,76 +26984,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G298" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K298">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L298">
         <v>3</v>
       </c>
       <c r="M298">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N298">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O298">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P298">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q298">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R298">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S298">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T298">
         <v>1.75</v>
       </c>
       <c r="U298">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V298">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W298">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB298">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6576739</v>
+        <v>6576997</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,10 +28497,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G315" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -28512,25 +28512,25 @@
         <v>50</v>
       </c>
       <c r="K315">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L315">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M315">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N315">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O315">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P315">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q315">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R315">
         <v>1.825</v>
@@ -28539,34 +28539,34 @@
         <v>1.975</v>
       </c>
       <c r="T315">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U315">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V315">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA315">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB315">
         <v>-1</v>
       </c>
       <c r="AC315">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6576997</v>
+        <v>6576739</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,10 +28586,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F316" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G316" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -28601,25 +28601,25 @@
         <v>50</v>
       </c>
       <c r="K316">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L316">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M316">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N316">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O316">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P316">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R316">
         <v>1.825</v>
@@ -28628,34 +28628,34 @@
         <v>1.975</v>
       </c>
       <c r="T316">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U316">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V316">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W316">
         <v>-1</v>
       </c>
       <c r="X316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB316">
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -29464,7 +29464,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>6589993</v>
+        <v>6586606</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29476,76 +29476,76 @@
         <v>45220.70833333334</v>
       </c>
       <c r="F326" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G326" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J326" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K326">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L326">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M326">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N326">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O326">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P326">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q326">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R326">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S326">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T326">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U326">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V326">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W326">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X326">
         <v>-1</v>
       </c>
       <c r="Y326">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z326">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB326">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC326">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29553,7 +29553,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>6586606</v>
+        <v>6589993</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29565,76 +29565,76 @@
         <v>45220.70833333334</v>
       </c>
       <c r="F327" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G327" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J327" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K327">
+        <v>2.8</v>
+      </c>
+      <c r="L327">
+        <v>2.8</v>
+      </c>
+      <c r="M327">
+        <v>2.6</v>
+      </c>
+      <c r="N327">
+        <v>3.6</v>
+      </c>
+      <c r="O327">
+        <v>3</v>
+      </c>
+      <c r="P327">
+        <v>2.3</v>
+      </c>
+      <c r="Q327">
+        <v>0.25</v>
+      </c>
+      <c r="R327">
+        <v>1.85</v>
+      </c>
+      <c r="S327">
         <v>1.95</v>
       </c>
-      <c r="L327">
-        <v>3</v>
-      </c>
-      <c r="M327">
-        <v>4</v>
-      </c>
-      <c r="N327">
-        <v>1.95</v>
-      </c>
-      <c r="O327">
-        <v>3.2</v>
-      </c>
-      <c r="P327">
-        <v>4.5</v>
-      </c>
-      <c r="Q327">
+      <c r="T327">
+        <v>1.75</v>
+      </c>
+      <c r="U327">
+        <v>1.775</v>
+      </c>
+      <c r="V327">
+        <v>2.025</v>
+      </c>
+      <c r="W327">
+        <v>2.6</v>
+      </c>
+      <c r="X327">
+        <v>-1</v>
+      </c>
+      <c r="Y327">
+        <v>-1</v>
+      </c>
+      <c r="Z327">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA327">
+        <v>-1</v>
+      </c>
+      <c r="AB327">
+        <v>0.3875</v>
+      </c>
+      <c r="AC327">
         <v>-0.5</v>
-      </c>
-      <c r="R327">
-        <v>2.025</v>
-      </c>
-      <c r="S327">
-        <v>1.825</v>
-      </c>
-      <c r="T327">
-        <v>2</v>
-      </c>
-      <c r="U327">
-        <v>1.8</v>
-      </c>
-      <c r="V327">
-        <v>2.05</v>
-      </c>
-      <c r="W327">
-        <v>-1</v>
-      </c>
-      <c r="X327">
-        <v>-1</v>
-      </c>
-      <c r="Y327">
-        <v>3.5</v>
-      </c>
-      <c r="Z327">
-        <v>-1</v>
-      </c>
-      <c r="AA327">
-        <v>0.825</v>
-      </c>
-      <c r="AB327">
-        <v>-1</v>
-      </c>
-      <c r="AC327">
-        <v>1.05</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29731,7 +29731,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6586605</v>
+        <v>6590928</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29743,58 +29743,58 @@
         <v>45221.75</v>
       </c>
       <c r="F329" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G329" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H329">
+        <v>2</v>
+      </c>
+      <c r="I329">
         <v>1</v>
-      </c>
-      <c r="I329">
-        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>49</v>
       </c>
       <c r="K329">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L329">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="M329">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N329">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O329">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P329">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q329">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R329">
+        <v>1.75</v>
+      </c>
+      <c r="S329">
+        <v>2.05</v>
+      </c>
+      <c r="T329">
+        <v>2.25</v>
+      </c>
+      <c r="U329">
+        <v>1.825</v>
+      </c>
+      <c r="V329">
         <v>1.975</v>
       </c>
-      <c r="S329">
-        <v>1.825</v>
-      </c>
-      <c r="T329">
-        <v>2</v>
-      </c>
-      <c r="U329">
-        <v>1.775</v>
-      </c>
-      <c r="V329">
-        <v>2.025</v>
-      </c>
       <c r="W329">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29803,16 +29803,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB329">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC329">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6590928</v>
+        <v>6586605</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,58 +29832,58 @@
         <v>45221.75</v>
       </c>
       <c r="F330" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G330" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>49</v>
       </c>
       <c r="K330">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L330">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M330">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N330">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O330">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P330">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q330">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R330">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S330">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T330">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U330">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V330">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W330">
-        <v>0.45</v>
+        <v>1.3</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29892,16 +29892,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA330">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30354,7 +30354,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6607583</v>
+        <v>6598119</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30366,76 +30366,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F336" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G336" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I336">
         <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K336">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L336">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M336">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N336">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O336">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P336">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q336">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R336">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S336">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T336">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U336">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V336">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X336">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="AA336">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC336">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30443,7 +30443,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6598119</v>
+        <v>6607583</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30455,76 +30455,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F337" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G337" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337" t="s">
+        <v>50</v>
+      </c>
+      <c r="K337">
         <v>3</v>
       </c>
-      <c r="I337">
-        <v>0</v>
-      </c>
-      <c r="J337" t="s">
-        <v>49</v>
-      </c>
-      <c r="K337">
-        <v>1.8</v>
-      </c>
       <c r="L337">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M337">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N337">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O337">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P337">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q337">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R337">
+        <v>1.875</v>
+      </c>
+      <c r="S337">
+        <v>1.975</v>
+      </c>
+      <c r="T337">
         <v>1.75</v>
       </c>
-      <c r="S337">
-        <v>2.05</v>
-      </c>
-      <c r="T337">
-        <v>2.25</v>
-      </c>
       <c r="U337">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V337">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W337">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB337">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -32045,7 +32045,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6645236</v>
+        <v>6645237</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32057,40 +32057,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G355" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K355">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L355">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M355">
         <v>3.4</v>
       </c>
       <c r="N355">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O355">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P355">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q355">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R355">
         <v>1.775</v>
@@ -32099,34 +32099,34 @@
         <v>2.025</v>
       </c>
       <c r="T355">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V355">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W355">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X355">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA355">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB355">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC355">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32134,7 +32134,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6645237</v>
+        <v>6645236</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32146,40 +32146,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G356" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K356">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L356">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M356">
         <v>3.4</v>
       </c>
       <c r="N356">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O356">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P356">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q356">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R356">
         <v>1.775</v>
@@ -32188,34 +32188,34 @@
         <v>2.025</v>
       </c>
       <c r="T356">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U356">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V356">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W356">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA356">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB356">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC356">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32846,7 +32846,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6679229</v>
+        <v>6673197</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32858,40 +32858,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G364" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I364">
         <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K364">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L364">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M364">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N364">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O364">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P364">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q364">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R364">
         <v>2.05</v>
@@ -32903,31 +32903,31 @@
         <v>2</v>
       </c>
       <c r="U364">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V364">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W364">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X364">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA364">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32935,7 +32935,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6677287</v>
+        <v>6673199</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32947,46 +32947,46 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G365" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H365">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J365" t="s">
         <v>49</v>
       </c>
       <c r="K365">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L365">
         <v>3.4</v>
       </c>
       <c r="M365">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N365">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O365">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P365">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q365">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R365">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S365">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T365">
         <v>2</v>
@@ -32998,7 +32998,7 @@
         <v>2</v>
       </c>
       <c r="W365">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="X365">
         <v>-1</v>
@@ -33007,7 +33007,7 @@
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA365">
         <v>-1</v>
@@ -33024,7 +33024,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6673199</v>
+        <v>6677287</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33036,46 +33036,46 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G366" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H366">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366" t="s">
         <v>49</v>
       </c>
       <c r="K366">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L366">
         <v>3.4</v>
       </c>
       <c r="M366">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N366">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O366">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P366">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q366">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R366">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S366">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T366">
         <v>2</v>
@@ -33087,7 +33087,7 @@
         <v>2</v>
       </c>
       <c r="W366">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="X366">
         <v>-1</v>
@@ -33096,7 +33096,7 @@
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA366">
         <v>-1</v>
@@ -33113,7 +33113,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6673197</v>
+        <v>6680024</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33125,40 +33125,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G367" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H367">
+        <v>3</v>
+      </c>
+      <c r="I367">
         <v>1</v>
-      </c>
-      <c r="I367">
-        <v>0</v>
       </c>
       <c r="J367" t="s">
         <v>49</v>
       </c>
       <c r="K367">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L367">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M367">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N367">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="O367">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P367">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q367">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R367">
         <v>2.05</v>
@@ -33167,16 +33167,16 @@
         <v>1.8</v>
       </c>
       <c r="T367">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U367">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V367">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W367">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="X367">
         <v>-1</v>
@@ -33191,10 +33191,10 @@
         <v>-1</v>
       </c>
       <c r="AB367">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC367">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33202,7 +33202,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6680024</v>
+        <v>6679229</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33214,40 +33214,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F368" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G368" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H368">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J368" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K368">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L368">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M368">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N368">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O368">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P368">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q368">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R368">
         <v>2.05</v>
@@ -33256,34 +33256,34 @@
         <v>1.8</v>
       </c>
       <c r="T368">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U368">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V368">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W368">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X368">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y368">
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA368">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB368">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC368">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33558,7 +33558,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6689427</v>
+        <v>6689425</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33570,76 +33570,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G372" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372">
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K372">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="L372">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M372">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="N372">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="O372">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P372">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q372">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R372">
+        <v>1.75</v>
+      </c>
+      <c r="S372">
         <v>2.05</v>
       </c>
-      <c r="S372">
-        <v>1.75</v>
-      </c>
       <c r="T372">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
+        <v>1.975</v>
+      </c>
+      <c r="V372">
         <v>1.825</v>
       </c>
-      <c r="V372">
-        <v>1.975</v>
-      </c>
       <c r="W372">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X372">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA372">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
         <v>-1</v>
       </c>
       <c r="AC372">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33736,7 +33736,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6693028</v>
+        <v>6693030</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33748,73 +33748,73 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G374" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
         <v>3</v>
       </c>
-      <c r="I374">
-        <v>0</v>
-      </c>
       <c r="J374" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K374">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="L374">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M374">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N374">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="O374">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P374">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q374">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R374">
+        <v>1.875</v>
+      </c>
+      <c r="S374">
         <v>1.975</v>
       </c>
-      <c r="S374">
-        <v>1.875</v>
-      </c>
       <c r="T374">
         <v>2</v>
       </c>
       <c r="U374">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V374">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W374">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X374">
         <v>-1</v>
       </c>
       <c r="Y374">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z374">
+        <v>-1</v>
+      </c>
+      <c r="AA374">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA374">
-        <v>-1</v>
-      </c>
       <c r="AB374">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC374">
         <v>-1</v>
@@ -33914,7 +33914,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6689425</v>
+        <v>6693031</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33926,58 +33926,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G376" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="s">
         <v>49</v>
       </c>
       <c r="K376">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L376">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M376">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="N376">
-        <v>1.45</v>
+        <v>1.615</v>
       </c>
       <c r="O376">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P376">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q376">
         <v>-1</v>
       </c>
       <c r="R376">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S376">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T376">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U376">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V376">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W376">
-        <v>0.45</v>
+        <v>0.615</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33986,16 +33986,16 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC376">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377" spans="1:29">
@@ -34092,7 +34092,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6693031</v>
+        <v>6689427</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34104,76 +34104,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F378" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G378" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H378">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K378">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L378">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M378">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N378">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O378">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P378">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q378">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R378">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S378">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T378">
         <v>2.25</v>
       </c>
       <c r="U378">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V378">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W378">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X378">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA378">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB378">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC378">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34181,7 +34181,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6693030</v>
+        <v>6693367</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,73 +34193,73 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F379" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G379" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H379">
+        <v>4</v>
+      </c>
+      <c r="I379">
         <v>1</v>
       </c>
-      <c r="I379">
-        <v>3</v>
-      </c>
       <c r="J379" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K379">
-        <v>3.25</v>
+        <v>1.444</v>
       </c>
       <c r="L379">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M379">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="N379">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="O379">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P379">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="Q379">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R379">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S379">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T379">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U379">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V379">
         <v>2.025</v>
       </c>
       <c r="W379">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA379">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC379">
         <v>-1</v>
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6693367</v>
+        <v>6693028</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34282,58 +34282,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G380" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H380">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380" t="s">
         <v>49</v>
       </c>
       <c r="K380">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L380">
+        <v>3.5</v>
+      </c>
+      <c r="M380">
         <v>4</v>
       </c>
-      <c r="M380">
-        <v>7</v>
-      </c>
       <c r="N380">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O380">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P380">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q380">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R380">
         <v>1.975</v>
       </c>
       <c r="S380">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T380">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U380">
         <v>1.775</v>
       </c>
       <c r="V380">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W380">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X380">
         <v>-1</v>

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6285514</v>
+        <v>6281767</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,43 +2598,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
         <v>3.3</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <v>1.85</v>
@@ -2643,25 +2643,25 @@
         <v>2</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
         <v>1.925</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6281767</v>
+        <v>6285514</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,43 +2687,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M25">
         <v>3.3</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
         <v>1.85</v>
@@ -2732,25 +2732,25 @@
         <v>2</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
         <v>1.925</v>
       </c>
       <c r="W25">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6289138</v>
+        <v>6281961</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,37 +4022,37 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M40">
+        <v>2.8</v>
+      </c>
+      <c r="N40">
+        <v>1.95</v>
+      </c>
+      <c r="O40">
         <v>3.4</v>
       </c>
-      <c r="N40">
-        <v>1.909</v>
-      </c>
-      <c r="O40">
-        <v>3.3</v>
-      </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q40">
         <v>-0.5</v>
@@ -4064,34 +4064,34 @@
         <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6281961</v>
+        <v>6289138</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,37 +4111,37 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N41">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
@@ -4153,34 +4153,34 @@
         <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA41">
-        <v>-1</v>
-      </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -6769,7 +6769,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6285664</v>
+        <v>6285520</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6781,13 +6781,13 @@
         <v>45069.89583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6796,43 +6796,43 @@
         <v>49</v>
       </c>
       <c r="K71">
+        <v>1.833</v>
+      </c>
+      <c r="L71">
+        <v>3.25</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>1.727</v>
+      </c>
+      <c r="O71">
+        <v>3.5</v>
+      </c>
+      <c r="P71">
+        <v>5.5</v>
+      </c>
+      <c r="Q71">
+        <v>-0.75</v>
+      </c>
+      <c r="R71">
+        <v>1.925</v>
+      </c>
+      <c r="S71">
+        <v>1.875</v>
+      </c>
+      <c r="T71">
         <v>2.25</v>
       </c>
-      <c r="L71">
-        <v>3</v>
-      </c>
-      <c r="M71">
-        <v>3.1</v>
-      </c>
-      <c r="N71">
-        <v>2.45</v>
-      </c>
-      <c r="O71">
-        <v>3</v>
-      </c>
-      <c r="P71">
-        <v>3.3</v>
-      </c>
-      <c r="Q71">
-        <v>-0.25</v>
-      </c>
-      <c r="R71">
-        <v>2.1</v>
-      </c>
-      <c r="S71">
-        <v>1.775</v>
-      </c>
-      <c r="T71">
-        <v>2</v>
-      </c>
       <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
         <v>1.8</v>
       </c>
-      <c r="V71">
-        <v>2.05</v>
-      </c>
       <c r="W71">
-        <v>1.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6841,16 +6841,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6858,7 +6858,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6285520</v>
+        <v>6285664</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6870,13 +6870,13 @@
         <v>45069.89583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6885,43 +6885,43 @@
         <v>49</v>
       </c>
       <c r="K72">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N72">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R72">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W72">
-        <v>0.7270000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6930,16 +6930,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6285748</v>
+        <v>6285945</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,55 +9451,55 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>51</v>
       </c>
       <c r="K101">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L101">
         <v>3</v>
       </c>
       <c r="M101">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N101">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O101">
+        <v>3.2</v>
+      </c>
+      <c r="P101">
         <v>3.1</v>
       </c>
-      <c r="P101">
-        <v>2.8</v>
-      </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9508,19 +9508,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6285945</v>
+        <v>6285748</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,55 +9540,55 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>51</v>
       </c>
       <c r="K102">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L102">
         <v>3</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N102">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9597,19 +9597,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6281966</v>
+        <v>6281789</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,13 +9896,13 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9911,43 +9911,43 @@
         <v>49</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L106">
         <v>3.2</v>
       </c>
       <c r="M106">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9956,16 +9956,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6281789</v>
+        <v>6281966</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,13 +9985,13 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -10000,43 +10000,43 @@
         <v>49</v>
       </c>
       <c r="K107">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L107">
         <v>3.2</v>
       </c>
       <c r="M107">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N107">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10045,16 +10045,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>-0.5</v>
       </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
       <c r="AC107">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6285749</v>
+        <v>6281798</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,40 +12299,40 @@
         <v>45104.89583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
         <v>1</v>
       </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K133">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L133">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N133">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q133">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R133">
         <v>1.875</v>
@@ -12341,34 +12341,34 @@
         <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V133">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W133">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6281798</v>
+        <v>6285749</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,40 +12388,40 @@
         <v>45104.89583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N134">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O134">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P134">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
         <v>1.875</v>
@@ -12430,34 +12430,34 @@
         <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA134">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6285667</v>
+        <v>6281970</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,10 +13189,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13204,37 +13204,37 @@
         <v>51</v>
       </c>
       <c r="K143">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
+        <v>2.9</v>
+      </c>
+      <c r="M143">
         <v>3</v>
       </c>
-      <c r="M143">
-        <v>4.333</v>
-      </c>
       <c r="N143">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
         <v>3</v>
       </c>
       <c r="P143">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>1.775</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>1.975</v>
-      </c>
-      <c r="S143">
-        <v>1.875</v>
-      </c>
-      <c r="T143">
-        <v>2</v>
-      </c>
-      <c r="U143">
-        <v>2.025</v>
       </c>
       <c r="V143">
         <v>1.825</v>
@@ -13246,13 +13246,13 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB143">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6281970</v>
+        <v>6285667</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,10 +13278,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13293,37 +13293,37 @@
         <v>51</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L144">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O144">
         <v>3</v>
       </c>
       <c r="P144">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
+        <v>1.875</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
         <v>2.025</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
-      <c r="U144">
-        <v>1.975</v>
       </c>
       <c r="V144">
         <v>1.825</v>
@@ -13335,13 +13335,13 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
         <v>0</v>
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6890591</v>
+        <v>6285535</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45121.89583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L163">
+        <v>3.2</v>
+      </c>
+      <c r="M163">
+        <v>2.75</v>
+      </c>
+      <c r="N163">
+        <v>2.6</v>
+      </c>
+      <c r="O163">
         <v>2.9</v>
       </c>
-      <c r="M163">
-        <v>4.5</v>
-      </c>
-      <c r="N163">
-        <v>1.95</v>
-      </c>
-      <c r="O163">
-        <v>3.2</v>
-      </c>
       <c r="P163">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S163">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T163">
         <v>2</v>
       </c>
       <c r="U163">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X163">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6285535</v>
+        <v>6890591</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45121.89583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
+        <v>2.9</v>
+      </c>
+      <c r="M164">
+        <v>4.5</v>
+      </c>
+      <c r="N164">
+        <v>1.95</v>
+      </c>
+      <c r="O164">
         <v>3.2</v>
       </c>
-      <c r="M164">
-        <v>2.75</v>
-      </c>
-      <c r="N164">
-        <v>2.6</v>
-      </c>
-      <c r="O164">
-        <v>2.9</v>
-      </c>
       <c r="P164">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
+        <v>1.95</v>
+      </c>
+      <c r="S164">
+        <v>1.9</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>2.05</v>
+      </c>
+      <c r="V164">
         <v>1.8</v>
       </c>
-      <c r="S164">
-        <v>2.05</v>
-      </c>
-      <c r="T164">
-        <v>2</v>
-      </c>
-      <c r="U164">
-        <v>2.025</v>
-      </c>
-      <c r="V164">
-        <v>1.775</v>
-      </c>
       <c r="W164">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>0.8</v>
-      </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
-      <c r="AB164">
-        <v>1.025</v>
-      </c>
-      <c r="AC164">
-        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6285534</v>
+        <v>6285752</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,76 +15236,76 @@
         <v>45122.70833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L166">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M166">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N166">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O166">
+        <v>3.1</v>
+      </c>
+      <c r="P166">
+        <v>2.05</v>
+      </c>
+      <c r="Q166">
+        <v>0.5</v>
+      </c>
+      <c r="R166">
+        <v>1.75</v>
+      </c>
+      <c r="S166">
+        <v>2.05</v>
+      </c>
+      <c r="T166">
+        <v>2</v>
+      </c>
+      <c r="U166">
+        <v>1.975</v>
+      </c>
+      <c r="V166">
+        <v>1.825</v>
+      </c>
+      <c r="W166">
         <v>3</v>
       </c>
-      <c r="P166">
-        <v>3.75</v>
-      </c>
-      <c r="Q166">
-        <v>-0.25</v>
-      </c>
-      <c r="R166">
-        <v>1.85</v>
-      </c>
-      <c r="S166">
-        <v>1.95</v>
-      </c>
-      <c r="T166">
-        <v>2</v>
-      </c>
-      <c r="U166">
-        <v>1.775</v>
-      </c>
-      <c r="V166">
-        <v>2.025</v>
-      </c>
-      <c r="W166">
-        <v>-1</v>
-      </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6285752</v>
+        <v>6285534</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,76 +15325,76 @@
         <v>45122.70833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
         <v>1</v>
       </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K167">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="L167">
+        <v>2.9</v>
+      </c>
+      <c r="M167">
+        <v>4.333</v>
+      </c>
+      <c r="N167">
+        <v>2.2</v>
+      </c>
+      <c r="O167">
         <v>3</v>
       </c>
-      <c r="M167">
-        <v>2.15</v>
-      </c>
-      <c r="N167">
-        <v>4</v>
-      </c>
-      <c r="O167">
-        <v>3.1</v>
-      </c>
       <c r="P167">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q167">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R167">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S167">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
         <v>2</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W167">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z167">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6285537</v>
+        <v>6289124</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,73 +15948,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174" t="s">
+        <v>50</v>
+      </c>
+      <c r="K174">
+        <v>2.25</v>
+      </c>
+      <c r="L174">
+        <v>2.875</v>
+      </c>
+      <c r="M174">
+        <v>3.2</v>
+      </c>
+      <c r="N174">
+        <v>2.25</v>
+      </c>
+      <c r="O174">
         <v>3</v>
       </c>
-      <c r="I174">
-        <v>0</v>
-      </c>
-      <c r="J174" t="s">
-        <v>49</v>
-      </c>
-      <c r="K174">
-        <v>1.4</v>
-      </c>
-      <c r="L174">
-        <v>3.8</v>
-      </c>
-      <c r="M174">
-        <v>8</v>
-      </c>
-      <c r="N174">
-        <v>1.5</v>
-      </c>
-      <c r="O174">
-        <v>4.2</v>
-      </c>
       <c r="P174">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q174">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S174">
+        <v>1.925</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
         <v>1.95</v>
       </c>
-      <c r="T174">
-        <v>2.25</v>
-      </c>
-      <c r="U174">
-        <v>2.1</v>
-      </c>
-      <c r="V174">
-        <v>1.775</v>
-      </c>
       <c r="W174">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB174">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6289124</v>
+        <v>6285537</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,73 +16037,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K175">
+        <v>1.4</v>
+      </c>
+      <c r="L175">
+        <v>3.8</v>
+      </c>
+      <c r="M175">
+        <v>8</v>
+      </c>
+      <c r="N175">
+        <v>1.5</v>
+      </c>
+      <c r="O175">
+        <v>4.2</v>
+      </c>
+      <c r="P175">
+        <v>6.5</v>
+      </c>
+      <c r="Q175">
+        <v>-1</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>1.95</v>
+      </c>
+      <c r="T175">
         <v>2.25</v>
       </c>
-      <c r="L175">
-        <v>2.875</v>
-      </c>
-      <c r="M175">
-        <v>3.2</v>
-      </c>
-      <c r="N175">
-        <v>2.25</v>
-      </c>
-      <c r="O175">
-        <v>3</v>
-      </c>
-      <c r="P175">
-        <v>3.6</v>
-      </c>
-      <c r="Q175">
-        <v>-0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.875</v>
-      </c>
-      <c r="S175">
-        <v>1.925</v>
-      </c>
-      <c r="T175">
-        <v>2</v>
-      </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V175">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X175">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6281972</v>
+        <v>6281807</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L176">
         <v>2.875</v>
       </c>
       <c r="M176">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N176">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O176">
         <v>2.9</v>
       </c>
       <c r="P176">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S176">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T176">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6285538</v>
+        <v>6282102</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,76 +16215,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M177">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N177">
+        <v>2.7</v>
+      </c>
+      <c r="O177">
+        <v>2.8</v>
+      </c>
+      <c r="P177">
+        <v>3.1</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
         <v>1.7</v>
       </c>
-      <c r="O177">
-        <v>3.4</v>
-      </c>
-      <c r="P177">
-        <v>6</v>
-      </c>
-      <c r="Q177">
-        <v>-0.75</v>
-      </c>
-      <c r="R177">
-        <v>1.925</v>
-      </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>2.2</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AA177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6281807</v>
+        <v>6285538</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,55 +16304,55 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L178">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N178">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O178">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
         <v>2</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -16361,19 +16361,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6282102</v>
+        <v>6281972</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,13 +16393,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16408,43 +16408,43 @@
         <v>49</v>
       </c>
       <c r="K179">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L179">
         <v>2.875</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N179">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O179">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S179">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="T179">
         <v>1.75</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16453,16 +16453,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6285669</v>
+        <v>6285539</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,76 +16660,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G182" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K182">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M182">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N182">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O182">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P182">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q182">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R182">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S182">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T182">
         <v>2</v>
       </c>
       <c r="U182">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V182">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6285539</v>
+        <v>6285669</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,76 +16749,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K183">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L183">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M183">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N183">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O183">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P183">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
         <v>2</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V183">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y183">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC183">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6281874</v>
+        <v>6289120</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18262,61 +18262,61 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
         <v>50</v>
       </c>
       <c r="K200">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L200">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N200">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S200">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T200">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y200">
         <v>-1</v>
@@ -18325,13 +18325,13 @@
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6289120</v>
+        <v>6281874</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18351,61 +18351,61 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>50</v>
       </c>
       <c r="K201">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M201">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N201">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P201">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
+        <v>2.025</v>
+      </c>
+      <c r="S201">
         <v>1.825</v>
       </c>
-      <c r="S201">
-        <v>1.975</v>
-      </c>
       <c r="T201">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U201">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -18414,13 +18414,13 @@
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB201">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6285671</v>
+        <v>6287040</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,70 +18707,70 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K205">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M205">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N205">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P205">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
+        <v>2.1</v>
+      </c>
+      <c r="S205">
+        <v>1.775</v>
+      </c>
+      <c r="T205">
+        <v>2</v>
+      </c>
+      <c r="U205">
+        <v>2.05</v>
+      </c>
+      <c r="V205">
+        <v>1.8</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
         <v>1.875</v>
       </c>
-      <c r="S205">
-        <v>1.925</v>
-      </c>
-      <c r="T205">
-        <v>2</v>
-      </c>
-      <c r="U205">
-        <v>1.85</v>
-      </c>
-      <c r="V205">
-        <v>1.95</v>
-      </c>
-      <c r="W205">
-        <v>0.5</v>
-      </c>
-      <c r="X205">
-        <v>-1</v>
-      </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB205">
         <v>0</v>
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6287040</v>
+        <v>6281815</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,43 +18974,43 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>50</v>
       </c>
       <c r="K208">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L208">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O208">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P208">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
         <v>1.775</v>
@@ -19019,31 +19019,31 @@
         <v>2</v>
       </c>
       <c r="U208">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19051,7 +19051,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6281815</v>
+        <v>6285671</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19063,76 +19063,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209">
         <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K209">
+        <v>1.4</v>
+      </c>
+      <c r="L209">
+        <v>4</v>
+      </c>
+      <c r="M209">
+        <v>6.5</v>
+      </c>
+      <c r="N209">
+        <v>1.5</v>
+      </c>
+      <c r="O209">
+        <v>4</v>
+      </c>
+      <c r="P209">
+        <v>7.5</v>
+      </c>
+      <c r="Q209">
+        <v>-1</v>
+      </c>
+      <c r="R209">
+        <v>1.875</v>
+      </c>
+      <c r="S209">
+        <v>1.925</v>
+      </c>
+      <c r="T209">
+        <v>2</v>
+      </c>
+      <c r="U209">
+        <v>1.85</v>
+      </c>
+      <c r="V209">
         <v>1.95</v>
       </c>
-      <c r="L209">
-        <v>3.25</v>
-      </c>
-      <c r="M209">
-        <v>3.4</v>
-      </c>
-      <c r="N209">
-        <v>2.05</v>
-      </c>
-      <c r="O209">
-        <v>3.25</v>
-      </c>
-      <c r="P209">
-        <v>4</v>
-      </c>
-      <c r="Q209">
-        <v>-0.5</v>
-      </c>
-      <c r="R209">
-        <v>2.025</v>
-      </c>
-      <c r="S209">
-        <v>1.775</v>
-      </c>
-      <c r="T209">
-        <v>2</v>
-      </c>
-      <c r="U209">
-        <v>1.95</v>
-      </c>
-      <c r="V209">
-        <v>1.85</v>
-      </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X209">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA209">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC209">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -20297,7 +20297,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6281975</v>
+        <v>6281876</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20309,52 +20309,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
         <v>50</v>
       </c>
       <c r="K223">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L223">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M223">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N223">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P223">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
         <v>2</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
         <v>1.9</v>
@@ -20363,22 +20363,22 @@
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6281876</v>
+        <v>6281975</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,52 +20398,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>50</v>
       </c>
       <c r="K224">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L224">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M224">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O224">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P224">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
         <v>2</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V224">
         <v>1.9</v>
@@ -20452,22 +20452,22 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC224">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -23323,7 +23323,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6286554</v>
+        <v>6326936</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23335,76 +23335,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F257" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K257">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L257">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M257">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N257">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O257">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P257">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q257">
+        <v>-0.25</v>
+      </c>
+      <c r="R257">
+        <v>2.025</v>
+      </c>
+      <c r="S257">
+        <v>1.775</v>
+      </c>
+      <c r="T257">
+        <v>1.5</v>
+      </c>
+      <c r="U257">
+        <v>1.8</v>
+      </c>
+      <c r="V257">
+        <v>2</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
+        <v>1.875</v>
+      </c>
+      <c r="Y257">
+        <v>-1</v>
+      </c>
+      <c r="Z257">
         <v>-0.5</v>
       </c>
-      <c r="R257">
-        <v>1.95</v>
-      </c>
-      <c r="S257">
-        <v>1.85</v>
-      </c>
-      <c r="T257">
-        <v>2</v>
-      </c>
-      <c r="U257">
-        <v>1.75</v>
-      </c>
-      <c r="V257">
-        <v>2.05</v>
-      </c>
-      <c r="W257">
-        <v>1</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
-      <c r="Y257">
-        <v>-1</v>
-      </c>
-      <c r="Z257">
-        <v>0.95</v>
-      </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC257">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23412,7 +23412,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6326936</v>
+        <v>6286554</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23424,76 +23424,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G258" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258" t="s">
+        <v>49</v>
+      </c>
+      <c r="K258">
+        <v>2.1</v>
+      </c>
+      <c r="L258">
+        <v>3.2</v>
+      </c>
+      <c r="M258">
+        <v>3.6</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258">
+        <v>3.1</v>
+      </c>
+      <c r="P258">
+        <v>4.2</v>
+      </c>
+      <c r="Q258">
+        <v>-0.5</v>
+      </c>
+      <c r="R258">
+        <v>1.95</v>
+      </c>
+      <c r="S258">
+        <v>1.85</v>
+      </c>
+      <c r="T258">
+        <v>2</v>
+      </c>
+      <c r="U258">
+        <v>1.75</v>
+      </c>
+      <c r="V258">
+        <v>2.05</v>
+      </c>
+      <c r="W258">
         <v>1</v>
       </c>
-      <c r="J258" t="s">
-        <v>50</v>
-      </c>
-      <c r="K258">
-        <v>2.6</v>
-      </c>
-      <c r="L258">
-        <v>2.875</v>
-      </c>
-      <c r="M258">
-        <v>3</v>
-      </c>
-      <c r="N258">
-        <v>2.45</v>
-      </c>
-      <c r="O258">
-        <v>2.875</v>
-      </c>
-      <c r="P258">
-        <v>3.4</v>
-      </c>
-      <c r="Q258">
-        <v>-0.25</v>
-      </c>
-      <c r="R258">
-        <v>2.025</v>
-      </c>
-      <c r="S258">
-        <v>1.775</v>
-      </c>
-      <c r="T258">
-        <v>1.5</v>
-      </c>
-      <c r="U258">
-        <v>1.8</v>
-      </c>
-      <c r="V258">
-        <v>2</v>
-      </c>
-      <c r="W258">
-        <v>-1</v>
-      </c>
       <c r="X258">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA258">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6330569</v>
+        <v>6285765</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,13 +25026,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -25041,43 +25041,43 @@
         <v>49</v>
       </c>
       <c r="K276">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L276">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M276">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N276">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="O276">
         <v>2.9</v>
       </c>
       <c r="P276">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q276">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R276">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S276">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T276">
         <v>1.75</v>
       </c>
       <c r="U276">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V276">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W276">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25086,16 +25086,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6285765</v>
+        <v>6330569</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,13 +25115,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G277" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25130,43 +25130,43 @@
         <v>49</v>
       </c>
       <c r="K277">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L277">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M277">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N277">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O277">
         <v>2.9</v>
       </c>
       <c r="P277">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q277">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R277">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S277">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T277">
         <v>1.75</v>
       </c>
       <c r="U277">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V277">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W277">
-        <v>2.3</v>
+        <v>1.05</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25175,16 +25175,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC277">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25904,7 +25904,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6326524</v>
+        <v>6355831</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25916,76 +25916,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F286" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G286" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K286">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L286">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M286">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N286">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O286">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P286">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q286">
         <v>-0.25</v>
       </c>
       <c r="R286">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S286">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T286">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U286">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V286">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W286">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA286">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB286">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC286">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25993,7 +25993,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6355831</v>
+        <v>6326524</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26005,76 +26005,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F287" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G287" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K287">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L287">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M287">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N287">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O287">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P287">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q287">
         <v>-0.25</v>
       </c>
       <c r="R287">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S287">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T287">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U287">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V287">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X287">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA287">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -27773,7 +27773,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6534936</v>
+        <v>6537871</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27785,46 +27785,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G307" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307">
         <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K307">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L307">
         <v>2.9</v>
       </c>
       <c r="M307">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N307">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O307">
         <v>2.875</v>
       </c>
       <c r="P307">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q307">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R307">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S307">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T307">
         <v>1.75</v>
@@ -27839,22 +27839,22 @@
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB307">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27862,7 +27862,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6537871</v>
+        <v>6534936</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27874,46 +27874,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G308" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308">
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K308">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L308">
         <v>2.9</v>
       </c>
       <c r="M308">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N308">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O308">
         <v>2.875</v>
       </c>
       <c r="P308">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R308">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S308">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T308">
         <v>1.75</v>
@@ -27928,22 +27928,22 @@
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y308">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA308">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC308">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -31066,7 +31066,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6619161</v>
+        <v>6623672</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31078,46 +31078,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F344" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G344" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K344">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L344">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M344">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N344">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O344">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P344">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q344">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R344">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S344">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T344">
         <v>2</v>
@@ -31126,28 +31126,28 @@
         <v>1.925</v>
       </c>
       <c r="V344">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W344">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X344">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA344">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB344">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC344">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31155,7 +31155,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6623672</v>
+        <v>6619161</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31167,46 +31167,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F345" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G345" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K345">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L345">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M345">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N345">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O345">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P345">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q345">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R345">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S345">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T345">
         <v>2</v>
@@ -31215,28 +31215,28 @@
         <v>1.925</v>
       </c>
       <c r="V345">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X345">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA345">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC345">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31244,7 +31244,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6619374</v>
+        <v>6615398</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31256,76 +31256,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F346" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G346" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J346" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K346">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L346">
         <v>3</v>
       </c>
       <c r="M346">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N346">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O346">
         <v>3.1</v>
       </c>
       <c r="P346">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q346">
         <v>-0.25</v>
       </c>
       <c r="R346">
+        <v>1.9</v>
+      </c>
+      <c r="S346">
+        <v>1.95</v>
+      </c>
+      <c r="T346">
+        <v>2</v>
+      </c>
+      <c r="U346">
+        <v>2.025</v>
+      </c>
+      <c r="V346">
+        <v>1.825</v>
+      </c>
+      <c r="W346">
+        <v>-1</v>
+      </c>
+      <c r="X346">
         <v>2.1</v>
       </c>
-      <c r="S346">
-        <v>1.775</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
-      </c>
-      <c r="U346">
-        <v>2.05</v>
-      </c>
-      <c r="V346">
-        <v>1.8</v>
-      </c>
-      <c r="W346">
-        <v>-1</v>
-      </c>
-      <c r="X346">
-        <v>-1</v>
-      </c>
       <c r="Y346">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC346">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31333,7 +31333,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6615398</v>
+        <v>6619374</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31345,76 +31345,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G347" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K347">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L347">
         <v>3</v>
       </c>
       <c r="M347">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N347">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O347">
         <v>3.1</v>
       </c>
       <c r="P347">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q347">
         <v>-0.25</v>
       </c>
       <c r="R347">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S347">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T347">
         <v>2</v>
       </c>
       <c r="U347">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V347">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
+        <v>-1</v>
+      </c>
+      <c r="Y347">
         <v>2.1</v>
       </c>
-      <c r="Y347">
-        <v>-1</v>
-      </c>
       <c r="Z347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB347">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -32045,7 +32045,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6645236</v>
+        <v>6645237</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32057,40 +32057,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G355" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K355">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L355">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M355">
         <v>3.4</v>
       </c>
       <c r="N355">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O355">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P355">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q355">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R355">
         <v>1.775</v>
@@ -32099,34 +32099,34 @@
         <v>2.025</v>
       </c>
       <c r="T355">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V355">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W355">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X355">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA355">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB355">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC355">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32134,7 +32134,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6645237</v>
+        <v>6645236</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32146,40 +32146,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G356" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K356">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L356">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M356">
         <v>3.4</v>
       </c>
       <c r="N356">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O356">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P356">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q356">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R356">
         <v>1.775</v>
@@ -32188,34 +32188,34 @@
         <v>2.025</v>
       </c>
       <c r="T356">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U356">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V356">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W356">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA356">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB356">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC356">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32846,7 +32846,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6673199</v>
+        <v>6677287</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32858,46 +32858,46 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G364" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H364">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364" t="s">
         <v>49</v>
       </c>
       <c r="K364">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L364">
         <v>3.4</v>
       </c>
       <c r="M364">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N364">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O364">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P364">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q364">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R364">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S364">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T364">
         <v>2</v>
@@ -32909,7 +32909,7 @@
         <v>2</v>
       </c>
       <c r="W364">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32918,7 +32918,7 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA364">
         <v>-1</v>
@@ -32935,7 +32935,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6673197</v>
+        <v>6679229</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32947,40 +32947,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G365" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365">
         <v>0</v>
       </c>
       <c r="J365" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K365">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L365">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M365">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N365">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="O365">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P365">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q365">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R365">
         <v>2.05</v>
@@ -32992,31 +32992,31 @@
         <v>2</v>
       </c>
       <c r="U365">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V365">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W365">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X365">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y365">
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA365">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB365">
         <v>-1</v>
       </c>
       <c r="AC365">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33113,7 +33113,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6679229</v>
+        <v>6673199</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33125,76 +33125,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G367" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J367" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K367">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L367">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M367">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N367">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O367">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P367">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q367">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R367">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S367">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T367">
         <v>2</v>
       </c>
       <c r="U367">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V367">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W367">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X367">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA367">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC367">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33202,7 +33202,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6677287</v>
+        <v>6673197</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33214,13 +33214,13 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F368" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G368" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H368">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I368">
         <v>0</v>
@@ -33229,43 +33229,43 @@
         <v>49</v>
       </c>
       <c r="K368">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L368">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M368">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N368">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="O368">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P368">
-        <v>8.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q368">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R368">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S368">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T368">
         <v>2</v>
       </c>
       <c r="U368">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V368">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W368">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="X368">
         <v>-1</v>
@@ -33274,16 +33274,16 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC368">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -33558,7 +33558,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6689350</v>
+        <v>6693367</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33570,76 +33570,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G372" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I372">
         <v>1</v>
       </c>
       <c r="J372" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K372">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="L372">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M372">
+        <v>7</v>
+      </c>
+      <c r="N372">
+        <v>1.533</v>
+      </c>
+      <c r="O372">
+        <v>4</v>
+      </c>
+      <c r="P372">
+        <v>6</v>
+      </c>
+      <c r="Q372">
+        <v>-1</v>
+      </c>
+      <c r="R372">
+        <v>1.975</v>
+      </c>
+      <c r="S372">
+        <v>1.825</v>
+      </c>
+      <c r="T372">
         <v>2.25</v>
       </c>
-      <c r="N372">
-        <v>3</v>
-      </c>
-      <c r="O372">
-        <v>3.25</v>
-      </c>
-      <c r="P372">
-        <v>2.3</v>
-      </c>
-      <c r="Q372">
-        <v>0.25</v>
-      </c>
-      <c r="R372">
+      <c r="U372">
         <v>1.775</v>
       </c>
-      <c r="S372">
+      <c r="V372">
         <v>2.025</v>
       </c>
-      <c r="T372">
-        <v>2.5</v>
-      </c>
-      <c r="U372">
-        <v>2</v>
-      </c>
-      <c r="V372">
-        <v>1.8</v>
-      </c>
       <c r="W372">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA372">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC372">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33647,7 +33647,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6693031</v>
+        <v>6693030</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,73 +33659,73 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G373" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H373">
+        <v>1</v>
+      </c>
+      <c r="I373">
         <v>3</v>
       </c>
-      <c r="I373">
-        <v>1</v>
-      </c>
       <c r="J373" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K373">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="L373">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N373">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="O373">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P373">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q373">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R373">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S373">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T373">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U373">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V373">
         <v>2.025</v>
       </c>
       <c r="W373">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z373">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB373">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC373">
         <v>-1</v>
@@ -33736,7 +33736,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6693030</v>
+        <v>6693031</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33748,73 +33748,73 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G374" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H374">
+        <v>3</v>
+      </c>
+      <c r="I374">
         <v>1</v>
       </c>
-      <c r="I374">
-        <v>3</v>
-      </c>
       <c r="J374" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K374">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="L374">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M374">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N374">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="O374">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P374">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q374">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R374">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S374">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T374">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V374">
         <v>2.025</v>
       </c>
       <c r="W374">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X374">
         <v>-1</v>
       </c>
       <c r="Y374">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z374">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA374">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC374">
         <v>-1</v>
@@ -33825,7 +33825,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6693367</v>
+        <v>6689350</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33837,76 +33837,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G375" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H375">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I375">
         <v>1</v>
       </c>
       <c r="J375" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K375">
-        <v>1.444</v>
+        <v>3.2</v>
       </c>
       <c r="L375">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M375">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N375">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O375">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P375">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="Q375">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R375">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S375">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T375">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U375">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V375">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W375">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X375">
         <v>-1</v>
       </c>
       <c r="Y375">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z375">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA375">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB375">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC375">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33914,7 +33914,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6693028</v>
+        <v>6693029</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33926,10 +33926,10 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G376" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H376">
         <v>3</v>
@@ -33941,43 +33941,43 @@
         <v>49</v>
       </c>
       <c r="K376">
-        <v>1.727</v>
+        <v>1.45</v>
       </c>
       <c r="L376">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M376">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N376">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O376">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="P376">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q376">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R376">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S376">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T376">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U376">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V376">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W376">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33986,13 +33986,13 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34003,7 +34003,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6693029</v>
+        <v>6693028</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34015,10 +34015,10 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G377" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H377">
         <v>3</v>
@@ -34030,43 +34030,43 @@
         <v>49</v>
       </c>
       <c r="K377">
-        <v>1.45</v>
+        <v>1.727</v>
       </c>
       <c r="L377">
+        <v>3.5</v>
+      </c>
+      <c r="M377">
         <v>4</v>
       </c>
-      <c r="M377">
-        <v>8</v>
-      </c>
       <c r="N377">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="O377">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="P377">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q377">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R377">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S377">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T377">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U377">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V377">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W377">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X377">
         <v>-1</v>
@@ -34075,13 +34075,13 @@
         <v>-1</v>
       </c>
       <c r="Z377">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA377">
         <v>-1</v>
       </c>
       <c r="AB377">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC377">
         <v>-1</v>

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6281767</v>
+        <v>6285514</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,43 +2598,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M24">
         <v>3.3</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
         <v>1.85</v>
@@ -2643,25 +2643,25 @@
         <v>2</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
         <v>1.925</v>
       </c>
       <c r="W24">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6285514</v>
+        <v>6281767</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,43 +2687,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L25">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
         <v>3.3</v>
       </c>
       <c r="N25">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S25">
         <v>1.85</v>
@@ -2732,25 +2732,25 @@
         <v>2</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
         <v>1.925</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6281961</v>
+        <v>6289138</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,37 +4022,37 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N40">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q40">
         <v>-0.5</v>
@@ -4064,34 +4064,34 @@
         <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA40">
-        <v>-1</v>
-      </c>
       <c r="AB40">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6289138</v>
+        <v>6281961</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,37 +4111,37 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M41">
+        <v>2.8</v>
+      </c>
+      <c r="N41">
+        <v>1.95</v>
+      </c>
+      <c r="O41">
         <v>3.4</v>
       </c>
-      <c r="N41">
-        <v>1.909</v>
-      </c>
-      <c r="O41">
-        <v>3.3</v>
-      </c>
       <c r="P41">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
@@ -4153,34 +4153,34 @@
         <v>1.9</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V41">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X41">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC41">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6289136</v>
+        <v>6285944</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,76 +5802,76 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K60">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
         <v>3</v>
       </c>
       <c r="M60">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O60">
         <v>3.1</v>
       </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W60">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB60">
         <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6285944</v>
+        <v>6289136</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,76 +5891,76 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N61">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
         <v>3.1</v>
       </c>
       <c r="P61">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-0.5</v>
       </c>
       <c r="AC61">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6282008</v>
+        <v>6286297</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,13 +6959,13 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6974,43 +6974,43 @@
         <v>49</v>
       </c>
       <c r="K73">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N73">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W73">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7019,16 +7019,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6282095</v>
+        <v>6281781</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L74">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O74">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6281781</v>
+        <v>6282095</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,76 +7137,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K75">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L75">
+        <v>2.875</v>
+      </c>
+      <c r="M75">
+        <v>2.7</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75">
         <v>3.1</v>
       </c>
-      <c r="M75">
-        <v>3.75</v>
-      </c>
-      <c r="N75">
+      <c r="P75">
+        <v>2.6</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
         <v>1.75</v>
       </c>
-      <c r="O75">
-        <v>3.25</v>
-      </c>
-      <c r="P75">
-        <v>5.75</v>
-      </c>
-      <c r="Q75">
-        <v>-0.75</v>
-      </c>
-      <c r="R75">
-        <v>2</v>
-      </c>
-      <c r="S75">
-        <v>1.85</v>
-      </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
+        <v>-1</v>
+      </c>
+      <c r="X75">
+        <v>-1</v>
+      </c>
+      <c r="Y75">
+        <v>1.6</v>
+      </c>
+      <c r="Z75">
+        <v>-1</v>
+      </c>
+      <c r="AA75">
         <v>0.75</v>
       </c>
-      <c r="X75">
-        <v>-1</v>
-      </c>
-      <c r="Y75">
-        <v>-1</v>
-      </c>
-      <c r="Z75">
-        <v>0.5</v>
-      </c>
-      <c r="AA75">
-        <v>-0.5</v>
-      </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6286297</v>
+        <v>6282008</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,13 +7226,13 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7241,43 +7241,43 @@
         <v>49</v>
       </c>
       <c r="K76">
-        <v>1.727</v>
+        <v>2.55</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="N76">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7286,16 +7286,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6282096</v>
+        <v>6289134</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K85">
+        <v>2.15</v>
+      </c>
+      <c r="L85">
+        <v>3.1</v>
+      </c>
+      <c r="M85">
+        <v>3.2</v>
+      </c>
+      <c r="N85">
         <v>1.95</v>
       </c>
-      <c r="L85">
+      <c r="O85">
         <v>3.25</v>
       </c>
-      <c r="M85">
-        <v>3.6</v>
-      </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-      <c r="O85">
-        <v>3.3</v>
-      </c>
       <c r="P85">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q85">
         <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA85">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6289134</v>
+        <v>6282096</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,76 +8116,76 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K86">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
         <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6281787</v>
+        <v>6285747</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,10 +8650,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8665,43 +8665,43 @@
         <v>49</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M92">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
       </c>
       <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
         <v>1.8</v>
       </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8710,13 +8710,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6285747</v>
+        <v>6281787</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,10 +8739,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8754,43 +8754,43 @@
         <v>49</v>
       </c>
       <c r="K93">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O93">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8799,13 +8799,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6281970</v>
+        <v>6285667</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,10 +13189,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13204,37 +13204,37 @@
         <v>51</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L143">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N143">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O143">
         <v>3</v>
       </c>
       <c r="P143">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>2.025</v>
-      </c>
-      <c r="T143">
-        <v>2</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
       </c>
       <c r="V143">
         <v>1.825</v>
@@ -13246,13 +13246,13 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB143">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6285667</v>
+        <v>6281970</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,10 +13278,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13293,37 +13293,37 @@
         <v>51</v>
       </c>
       <c r="K144">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
+        <v>2.9</v>
+      </c>
+      <c r="M144">
         <v>3</v>
       </c>
-      <c r="M144">
-        <v>4.333</v>
-      </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
         <v>3</v>
       </c>
       <c r="P144">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
         <v>1.975</v>
-      </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
-      <c r="U144">
-        <v>2.025</v>
       </c>
       <c r="V144">
         <v>1.825</v>
@@ -13335,13 +13335,13 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB144">
         <v>0</v>
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6285535</v>
+        <v>6890591</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45121.89583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K163">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L163">
+        <v>2.9</v>
+      </c>
+      <c r="M163">
+        <v>4.5</v>
+      </c>
+      <c r="N163">
+        <v>1.95</v>
+      </c>
+      <c r="O163">
         <v>3.2</v>
       </c>
-      <c r="M163">
-        <v>2.75</v>
-      </c>
-      <c r="N163">
-        <v>2.6</v>
-      </c>
-      <c r="O163">
-        <v>2.9</v>
-      </c>
       <c r="P163">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
+        <v>1.9</v>
+      </c>
+      <c r="T163">
+        <v>2</v>
+      </c>
+      <c r="U163">
+        <v>2.05</v>
+      </c>
+      <c r="V163">
         <v>1.8</v>
       </c>
-      <c r="S163">
-        <v>2.05</v>
-      </c>
-      <c r="T163">
-        <v>2</v>
-      </c>
-      <c r="U163">
-        <v>2.025</v>
-      </c>
-      <c r="V163">
-        <v>1.775</v>
-      </c>
       <c r="W163">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
+        <v>-1</v>
+      </c>
+      <c r="AA163">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB163">
+        <v>-1</v>
+      </c>
+      <c r="AC163">
         <v>0.8</v>
-      </c>
-      <c r="AA163">
-        <v>-1</v>
-      </c>
-      <c r="AB163">
-        <v>1.025</v>
-      </c>
-      <c r="AC163">
-        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6890591</v>
+        <v>6285535</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45121.89583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
+        <v>3.2</v>
+      </c>
+      <c r="M164">
+        <v>2.75</v>
+      </c>
+      <c r="N164">
+        <v>2.6</v>
+      </c>
+      <c r="O164">
         <v>2.9</v>
       </c>
-      <c r="M164">
-        <v>4.5</v>
-      </c>
-      <c r="N164">
-        <v>1.95</v>
-      </c>
-      <c r="O164">
-        <v>3.2</v>
-      </c>
       <c r="P164">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T164">
         <v>2</v>
       </c>
       <c r="U164">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V164">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X164">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA164">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC164">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15224,7 +15224,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6285752</v>
+        <v>6285534</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15236,76 +15236,76 @@
         <v>45122.70833333334</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
         <v>1</v>
       </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
       <c r="J166" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K166">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="L166">
+        <v>2.9</v>
+      </c>
+      <c r="M166">
+        <v>4.333</v>
+      </c>
+      <c r="N166">
+        <v>2.2</v>
+      </c>
+      <c r="O166">
         <v>3</v>
       </c>
-      <c r="M166">
-        <v>2.15</v>
-      </c>
-      <c r="N166">
-        <v>4</v>
-      </c>
-      <c r="O166">
-        <v>3.1</v>
-      </c>
       <c r="P166">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q166">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S166">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
         <v>2</v>
       </c>
       <c r="U166">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W166">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X166">
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z166">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6285534</v>
+        <v>6285752</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,76 +15325,76 @@
         <v>45122.70833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K167">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L167">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M167">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="N167">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O167">
+        <v>3.1</v>
+      </c>
+      <c r="P167">
+        <v>2.05</v>
+      </c>
+      <c r="Q167">
+        <v>0.5</v>
+      </c>
+      <c r="R167">
+        <v>1.75</v>
+      </c>
+      <c r="S167">
+        <v>2.05</v>
+      </c>
+      <c r="T167">
+        <v>2</v>
+      </c>
+      <c r="U167">
+        <v>1.975</v>
+      </c>
+      <c r="V167">
+        <v>1.825</v>
+      </c>
+      <c r="W167">
         <v>3</v>
       </c>
-      <c r="P167">
-        <v>3.75</v>
-      </c>
-      <c r="Q167">
-        <v>-0.25</v>
-      </c>
-      <c r="R167">
-        <v>1.85</v>
-      </c>
-      <c r="S167">
-        <v>1.95</v>
-      </c>
-      <c r="T167">
-        <v>2</v>
-      </c>
-      <c r="U167">
-        <v>1.775</v>
-      </c>
-      <c r="V167">
-        <v>2.025</v>
-      </c>
-      <c r="W167">
-        <v>-1</v>
-      </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA167">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
         <v>-1</v>
       </c>
       <c r="AC167">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -17182,7 +17182,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6281811</v>
+        <v>6286300</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17194,76 +17194,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K188">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L188">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M188">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N188">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T188">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U188">
+        <v>2.05</v>
+      </c>
+      <c r="V188">
         <v>1.8</v>
       </c>
-      <c r="V188">
-        <v>2</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA188">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>0.8</v>
-      </c>
-      <c r="AC188">
-        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17271,7 +17271,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6286300</v>
+        <v>6281811</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17283,76 +17283,76 @@
         <v>45131.79166666666</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K189">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="L189">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M189">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N189">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P189">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>1.775</v>
+      </c>
+      <c r="S189">
+        <v>2.025</v>
+      </c>
+      <c r="T189">
+        <v>1.75</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.9</v>
       </c>
-      <c r="S189">
-        <v>1.95</v>
-      </c>
-      <c r="T189">
-        <v>2.25</v>
-      </c>
-      <c r="U189">
-        <v>2.05</v>
-      </c>
-      <c r="V189">
-        <v>1.8</v>
-      </c>
-      <c r="W189">
-        <v>0.7</v>
-      </c>
-      <c r="X189">
-        <v>-1</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -18250,7 +18250,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6289120</v>
+        <v>6281874</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18262,61 +18262,61 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
         <v>50</v>
       </c>
       <c r="K200">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M200">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N200">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
+        <v>2.025</v>
+      </c>
+      <c r="S200">
         <v>1.825</v>
       </c>
-      <c r="S200">
-        <v>1.975</v>
-      </c>
       <c r="T200">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U200">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V200">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
@@ -18325,13 +18325,13 @@
         <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB200">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18339,7 +18339,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6281874</v>
+        <v>6289120</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18351,61 +18351,61 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
         <v>50</v>
       </c>
       <c r="K201">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L201">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N201">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U201">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y201">
         <v>-1</v>
@@ -18414,13 +18414,13 @@
         <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC201">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6287040</v>
+        <v>6285671</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,70 +18707,70 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L205">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N205">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O205">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R205">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T205">
         <v>2</v>
       </c>
       <c r="U205">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X205">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
         <v>0</v>
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6285544</v>
+        <v>6281815</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,76 +18796,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K206">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L206">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N206">
+        <v>2.05</v>
+      </c>
+      <c r="O206">
+        <v>3.25</v>
+      </c>
+      <c r="P206">
+        <v>4</v>
+      </c>
+      <c r="Q206">
+        <v>-0.5</v>
+      </c>
+      <c r="R206">
+        <v>2.025</v>
+      </c>
+      <c r="S206">
+        <v>1.775</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
+        <v>1.95</v>
+      </c>
+      <c r="V206">
+        <v>1.85</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
         <v>2.25</v>
       </c>
-      <c r="O206">
-        <v>2.875</v>
-      </c>
-      <c r="P206">
-        <v>3.8</v>
-      </c>
-      <c r="Q206">
-        <v>-0.25</v>
-      </c>
-      <c r="R206">
-        <v>1.9</v>
-      </c>
-      <c r="S206">
-        <v>1.95</v>
-      </c>
-      <c r="T206">
-        <v>1.75</v>
-      </c>
-      <c r="U206">
-        <v>1.825</v>
-      </c>
-      <c r="V206">
-        <v>2.025</v>
-      </c>
-      <c r="W206">
-        <v>-1</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
       <c r="Y206">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6282019</v>
+        <v>6285544</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,76 +18885,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
         <v>1</v>
       </c>
-      <c r="I207">
-        <v>0</v>
-      </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K207">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L207">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M207">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N207">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P207">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q207">
         <v>-0.25</v>
       </c>
       <c r="R207">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S207">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T207">
         <v>1.75</v>
       </c>
       <c r="U207">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V207">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W207">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z207">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6281815</v>
+        <v>6282019</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,76 +18974,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K208">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L208">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N208">
+        <v>2.375</v>
+      </c>
+      <c r="O208">
+        <v>3.1</v>
+      </c>
+      <c r="P208">
+        <v>3.3</v>
+      </c>
+      <c r="Q208">
+        <v>-0.25</v>
+      </c>
+      <c r="R208">
         <v>2.05</v>
       </c>
-      <c r="O208">
-        <v>3.25</v>
-      </c>
-      <c r="P208">
-        <v>4</v>
-      </c>
-      <c r="Q208">
-        <v>-0.5</v>
-      </c>
-      <c r="R208">
-        <v>2.025</v>
-      </c>
       <c r="S208">
+        <v>1.8</v>
+      </c>
+      <c r="T208">
+        <v>1.75</v>
+      </c>
+      <c r="U208">
         <v>1.775</v>
       </c>
-      <c r="T208">
-        <v>2</v>
-      </c>
-      <c r="U208">
-        <v>1.95</v>
-      </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X208">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA208">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19051,7 +19051,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6285671</v>
+        <v>6287040</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19063,70 +19063,70 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K209">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M209">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N209">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O209">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P209">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q209">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
+        <v>2.1</v>
+      </c>
+      <c r="S209">
+        <v>1.775</v>
+      </c>
+      <c r="T209">
+        <v>2</v>
+      </c>
+      <c r="U209">
+        <v>2.05</v>
+      </c>
+      <c r="V209">
+        <v>1.8</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
         <v>1.875</v>
       </c>
-      <c r="S209">
-        <v>1.925</v>
-      </c>
-      <c r="T209">
-        <v>2</v>
-      </c>
-      <c r="U209">
-        <v>1.85</v>
-      </c>
-      <c r="V209">
-        <v>1.95</v>
-      </c>
-      <c r="W209">
-        <v>0.5</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB209">
         <v>0</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6281817</v>
+        <v>6281875</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45143.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>50</v>
       </c>
       <c r="K212">
+        <v>1.95</v>
+      </c>
+      <c r="L212">
+        <v>3.2</v>
+      </c>
+      <c r="M212">
+        <v>3.5</v>
+      </c>
+      <c r="N212">
+        <v>1.75</v>
+      </c>
+      <c r="O212">
+        <v>3.4</v>
+      </c>
+      <c r="P212">
+        <v>5</v>
+      </c>
+      <c r="Q212">
+        <v>-0.75</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
+        <v>1.925</v>
+      </c>
+      <c r="V212">
+        <v>1.875</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
         <v>2.4</v>
       </c>
-      <c r="L212">
-        <v>2.9</v>
-      </c>
-      <c r="M212">
-        <v>2.8</v>
-      </c>
-      <c r="N212">
-        <v>2.7</v>
-      </c>
-      <c r="O212">
-        <v>2.9</v>
-      </c>
-      <c r="P212">
-        <v>3.1</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.8</v>
-      </c>
-      <c r="S212">
-        <v>2.05</v>
-      </c>
-      <c r="T212">
-        <v>1.75</v>
-      </c>
-      <c r="U212">
-        <v>1.875</v>
-      </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>1.9</v>
-      </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB212">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6281875</v>
+        <v>6281817</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,76 +19419,76 @@
         <v>45143.70833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>50</v>
       </c>
       <c r="K213">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N213">
+        <v>2.7</v>
+      </c>
+      <c r="O213">
+        <v>2.9</v>
+      </c>
+      <c r="P213">
+        <v>3.1</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>1.8</v>
+      </c>
+      <c r="S213">
+        <v>2.05</v>
+      </c>
+      <c r="T213">
         <v>1.75</v>
       </c>
-      <c r="O213">
-        <v>3.4</v>
-      </c>
-      <c r="P213">
-        <v>5</v>
-      </c>
-      <c r="Q213">
-        <v>-0.75</v>
-      </c>
-      <c r="R213">
-        <v>2</v>
-      </c>
-      <c r="S213">
-        <v>1.8</v>
-      </c>
-      <c r="T213">
-        <v>2</v>
-      </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC213">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -23323,7 +23323,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6326936</v>
+        <v>6286554</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23335,76 +23335,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257" t="s">
+        <v>49</v>
+      </c>
+      <c r="K257">
+        <v>2.1</v>
+      </c>
+      <c r="L257">
+        <v>3.2</v>
+      </c>
+      <c r="M257">
+        <v>3.6</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="O257">
+        <v>3.1</v>
+      </c>
+      <c r="P257">
+        <v>4.2</v>
+      </c>
+      <c r="Q257">
+        <v>-0.5</v>
+      </c>
+      <c r="R257">
+        <v>1.95</v>
+      </c>
+      <c r="S257">
+        <v>1.85</v>
+      </c>
+      <c r="T257">
+        <v>2</v>
+      </c>
+      <c r="U257">
+        <v>1.75</v>
+      </c>
+      <c r="V257">
+        <v>2.05</v>
+      </c>
+      <c r="W257">
         <v>1</v>
       </c>
-      <c r="J257" t="s">
-        <v>50</v>
-      </c>
-      <c r="K257">
-        <v>2.6</v>
-      </c>
-      <c r="L257">
-        <v>2.875</v>
-      </c>
-      <c r="M257">
-        <v>3</v>
-      </c>
-      <c r="N257">
-        <v>2.45</v>
-      </c>
-      <c r="O257">
-        <v>2.875</v>
-      </c>
-      <c r="P257">
-        <v>3.4</v>
-      </c>
-      <c r="Q257">
-        <v>-0.25</v>
-      </c>
-      <c r="R257">
-        <v>2.025</v>
-      </c>
-      <c r="S257">
-        <v>1.775</v>
-      </c>
-      <c r="T257">
-        <v>1.5</v>
-      </c>
-      <c r="U257">
-        <v>1.8</v>
-      </c>
-      <c r="V257">
-        <v>2</v>
-      </c>
-      <c r="W257">
-        <v>-1</v>
-      </c>
       <c r="X257">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA257">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23412,7 +23412,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6286554</v>
+        <v>6326936</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23424,76 +23424,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G258" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K258">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L258">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M258">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N258">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O258">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P258">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q258">
+        <v>-0.25</v>
+      </c>
+      <c r="R258">
+        <v>2.025</v>
+      </c>
+      <c r="S258">
+        <v>1.775</v>
+      </c>
+      <c r="T258">
+        <v>1.5</v>
+      </c>
+      <c r="U258">
+        <v>1.8</v>
+      </c>
+      <c r="V258">
+        <v>2</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
+        <v>1.875</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
         <v>-0.5</v>
       </c>
-      <c r="R258">
-        <v>1.95</v>
-      </c>
-      <c r="S258">
-        <v>1.85</v>
-      </c>
-      <c r="T258">
-        <v>2</v>
-      </c>
-      <c r="U258">
-        <v>1.75</v>
-      </c>
-      <c r="V258">
-        <v>2.05</v>
-      </c>
-      <c r="W258">
-        <v>1</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
-      <c r="Y258">
-        <v>-1</v>
-      </c>
-      <c r="Z258">
-        <v>0.95</v>
-      </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC258">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6285765</v>
+        <v>6330569</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,13 +25026,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -25041,43 +25041,43 @@
         <v>49</v>
       </c>
       <c r="K276">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L276">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M276">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N276">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O276">
         <v>2.9</v>
       </c>
       <c r="P276">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q276">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T276">
         <v>1.75</v>
       </c>
       <c r="U276">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V276">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W276">
-        <v>2.3</v>
+        <v>1.05</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25086,16 +25086,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC276">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6330569</v>
+        <v>6285765</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,13 +25115,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G277" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25130,43 +25130,43 @@
         <v>49</v>
       </c>
       <c r="K277">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L277">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M277">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N277">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="O277">
         <v>2.9</v>
       </c>
       <c r="P277">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q277">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R277">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S277">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T277">
         <v>1.75</v>
       </c>
       <c r="U277">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V277">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W277">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25175,16 +25175,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6590629</v>
+        <v>6590925</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,13 +29120,13 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G322" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I322">
         <v>1</v>
@@ -29135,43 +29135,43 @@
         <v>49</v>
       </c>
       <c r="K322">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L322">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M322">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N322">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="O322">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P322">
+        <v>7.5</v>
+      </c>
+      <c r="Q322">
+        <v>-1.25</v>
+      </c>
+      <c r="R322">
+        <v>1.875</v>
+      </c>
+      <c r="S322">
+        <v>1.925</v>
+      </c>
+      <c r="T322">
         <v>2.5</v>
       </c>
-      <c r="Q322">
-        <v>0.25</v>
-      </c>
-      <c r="R322">
-        <v>1.75</v>
-      </c>
-      <c r="S322">
-        <v>2.05</v>
-      </c>
-      <c r="T322">
-        <v>2</v>
-      </c>
       <c r="U322">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V322">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W322">
-        <v>2.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X322">
         <v>-1</v>
@@ -29180,13 +29180,13 @@
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA322">
         <v>-1</v>
       </c>
       <c r="AB322">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6590925</v>
+        <v>6590629</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,13 +29209,13 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G323" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H323">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323">
         <v>1</v>
@@ -29224,43 +29224,43 @@
         <v>49</v>
       </c>
       <c r="K323">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L323">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M323">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N323">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O323">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P323">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q323">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R323">
+        <v>1.75</v>
+      </c>
+      <c r="S323">
+        <v>2.05</v>
+      </c>
+      <c r="T323">
+        <v>2</v>
+      </c>
+      <c r="U323">
+        <v>1.925</v>
+      </c>
+      <c r="V323">
         <v>1.875</v>
       </c>
-      <c r="S323">
-        <v>1.925</v>
-      </c>
-      <c r="T323">
-        <v>2.5</v>
-      </c>
-      <c r="U323">
-        <v>2</v>
-      </c>
-      <c r="V323">
-        <v>1.8</v>
-      </c>
       <c r="W323">
-        <v>0.3999999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29269,13 +29269,13 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA323">
         <v>-1</v>
       </c>
       <c r="AB323">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -31066,7 +31066,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6623672</v>
+        <v>6619161</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31078,46 +31078,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F344" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G344" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K344">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L344">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M344">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N344">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O344">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P344">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q344">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R344">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S344">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T344">
         <v>2</v>
@@ -31126,28 +31126,28 @@
         <v>1.925</v>
       </c>
       <c r="V344">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W344">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X344">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA344">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC344">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31155,7 +31155,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6619161</v>
+        <v>6623672</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31167,46 +31167,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F345" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G345" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K345">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L345">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M345">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N345">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O345">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P345">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q345">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R345">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S345">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T345">
         <v>2</v>
@@ -31215,28 +31215,28 @@
         <v>1.925</v>
       </c>
       <c r="V345">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W345">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X345">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB345">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC345">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31244,7 +31244,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6615398</v>
+        <v>6619374</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31256,76 +31256,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F346" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G346" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K346">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L346">
         <v>3</v>
       </c>
       <c r="M346">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N346">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O346">
         <v>3.1</v>
       </c>
       <c r="P346">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q346">
         <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S346">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T346">
         <v>2</v>
       </c>
       <c r="U346">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V346">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W346">
         <v>-1</v>
       </c>
       <c r="X346">
+        <v>-1</v>
+      </c>
+      <c r="Y346">
         <v>2.1</v>
       </c>
-      <c r="Y346">
-        <v>-1</v>
-      </c>
       <c r="Z346">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB346">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31333,7 +31333,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6619374</v>
+        <v>6615398</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31345,76 +31345,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G347" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J347" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K347">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L347">
         <v>3</v>
       </c>
       <c r="M347">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N347">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O347">
         <v>3.1</v>
       </c>
       <c r="P347">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q347">
         <v>-0.25</v>
       </c>
       <c r="R347">
+        <v>1.9</v>
+      </c>
+      <c r="S347">
+        <v>1.95</v>
+      </c>
+      <c r="T347">
+        <v>2</v>
+      </c>
+      <c r="U347">
+        <v>2.025</v>
+      </c>
+      <c r="V347">
+        <v>1.825</v>
+      </c>
+      <c r="W347">
+        <v>-1</v>
+      </c>
+      <c r="X347">
         <v>2.1</v>
       </c>
-      <c r="S347">
-        <v>1.775</v>
-      </c>
-      <c r="T347">
-        <v>2</v>
-      </c>
-      <c r="U347">
-        <v>2.05</v>
-      </c>
-      <c r="V347">
-        <v>1.8</v>
-      </c>
-      <c r="W347">
-        <v>-1</v>
-      </c>
-      <c r="X347">
-        <v>-1</v>
-      </c>
       <c r="Y347">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA347">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC347">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -32045,7 +32045,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6645237</v>
+        <v>6645236</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32057,40 +32057,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G355" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K355">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L355">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M355">
         <v>3.4</v>
       </c>
       <c r="N355">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O355">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P355">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q355">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R355">
         <v>1.775</v>
@@ -32099,34 +32099,34 @@
         <v>2.025</v>
       </c>
       <c r="T355">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U355">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V355">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W355">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X355">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB355">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC355">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32134,7 +32134,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6645236</v>
+        <v>6645237</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32146,40 +32146,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G356" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K356">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L356">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M356">
         <v>3.4</v>
       </c>
       <c r="N356">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O356">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P356">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q356">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R356">
         <v>1.775</v>
@@ -32188,34 +32188,34 @@
         <v>2.025</v>
       </c>
       <c r="T356">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U356">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V356">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W356">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X356">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA356">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB356">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC356">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32846,7 +32846,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6677287</v>
+        <v>6673199</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32858,46 +32858,46 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G364" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H364">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J364" t="s">
         <v>49</v>
       </c>
       <c r="K364">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L364">
         <v>3.4</v>
       </c>
       <c r="M364">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N364">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O364">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P364">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q364">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R364">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S364">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T364">
         <v>2</v>
@@ -32909,7 +32909,7 @@
         <v>2</v>
       </c>
       <c r="W364">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32918,7 +32918,7 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA364">
         <v>-1</v>
@@ -32935,7 +32935,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6679229</v>
+        <v>6673197</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32947,40 +32947,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G365" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I365">
         <v>0</v>
       </c>
       <c r="J365" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K365">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L365">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M365">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N365">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="O365">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P365">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q365">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R365">
         <v>2.05</v>
@@ -32992,31 +32992,31 @@
         <v>2</v>
       </c>
       <c r="U365">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="V365">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W365">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X365">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y365">
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA365">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB365">
         <v>-1</v>
       </c>
       <c r="AC365">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33113,7 +33113,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6673199</v>
+        <v>6679229</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33125,76 +33125,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G367" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H367">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K367">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L367">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M367">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N367">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O367">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P367">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q367">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R367">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S367">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T367">
         <v>2</v>
       </c>
       <c r="U367">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V367">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W367">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X367">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB367">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC367">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33202,7 +33202,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6673197</v>
+        <v>6677287</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33214,13 +33214,13 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F368" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G368" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I368">
         <v>0</v>
@@ -33229,43 +33229,43 @@
         <v>49</v>
       </c>
       <c r="K368">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L368">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M368">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N368">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="O368">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P368">
-        <v>2.625</v>
+        <v>8.5</v>
       </c>
       <c r="Q368">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R368">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S368">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T368">
         <v>2</v>
       </c>
       <c r="U368">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V368">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W368">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="X368">
         <v>-1</v>
@@ -33274,16 +33274,16 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC368">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369" spans="1:29">
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6689429</v>
+        <v>6689428</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34282,76 +34282,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G380" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H380">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J380" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K380">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="L380">
+        <v>3.5</v>
+      </c>
+      <c r="M380">
+        <v>6</v>
+      </c>
+      <c r="N380">
+        <v>1.615</v>
+      </c>
+      <c r="O380">
+        <v>3.8</v>
+      </c>
+      <c r="P380">
+        <v>5.75</v>
+      </c>
+      <c r="Q380">
+        <v>-0.75</v>
+      </c>
+      <c r="R380">
+        <v>1.825</v>
+      </c>
+      <c r="S380">
+        <v>1.975</v>
+      </c>
+      <c r="T380">
+        <v>2.5</v>
+      </c>
+      <c r="U380">
+        <v>2</v>
+      </c>
+      <c r="V380">
+        <v>1.8</v>
+      </c>
+      <c r="W380">
+        <v>-1</v>
+      </c>
+      <c r="X380">
+        <v>-1</v>
+      </c>
+      <c r="Y380">
         <v>4.75</v>
       </c>
-      <c r="M380">
-        <v>1.363</v>
-      </c>
-      <c r="N380">
-        <v>6.5</v>
-      </c>
-      <c r="O380">
-        <v>4.2</v>
-      </c>
-      <c r="P380">
-        <v>1.45</v>
-      </c>
-      <c r="Q380">
-        <v>1</v>
-      </c>
-      <c r="R380">
-        <v>2</v>
-      </c>
-      <c r="S380">
-        <v>1.8</v>
-      </c>
-      <c r="T380">
-        <v>2.25</v>
-      </c>
-      <c r="U380">
-        <v>1.9</v>
-      </c>
-      <c r="V380">
-        <v>1.9</v>
-      </c>
-      <c r="W380">
-        <v>5.5</v>
-      </c>
-      <c r="X380">
-        <v>-1</v>
-      </c>
-      <c r="Y380">
-        <v>-1</v>
-      </c>
       <c r="Z380">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA380">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB380">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34359,7 +34359,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6689428</v>
+        <v>6689429</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34371,76 +34371,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F381" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G381" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I381">
+        <v>2</v>
+      </c>
+      <c r="J381" t="s">
+        <v>49</v>
+      </c>
+      <c r="K381">
+        <v>8</v>
+      </c>
+      <c r="L381">
+        <v>4.75</v>
+      </c>
+      <c r="M381">
+        <v>1.363</v>
+      </c>
+      <c r="N381">
+        <v>6.5</v>
+      </c>
+      <c r="O381">
+        <v>4.2</v>
+      </c>
+      <c r="P381">
+        <v>1.45</v>
+      </c>
+      <c r="Q381">
         <v>1</v>
       </c>
-      <c r="J381" t="s">
-        <v>51</v>
-      </c>
-      <c r="K381">
-        <v>1.615</v>
-      </c>
-      <c r="L381">
-        <v>3.5</v>
-      </c>
-      <c r="M381">
-        <v>6</v>
-      </c>
-      <c r="N381">
-        <v>1.615</v>
-      </c>
-      <c r="O381">
-        <v>3.8</v>
-      </c>
-      <c r="P381">
-        <v>5.75</v>
-      </c>
-      <c r="Q381">
-        <v>-0.75</v>
-      </c>
       <c r="R381">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S381">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T381">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U381">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V381">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W381">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z381">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA381">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC381">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -112,10 +112,10 @@
     <t>Vila Nova</t>
   </si>
   <si>
-    <t>Sampaio Correa</t>
+    <t>Mirassol</t>
   </si>
   <si>
-    <t>Mirassol</t>
+    <t>Sampaio Correa</t>
   </si>
   <si>
     <t>EC Juventude</t>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6281959</v>
+        <v>6289142</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5">
+        <v>2.15</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5">
-        <v>2.4</v>
-      </c>
-      <c r="L5">
+      <c r="M5">
+        <v>3.5</v>
+      </c>
+      <c r="N5">
+        <v>2.25</v>
+      </c>
+      <c r="O5">
         <v>3.1</v>
       </c>
-      <c r="M5">
-        <v>2.9</v>
-      </c>
-      <c r="N5">
-        <v>2.625</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
       <c r="P5">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6289142</v>
+        <v>6281959</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L6">
+        <v>3.1</v>
+      </c>
+      <c r="M6">
+        <v>2.9</v>
+      </c>
+      <c r="N6">
+        <v>2.625</v>
+      </c>
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="M6">
-        <v>3.5</v>
-      </c>
-      <c r="N6">
-        <v>2.25</v>
-      </c>
-      <c r="O6">
-        <v>3.1</v>
-      </c>
       <c r="P6">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1533,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6286544</v>
+        <v>6286296</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,13 +2242,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2257,43 +2257,43 @@
         <v>49</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
         <v>3.2</v>
       </c>
-      <c r="M20">
-        <v>3.75</v>
-      </c>
       <c r="N20">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O20">
         <v>3.4</v>
       </c>
       <c r="P20">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
-        <v>0.7</v>
+        <v>0.833</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
         <v>-0.5</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6286296</v>
+        <v>6286544</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,13 +2331,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2346,61 +2346,61 @@
         <v>49</v>
       </c>
       <c r="K21">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N21">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q21">
+        <v>-0.75</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>1.8</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>0.7</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>0.475</v>
+      </c>
+      <c r="AA21">
         <v>-0.5</v>
       </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>2.05</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>2.025</v>
-      </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
-      <c r="W21">
-        <v>0.833</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.8</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2509,10 +2509,10 @@
         <v>45045.66666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
         <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3224,7 +3224,7 @@
         <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6289139</v>
+        <v>6281769</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,76 +3488,76 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M34">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O34">
         <v>3.1</v>
       </c>
       <c r="P34">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U34">
         <v>2.025</v>
       </c>
       <c r="V34">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC34">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6281770</v>
+        <v>6289139</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,46 +3577,46 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>3.2</v>
+      </c>
+      <c r="N35">
+        <v>2.15</v>
+      </c>
+      <c r="O35">
         <v>3.1</v>
       </c>
-      <c r="M35">
-        <v>2.875</v>
-      </c>
-      <c r="N35">
-        <v>2.3</v>
-      </c>
-      <c r="O35">
-        <v>3</v>
-      </c>
       <c r="P35">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
+        <v>1.825</v>
+      </c>
+      <c r="S35">
         <v>1.975</v>
-      </c>
-      <c r="S35">
-        <v>1.825</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3628,25 +3628,25 @@
         <v>1.775</v>
       </c>
       <c r="W35">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z35">
+        <v>-1</v>
+      </c>
+      <c r="AA35">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA35">
-        <v>-1</v>
-      </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC35">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6281769</v>
+        <v>6281770</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,13 +3666,13 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3681,19 +3681,19 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L36">
         <v>3.1</v>
       </c>
       <c r="M36">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N36">
         <v>2.3</v>
       </c>
       <c r="O36">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P36">
         <v>3.4</v>
@@ -3702,19 +3702,19 @@
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
         <v>2.025</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W36">
         <v>1.3</v>
@@ -3726,16 +3726,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6289138</v>
+        <v>6281961</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,34 +4025,34 @@
         <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M40">
+        <v>2.8</v>
+      </c>
+      <c r="N40">
+        <v>1.95</v>
+      </c>
+      <c r="O40">
         <v>3.4</v>
       </c>
-      <c r="N40">
-        <v>1.909</v>
-      </c>
-      <c r="O40">
-        <v>3.3</v>
-      </c>
       <c r="P40">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q40">
         <v>-0.5</v>
@@ -4064,34 +4064,34 @@
         <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6281961</v>
+        <v>6285943</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,34 +4111,34 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L41">
         <v>3</v>
       </c>
       <c r="M41">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N41">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
         <v>4</v>
@@ -4147,40 +4147,40 @@
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6285943</v>
+        <v>6289138</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,76 +4200,76 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K42">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M42">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P42">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
         <v>2</v>
       </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y42">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6285663</v>
+        <v>6285516</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,10 +4289,10 @@
         <v>45052.85416666666</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4304,31 +4304,31 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
         <v>3.2</v>
       </c>
-      <c r="M43">
-        <v>3.75</v>
-      </c>
       <c r="N43">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P43">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T43">
         <v>2</v>
@@ -4343,16 +4343,16 @@
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6285516</v>
+        <v>6285663</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,10 +4378,10 @@
         <v>45052.85416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4393,31 +4393,31 @@
         <v>50</v>
       </c>
       <c r="K44">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O44">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P44">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2</v>
@@ -4432,16 +4432,16 @@
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5271,7 +5271,7 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6631893</v>
+        <v>6285744</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,16 +5535,16 @@
         <v>45060.75</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
         <v>51</v>
@@ -5553,37 +5553,37 @@
         <v>2.2</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5592,16 +5592,16 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6285744</v>
+        <v>6631893</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,16 +5624,16 @@
         <v>45060.75</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>51</v>
@@ -5642,38 +5642,38 @@
         <v>2.2</v>
       </c>
       <c r="L58">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.775</v>
+      </c>
+      <c r="S58">
+        <v>2.025</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
         <v>1.925</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>1.875</v>
       </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
-      <c r="V58">
-        <v>1.95</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5681,16 +5681,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6285944</v>
+        <v>6289136</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,76 +5802,76 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L60">
         <v>3</v>
       </c>
       <c r="M60">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N60">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O60">
         <v>3.1</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q60">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S60">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA60">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6289136</v>
+        <v>6285944</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,76 +5891,76 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N61">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O61">
         <v>3.1</v>
       </c>
       <c r="P61">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R61">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S61">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W61">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB61">
         <v>-0.5</v>
       </c>
       <c r="AC61">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6247,7 +6247,7 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6695,7 +6695,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6281781</v>
+        <v>6282095</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K74">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="L74">
+        <v>2.875</v>
+      </c>
+      <c r="M74">
+        <v>2.7</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74">
         <v>3.1</v>
       </c>
-      <c r="M74">
-        <v>3.75</v>
-      </c>
-      <c r="N74">
+      <c r="P74">
+        <v>2.6</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
         <v>1.75</v>
       </c>
-      <c r="O74">
-        <v>3.25</v>
-      </c>
-      <c r="P74">
-        <v>5.75</v>
-      </c>
-      <c r="Q74">
-        <v>-0.75</v>
-      </c>
-      <c r="R74">
-        <v>2</v>
-      </c>
-      <c r="S74">
-        <v>1.85</v>
-      </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>1.6</v>
+      </c>
+      <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
         <v>0.75</v>
       </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
-        <v>0.5</v>
-      </c>
-      <c r="AA74">
-        <v>-0.5</v>
-      </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6282095</v>
+        <v>6281781</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,76 +7137,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L75">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M75">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P75">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA75">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7493,7 +7493,7 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>40</v>
@@ -8027,7 +8027,7 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
         <v>35</v>
@@ -8386,7 +8386,7 @@
         <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6282097</v>
+        <v>6281786</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45079.79166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>3.2</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>3.3</v>
+      </c>
+      <c r="P90">
+        <v>3.8</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
         <v>1.8</v>
-      </c>
-      <c r="L90">
-        <v>3.5</v>
-      </c>
-      <c r="M90">
-        <v>4.5</v>
-      </c>
-      <c r="N90">
-        <v>1.571</v>
-      </c>
-      <c r="O90">
-        <v>3.8</v>
-      </c>
-      <c r="P90">
-        <v>6</v>
-      </c>
-      <c r="Q90">
-        <v>-0.75</v>
-      </c>
-      <c r="R90">
-        <v>1.75</v>
-      </c>
-      <c r="S90">
-        <v>2.05</v>
       </c>
       <c r="T90">
         <v>2.25</v>
       </c>
       <c r="U90">
+        <v>1.95</v>
+      </c>
+      <c r="V90">
         <v>1.85</v>
       </c>
-      <c r="V90">
-        <v>1.95</v>
-      </c>
       <c r="W90">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6281786</v>
+        <v>6282097</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,76 +8561,76 @@
         <v>45079.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
+        <v>1.85</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="V91">
-        <v>1.85</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X91">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8917,7 +8917,7 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>40</v>
@@ -9098,7 +9098,7 @@
         <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6285525</v>
+        <v>6285945</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,46 +9362,46 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K100">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>2.625</v>
+      </c>
+      <c r="N100">
+        <v>2.4</v>
+      </c>
+      <c r="O100">
         <v>3.2</v>
       </c>
-      <c r="M100">
-        <v>4.333</v>
-      </c>
-      <c r="N100">
-        <v>1.6</v>
-      </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
       <c r="P100">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q100">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T100">
         <v>2.25</v>
@@ -9416,22 +9416,22 @@
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC100">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9439,7 +9439,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6285945</v>
+        <v>6285525</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9451,46 +9451,46 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K101">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="N101">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O101">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P101">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
         <v>2.25</v>
@@ -9505,22 +9505,22 @@
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y101">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
+        <v>0.8</v>
+      </c>
+      <c r="AB101">
+        <v>-1</v>
+      </c>
+      <c r="AC101">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB101">
-        <v>1.025</v>
-      </c>
-      <c r="AC101">
-        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6282098</v>
+        <v>6281788</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,56 +9629,56 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M103">
         <v>3.2</v>
       </c>
       <c r="N103">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.85</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
+        <v>1.925</v>
+      </c>
+      <c r="V103">
         <v>1.875</v>
       </c>
-      <c r="S103">
-        <v>1.975</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>2.025</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
@@ -9686,19 +9686,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6281788</v>
+        <v>6282098</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,55 +9718,55 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>51</v>
       </c>
       <c r="K104">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
         <v>3.2</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9775,19 +9775,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6281789</v>
+        <v>6281966</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,13 +9896,13 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9911,43 +9911,43 @@
         <v>49</v>
       </c>
       <c r="K106">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L106">
         <v>3.2</v>
       </c>
       <c r="M106">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N106">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V106">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W106">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9956,16 +9956,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
+        <v>-1</v>
+      </c>
+      <c r="AB106">
         <v>-0.5</v>
       </c>
-      <c r="AB106">
-        <v>-1</v>
-      </c>
       <c r="AC106">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6281966</v>
+        <v>6281789</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,13 +9985,13 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -10000,43 +10000,43 @@
         <v>49</v>
       </c>
       <c r="K107">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L107">
         <v>3.2</v>
       </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10045,16 +10045,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10077,7 +10077,7 @@
         <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6281967</v>
+        <v>6281792</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,76 +10430,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N112">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
+        <v>0.4625</v>
+      </c>
+      <c r="AB112">
         <v>-0.5</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6281792</v>
+        <v>6281967</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,76 +10519,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O113">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X113">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>0.3875</v>
+      </c>
+      <c r="AA113">
         <v>-0.5</v>
       </c>
-      <c r="AA113">
-        <v>0.4625</v>
-      </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10700,7 +10700,7 @@
         <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -11854,7 +11854,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
         <v>46</v>
@@ -11943,7 +11943,7 @@
         <v>45102.64583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
         <v>44</v>
@@ -12109,7 +12109,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6286549</v>
+        <v>6285530</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12121,76 +12121,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K131">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M131">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P131">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
         <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12198,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6285530</v>
+        <v>6286549</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12210,76 +12210,76 @@
         <v>45104.79166666666</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L132">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N132">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
         <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6281798</v>
+        <v>6285749</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12299,40 +12299,40 @@
         <v>45104.89583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N133">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O133">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R133">
         <v>1.875</v>
@@ -12341,34 +12341,34 @@
         <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12376,7 +12376,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6285749</v>
+        <v>6281798</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12388,40 +12388,40 @@
         <v>45104.89583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K134">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L134">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N134">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O134">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P134">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R134">
         <v>1.875</v>
@@ -12430,34 +12430,34 @@
         <v>1.925</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z134">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6289129</v>
+        <v>6281797</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N137">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
         <v>3.1</v>
       </c>
       <c r="P137">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6282014</v>
+        <v>6289129</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,34 +12744,34 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
         <v>1</v>
       </c>
-      <c r="I138">
-        <v>2</v>
-      </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="L138">
         <v>3.1</v>
       </c>
       <c r="M138">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="N138">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
         <v>2.7</v>
@@ -12780,37 +12780,37 @@
         <v>0</v>
       </c>
       <c r="R138">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
+        <v>1.875</v>
+      </c>
+      <c r="T138">
+        <v>2</v>
+      </c>
+      <c r="U138">
+        <v>1.85</v>
+      </c>
+      <c r="V138">
+        <v>2</v>
+      </c>
+      <c r="W138">
         <v>1.8</v>
       </c>
-      <c r="T138">
-        <v>2</v>
-      </c>
-      <c r="U138">
-        <v>1.825</v>
-      </c>
-      <c r="V138">
-        <v>1.975</v>
-      </c>
-      <c r="W138">
-        <v>-1</v>
-      </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6281797</v>
+        <v>6282014</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,55 +12833,55 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>51</v>
       </c>
       <c r="K139">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L139">
+        <v>3.1</v>
+      </c>
+      <c r="M139">
+        <v>2.6</v>
+      </c>
+      <c r="N139">
+        <v>2.9</v>
+      </c>
+      <c r="O139">
         <v>3</v>
       </c>
-      <c r="M139">
-        <v>3.2</v>
-      </c>
-      <c r="N139">
-        <v>2.05</v>
-      </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
       <c r="P139">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12890,19 +12890,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12925,7 +12925,7 @@
         <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13278,7 +13278,7 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G144" t="s">
         <v>35</v>
@@ -13723,7 +13723,7 @@
         <v>45110.75</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -14527,7 +14527,7 @@
         <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14705,7 +14705,7 @@
         <v>48</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14969,7 +14969,7 @@
         <v>45121.89583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
         <v>30</v>
@@ -15414,7 +15414,7 @@
         <v>45123.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
         <v>44</v>
@@ -15936,7 +15936,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6289124</v>
+        <v>6285537</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15948,73 +15948,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G174" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K174">
+        <v>1.4</v>
+      </c>
+      <c r="L174">
+        <v>3.8</v>
+      </c>
+      <c r="M174">
+        <v>8</v>
+      </c>
+      <c r="N174">
+        <v>1.5</v>
+      </c>
+      <c r="O174">
+        <v>4.2</v>
+      </c>
+      <c r="P174">
+        <v>6.5</v>
+      </c>
+      <c r="Q174">
+        <v>-1</v>
+      </c>
+      <c r="R174">
+        <v>1.9</v>
+      </c>
+      <c r="S174">
+        <v>1.95</v>
+      </c>
+      <c r="T174">
         <v>2.25</v>
       </c>
-      <c r="L174">
-        <v>2.875</v>
-      </c>
-      <c r="M174">
-        <v>3.2</v>
-      </c>
-      <c r="N174">
-        <v>2.25</v>
-      </c>
-      <c r="O174">
-        <v>3</v>
-      </c>
-      <c r="P174">
-        <v>3.6</v>
-      </c>
-      <c r="Q174">
-        <v>-0.25</v>
-      </c>
-      <c r="R174">
-        <v>1.875</v>
-      </c>
-      <c r="S174">
-        <v>1.925</v>
-      </c>
-      <c r="T174">
-        <v>2</v>
-      </c>
       <c r="U174">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X174">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA174">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC174">
         <v>-1</v>
@@ -16025,7 +16025,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6285537</v>
+        <v>6289124</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16037,73 +16037,73 @@
         <v>45126.79166666666</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175" t="s">
+        <v>50</v>
+      </c>
+      <c r="K175">
+        <v>2.25</v>
+      </c>
+      <c r="L175">
+        <v>2.875</v>
+      </c>
+      <c r="M175">
+        <v>3.2</v>
+      </c>
+      <c r="N175">
+        <v>2.25</v>
+      </c>
+      <c r="O175">
         <v>3</v>
       </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
-      <c r="J175" t="s">
-        <v>49</v>
-      </c>
-      <c r="K175">
-        <v>1.4</v>
-      </c>
-      <c r="L175">
-        <v>3.8</v>
-      </c>
-      <c r="M175">
-        <v>8</v>
-      </c>
-      <c r="N175">
-        <v>1.5</v>
-      </c>
-      <c r="O175">
-        <v>4.2</v>
-      </c>
       <c r="P175">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q175">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S175">
+        <v>1.925</v>
+      </c>
+      <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
         <v>1.95</v>
       </c>
-      <c r="T175">
-        <v>2.25</v>
-      </c>
-      <c r="U175">
-        <v>2.1</v>
-      </c>
-      <c r="V175">
-        <v>1.775</v>
-      </c>
       <c r="W175">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB175">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6281807</v>
+        <v>6281972</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L176">
         <v>2.875</v>
       </c>
       <c r="M176">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N176">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O176">
         <v>2.9</v>
       </c>
       <c r="P176">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA176">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC176">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6281972</v>
+        <v>6281807</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K179">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="L179">
         <v>2.875</v>
       </c>
       <c r="M179">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N179">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="O179">
         <v>2.9</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S179">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T179">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z179">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB179">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>41</v>
@@ -16648,7 +16648,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6285539</v>
+        <v>6285669</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16660,76 +16660,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F182" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K182">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="L182">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M182">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="N182">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O182">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P182">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q182">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
         <v>2</v>
       </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y182">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC182">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16737,7 +16737,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6285669</v>
+        <v>6285539</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16749,76 +16749,76 @@
         <v>45129.70833333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K183">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M183">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="N183">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O183">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P183">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q183">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T183">
         <v>2</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V183">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W183">
         <v>-1</v>
       </c>
       <c r="X183">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB183">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -17105,7 +17105,7 @@
         <v>45130.75</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G187" t="s">
         <v>48</v>
@@ -17553,7 +17553,7 @@
         <v>45</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17909,7 +17909,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18262,7 +18262,7 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
         <v>39</v>
@@ -18351,7 +18351,7 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
         <v>42</v>
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6281815</v>
+        <v>6282019</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,76 +18796,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K206">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L206">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M206">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N206">
+        <v>2.375</v>
+      </c>
+      <c r="O206">
+        <v>3.1</v>
+      </c>
+      <c r="P206">
+        <v>3.3</v>
+      </c>
+      <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
         <v>2.05</v>
       </c>
-      <c r="O206">
-        <v>3.25</v>
-      </c>
-      <c r="P206">
-        <v>4</v>
-      </c>
-      <c r="Q206">
-        <v>-0.5</v>
-      </c>
-      <c r="R206">
-        <v>2.025</v>
-      </c>
       <c r="S206">
+        <v>1.8</v>
+      </c>
+      <c r="T206">
+        <v>1.75</v>
+      </c>
+      <c r="U206">
         <v>1.775</v>
       </c>
-      <c r="T206">
-        <v>2</v>
-      </c>
-      <c r="U206">
-        <v>1.95</v>
-      </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X206">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA206">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6285544</v>
+        <v>6287040</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,76 +18885,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207">
         <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K207">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L207">
         <v>2.875</v>
       </c>
       <c r="M207">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N207">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O207">
         <v>2.875</v>
       </c>
       <c r="P207">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q207">
         <v>-0.25</v>
       </c>
       <c r="R207">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S207">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T207">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V207">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y207">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6282019</v>
+        <v>6281815</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,76 +18974,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K208">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="L208">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P208">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T208">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19051,7 +19051,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6287040</v>
+        <v>6285544</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19063,76 +19063,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K209">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L209">
         <v>2.875</v>
       </c>
       <c r="M209">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N209">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O209">
         <v>2.875</v>
       </c>
       <c r="P209">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q209">
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U209">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V209">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AB209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19152,10 +19152,10 @@
         <v>45142.89583333334</v>
       </c>
       <c r="F210" t="s">
+        <v>32</v>
+      </c>
+      <c r="G210" t="s">
         <v>33</v>
-      </c>
-      <c r="G210" t="s">
-        <v>32</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6281875</v>
+        <v>6281817</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45143.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
         <v>50</v>
       </c>
       <c r="K212">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L212">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M212">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N212">
+        <v>2.7</v>
+      </c>
+      <c r="O212">
+        <v>2.9</v>
+      </c>
+      <c r="P212">
+        <v>3.1</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>1.8</v>
+      </c>
+      <c r="S212">
+        <v>2.05</v>
+      </c>
+      <c r="T212">
         <v>1.75</v>
       </c>
-      <c r="O212">
-        <v>3.4</v>
-      </c>
-      <c r="P212">
-        <v>5</v>
-      </c>
-      <c r="Q212">
-        <v>-0.75</v>
-      </c>
-      <c r="R212">
-        <v>2</v>
-      </c>
-      <c r="S212">
-        <v>1.8</v>
-      </c>
-      <c r="T212">
-        <v>2</v>
-      </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA212">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC212">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6281817</v>
+        <v>6281875</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,76 +19419,76 @@
         <v>45143.70833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>50</v>
       </c>
       <c r="K213">
+        <v>1.95</v>
+      </c>
+      <c r="L213">
+        <v>3.2</v>
+      </c>
+      <c r="M213">
+        <v>3.5</v>
+      </c>
+      <c r="N213">
+        <v>1.75</v>
+      </c>
+      <c r="O213">
+        <v>3.4</v>
+      </c>
+      <c r="P213">
+        <v>5</v>
+      </c>
+      <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>1.8</v>
+      </c>
+      <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
+        <v>1.925</v>
+      </c>
+      <c r="V213">
+        <v>1.875</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
         <v>2.4</v>
       </c>
-      <c r="L213">
-        <v>2.9</v>
-      </c>
-      <c r="M213">
-        <v>2.8</v>
-      </c>
-      <c r="N213">
-        <v>2.7</v>
-      </c>
-      <c r="O213">
-        <v>2.9</v>
-      </c>
-      <c r="P213">
-        <v>3.1</v>
-      </c>
-      <c r="Q213">
-        <v>0</v>
-      </c>
-      <c r="R213">
-        <v>1.8</v>
-      </c>
-      <c r="S213">
-        <v>2.05</v>
-      </c>
-      <c r="T213">
-        <v>1.75</v>
-      </c>
-      <c r="U213">
-        <v>1.875</v>
-      </c>
-      <c r="V213">
-        <v>1.975</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>1.9</v>
-      </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA213">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB213">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19852,7 +19852,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6959080</v>
+        <v>6286301</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19864,58 +19864,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J218" t="s">
         <v>49</v>
       </c>
       <c r="K218">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L218">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M218">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="N218">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S218">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T218">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U218">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W218">
-        <v>0.7270000000000001</v>
+        <v>2</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19924,16 +19924,16 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.4875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA218">
+        <v>-1</v>
+      </c>
+      <c r="AB218">
+        <v>0.3875</v>
+      </c>
+      <c r="AC218">
         <v>-0.5</v>
-      </c>
-      <c r="AB218">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC218">
-        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6286301</v>
+        <v>6959080</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19953,58 +19953,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
         <v>49</v>
       </c>
       <c r="K219">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L219">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N219">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q219">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S219">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T219">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W219">
-        <v>2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20013,16 +20013,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.7250000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB219">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20045,7 +20045,7 @@
         <v>43</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20297,7 +20297,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6281876</v>
+        <v>6281975</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20309,52 +20309,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
         <v>50</v>
       </c>
       <c r="K223">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L223">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M223">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N223">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O223">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
         <v>2</v>
       </c>
       <c r="S223">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T223">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
         <v>1.9</v>
@@ -20363,22 +20363,22 @@
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA223">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC223">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6281975</v>
+        <v>6281876</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,52 +20398,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G224" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>50</v>
       </c>
       <c r="K224">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L224">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M224">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N224">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O224">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P224">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R224">
         <v>2</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U224">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V224">
         <v>1.9</v>
@@ -20452,22 +20452,22 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -21024,7 +21024,7 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21558,7 +21558,7 @@
         <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21822,7 +21822,7 @@
         <v>45160.79166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G240" t="s">
         <v>34</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6285951</v>
+        <v>6281823</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,61 +22356,61 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G246" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J246" t="s">
         <v>50</v>
       </c>
       <c r="K246">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L246">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N246">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O246">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P246">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q246">
         <v>-0.25</v>
       </c>
       <c r="R246">
+        <v>1.8</v>
+      </c>
+      <c r="S246">
+        <v>2</v>
+      </c>
+      <c r="T246">
+        <v>1.75</v>
+      </c>
+      <c r="U246">
         <v>1.9</v>
       </c>
-      <c r="S246">
+      <c r="V246">
         <v>1.9</v>
       </c>
-      <c r="T246">
-        <v>2</v>
-      </c>
-      <c r="U246">
+      <c r="W246">
+        <v>-1</v>
+      </c>
+      <c r="X246">
         <v>1.75</v>
-      </c>
-      <c r="V246">
-        <v>2.05</v>
-      </c>
-      <c r="W246">
-        <v>-1</v>
-      </c>
-      <c r="X246">
-        <v>2.1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22419,13 +22419,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA246">
+        <v>0.5</v>
+      </c>
+      <c r="AB246">
         <v>0.45</v>
       </c>
-      <c r="AB246">
-        <v>0.75</v>
-      </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6281823</v>
+        <v>6285951</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,61 +22445,61 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F247" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
         <v>50</v>
       </c>
       <c r="K247">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L247">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O247">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P247">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
         <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T247">
+        <v>2</v>
+      </c>
+      <c r="U247">
         <v>1.75</v>
       </c>
-      <c r="U247">
-        <v>1.9</v>
-      </c>
       <c r="V247">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22508,13 +22508,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB247">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AC247">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -23071,7 +23071,7 @@
         <v>37</v>
       </c>
       <c r="G254" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>46</v>
       </c>
       <c r="G258" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H258">
         <v>1</v>
@@ -24139,7 +24139,7 @@
         <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -24225,7 +24225,7 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F267" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G267" t="s">
         <v>39</v>
@@ -24940,7 +24940,7 @@
         <v>35</v>
       </c>
       <c r="G275" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H275">
         <v>2</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6330569</v>
+        <v>6285765</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,13 +25026,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G276" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -25041,43 +25041,43 @@
         <v>49</v>
       </c>
       <c r="K276">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L276">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M276">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N276">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="O276">
         <v>2.9</v>
       </c>
       <c r="P276">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q276">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R276">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S276">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T276">
         <v>1.75</v>
       </c>
       <c r="U276">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V276">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W276">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25086,16 +25086,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6285765</v>
+        <v>6330569</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,13 +25115,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25130,43 +25130,43 @@
         <v>49</v>
       </c>
       <c r="K277">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L277">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M277">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N277">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O277">
         <v>2.9</v>
       </c>
       <c r="P277">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q277">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R277">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S277">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T277">
         <v>1.75</v>
       </c>
       <c r="U277">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V277">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W277">
-        <v>2.3</v>
+        <v>1.05</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25175,16 +25175,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC277">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25560,7 +25560,7 @@
         <v>45188.89583333334</v>
       </c>
       <c r="F282" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G282" t="s">
         <v>31</v>
@@ -25652,7 +25652,7 @@
         <v>40</v>
       </c>
       <c r="G283" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -25726,7 +25726,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6285766</v>
+        <v>6343950</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25738,76 +25738,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F284" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G284" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+      <c r="J284" t="s">
+        <v>51</v>
+      </c>
+      <c r="K284">
+        <v>2.5</v>
+      </c>
+      <c r="L284">
+        <v>2.9</v>
+      </c>
+      <c r="M284">
+        <v>2.9</v>
+      </c>
+      <c r="N284">
+        <v>2.3</v>
+      </c>
+      <c r="O284">
         <v>3</v>
       </c>
-      <c r="I284">
-        <v>1</v>
-      </c>
-      <c r="J284" t="s">
-        <v>49</v>
-      </c>
-      <c r="K284">
-        <v>1.909</v>
-      </c>
-      <c r="L284">
-        <v>3.1</v>
-      </c>
-      <c r="M284">
-        <v>4</v>
-      </c>
-      <c r="N284">
-        <v>1.909</v>
-      </c>
-      <c r="O284">
-        <v>3.25</v>
-      </c>
       <c r="P284">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q284">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S284">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T284">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U284">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V284">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W284">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z284">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB284">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25815,7 +25815,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6343950</v>
+        <v>6285766</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25827,76 +25827,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F285" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G285" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K285">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L285">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M285">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N285">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O285">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P285">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q285">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R285">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S285">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T285">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U285">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V285">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA285">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC285">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25904,7 +25904,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>6355831</v>
+        <v>6326524</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25916,76 +25916,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F286" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G286" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H286">
         <v>1</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K286">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L286">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M286">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="N286">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O286">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P286">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q286">
         <v>-0.25</v>
       </c>
       <c r="R286">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S286">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T286">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U286">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V286">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W286">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X286">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
         <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA286">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC286">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25993,7 +25993,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>6326524</v>
+        <v>6355831</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26005,76 +26005,76 @@
         <v>45192.70833333334</v>
       </c>
       <c r="F287" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G287" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H287">
         <v>1</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K287">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L287">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M287">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="N287">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O287">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P287">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q287">
         <v>-0.25</v>
       </c>
       <c r="R287">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S287">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T287">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U287">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V287">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W287">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC287">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26450,7 +26450,7 @@
         <v>45197.79166666666</v>
       </c>
       <c r="F292" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G292" t="s">
         <v>47</v>
@@ -26542,7 +26542,7 @@
         <v>36</v>
       </c>
       <c r="G293" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -27340,7 +27340,7 @@
         <v>45202.8125</v>
       </c>
       <c r="F302" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G302" t="s">
         <v>36</v>
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6537870</v>
+        <v>6571262</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27518,13 +27518,13 @@
         <v>45205.89583333334</v>
       </c>
       <c r="F304" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G304" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304">
         <v>0</v>
@@ -27533,43 +27533,43 @@
         <v>49</v>
       </c>
       <c r="K304">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L304">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M304">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="N304">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O304">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P304">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q304">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R304">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S304">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U304">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V304">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W304">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X304">
         <v>-1</v>
@@ -27578,16 +27578,16 @@
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA304">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC304">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27595,7 +27595,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6571262</v>
+        <v>6537870</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27607,13 +27607,13 @@
         <v>45205.89583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G305" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305">
         <v>0</v>
@@ -27622,61 +27622,61 @@
         <v>49</v>
       </c>
       <c r="K305">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L305">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M305">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="N305">
+        <v>1.65</v>
+      </c>
+      <c r="O305">
+        <v>3.6</v>
+      </c>
+      <c r="P305">
+        <v>5.75</v>
+      </c>
+      <c r="Q305">
+        <v>-0.75</v>
+      </c>
+      <c r="R305">
+        <v>1.8</v>
+      </c>
+      <c r="S305">
+        <v>2.05</v>
+      </c>
+      <c r="T305">
+        <v>2.25</v>
+      </c>
+      <c r="U305">
+        <v>1.9</v>
+      </c>
+      <c r="V305">
         <v>1.95</v>
       </c>
-      <c r="O305">
-        <v>3.25</v>
-      </c>
-      <c r="P305">
-        <v>4.333</v>
-      </c>
-      <c r="Q305">
+      <c r="W305">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X305">
+        <v>-1</v>
+      </c>
+      <c r="Y305">
+        <v>-1</v>
+      </c>
+      <c r="Z305">
+        <v>0.4</v>
+      </c>
+      <c r="AA305">
         <v>-0.5</v>
       </c>
-      <c r="R305">
-        <v>1.925</v>
-      </c>
-      <c r="S305">
-        <v>1.875</v>
-      </c>
-      <c r="T305">
-        <v>2</v>
-      </c>
-      <c r="U305">
-        <v>1.775</v>
-      </c>
-      <c r="V305">
-        <v>2.025</v>
-      </c>
-      <c r="W305">
+      <c r="AB305">
+        <v>-1</v>
+      </c>
+      <c r="AC305">
         <v>0.95</v>
-      </c>
-      <c r="X305">
-        <v>-1</v>
-      </c>
-      <c r="Y305">
-        <v>-1</v>
-      </c>
-      <c r="Z305">
-        <v>0.925</v>
-      </c>
-      <c r="AA305">
-        <v>-1</v>
-      </c>
-      <c r="AB305">
-        <v>0</v>
-      </c>
-      <c r="AC305">
-        <v>-0</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27874,7 +27874,7 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G308" t="s">
         <v>43</v>
@@ -28233,7 +28233,7 @@
         <v>46</v>
       </c>
       <c r="G312" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -28678,7 +28678,7 @@
         <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -29298,7 +29298,7 @@
         <v>45219.79166666666</v>
       </c>
       <c r="F324" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G324" t="s">
         <v>37</v>
@@ -29387,7 +29387,7 @@
         <v>45219.89583333334</v>
       </c>
       <c r="F325" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G325" t="s">
         <v>29</v>
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6602792</v>
+        <v>6602793</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F334" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G334" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K334">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L334">
         <v>3.6</v>
       </c>
       <c r="M334">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N334">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O334">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P334">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q334">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R334">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S334">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T334">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U334">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V334">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W334">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z334">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA334">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC334">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30265,7 +30265,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6602793</v>
+        <v>6602792</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30277,76 +30277,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F335" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G335" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K335">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L335">
         <v>3.6</v>
       </c>
       <c r="M335">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="N335">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O335">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P335">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q335">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R335">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S335">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T335">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U335">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V335">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W335">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z335">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA335">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB335">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC335">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30354,7 +30354,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6607583</v>
+        <v>6598119</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30366,76 +30366,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F336" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G336" t="s">
         <v>33</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I336">
         <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K336">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L336">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M336">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N336">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O336">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P336">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q336">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R336">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S336">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T336">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U336">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V336">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W336">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X336">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="AA336">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB336">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC336">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30443,7 +30443,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6598119</v>
+        <v>6607583</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30455,76 +30455,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F337" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G337" t="s">
         <v>32</v>
       </c>
       <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337" t="s">
+        <v>50</v>
+      </c>
+      <c r="K337">
         <v>3</v>
       </c>
-      <c r="I337">
-        <v>0</v>
-      </c>
-      <c r="J337" t="s">
-        <v>49</v>
-      </c>
-      <c r="K337">
-        <v>1.8</v>
-      </c>
       <c r="L337">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M337">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N337">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O337">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P337">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q337">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R337">
+        <v>1.875</v>
+      </c>
+      <c r="S337">
+        <v>1.975</v>
+      </c>
+      <c r="T337">
         <v>1.75</v>
       </c>
-      <c r="S337">
-        <v>2.05</v>
-      </c>
-      <c r="T337">
-        <v>2.25</v>
-      </c>
       <c r="U337">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V337">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W337">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AA337">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB337">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC337">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -30989,7 +30989,7 @@
         <v>45233.79166666666</v>
       </c>
       <c r="F343" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G343" t="s">
         <v>48</v>
@@ -31244,7 +31244,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>6619374</v>
+        <v>6615398</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31256,76 +31256,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F346" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G346" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J346" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K346">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L346">
         <v>3</v>
       </c>
       <c r="M346">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N346">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O346">
         <v>3.1</v>
       </c>
       <c r="P346">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q346">
         <v>-0.25</v>
       </c>
       <c r="R346">
+        <v>1.9</v>
+      </c>
+      <c r="S346">
+        <v>1.95</v>
+      </c>
+      <c r="T346">
+        <v>2</v>
+      </c>
+      <c r="U346">
+        <v>2.025</v>
+      </c>
+      <c r="V346">
+        <v>1.825</v>
+      </c>
+      <c r="W346">
+        <v>-1</v>
+      </c>
+      <c r="X346">
         <v>2.1</v>
       </c>
-      <c r="S346">
-        <v>1.775</v>
-      </c>
-      <c r="T346">
-        <v>2</v>
-      </c>
-      <c r="U346">
-        <v>2.05</v>
-      </c>
-      <c r="V346">
-        <v>1.8</v>
-      </c>
-      <c r="W346">
-        <v>-1</v>
-      </c>
-      <c r="X346">
-        <v>-1</v>
-      </c>
       <c r="Y346">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA346">
-        <v>0.7749999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC346">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31333,7 +31333,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>6615398</v>
+        <v>6619374</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31345,76 +31345,76 @@
         <v>45234.70833333334</v>
       </c>
       <c r="F347" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G347" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K347">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L347">
         <v>3</v>
       </c>
       <c r="M347">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N347">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O347">
         <v>3.1</v>
       </c>
       <c r="P347">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q347">
         <v>-0.25</v>
       </c>
       <c r="R347">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S347">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T347">
         <v>2</v>
       </c>
       <c r="U347">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V347">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W347">
         <v>-1</v>
       </c>
       <c r="X347">
+        <v>-1</v>
+      </c>
+      <c r="Y347">
         <v>2.1</v>
       </c>
-      <c r="Y347">
-        <v>-1</v>
-      </c>
       <c r="Z347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB347">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31434,7 +31434,7 @@
         <v>45234.8125</v>
       </c>
       <c r="F348" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G348" t="s">
         <v>41</v>
@@ -31971,7 +31971,7 @@
         <v>30</v>
       </c>
       <c r="G354" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H354">
         <v>2</v>
@@ -32045,7 +32045,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6645236</v>
+        <v>6645237</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32057,40 +32057,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G355" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K355">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L355">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M355">
         <v>3.4</v>
       </c>
       <c r="N355">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O355">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P355">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q355">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R355">
         <v>1.775</v>
@@ -32099,34 +32099,34 @@
         <v>2.025</v>
       </c>
       <c r="T355">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V355">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W355">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X355">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA355">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB355">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC355">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32134,7 +32134,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6645237</v>
+        <v>6645236</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32146,40 +32146,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G356" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K356">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L356">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M356">
         <v>3.4</v>
       </c>
       <c r="N356">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O356">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P356">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q356">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R356">
         <v>1.775</v>
@@ -32188,34 +32188,34 @@
         <v>2.025</v>
       </c>
       <c r="T356">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U356">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V356">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W356">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA356">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB356">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC356">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32327,7 +32327,7 @@
         <v>44</v>
       </c>
       <c r="G358" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H358">
         <v>2</v>
@@ -32846,7 +32846,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6673199</v>
+        <v>6680024</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32858,13 +32858,13 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G364" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H364">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I364">
         <v>1</v>
@@ -32873,43 +32873,43 @@
         <v>49</v>
       </c>
       <c r="K364">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L364">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M364">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N364">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O364">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P364">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q364">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R364">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S364">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T364">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U364">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V364">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W364">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32918,13 +32918,13 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA364">
         <v>-1</v>
       </c>
       <c r="AB364">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC364">
         <v>-1</v>
@@ -33024,7 +33024,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6680024</v>
+        <v>6679229</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33036,40 +33036,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G366" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H366">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K366">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="L366">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M366">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N366">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O366">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P366">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q366">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R366">
         <v>2.05</v>
@@ -33078,34 +33078,34 @@
         <v>1.8</v>
       </c>
       <c r="T366">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U366">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V366">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W366">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X366">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA366">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB366">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC366">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33113,7 +33113,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6679229</v>
+        <v>6673199</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33125,76 +33125,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G367" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J367" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K367">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L367">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M367">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N367">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O367">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P367">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q367">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R367">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S367">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T367">
         <v>2</v>
       </c>
       <c r="U367">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V367">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W367">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X367">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y367">
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA367">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC367">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33481,7 +33481,7 @@
         <v>45250.83333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G371" t="s">
         <v>42</v>
@@ -33558,7 +33558,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6693367</v>
+        <v>6689428</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33570,76 +33570,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G372" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H372">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I372">
         <v>1</v>
       </c>
       <c r="J372" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K372">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="L372">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M372">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N372">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O372">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P372">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q372">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R372">
+        <v>1.825</v>
+      </c>
+      <c r="S372">
         <v>1.975</v>
       </c>
-      <c r="S372">
-        <v>1.825</v>
-      </c>
       <c r="T372">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V372">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W372">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z372">
+        <v>-1</v>
+      </c>
+      <c r="AA372">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA372">
-        <v>-1</v>
-      </c>
       <c r="AB372">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33647,7 +33647,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6693030</v>
+        <v>6693029</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,73 +33659,73 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G373" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I373">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J373" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K373">
-        <v>3.25</v>
+        <v>1.45</v>
       </c>
       <c r="L373">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M373">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N373">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="O373">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="P373">
-        <v>2.3</v>
+        <v>10</v>
       </c>
       <c r="Q373">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R373">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S373">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T373">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U373">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V373">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W373">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA373">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC373">
         <v>-1</v>
@@ -33736,7 +33736,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6693031</v>
+        <v>6689425</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33748,58 +33748,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G374" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H374">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J374" t="s">
         <v>49</v>
       </c>
       <c r="K374">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L374">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M374">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="N374">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="O374">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P374">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q374">
         <v>-1</v>
       </c>
       <c r="R374">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S374">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T374">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U374">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V374">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W374">
-        <v>0.615</v>
+        <v>0.45</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33808,16 +33808,16 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA374">
         <v>-1</v>
       </c>
       <c r="AB374">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33825,7 +33825,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6689350</v>
+        <v>6689427</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33837,76 +33837,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G375" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H375">
         <v>0</v>
       </c>
       <c r="I375">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J375" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K375">
+        <v>1.95</v>
+      </c>
+      <c r="L375">
+        <v>3.1</v>
+      </c>
+      <c r="M375">
+        <v>4.2</v>
+      </c>
+      <c r="N375">
+        <v>2.4</v>
+      </c>
+      <c r="O375">
         <v>3.2</v>
       </c>
-      <c r="L375">
-        <v>3</v>
-      </c>
-      <c r="M375">
+      <c r="P375">
+        <v>3.2</v>
+      </c>
+      <c r="Q375">
+        <v>-0.25</v>
+      </c>
+      <c r="R375">
+        <v>2.05</v>
+      </c>
+      <c r="S375">
+        <v>1.75</v>
+      </c>
+      <c r="T375">
         <v>2.25</v>
       </c>
-      <c r="N375">
-        <v>3</v>
-      </c>
-      <c r="O375">
-        <v>3.25</v>
-      </c>
-      <c r="P375">
-        <v>2.3</v>
-      </c>
-      <c r="Q375">
-        <v>0.25</v>
-      </c>
-      <c r="R375">
-        <v>1.775</v>
-      </c>
-      <c r="S375">
-        <v>2.025</v>
-      </c>
-      <c r="T375">
-        <v>2.5</v>
-      </c>
       <c r="U375">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V375">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W375">
         <v>-1</v>
       </c>
       <c r="X375">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y375">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA375">
-        <v>1.025</v>
+        <v>0.375</v>
       </c>
       <c r="AB375">
         <v>-1</v>
       </c>
       <c r="AC375">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33914,7 +33914,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6693029</v>
+        <v>6693367</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33926,58 +33926,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G376" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H376">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I376">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J376" t="s">
         <v>49</v>
       </c>
       <c r="K376">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="L376">
         <v>4</v>
       </c>
       <c r="M376">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N376">
-        <v>1.333</v>
+        <v>1.533</v>
       </c>
       <c r="O376">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="P376">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q376">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R376">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S376">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T376">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U376">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V376">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W376">
-        <v>0.333</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -33986,13 +33986,13 @@
         <v>-1</v>
       </c>
       <c r="Z376">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA376">
         <v>-1</v>
       </c>
       <c r="AB376">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC376">
         <v>-1</v>
@@ -34003,7 +34003,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6693028</v>
+        <v>6689350</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34015,76 +34015,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G377" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H377">
+        <v>0</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377" t="s">
+        <v>51</v>
+      </c>
+      <c r="K377">
+        <v>3.2</v>
+      </c>
+      <c r="L377">
         <v>3</v>
       </c>
-      <c r="I377">
-        <v>0</v>
-      </c>
-      <c r="J377" t="s">
-        <v>49</v>
-      </c>
-      <c r="K377">
-        <v>1.727</v>
-      </c>
-      <c r="L377">
-        <v>3.5</v>
-      </c>
       <c r="M377">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="N377">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O377">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P377">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q377">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R377">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S377">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T377">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U377">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V377">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W377">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z377">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB377">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC377">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34092,7 +34092,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6689427</v>
+        <v>6693028</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34104,76 +34104,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F378" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G378" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I378">
         <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K378">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L378">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M378">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N378">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O378">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P378">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="Q378">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R378">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S378">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T378">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U378">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V378">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X378">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA378">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC378">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34181,7 +34181,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6689425</v>
+        <v>6693030</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,76 +34193,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F379" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G379" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J379" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K379">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L379">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M379">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="N379">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="O379">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P379">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q379">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R379">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S379">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T379">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U379">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V379">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W379">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z379">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB379">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC379">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380" spans="1:29">
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6689428</v>
+        <v>6693031</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34282,76 +34282,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G380" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I380">
         <v>1</v>
       </c>
       <c r="J380" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K380">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L380">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M380">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N380">
         <v>1.615</v>
       </c>
       <c r="O380">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P380">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q380">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R380">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S380">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T380">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U380">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V380">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W380">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X380">
         <v>-1</v>
       </c>
       <c r="Y380">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z380">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA380">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB380">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC380">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381" spans="1:29">

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6286296</v>
+        <v>6286544</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,13 +2242,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2257,61 +2257,61 @@
         <v>49</v>
       </c>
       <c r="K20">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N20">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O20">
         <v>3.4</v>
       </c>
       <c r="P20">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q20">
+        <v>-0.75</v>
+      </c>
+      <c r="R20">
+        <v>1.95</v>
+      </c>
+      <c r="S20">
+        <v>1.85</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>1.8</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>0.7</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>0.475</v>
+      </c>
+      <c r="AA20">
         <v>-0.5</v>
       </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>2.05</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>2.025</v>
-      </c>
-      <c r="V20">
-        <v>1.825</v>
-      </c>
-      <c r="W20">
-        <v>0.833</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>0.8</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6286544</v>
+        <v>6286296</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,13 +2331,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2346,43 +2346,43 @@
         <v>49</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L21">
+        <v>3.1</v>
+      </c>
+      <c r="M21">
         <v>3.2</v>
       </c>
-      <c r="M21">
-        <v>3.75</v>
-      </c>
       <c r="N21">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W21">
-        <v>0.7</v>
+        <v>0.833</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2391,16 +2391,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA21">
+        <v>-1</v>
+      </c>
+      <c r="AB21">
         <v>-0.5</v>
       </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6285514</v>
+        <v>6281767</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,43 +2598,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L24">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
         <v>3.3</v>
       </c>
       <c r="N24">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S24">
         <v>1.85</v>
@@ -2643,25 +2643,25 @@
         <v>2</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
         <v>1.925</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6281767</v>
+        <v>6285514</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,43 +2687,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M25">
         <v>3.3</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
         <v>1.85</v>
@@ -2732,25 +2732,25 @@
         <v>2</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
         <v>1.925</v>
       </c>
       <c r="W25">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6281960</v>
+        <v>6281768</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45048.79166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
         <v>3.1</v>
       </c>
-      <c r="M31">
-        <v>3.3</v>
-      </c>
       <c r="N31">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.95</v>
+      </c>
+      <c r="S31">
         <v>1.85</v>
       </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X31">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6281768</v>
+        <v>6281960</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45048.79166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N32">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O32">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6281769</v>
+        <v>6281770</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,13 +3488,13 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3503,19 +3503,19 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
         <v>3.1</v>
       </c>
       <c r="M34">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N34">
         <v>2.3</v>
       </c>
       <c r="O34">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P34">
         <v>3.4</v>
@@ -3524,19 +3524,19 @@
         <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
         <v>2.025</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W34">
         <v>1.3</v>
@@ -3548,16 +3548,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6281770</v>
+        <v>6281769</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3666,13 +3666,13 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3681,19 +3681,19 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L36">
         <v>3.1</v>
       </c>
       <c r="M36">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N36">
         <v>2.3</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P36">
         <v>3.4</v>
@@ -3702,19 +3702,19 @@
         <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U36">
         <v>2.025</v>
       </c>
       <c r="V36">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
         <v>1.3</v>
@@ -3726,16 +3726,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC36">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6281961</v>
+        <v>6285943</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,34 +4022,34 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K40">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L40">
         <v>3</v>
       </c>
       <c r="M40">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N40">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P40">
         <v>4</v>
@@ -4058,40 +4058,40 @@
         <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4099,7 +4099,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6285943</v>
+        <v>6289138</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4111,76 +4111,76 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N41">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P41">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q41">
         <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S41">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y41">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
         <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6289138</v>
+        <v>6281961</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,37 +4200,37 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M42">
+        <v>2.8</v>
+      </c>
+      <c r="N42">
+        <v>1.95</v>
+      </c>
+      <c r="O42">
         <v>3.4</v>
       </c>
-      <c r="N42">
-        <v>1.909</v>
-      </c>
-      <c r="O42">
-        <v>3.3</v>
-      </c>
       <c r="P42">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q42">
         <v>-0.5</v>
@@ -4242,34 +4242,34 @@
         <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X42">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6285744</v>
+        <v>6631893</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,16 +5535,16 @@
         <v>45060.75</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>51</v>
@@ -5553,38 +5553,38 @@
         <v>2.2</v>
       </c>
       <c r="L57">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
+        <v>1.775</v>
+      </c>
+      <c r="S57">
+        <v>2.025</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
         <v>1.925</v>
       </c>
-      <c r="S57">
+      <c r="V57">
         <v>1.875</v>
       </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
-      <c r="U57">
-        <v>1.85</v>
-      </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
         <v>-1</v>
       </c>
@@ -5592,16 +5592,16 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB57">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6631893</v>
+        <v>6285744</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,16 +5624,16 @@
         <v>45060.75</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>51</v>
@@ -5642,37 +5642,37 @@
         <v>2.2</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M58">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5681,16 +5681,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6281778</v>
+        <v>6281962</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,76 +6158,76 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L64">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N64">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA64">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6281962</v>
+        <v>6281778</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,76 +6247,76 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K65">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N65">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P65">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6286297</v>
+        <v>6282095</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,76 +6959,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H73">
         <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K73">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M73">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73">
+        <v>3.1</v>
+      </c>
+      <c r="P73">
+        <v>2.6</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>2.05</v>
+      </c>
+      <c r="S73">
         <v>1.75</v>
       </c>
-      <c r="O73">
-        <v>3.4</v>
-      </c>
-      <c r="P73">
-        <v>5.5</v>
-      </c>
-      <c r="Q73">
-        <v>-0.75</v>
-      </c>
-      <c r="R73">
-        <v>2</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
-      </c>
       <c r="T73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V73">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>1.6</v>
+      </c>
+      <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
         <v>0.75</v>
       </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0.5</v>
-      </c>
-      <c r="AA73">
-        <v>-0.5</v>
-      </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6282095</v>
+        <v>6281781</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="L74">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="O74">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P74">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA74">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6281781</v>
+        <v>6282008</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,13 +7137,13 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7152,43 +7152,43 @@
         <v>49</v>
       </c>
       <c r="K75">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="L75">
         <v>3.1</v>
       </c>
       <c r="M75">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="N75">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O75">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P75">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7197,16 +7197,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6282008</v>
+        <v>6286297</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,13 +7226,13 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7241,43 +7241,43 @@
         <v>49</v>
       </c>
       <c r="K76">
-        <v>2.55</v>
+        <v>1.727</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O76">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="X76">
         <v>-1</v>
@@ -7286,16 +7286,16 @@
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6289134</v>
+        <v>6282096</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q85">
         <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6282096</v>
+        <v>6289134</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,76 +8116,76 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K86">
+        <v>2.15</v>
+      </c>
+      <c r="L86">
+        <v>3.1</v>
+      </c>
+      <c r="M86">
+        <v>3.2</v>
+      </c>
+      <c r="N86">
         <v>1.95</v>
       </c>
-      <c r="L86">
+      <c r="O86">
         <v>3.25</v>
       </c>
-      <c r="M86">
-        <v>3.6</v>
-      </c>
-      <c r="N86">
-        <v>2</v>
-      </c>
-      <c r="O86">
-        <v>3.3</v>
-      </c>
       <c r="P86">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q86">
         <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA86">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6281786</v>
+        <v>6282097</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45079.79166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O90">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T90">
         <v>2.25</v>
       </c>
       <c r="U90">
+        <v>1.85</v>
+      </c>
+      <c r="V90">
         <v>1.95</v>
       </c>
-      <c r="V90">
-        <v>1.85</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X90">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6282097</v>
+        <v>6281786</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,76 +8561,76 @@
         <v>45079.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>3.2</v>
+      </c>
+      <c r="M91">
+        <v>4</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <v>3.3</v>
+      </c>
+      <c r="P91">
+        <v>3.8</v>
+      </c>
+      <c r="Q91">
+        <v>-0.5</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
         <v>1.8</v>
-      </c>
-      <c r="L91">
-        <v>3.5</v>
-      </c>
-      <c r="M91">
-        <v>4.5</v>
-      </c>
-      <c r="N91">
-        <v>1.571</v>
-      </c>
-      <c r="O91">
-        <v>3.8</v>
-      </c>
-      <c r="P91">
-        <v>6</v>
-      </c>
-      <c r="Q91">
-        <v>-0.75</v>
-      </c>
-      <c r="R91">
-        <v>1.75</v>
-      </c>
-      <c r="S91">
-        <v>2.05</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
+        <v>1.95</v>
+      </c>
+      <c r="V91">
         <v>1.85</v>
       </c>
-      <c r="V91">
-        <v>1.95</v>
-      </c>
       <c r="W91">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6285747</v>
+        <v>6281787</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,10 +8650,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8665,43 +8665,43 @@
         <v>49</v>
       </c>
       <c r="K92">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L92">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O92">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8710,13 +8710,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6281787</v>
+        <v>6285747</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,10 +8739,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8754,43 +8754,43 @@
         <v>49</v>
       </c>
       <c r="K93">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M93">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P93">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
       </c>
       <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
         <v>1.8</v>
       </c>
-      <c r="S93">
-        <v>2</v>
-      </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8799,13 +8799,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6289133</v>
+        <v>6285524</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,40 +8917,40 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K95">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N95">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P95">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
         <v>1.975</v>
@@ -8959,34 +8959,34 @@
         <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W95">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z95">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6285524</v>
+        <v>6289133</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,40 +9006,40 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M96">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N96">
+        <v>1.727</v>
+      </c>
+      <c r="O96">
         <v>3.6</v>
       </c>
-      <c r="O96">
-        <v>3.1</v>
-      </c>
       <c r="P96">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
         <v>1.975</v>
@@ -9048,34 +9048,34 @@
         <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA96">
+        <v>-0.5</v>
+      </c>
+      <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.825</v>
-      </c>
-      <c r="AB96">
-        <v>-1</v>
-      </c>
-      <c r="AC96">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6281788</v>
+        <v>6282098</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,55 +9629,55 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
         <v>3.2</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9686,19 +9686,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6282098</v>
+        <v>6281788</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,56 +9718,56 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>51</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M104">
         <v>3.2</v>
       </c>
       <c r="N104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
+        <v>1.925</v>
+      </c>
+      <c r="V104">
         <v>1.875</v>
       </c>
-      <c r="S104">
-        <v>1.975</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
@@ -9775,19 +9775,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6285526</v>
+        <v>6281966</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,58 +9807,58 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>49</v>
       </c>
       <c r="K105">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L105">
+        <v>3.2</v>
+      </c>
+      <c r="M105">
+        <v>3.75</v>
+      </c>
+      <c r="N105">
+        <v>1.8</v>
+      </c>
+      <c r="O105">
         <v>3.5</v>
       </c>
-      <c r="M105">
-        <v>6</v>
-      </c>
-      <c r="N105">
-        <v>1.4</v>
-      </c>
-      <c r="O105">
+      <c r="P105">
         <v>4.75</v>
       </c>
-      <c r="P105">
-        <v>7.5</v>
-      </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
+        <v>1.775</v>
+      </c>
+      <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
+        <v>2.25</v>
+      </c>
+      <c r="U105">
         <v>1.925</v>
-      </c>
-      <c r="S105">
-        <v>1.925</v>
-      </c>
-      <c r="T105">
-        <v>2.5</v>
-      </c>
-      <c r="U105">
-        <v>1.975</v>
       </c>
       <c r="V105">
         <v>1.875</v>
       </c>
       <c r="W105">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,16 +9867,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
         <v>-0.5</v>
       </c>
-      <c r="AA105">
-        <v>0.4625</v>
-      </c>
-      <c r="AB105">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6281966</v>
+        <v>6281789</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,13 +9896,13 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9911,43 +9911,43 @@
         <v>49</v>
       </c>
       <c r="K106">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L106">
         <v>3.2</v>
       </c>
       <c r="M106">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O106">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9956,16 +9956,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6281789</v>
+        <v>6285526</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,58 +9985,58 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
         <v>1</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>49</v>
       </c>
       <c r="K107">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N107">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P107">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2.5</v>
+      </c>
+      <c r="U107">
         <v>1.975</v>
       </c>
-      <c r="S107">
+      <c r="V107">
         <v>1.875</v>
       </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
-      <c r="U107">
-        <v>1.85</v>
-      </c>
-      <c r="V107">
-        <v>2</v>
-      </c>
       <c r="W107">
-        <v>0.7270000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10045,16 +10045,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC107">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6289131</v>
+        <v>6285527</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,34 +10697,34 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K115">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N115">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O115">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P115">
         <v>2.2</v>
@@ -10736,13 +10736,13 @@
         <v>1.975</v>
       </c>
       <c r="S115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
         <v>2.05</v>
@@ -10751,22 +10751,22 @@
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y115">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA115">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB115">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6285527</v>
+        <v>6289131</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,34 +10786,34 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K116">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M116">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N116">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O116">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P116">
         <v>2.2</v>
@@ -10825,13 +10825,13 @@
         <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V116">
         <v>2.05</v>
@@ -10840,22 +10840,22 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z116">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6281797</v>
+        <v>6281969</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N137">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O137">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P137">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6289129</v>
+        <v>6281797</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K138">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L138">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N138">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O138">
         <v>3.1</v>
       </c>
       <c r="P138">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6281969</v>
+        <v>6289129</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,10 +12922,10 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12937,43 +12937,43 @@
         <v>49</v>
       </c>
       <c r="K140">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N140">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R140">
         <v>1.975</v>
       </c>
       <c r="S140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W140">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12982,13 +12982,13 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6285667</v>
+        <v>6281970</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,10 +13189,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13204,37 +13204,37 @@
         <v>51</v>
       </c>
       <c r="K143">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L143">
+        <v>2.9</v>
+      </c>
+      <c r="M143">
         <v>3</v>
       </c>
-      <c r="M143">
-        <v>4.333</v>
-      </c>
       <c r="N143">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
         <v>3</v>
       </c>
       <c r="P143">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>1.775</v>
+      </c>
+      <c r="S143">
+        <v>2.025</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>1.975</v>
-      </c>
-      <c r="S143">
-        <v>1.875</v>
-      </c>
-      <c r="T143">
-        <v>2</v>
-      </c>
-      <c r="U143">
-        <v>2.025</v>
       </c>
       <c r="V143">
         <v>1.825</v>
@@ -13246,13 +13246,13 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB143">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6281970</v>
+        <v>6285667</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,10 +13278,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13293,37 +13293,37 @@
         <v>51</v>
       </c>
       <c r="K144">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L144">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O144">
         <v>3</v>
       </c>
       <c r="P144">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
+        <v>1.875</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
         <v>2.025</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
-      <c r="U144">
-        <v>1.975</v>
       </c>
       <c r="V144">
         <v>1.825</v>
@@ -13335,13 +13335,13 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB144">
         <v>0</v>
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6859917</v>
+        <v>6285532</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,76 +14346,76 @@
         <v>45115.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K156">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L156">
+        <v>2.875</v>
+      </c>
+      <c r="M156">
+        <v>3.6</v>
+      </c>
+      <c r="N156">
+        <v>2.1</v>
+      </c>
+      <c r="O156">
         <v>3</v>
       </c>
-      <c r="M156">
-        <v>2.9</v>
-      </c>
-      <c r="N156">
-        <v>2.8</v>
-      </c>
-      <c r="O156">
-        <v>3.1</v>
-      </c>
       <c r="P156">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
+        <v>1.8</v>
+      </c>
+      <c r="S156">
+        <v>2.05</v>
+      </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
+      <c r="U156">
         <v>1.95</v>
       </c>
-      <c r="S156">
+      <c r="V156">
         <v>1.9</v>
       </c>
-      <c r="T156">
-        <v>2</v>
-      </c>
-      <c r="U156">
-        <v>1.85</v>
-      </c>
-      <c r="V156">
-        <v>2</v>
-      </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6285532</v>
+        <v>6859917</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45115.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K157">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L157">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N157">
+        <v>2.8</v>
+      </c>
+      <c r="O157">
+        <v>3.1</v>
+      </c>
+      <c r="P157">
+        <v>2.7</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>1.9</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
+        <v>1.85</v>
+      </c>
+      <c r="V157">
+        <v>2</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>2.1</v>
       </c>
-      <c r="O157">
-        <v>3</v>
-      </c>
-      <c r="P157">
-        <v>4.2</v>
-      </c>
-      <c r="Q157">
-        <v>-0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.8</v>
-      </c>
-      <c r="S157">
-        <v>2.05</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.95</v>
-      </c>
-      <c r="V157">
-        <v>1.9</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>-1</v>
-      </c>
       <c r="Y157">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC157">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6281972</v>
+        <v>6282102</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,13 +16126,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16141,43 +16141,43 @@
         <v>49</v>
       </c>
       <c r="K176">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L176">
         <v>2.875</v>
       </c>
       <c r="M176">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N176">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O176">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P176">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S176">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="T176">
         <v>1.75</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16186,16 +16186,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6282102</v>
+        <v>6285538</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,76 +16215,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K177">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L177">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N177">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O177">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P177">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>2.2</v>
+        <v>1.875</v>
       </c>
       <c r="T177">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z177">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC177">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6285538</v>
+        <v>6281807</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,55 +16304,55 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
         <v>1</v>
-      </c>
-      <c r="I178">
-        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M178">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N178">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P178">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T178">
         <v>2</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -16361,19 +16361,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6281807</v>
+        <v>6281972</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,76 +16393,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K179">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="L179">
         <v>2.875</v>
       </c>
       <c r="M179">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="N179">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="O179">
         <v>2.9</v>
       </c>
       <c r="P179">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S179">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T179">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA179">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC179">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -18517,7 +18517,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6281816</v>
+        <v>6285545</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,76 +18529,76 @@
         <v>45140.79166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
         <v>1</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>49</v>
       </c>
       <c r="K203">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N203">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>1.8</v>
+      </c>
+      <c r="T203">
+        <v>2</v>
+      </c>
+      <c r="U203">
+        <v>1.875</v>
+      </c>
+      <c r="V203">
+        <v>1.925</v>
+      </c>
+      <c r="W203">
+        <v>0.75</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.5</v>
+      </c>
+      <c r="AA203">
         <v>-0.5</v>
       </c>
-      <c r="R203">
-        <v>1.975</v>
-      </c>
-      <c r="S203">
-        <v>1.825</v>
-      </c>
-      <c r="T203">
-        <v>2</v>
-      </c>
-      <c r="U203">
-        <v>1.95</v>
-      </c>
-      <c r="V203">
-        <v>1.85</v>
-      </c>
-      <c r="W203">
-        <v>0.95</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
-      <c r="Z203">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6285545</v>
+        <v>6281816</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,58 +18618,58 @@
         <v>45140.79166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>49</v>
       </c>
       <c r="K204">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>3.25</v>
+      </c>
+      <c r="N204">
+        <v>1.95</v>
+      </c>
+      <c r="O204">
         <v>3.2</v>
       </c>
-      <c r="M204">
+      <c r="P204">
         <v>4.5</v>
       </c>
-      <c r="N204">
-        <v>1.75</v>
-      </c>
-      <c r="O204">
-        <v>3.5</v>
-      </c>
-      <c r="P204">
-        <v>5.25</v>
-      </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
         <v>2</v>
       </c>
       <c r="U204">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V204">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18678,16 +18678,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6285671</v>
+        <v>6285544</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,76 +18707,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K205">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M205">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N205">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P205">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W205">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z205">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6282019</v>
+        <v>6287040</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,76 +18796,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G206" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H206">
         <v>1</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K206">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L206">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M206">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N206">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="O206">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P206">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q206">
         <v>-0.25</v>
       </c>
       <c r="R206">
+        <v>2.1</v>
+      </c>
+      <c r="S206">
+        <v>1.775</v>
+      </c>
+      <c r="T206">
+        <v>2</v>
+      </c>
+      <c r="U206">
         <v>2.05</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.8</v>
       </c>
-      <c r="T206">
-        <v>1.75</v>
-      </c>
-      <c r="U206">
-        <v>1.775</v>
-      </c>
-      <c r="V206">
-        <v>2.1</v>
-      </c>
       <c r="W206">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC206">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6287040</v>
+        <v>6285671</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,70 +18885,70 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K207">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L207">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M207">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N207">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O207">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P207">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R207">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S207">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T207">
         <v>2</v>
       </c>
       <c r="U207">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V207">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X207">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA207">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
         <v>0</v>
@@ -18962,7 +18962,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6281815</v>
+        <v>6282019</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18974,76 +18974,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K208">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="L208">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N208">
+        <v>2.375</v>
+      </c>
+      <c r="O208">
+        <v>3.1</v>
+      </c>
+      <c r="P208">
+        <v>3.3</v>
+      </c>
+      <c r="Q208">
+        <v>-0.25</v>
+      </c>
+      <c r="R208">
         <v>2.05</v>
       </c>
-      <c r="O208">
-        <v>3.25</v>
-      </c>
-      <c r="P208">
-        <v>4</v>
-      </c>
-      <c r="Q208">
-        <v>-0.5</v>
-      </c>
-      <c r="R208">
-        <v>2.025</v>
-      </c>
       <c r="S208">
+        <v>1.8</v>
+      </c>
+      <c r="T208">
+        <v>1.75</v>
+      </c>
+      <c r="U208">
         <v>1.775</v>
       </c>
-      <c r="T208">
-        <v>2</v>
-      </c>
-      <c r="U208">
-        <v>1.95</v>
-      </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X208">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA208">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19051,7 +19051,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6285544</v>
+        <v>6281815</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19063,76 +19063,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K209">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L209">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M209">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N209">
+        <v>2.05</v>
+      </c>
+      <c r="O209">
+        <v>3.25</v>
+      </c>
+      <c r="P209">
+        <v>4</v>
+      </c>
+      <c r="Q209">
+        <v>-0.5</v>
+      </c>
+      <c r="R209">
+        <v>2.025</v>
+      </c>
+      <c r="S209">
+        <v>1.775</v>
+      </c>
+      <c r="T209">
+        <v>2</v>
+      </c>
+      <c r="U209">
+        <v>1.95</v>
+      </c>
+      <c r="V209">
+        <v>1.85</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
         <v>2.25</v>
       </c>
-      <c r="O209">
-        <v>2.875</v>
-      </c>
-      <c r="P209">
-        <v>3.8</v>
-      </c>
-      <c r="Q209">
-        <v>-0.25</v>
-      </c>
-      <c r="R209">
-        <v>1.9</v>
-      </c>
-      <c r="S209">
-        <v>1.95</v>
-      </c>
-      <c r="T209">
-        <v>1.75</v>
-      </c>
-      <c r="U209">
-        <v>1.825</v>
-      </c>
-      <c r="V209">
-        <v>2.025</v>
-      </c>
-      <c r="W209">
-        <v>-1</v>
-      </c>
-      <c r="X209">
-        <v>-1</v>
-      </c>
       <c r="Y209">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -21365,7 +21365,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6285672</v>
+        <v>6281821</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21377,70 +21377,70 @@
         <v>45157.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G235" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K235">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="L235">
         <v>3.1</v>
       </c>
       <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235">
+        <v>2.7</v>
+      </c>
+      <c r="O235">
         <v>2.875</v>
       </c>
-      <c r="N235">
-        <v>2.8</v>
-      </c>
-      <c r="O235">
-        <v>2.9</v>
-      </c>
       <c r="P235">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q235">
         <v>0</v>
       </c>
       <c r="R235">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T235">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U235">
         <v>1.95</v>
       </c>
       <c r="V235">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA235">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
         <v>0.95</v>
@@ -21454,7 +21454,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6281821</v>
+        <v>6285672</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21466,70 +21466,70 @@
         <v>45157.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K236">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="L236">
         <v>3.1</v>
       </c>
       <c r="M236">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N236">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O236">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P236">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q236">
         <v>0</v>
       </c>
       <c r="R236">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U236">
         <v>1.95</v>
       </c>
       <c r="V236">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W236">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z236">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB236">
         <v>0.95</v>
@@ -23323,7 +23323,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6286554</v>
+        <v>6326936</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23335,76 +23335,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F257" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K257">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L257">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M257">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N257">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O257">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P257">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q257">
+        <v>-0.25</v>
+      </c>
+      <c r="R257">
+        <v>2.025</v>
+      </c>
+      <c r="S257">
+        <v>1.775</v>
+      </c>
+      <c r="T257">
+        <v>1.5</v>
+      </c>
+      <c r="U257">
+        <v>1.8</v>
+      </c>
+      <c r="V257">
+        <v>2</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
+        <v>1.875</v>
+      </c>
+      <c r="Y257">
+        <v>-1</v>
+      </c>
+      <c r="Z257">
         <v>-0.5</v>
       </c>
-      <c r="R257">
-        <v>1.95</v>
-      </c>
-      <c r="S257">
-        <v>1.85</v>
-      </c>
-      <c r="T257">
-        <v>2</v>
-      </c>
-      <c r="U257">
-        <v>1.75</v>
-      </c>
-      <c r="V257">
-        <v>2.05</v>
-      </c>
-      <c r="W257">
-        <v>1</v>
-      </c>
-      <c r="X257">
-        <v>-1</v>
-      </c>
-      <c r="Y257">
-        <v>-1</v>
-      </c>
-      <c r="Z257">
-        <v>0.95</v>
-      </c>
       <c r="AA257">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB257">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC257">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23412,7 +23412,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6326936</v>
+        <v>6286554</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23424,76 +23424,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G258" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258" t="s">
+        <v>49</v>
+      </c>
+      <c r="K258">
+        <v>2.1</v>
+      </c>
+      <c r="L258">
+        <v>3.2</v>
+      </c>
+      <c r="M258">
+        <v>3.6</v>
+      </c>
+      <c r="N258">
+        <v>2</v>
+      </c>
+      <c r="O258">
+        <v>3.1</v>
+      </c>
+      <c r="P258">
+        <v>4.2</v>
+      </c>
+      <c r="Q258">
+        <v>-0.5</v>
+      </c>
+      <c r="R258">
+        <v>1.95</v>
+      </c>
+      <c r="S258">
+        <v>1.85</v>
+      </c>
+      <c r="T258">
+        <v>2</v>
+      </c>
+      <c r="U258">
+        <v>1.75</v>
+      </c>
+      <c r="V258">
+        <v>2.05</v>
+      </c>
+      <c r="W258">
         <v>1</v>
       </c>
-      <c r="J258" t="s">
-        <v>50</v>
-      </c>
-      <c r="K258">
-        <v>2.6</v>
-      </c>
-      <c r="L258">
-        <v>2.875</v>
-      </c>
-      <c r="M258">
-        <v>3</v>
-      </c>
-      <c r="N258">
-        <v>2.45</v>
-      </c>
-      <c r="O258">
-        <v>2.875</v>
-      </c>
-      <c r="P258">
-        <v>3.4</v>
-      </c>
-      <c r="Q258">
-        <v>-0.25</v>
-      </c>
-      <c r="R258">
-        <v>2.025</v>
-      </c>
-      <c r="S258">
-        <v>1.775</v>
-      </c>
-      <c r="T258">
-        <v>1.5</v>
-      </c>
-      <c r="U258">
-        <v>1.8</v>
-      </c>
-      <c r="V258">
-        <v>2</v>
-      </c>
-      <c r="W258">
-        <v>-1</v>
-      </c>
       <c r="X258">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y258">
         <v>-1</v>
       </c>
       <c r="Z258">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA258">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB258">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -25726,7 +25726,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6343950</v>
+        <v>6285766</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25738,76 +25738,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F284" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G284" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K284">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L284">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M284">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N284">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O284">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P284">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q284">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R284">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S284">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T284">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U284">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V284">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W284">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA284">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC284">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25815,7 +25815,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6285766</v>
+        <v>6343950</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25827,76 +25827,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F285" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G285" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>2</v>
+      </c>
+      <c r="J285" t="s">
+        <v>51</v>
+      </c>
+      <c r="K285">
+        <v>2.5</v>
+      </c>
+      <c r="L285">
+        <v>2.9</v>
+      </c>
+      <c r="M285">
+        <v>2.9</v>
+      </c>
+      <c r="N285">
+        <v>2.3</v>
+      </c>
+      <c r="O285">
         <v>3</v>
       </c>
-      <c r="I285">
-        <v>1</v>
-      </c>
-      <c r="J285" t="s">
-        <v>49</v>
-      </c>
-      <c r="K285">
-        <v>1.909</v>
-      </c>
-      <c r="L285">
-        <v>3.1</v>
-      </c>
-      <c r="M285">
-        <v>4</v>
-      </c>
-      <c r="N285">
-        <v>1.909</v>
-      </c>
-      <c r="O285">
-        <v>3.25</v>
-      </c>
       <c r="P285">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q285">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R285">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S285">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T285">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U285">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V285">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W285">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z285">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB285">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -27773,7 +27773,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6537871</v>
+        <v>6534936</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27785,46 +27785,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G307" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307">
         <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K307">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L307">
         <v>2.9</v>
       </c>
       <c r="M307">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N307">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O307">
         <v>2.875</v>
       </c>
       <c r="P307">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T307">
         <v>1.75</v>
@@ -27839,22 +27839,22 @@
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y307">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA307">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC307">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27862,7 +27862,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6534936</v>
+        <v>6537871</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27874,46 +27874,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G308" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308">
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K308">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L308">
         <v>2.9</v>
       </c>
       <c r="M308">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N308">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O308">
         <v>2.875</v>
       </c>
       <c r="P308">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q308">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S308">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T308">
         <v>1.75</v>
@@ -27928,22 +27928,22 @@
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB308">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6576739</v>
+        <v>6576997</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,10 +28497,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G315" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -28512,25 +28512,25 @@
         <v>50</v>
       </c>
       <c r="K315">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L315">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M315">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N315">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O315">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P315">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q315">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R315">
         <v>1.825</v>
@@ -28539,34 +28539,34 @@
         <v>1.975</v>
       </c>
       <c r="T315">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U315">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V315">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA315">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB315">
         <v>-1</v>
       </c>
       <c r="AC315">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6576997</v>
+        <v>6576739</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,10 +28586,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F316" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G316" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -28601,25 +28601,25 @@
         <v>50</v>
       </c>
       <c r="K316">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L316">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M316">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N316">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O316">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P316">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q316">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R316">
         <v>1.825</v>
@@ -28628,34 +28628,34 @@
         <v>1.975</v>
       </c>
       <c r="T316">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U316">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V316">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W316">
         <v>-1</v>
       </c>
       <c r="X316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA316">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB316">
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6590925</v>
+        <v>6590629</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,13 +29120,13 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F322" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G322" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H322">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I322">
         <v>1</v>
@@ -29135,43 +29135,43 @@
         <v>49</v>
       </c>
       <c r="K322">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L322">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M322">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="N322">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O322">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P322">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q322">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R322">
+        <v>1.75</v>
+      </c>
+      <c r="S322">
+        <v>2.05</v>
+      </c>
+      <c r="T322">
+        <v>2</v>
+      </c>
+      <c r="U322">
+        <v>1.925</v>
+      </c>
+      <c r="V322">
         <v>1.875</v>
       </c>
-      <c r="S322">
-        <v>1.925</v>
-      </c>
-      <c r="T322">
-        <v>2.5</v>
-      </c>
-      <c r="U322">
-        <v>2</v>
-      </c>
-      <c r="V322">
-        <v>1.8</v>
-      </c>
       <c r="W322">
-        <v>0.3999999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="X322">
         <v>-1</v>
@@ -29180,13 +29180,13 @@
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA322">
         <v>-1</v>
       </c>
       <c r="AB322">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC322">
         <v>-1</v>
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6590629</v>
+        <v>6590925</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,13 +29209,13 @@
         <v>45218.79166666666</v>
       </c>
       <c r="F323" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G323" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I323">
         <v>1</v>
@@ -29224,43 +29224,43 @@
         <v>49</v>
       </c>
       <c r="K323">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L323">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M323">
-        <v>2.8</v>
+        <v>7.5</v>
       </c>
       <c r="N323">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="O323">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P323">
+        <v>7.5</v>
+      </c>
+      <c r="Q323">
+        <v>-1.25</v>
+      </c>
+      <c r="R323">
+        <v>1.875</v>
+      </c>
+      <c r="S323">
+        <v>1.925</v>
+      </c>
+      <c r="T323">
         <v>2.5</v>
       </c>
-      <c r="Q323">
-        <v>0.25</v>
-      </c>
-      <c r="R323">
-        <v>1.75</v>
-      </c>
-      <c r="S323">
-        <v>2.05</v>
-      </c>
-      <c r="T323">
-        <v>2</v>
-      </c>
       <c r="U323">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V323">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W323">
-        <v>2.3</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X323">
         <v>-1</v>
@@ -29269,13 +29269,13 @@
         <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA323">
         <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC323">
         <v>-1</v>
@@ -29731,7 +29731,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6586605</v>
+        <v>6590928</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29743,58 +29743,58 @@
         <v>45221.75</v>
       </c>
       <c r="F329" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G329" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H329">
+        <v>2</v>
+      </c>
+      <c r="I329">
         <v>1</v>
-      </c>
-      <c r="I329">
-        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>49</v>
       </c>
       <c r="K329">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L329">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="M329">
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="N329">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="O329">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P329">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q329">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R329">
+        <v>1.75</v>
+      </c>
+      <c r="S329">
+        <v>2.05</v>
+      </c>
+      <c r="T329">
+        <v>2.25</v>
+      </c>
+      <c r="U329">
+        <v>1.825</v>
+      </c>
+      <c r="V329">
         <v>1.975</v>
       </c>
-      <c r="S329">
-        <v>1.825</v>
-      </c>
-      <c r="T329">
-        <v>2</v>
-      </c>
-      <c r="U329">
-        <v>1.775</v>
-      </c>
-      <c r="V329">
-        <v>2.025</v>
-      </c>
       <c r="W329">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29803,16 +29803,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB329">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC329">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>6590928</v>
+        <v>6586605</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,58 +29832,58 @@
         <v>45221.75</v>
       </c>
       <c r="F330" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G330" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>49</v>
       </c>
       <c r="K330">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L330">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="M330">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="N330">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="O330">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P330">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q330">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R330">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S330">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T330">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U330">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V330">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W330">
-        <v>0.45</v>
+        <v>1.3</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29892,16 +29892,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA330">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB330">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -30354,7 +30354,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>6598119</v>
+        <v>6607583</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30366,76 +30366,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F336" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G336" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336" t="s">
+        <v>50</v>
+      </c>
+      <c r="K336">
         <v>3</v>
       </c>
-      <c r="I336">
-        <v>0</v>
-      </c>
-      <c r="J336" t="s">
-        <v>49</v>
-      </c>
-      <c r="K336">
-        <v>1.8</v>
-      </c>
       <c r="L336">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M336">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N336">
-        <v>1.571</v>
+        <v>3.5</v>
       </c>
       <c r="O336">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P336">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q336">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R336">
+        <v>1.875</v>
+      </c>
+      <c r="S336">
+        <v>1.975</v>
+      </c>
+      <c r="T336">
         <v>1.75</v>
       </c>
-      <c r="S336">
-        <v>2.05</v>
-      </c>
-      <c r="T336">
-        <v>2.25</v>
-      </c>
       <c r="U336">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V336">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W336">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X336">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y336">
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
       <c r="AA336">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB336">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -30443,7 +30443,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>6607583</v>
+        <v>6598119</v>
       </c>
       <c r="C337" t="s">
         <v>28</v>
@@ -30455,76 +30455,76 @@
         <v>45227.64583333334</v>
       </c>
       <c r="F337" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G337" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I337">
         <v>0</v>
       </c>
       <c r="J337" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K337">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L337">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M337">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N337">
-        <v>3.5</v>
+        <v>1.571</v>
       </c>
       <c r="O337">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P337">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q337">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R337">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S337">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T337">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U337">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V337">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W337">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X337">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y337">
         <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
       <c r="AA337">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB337">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC337">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:29">
@@ -31066,7 +31066,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6619161</v>
+        <v>6623672</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31078,46 +31078,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F344" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G344" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K344">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L344">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M344">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N344">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O344">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P344">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q344">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R344">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S344">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T344">
         <v>2</v>
@@ -31126,28 +31126,28 @@
         <v>1.925</v>
       </c>
       <c r="V344">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W344">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X344">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA344">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB344">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC344">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31155,7 +31155,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6623672</v>
+        <v>6619161</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31167,46 +31167,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F345" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G345" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K345">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L345">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M345">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N345">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O345">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P345">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q345">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R345">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S345">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T345">
         <v>2</v>
@@ -31215,28 +31215,28 @@
         <v>1.925</v>
       </c>
       <c r="V345">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X345">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA345">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC345">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -32045,7 +32045,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6645237</v>
+        <v>6645236</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32057,40 +32057,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G355" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K355">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L355">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M355">
         <v>3.4</v>
       </c>
       <c r="N355">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O355">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P355">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q355">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R355">
         <v>1.775</v>
@@ -32099,34 +32099,34 @@
         <v>2.025</v>
       </c>
       <c r="T355">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U355">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V355">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W355">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X355">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA355">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB355">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC355">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32134,7 +32134,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6645236</v>
+        <v>6645237</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32146,40 +32146,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G356" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K356">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L356">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M356">
         <v>3.4</v>
       </c>
       <c r="N356">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O356">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P356">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q356">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R356">
         <v>1.775</v>
@@ -32188,34 +32188,34 @@
         <v>2.025</v>
       </c>
       <c r="T356">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U356">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V356">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W356">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X356">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA356">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB356">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC356">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32846,7 +32846,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6680024</v>
+        <v>6673199</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32858,13 +32858,13 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G364" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H364">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I364">
         <v>1</v>
@@ -32873,43 +32873,43 @@
         <v>49</v>
       </c>
       <c r="K364">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L364">
+        <v>3.4</v>
+      </c>
+      <c r="M364">
+        <v>4</v>
+      </c>
+      <c r="N364">
+        <v>2.2</v>
+      </c>
+      <c r="O364">
+        <v>3.25</v>
+      </c>
+      <c r="P364">
         <v>3.5</v>
       </c>
-      <c r="M364">
-        <v>5.5</v>
-      </c>
-      <c r="N364">
-        <v>1.571</v>
-      </c>
-      <c r="O364">
-        <v>3.6</v>
-      </c>
-      <c r="P364">
-        <v>7.5</v>
-      </c>
       <c r="Q364">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R364">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S364">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T364">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U364">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V364">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W364">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32918,13 +32918,13 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA364">
         <v>-1</v>
       </c>
       <c r="AB364">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC364">
         <v>-1</v>
@@ -33113,7 +33113,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6673199</v>
+        <v>6680024</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33125,13 +33125,13 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G367" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H367">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I367">
         <v>1</v>
@@ -33140,43 +33140,43 @@
         <v>49</v>
       </c>
       <c r="K367">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L367">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M367">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N367">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O367">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P367">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q367">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R367">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S367">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T367">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U367">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V367">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W367">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="X367">
         <v>-1</v>
@@ -33185,13 +33185,13 @@
         <v>-1</v>
       </c>
       <c r="Z367">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA367">
         <v>-1</v>
       </c>
       <c r="AB367">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -33558,7 +33558,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6689428</v>
+        <v>6693367</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33570,76 +33570,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G372" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I372">
         <v>1</v>
       </c>
       <c r="J372" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K372">
-        <v>1.615</v>
+        <v>1.444</v>
       </c>
       <c r="L372">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M372">
+        <v>7</v>
+      </c>
+      <c r="N372">
+        <v>1.533</v>
+      </c>
+      <c r="O372">
+        <v>4</v>
+      </c>
+      <c r="P372">
         <v>6</v>
       </c>
-      <c r="N372">
-        <v>1.615</v>
-      </c>
-      <c r="O372">
-        <v>3.8</v>
-      </c>
-      <c r="P372">
-        <v>5.75</v>
-      </c>
       <c r="Q372">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R372">
+        <v>1.975</v>
+      </c>
+      <c r="S372">
         <v>1.825</v>
       </c>
-      <c r="S372">
-        <v>1.975</v>
-      </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U372">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V372">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA372">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC372">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33647,7 +33647,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6693029</v>
+        <v>6689429</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,58 +33659,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G373" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H373">
         <v>3</v>
       </c>
       <c r="I373">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J373" t="s">
         <v>49</v>
       </c>
       <c r="K373">
+        <v>8</v>
+      </c>
+      <c r="L373">
+        <v>4.75</v>
+      </c>
+      <c r="M373">
+        <v>1.363</v>
+      </c>
+      <c r="N373">
+        <v>6.5</v>
+      </c>
+      <c r="O373">
+        <v>4.2</v>
+      </c>
+      <c r="P373">
         <v>1.45</v>
       </c>
-      <c r="L373">
-        <v>4</v>
-      </c>
-      <c r="M373">
-        <v>8</v>
-      </c>
-      <c r="N373">
-        <v>1.333</v>
-      </c>
-      <c r="O373">
-        <v>4.8</v>
-      </c>
-      <c r="P373">
-        <v>10</v>
-      </c>
       <c r="Q373">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R373">
+        <v>2</v>
+      </c>
+      <c r="S373">
         <v>1.8</v>
       </c>
-      <c r="S373">
-        <v>2</v>
-      </c>
       <c r="T373">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U373">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V373">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W373">
-        <v>0.333</v>
+        <v>5.5</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33719,13 +33719,13 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA373">
         <v>-1</v>
       </c>
       <c r="AB373">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC373">
         <v>-1</v>
@@ -33736,7 +33736,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6689425</v>
+        <v>6693030</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33748,76 +33748,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G374" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J374" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K374">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="L374">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M374">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="N374">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="O374">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P374">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q374">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R374">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S374">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U374">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V374">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W374">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X374">
         <v>-1</v>
       </c>
       <c r="Y374">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z374">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA374">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB374">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC374">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33825,7 +33825,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6689427</v>
+        <v>6693029</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33837,76 +33837,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G375" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I375">
         <v>0</v>
       </c>
       <c r="J375" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K375">
+        <v>1.45</v>
+      </c>
+      <c r="L375">
+        <v>4</v>
+      </c>
+      <c r="M375">
+        <v>8</v>
+      </c>
+      <c r="N375">
+        <v>1.333</v>
+      </c>
+      <c r="O375">
+        <v>4.8</v>
+      </c>
+      <c r="P375">
+        <v>10</v>
+      </c>
+      <c r="Q375">
+        <v>-1.25</v>
+      </c>
+      <c r="R375">
+        <v>1.8</v>
+      </c>
+      <c r="S375">
+        <v>2</v>
+      </c>
+      <c r="T375">
+        <v>2.5</v>
+      </c>
+      <c r="U375">
         <v>1.95</v>
       </c>
-      <c r="L375">
-        <v>3.1</v>
-      </c>
-      <c r="M375">
-        <v>4.2</v>
-      </c>
-      <c r="N375">
-        <v>2.4</v>
-      </c>
-      <c r="O375">
-        <v>3.2</v>
-      </c>
-      <c r="P375">
-        <v>3.2</v>
-      </c>
-      <c r="Q375">
-        <v>-0.25</v>
-      </c>
-      <c r="R375">
-        <v>2.05</v>
-      </c>
-      <c r="S375">
-        <v>1.75</v>
-      </c>
-      <c r="T375">
-        <v>2.25</v>
-      </c>
-      <c r="U375">
-        <v>1.825</v>
-      </c>
       <c r="V375">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W375">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X375">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y375">
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA375">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB375">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC375">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376" spans="1:29">
@@ -33914,7 +33914,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>6693367</v>
+        <v>6693028</v>
       </c>
       <c r="C376" t="s">
         <v>28</v>
@@ -33926,58 +33926,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F376" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G376" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H376">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I376">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J376" t="s">
         <v>49</v>
       </c>
       <c r="K376">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="L376">
+        <v>3.5</v>
+      </c>
+      <c r="M376">
         <v>4</v>
       </c>
-      <c r="M376">
-        <v>7</v>
-      </c>
       <c r="N376">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O376">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P376">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q376">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R376">
         <v>1.975</v>
       </c>
       <c r="S376">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T376">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U376">
         <v>1.775</v>
       </c>
       <c r="V376">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W376">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X376">
         <v>-1</v>
@@ -34003,7 +34003,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6689350</v>
+        <v>6689428</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34015,10 +34015,10 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G377" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H377">
         <v>0</v>
@@ -34030,31 +34030,31 @@
         <v>51</v>
       </c>
       <c r="K377">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="L377">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M377">
-        <v>2.25</v>
+        <v>6</v>
       </c>
       <c r="N377">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O377">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P377">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q377">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R377">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S377">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T377">
         <v>2.5</v>
@@ -34072,13 +34072,13 @@
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="Z377">
         <v>-1</v>
       </c>
       <c r="AA377">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB377">
         <v>-1</v>
@@ -34092,7 +34092,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6693028</v>
+        <v>6689427</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34104,76 +34104,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F378" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G378" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H378">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378">
         <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K378">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L378">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M378">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N378">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O378">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P378">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="Q378">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R378">
+        <v>2.05</v>
+      </c>
+      <c r="S378">
+        <v>1.75</v>
+      </c>
+      <c r="T378">
+        <v>2.25</v>
+      </c>
+      <c r="U378">
+        <v>1.825</v>
+      </c>
+      <c r="V378">
         <v>1.975</v>
       </c>
-      <c r="S378">
-        <v>1.875</v>
-      </c>
-      <c r="T378">
-        <v>2</v>
-      </c>
-      <c r="U378">
-        <v>1.775</v>
-      </c>
-      <c r="V378">
-        <v>2.1</v>
-      </c>
       <c r="W378">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X378">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
+        <v>-0.5</v>
+      </c>
+      <c r="AA378">
+        <v>0.375</v>
+      </c>
+      <c r="AB378">
+        <v>-1</v>
+      </c>
+      <c r="AC378">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA378">
-        <v>-1</v>
-      </c>
-      <c r="AB378">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC378">
-        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34181,7 +34181,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6693030</v>
+        <v>6693031</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,73 +34193,73 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F379" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G379" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H379">
+        <v>3</v>
+      </c>
+      <c r="I379">
         <v>1</v>
       </c>
-      <c r="I379">
-        <v>3</v>
-      </c>
       <c r="J379" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K379">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="L379">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M379">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N379">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="O379">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P379">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q379">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R379">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S379">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T379">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U379">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V379">
         <v>2.025</v>
       </c>
       <c r="W379">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z379">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA379">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB379">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC379">
         <v>-1</v>
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6693031</v>
+        <v>6689425</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34282,58 +34282,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G380" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H380">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380" t="s">
         <v>49</v>
       </c>
       <c r="K380">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L380">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M380">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="N380">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="O380">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P380">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q380">
         <v>-1</v>
       </c>
       <c r="R380">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S380">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T380">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U380">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V380">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W380">
-        <v>0.615</v>
+        <v>0.45</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34342,16 +34342,16 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA380">
         <v>-1</v>
       </c>
       <c r="AB380">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC380">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34359,7 +34359,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6689429</v>
+        <v>6689350</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34371,76 +34371,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F381" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G381" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H381">
+        <v>0</v>
+      </c>
+      <c r="I381">
+        <v>1</v>
+      </c>
+      <c r="J381" t="s">
+        <v>51</v>
+      </c>
+      <c r="K381">
+        <v>3.2</v>
+      </c>
+      <c r="L381">
         <v>3</v>
       </c>
-      <c r="I381">
-        <v>2</v>
-      </c>
-      <c r="J381" t="s">
-        <v>49</v>
-      </c>
-      <c r="K381">
-        <v>8</v>
-      </c>
-      <c r="L381">
-        <v>4.75</v>
-      </c>
       <c r="M381">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="N381">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O381">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P381">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q381">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R381">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S381">
+        <v>2.025</v>
+      </c>
+      <c r="T381">
+        <v>2.5</v>
+      </c>
+      <c r="U381">
+        <v>2</v>
+      </c>
+      <c r="V381">
         <v>1.8</v>
       </c>
-      <c r="T381">
-        <v>2.25</v>
-      </c>
-      <c r="U381">
-        <v>1.9</v>
-      </c>
-      <c r="V381">
-        <v>1.9</v>
-      </c>
       <c r="W381">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z381">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA381">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB381">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC381">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -112,10 +112,10 @@
     <t>Vila Nova</t>
   </si>
   <si>
-    <t>Mirassol</t>
+    <t>Sampaio Correa</t>
   </si>
   <si>
-    <t>Sampaio Correa</t>
+    <t>Mirassol</t>
   </si>
   <si>
     <t>EC Juventude</t>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6289142</v>
+        <v>6281959</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -910,73 +910,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
+        <v>2.9</v>
+      </c>
+      <c r="N5">
+        <v>2.625</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>3.5</v>
-      </c>
-      <c r="N5">
-        <v>2.25</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
       <c r="P5">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -984,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6281959</v>
+        <v>6289142</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -999,73 +999,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6">
+        <v>2.15</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6">
-        <v>2.4</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>3.5</v>
+      </c>
+      <c r="N6">
+        <v>2.25</v>
+      </c>
+      <c r="O6">
         <v>3.1</v>
       </c>
-      <c r="M6">
-        <v>2.9</v>
-      </c>
-      <c r="N6">
-        <v>2.625</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
       <c r="P6">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
         <v>2</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1533,7 +1533,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6286544</v>
+        <v>6286296</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2242,13 +2242,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2257,43 +2257,43 @@
         <v>49</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
         <v>3.2</v>
       </c>
-      <c r="M20">
-        <v>3.75</v>
-      </c>
       <c r="N20">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O20">
         <v>3.4</v>
       </c>
       <c r="P20">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
-        <v>0.7</v>
+        <v>0.833</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2302,16 +2302,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
         <v>-0.5</v>
       </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6286296</v>
+        <v>6286544</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2331,13 +2331,13 @@
         <v>45044.79166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2346,61 +2346,61 @@
         <v>49</v>
       </c>
       <c r="K21">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N21">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O21">
         <v>3.4</v>
       </c>
       <c r="P21">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q21">
+        <v>-0.75</v>
+      </c>
+      <c r="R21">
+        <v>1.95</v>
+      </c>
+      <c r="S21">
+        <v>1.85</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>1.8</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>0.7</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>0.475</v>
+      </c>
+      <c r="AA21">
         <v>-0.5</v>
       </c>
-      <c r="R21">
-        <v>1.8</v>
-      </c>
-      <c r="S21">
-        <v>2.05</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>2.025</v>
-      </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
-      <c r="W21">
-        <v>0.833</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.8</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2509,10 +2509,10 @@
         <v>45045.66666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
         <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6281768</v>
+        <v>6281960</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3221,76 +3221,76 @@
         <v>45048.79166666666</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N31">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6281960</v>
+        <v>6281768</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3310,76 +3310,76 @@
         <v>45048.79166666666</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
         <v>3.1</v>
       </c>
-      <c r="M32">
-        <v>3.3</v>
-      </c>
       <c r="N32">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P32">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q32">
         <v>-0.5</v>
       </c>
       <c r="R32">
+        <v>1.95</v>
+      </c>
+      <c r="S32">
         <v>1.85</v>
       </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X32">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6281770</v>
+        <v>6289139</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3488,46 +3488,46 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>3.2</v>
+      </c>
+      <c r="N34">
+        <v>2.15</v>
+      </c>
+      <c r="O34">
         <v>3.1</v>
       </c>
-      <c r="M34">
-        <v>2.875</v>
-      </c>
-      <c r="N34">
-        <v>2.3</v>
-      </c>
-      <c r="O34">
-        <v>3</v>
-      </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q34">
         <v>-0.25</v>
       </c>
       <c r="R34">
+        <v>1.825</v>
+      </c>
+      <c r="S34">
         <v>1.975</v>
-      </c>
-      <c r="S34">
-        <v>1.825</v>
       </c>
       <c r="T34">
         <v>2.25</v>
@@ -3539,25 +3539,25 @@
         <v>1.775</v>
       </c>
       <c r="W34">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z34">
+        <v>-1</v>
+      </c>
+      <c r="AA34">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA34">
-        <v>-1</v>
-      </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC34">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3565,7 +3565,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6289139</v>
+        <v>6281770</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3577,46 +3577,46 @@
         <v>45049.79166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L35">
+        <v>3.1</v>
+      </c>
+      <c r="M35">
+        <v>2.875</v>
+      </c>
+      <c r="N35">
+        <v>2.3</v>
+      </c>
+      <c r="O35">
         <v>3</v>
       </c>
-      <c r="M35">
-        <v>3.2</v>
-      </c>
-      <c r="N35">
-        <v>2.15</v>
-      </c>
-      <c r="O35">
-        <v>3.1</v>
-      </c>
       <c r="P35">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q35">
         <v>-0.25</v>
       </c>
       <c r="R35">
+        <v>1.975</v>
+      </c>
+      <c r="S35">
         <v>1.825</v>
-      </c>
-      <c r="S35">
-        <v>1.975</v>
       </c>
       <c r="T35">
         <v>2.25</v>
@@ -3628,25 +3628,25 @@
         <v>1.775</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.3875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -4111,7 +4111,7 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>31</v>
@@ -4200,7 +4200,7 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>34</v>
@@ -4277,7 +4277,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6285516</v>
+        <v>6285663</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4289,10 +4289,10 @@
         <v>45052.85416666666</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4304,31 +4304,31 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O43">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P43">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T43">
         <v>2</v>
@@ -4343,16 +4343,16 @@
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6285663</v>
+        <v>6285516</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4378,10 +4378,10 @@
         <v>45052.85416666666</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4393,31 +4393,31 @@
         <v>50</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
         <v>3.2</v>
       </c>
-      <c r="M44">
-        <v>3.75</v>
-      </c>
       <c r="N44">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O44">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T44">
         <v>2</v>
@@ -4432,16 +4432,16 @@
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA44">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6285517</v>
+        <v>6281774</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45059.70833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L53">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N53">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q53">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V53">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC53">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6281774</v>
+        <v>6285517</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45059.70833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K54">
+        <v>1.727</v>
+      </c>
+      <c r="L54">
+        <v>3.5</v>
+      </c>
+      <c r="M54">
+        <v>5.5</v>
+      </c>
+      <c r="N54">
         <v>1.75</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>3.4</v>
       </c>
-      <c r="M54">
+      <c r="P54">
         <v>5.25</v>
       </c>
-      <c r="N54">
-        <v>1.909</v>
-      </c>
-      <c r="O54">
-        <v>3.3</v>
-      </c>
-      <c r="P54">
-        <v>4.5</v>
-      </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W54">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6631893</v>
+        <v>6285744</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5535,16 +5535,16 @@
         <v>45060.75</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
         <v>51</v>
@@ -5553,37 +5553,37 @@
         <v>2.2</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N57">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T57">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5592,16 +5592,16 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5612,7 +5612,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6285744</v>
+        <v>6631893</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5624,16 +5624,16 @@
         <v>45060.75</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>51</v>
@@ -5642,38 +5642,38 @@
         <v>2.2</v>
       </c>
       <c r="L58">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
+        <v>1.775</v>
+      </c>
+      <c r="S58">
+        <v>2.025</v>
+      </c>
+      <c r="T58">
+        <v>2</v>
+      </c>
+      <c r="U58">
         <v>1.925</v>
       </c>
-      <c r="S58">
+      <c r="V58">
         <v>1.875</v>
       </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
-      <c r="U58">
-        <v>1.85</v>
-      </c>
-      <c r="V58">
-        <v>1.95</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5681,16 +5681,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB58">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5802,7 +5802,7 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -6158,7 +6158,7 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6695,7 +6695,7 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6281781</v>
+        <v>6286297</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,10 +7048,10 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7063,22 +7063,22 @@
         <v>49</v>
       </c>
       <c r="K74">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M74">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N74">
         <v>1.75</v>
       </c>
       <c r="O74">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q74">
         <v>-0.75</v>
@@ -7093,10 +7093,10 @@
         <v>2</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W74">
         <v>0.75</v>
@@ -7117,7 +7117,7 @@
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6286297</v>
+        <v>6281781</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,10 +7226,10 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7241,22 +7241,22 @@
         <v>49</v>
       </c>
       <c r="K76">
-        <v>1.727</v>
+        <v>1.95</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N76">
         <v>1.75</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P76">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q76">
         <v>-0.75</v>
@@ -7271,10 +7271,10 @@
         <v>2</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
         <v>0.75</v>
@@ -7295,7 +7295,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6285519</v>
+        <v>6281963</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,76 +7404,76 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L78">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M78">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N78">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O78">
         <v>3</v>
       </c>
       <c r="P78">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q78">
         <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W78">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6281963</v>
+        <v>6285519</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M79">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N79">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O79">
         <v>3</v>
       </c>
       <c r="P79">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q79">
         <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X79">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA79">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7570,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6282009</v>
+        <v>6281783</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7582,73 +7582,73 @@
         <v>45073.70833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L80">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N80">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O80">
         <v>3.2</v>
       </c>
       <c r="P80">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7659,7 +7659,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6281783</v>
+        <v>6282009</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7671,73 +7671,73 @@
         <v>45073.70833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81" t="s">
+        <v>51</v>
+      </c>
+      <c r="K81">
+        <v>2.25</v>
+      </c>
+      <c r="L81">
+        <v>3.1</v>
+      </c>
+      <c r="M81">
         <v>3</v>
       </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81" t="s">
-        <v>49</v>
-      </c>
-      <c r="K81">
-        <v>2.15</v>
-      </c>
-      <c r="L81">
-        <v>3</v>
-      </c>
-      <c r="M81">
-        <v>3.3</v>
-      </c>
       <c r="N81">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O81">
         <v>3.2</v>
       </c>
       <c r="P81">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S81">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W81">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z81">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6282096</v>
+        <v>6289134</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K85">
+        <v>2.15</v>
+      </c>
+      <c r="L85">
+        <v>3.1</v>
+      </c>
+      <c r="M85">
+        <v>3.2</v>
+      </c>
+      <c r="N85">
         <v>1.95</v>
       </c>
-      <c r="L85">
+      <c r="O85">
         <v>3.25</v>
       </c>
-      <c r="M85">
-        <v>3.6</v>
-      </c>
-      <c r="N85">
-        <v>2</v>
-      </c>
-      <c r="O85">
-        <v>3.3</v>
-      </c>
       <c r="P85">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q85">
         <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S85">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA85">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6289134</v>
+        <v>6282096</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,76 +8116,76 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K86">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N86">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P86">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
         <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S86">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8386,7 +8386,7 @@
         <v>45</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6282097</v>
+        <v>6281786</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>45079.79166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>3.2</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>3.3</v>
+      </c>
+      <c r="P90">
+        <v>3.8</v>
+      </c>
+      <c r="Q90">
+        <v>-0.5</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
         <v>1.8</v>
-      </c>
-      <c r="L90">
-        <v>3.5</v>
-      </c>
-      <c r="M90">
-        <v>4.5</v>
-      </c>
-      <c r="N90">
-        <v>1.571</v>
-      </c>
-      <c r="O90">
-        <v>3.8</v>
-      </c>
-      <c r="P90">
-        <v>6</v>
-      </c>
-      <c r="Q90">
-        <v>-0.75</v>
-      </c>
-      <c r="R90">
-        <v>1.75</v>
-      </c>
-      <c r="S90">
-        <v>2.05</v>
       </c>
       <c r="T90">
         <v>2.25</v>
       </c>
       <c r="U90">
+        <v>1.95</v>
+      </c>
+      <c r="V90">
         <v>1.85</v>
       </c>
-      <c r="V90">
-        <v>1.95</v>
-      </c>
       <c r="W90">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6281786</v>
+        <v>6282097</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8561,76 +8561,76 @@
         <v>45079.79166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O91">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
+        <v>1.85</v>
+      </c>
+      <c r="V91">
         <v>1.95</v>
       </c>
-      <c r="V91">
-        <v>1.85</v>
-      </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X91">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC91">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6281787</v>
+        <v>6285747</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,10 +8650,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8665,43 +8665,43 @@
         <v>49</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M92">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N92">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P92">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
       </c>
       <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
         <v>1.8</v>
       </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8710,13 +8710,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6285747</v>
+        <v>6281787</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,10 +8739,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8754,43 +8754,43 @@
         <v>49</v>
       </c>
       <c r="K93">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L93">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O93">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8799,13 +8799,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -9006,7 +9006,7 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9098,7 +9098,7 @@
         <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>3</v>
@@ -9350,7 +9350,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6285945</v>
+        <v>6285748</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9362,55 +9362,55 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>1</v>
-      </c>
-      <c r="I100">
-        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>51</v>
       </c>
       <c r="K100">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L100">
         <v>3</v>
       </c>
       <c r="M100">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N100">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9419,19 +9419,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6285748</v>
+        <v>6285945</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9540,55 +9540,55 @@
         <v>45083.79166666666</v>
       </c>
       <c r="F102" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>51</v>
       </c>
       <c r="K102">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L102">
         <v>3</v>
       </c>
       <c r="M102">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="O102">
+        <v>3.2</v>
+      </c>
+      <c r="P102">
         <v>3.1</v>
       </c>
-      <c r="P102">
-        <v>2.8</v>
-      </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9597,19 +9597,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6282098</v>
+        <v>6281788</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,56 +9629,56 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M103">
         <v>3.2</v>
       </c>
       <c r="N103">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
+        <v>1.95</v>
+      </c>
+      <c r="S103">
+        <v>1.85</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
+        <v>1.925</v>
+      </c>
+      <c r="V103">
         <v>1.875</v>
       </c>
-      <c r="S103">
-        <v>1.975</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>2.025</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
@@ -9686,19 +9686,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6281788</v>
+        <v>6282098</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,55 +9718,55 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>51</v>
       </c>
       <c r="K104">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
         <v>3.2</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
         <v>-1</v>
@@ -9775,19 +9775,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9807,7 +9807,7 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
         <v>36</v>
@@ -10077,7 +10077,7 @@
         <v>47</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6281792</v>
+        <v>6281967</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,76 +10430,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O112">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P112">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X112">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
+        <v>0.3875</v>
+      </c>
+      <c r="AA112">
         <v>-0.5</v>
       </c>
-      <c r="AA112">
-        <v>0.4625</v>
-      </c>
       <c r="AB112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6281967</v>
+        <v>6281792</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,76 +10519,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K113">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N113">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O113">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P113">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W113">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
+        <v>0.4625</v>
+      </c>
+      <c r="AB113">
         <v>-0.5</v>
       </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6285527</v>
+        <v>6289131</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10697,34 +10697,34 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M115">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N115">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O115">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P115">
         <v>2.2</v>
@@ -10736,13 +10736,13 @@
         <v>1.975</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
         <v>2</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V115">
         <v>2.05</v>
@@ -10751,22 +10751,22 @@
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z115">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10774,7 +10774,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6289131</v>
+        <v>6285527</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10786,34 +10786,34 @@
         <v>45088.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L116">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M116">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N116">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P116">
         <v>2.2</v>
@@ -10825,13 +10825,13 @@
         <v>1.975</v>
       </c>
       <c r="S116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
         <v>2</v>
       </c>
       <c r="U116">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
         <v>2.05</v>
@@ -10840,22 +10840,22 @@
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y116">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA116">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11854,7 +11854,7 @@
         <v>45102.45833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
         <v>46</v>
@@ -11943,7 +11943,7 @@
         <v>45102.64583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
         <v>44</v>
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6281969</v>
+        <v>6281797</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,76 +12655,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K137">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N137">
+        <v>2.05</v>
+      </c>
+      <c r="O137">
+        <v>3.1</v>
+      </c>
+      <c r="P137">
+        <v>4</v>
+      </c>
+      <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
         <v>1.75</v>
       </c>
-      <c r="O137">
-        <v>3.3</v>
-      </c>
-      <c r="P137">
-        <v>5.5</v>
-      </c>
-      <c r="Q137">
-        <v>-0.75</v>
-      </c>
-      <c r="R137">
-        <v>1.975</v>
-      </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z137">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6281797</v>
+        <v>6281969</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,76 +12744,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N138">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="O138">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P138">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12925,7 +12925,7 @@
         <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13189,7 +13189,7 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
         <v>35</v>
@@ -13723,7 +13723,7 @@
         <v>45110.75</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -14334,7 +14334,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6285532</v>
+        <v>6859917</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14346,76 +14346,76 @@
         <v>45115.70833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K156">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L156">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M156">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N156">
+        <v>2.8</v>
+      </c>
+      <c r="O156">
+        <v>3.1</v>
+      </c>
+      <c r="P156">
+        <v>2.7</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>1.95</v>
+      </c>
+      <c r="S156">
+        <v>1.9</v>
+      </c>
+      <c r="T156">
+        <v>2</v>
+      </c>
+      <c r="U156">
+        <v>1.85</v>
+      </c>
+      <c r="V156">
+        <v>2</v>
+      </c>
+      <c r="W156">
+        <v>-1</v>
+      </c>
+      <c r="X156">
         <v>2.1</v>
       </c>
-      <c r="O156">
-        <v>3</v>
-      </c>
-      <c r="P156">
-        <v>4.2</v>
-      </c>
-      <c r="Q156">
-        <v>-0.25</v>
-      </c>
-      <c r="R156">
-        <v>1.8</v>
-      </c>
-      <c r="S156">
-        <v>2.05</v>
-      </c>
-      <c r="T156">
-        <v>2</v>
-      </c>
-      <c r="U156">
-        <v>1.95</v>
-      </c>
-      <c r="V156">
-        <v>1.9</v>
-      </c>
-      <c r="W156">
-        <v>-1</v>
-      </c>
-      <c r="X156">
-        <v>-1</v>
-      </c>
       <c r="Y156">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14423,7 +14423,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6859917</v>
+        <v>6285532</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14435,76 +14435,76 @@
         <v>45115.70833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K157">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L157">
+        <v>2.875</v>
+      </c>
+      <c r="M157">
+        <v>3.6</v>
+      </c>
+      <c r="N157">
+        <v>2.1</v>
+      </c>
+      <c r="O157">
         <v>3</v>
       </c>
-      <c r="M157">
-        <v>2.9</v>
-      </c>
-      <c r="N157">
-        <v>2.8</v>
-      </c>
-      <c r="O157">
-        <v>3.1</v>
-      </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2.05</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
         <v>1.95</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.9</v>
       </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.85</v>
-      </c>
-      <c r="V157">
-        <v>2</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14527,7 +14527,7 @@
         <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14705,7 +14705,7 @@
         <v>48</v>
       </c>
       <c r="G160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -14957,7 +14957,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6890591</v>
+        <v>6285535</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14969,76 +14969,76 @@
         <v>45121.89583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K163">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L163">
+        <v>3.2</v>
+      </c>
+      <c r="M163">
+        <v>2.75</v>
+      </c>
+      <c r="N163">
+        <v>2.6</v>
+      </c>
+      <c r="O163">
         <v>2.9</v>
       </c>
-      <c r="M163">
-        <v>4.5</v>
-      </c>
-      <c r="N163">
-        <v>1.95</v>
-      </c>
-      <c r="O163">
-        <v>3.2</v>
-      </c>
       <c r="P163">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q163">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S163">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T163">
         <v>2</v>
       </c>
       <c r="U163">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X163">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA163">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15046,7 +15046,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6285535</v>
+        <v>6890591</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15058,76 +15058,76 @@
         <v>45121.89583333334</v>
       </c>
       <c r="F164" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H164">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
+        <v>2.9</v>
+      </c>
+      <c r="M164">
+        <v>4.5</v>
+      </c>
+      <c r="N164">
+        <v>1.95</v>
+      </c>
+      <c r="O164">
         <v>3.2</v>
       </c>
-      <c r="M164">
-        <v>2.75</v>
-      </c>
-      <c r="N164">
-        <v>2.6</v>
-      </c>
-      <c r="O164">
-        <v>2.9</v>
-      </c>
       <c r="P164">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
+        <v>1.95</v>
+      </c>
+      <c r="S164">
+        <v>1.9</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>2.05</v>
+      </c>
+      <c r="V164">
         <v>1.8</v>
       </c>
-      <c r="S164">
-        <v>2.05</v>
-      </c>
-      <c r="T164">
-        <v>2</v>
-      </c>
-      <c r="U164">
-        <v>2.025</v>
-      </c>
-      <c r="V164">
-        <v>1.775</v>
-      </c>
       <c r="W164">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
+        <v>-1</v>
+      </c>
+      <c r="AA164">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB164">
+        <v>-1</v>
+      </c>
+      <c r="AC164">
         <v>0.8</v>
-      </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
-      <c r="AB164">
-        <v>1.025</v>
-      </c>
-      <c r="AC164">
-        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15414,7 +15414,7 @@
         <v>45123.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
         <v>44</v>
@@ -16040,7 +16040,7 @@
         <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6282102</v>
+        <v>6281807</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,76 +16126,76 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K176">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L176">
         <v>2.875</v>
       </c>
       <c r="M176">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N176">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="O176">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P176">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.7</v>
+        <v>2.075</v>
       </c>
       <c r="S176">
-        <v>2.2</v>
+        <v>1.725</v>
       </c>
       <c r="T176">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z176">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6285538</v>
+        <v>6281972</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,49 +16215,49 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K177">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M177">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N177">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="O177">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P177">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S177">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U177">
         <v>1.825</v>
@@ -16266,25 +16266,25 @@
         <v>1.975</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6281807</v>
+        <v>6285538</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,55 +16304,55 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L178">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M178">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N178">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O178">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P178">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q178">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T178">
         <v>2</v>
       </c>
       <c r="U178">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V178">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -16361,19 +16361,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6281972</v>
+        <v>6282102</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,13 +16393,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16408,43 +16408,43 @@
         <v>49</v>
       </c>
       <c r="K179">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L179">
         <v>2.875</v>
       </c>
       <c r="M179">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N179">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O179">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P179">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S179">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="T179">
         <v>1.75</v>
       </c>
       <c r="U179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V179">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W179">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16453,16 +16453,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16571,7 +16571,7 @@
         <v>45129.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
         <v>41</v>
@@ -17105,7 +17105,7 @@
         <v>45130.75</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>48</v>
@@ -17553,7 +17553,7 @@
         <v>45</v>
       </c>
       <c r="G192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17909,7 +17909,7 @@
         <v>38</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -18262,7 +18262,7 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G200" t="s">
         <v>39</v>
@@ -18351,7 +18351,7 @@
         <v>45139.79166666666</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
         <v>42</v>
@@ -18517,7 +18517,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6285545</v>
+        <v>6281816</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,58 +18529,58 @@
         <v>45140.79166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>49</v>
       </c>
       <c r="K203">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L203">
+        <v>3</v>
+      </c>
+      <c r="M203">
+        <v>3.25</v>
+      </c>
+      <c r="N203">
+        <v>1.95</v>
+      </c>
+      <c r="O203">
         <v>3.2</v>
       </c>
-      <c r="M203">
+      <c r="P203">
         <v>4.5</v>
       </c>
-      <c r="N203">
-        <v>1.75</v>
-      </c>
-      <c r="O203">
-        <v>3.5</v>
-      </c>
-      <c r="P203">
-        <v>5.25</v>
-      </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S203">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
         <v>2</v>
       </c>
       <c r="U203">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V203">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W203">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18589,16 +18589,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6281816</v>
+        <v>6285545</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,76 +18618,76 @@
         <v>45140.79166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
         <v>1</v>
-      </c>
-      <c r="I204">
-        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>49</v>
       </c>
       <c r="K204">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L204">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N204">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O204">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P204">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q204">
+        <v>-0.75</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>1.8</v>
+      </c>
+      <c r="T204">
+        <v>2</v>
+      </c>
+      <c r="U204">
+        <v>1.875</v>
+      </c>
+      <c r="V204">
+        <v>1.925</v>
+      </c>
+      <c r="W204">
+        <v>0.75</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.5</v>
+      </c>
+      <c r="AA204">
         <v>-0.5</v>
       </c>
-      <c r="R204">
-        <v>1.975</v>
-      </c>
-      <c r="S204">
-        <v>1.825</v>
-      </c>
-      <c r="T204">
-        <v>2</v>
-      </c>
-      <c r="U204">
-        <v>1.95</v>
-      </c>
-      <c r="V204">
-        <v>1.85</v>
-      </c>
-      <c r="W204">
-        <v>0.95</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>-1</v>
-      </c>
-      <c r="Z204">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC204">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6285544</v>
+        <v>6285671</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,76 +18707,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K205">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L205">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N205">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="O205">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S205">
+        <v>1.925</v>
+      </c>
+      <c r="T205">
+        <v>2</v>
+      </c>
+      <c r="U205">
+        <v>1.85</v>
+      </c>
+      <c r="V205">
         <v>1.95</v>
       </c>
-      <c r="T205">
-        <v>1.75</v>
-      </c>
-      <c r="U205">
-        <v>1.825</v>
-      </c>
-      <c r="V205">
-        <v>2.025</v>
-      </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA205">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC205">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6285671</v>
+        <v>6285544</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18885,76 +18885,76 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K207">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M207">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N207">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="O207">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P207">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S207">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T207">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V207">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W207">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z207">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19152,10 +19152,10 @@
         <v>45142.89583333334</v>
       </c>
       <c r="F210" t="s">
+        <v>33</v>
+      </c>
+      <c r="G210" t="s">
         <v>32</v>
-      </c>
-      <c r="G210" t="s">
-        <v>33</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -20045,7 +20045,7 @@
         <v>43</v>
       </c>
       <c r="G220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -20309,7 +20309,7 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
         <v>47</v>
@@ -21024,7 +21024,7 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21558,7 +21558,7 @@
         <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -21822,7 +21822,7 @@
         <v>45160.79166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G240" t="s">
         <v>34</v>
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6281823</v>
+        <v>6285951</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,61 +22356,61 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F246" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G246" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
         <v>50</v>
       </c>
       <c r="K246">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L246">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N246">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O246">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P246">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q246">
         <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S246">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T246">
+        <v>2</v>
+      </c>
+      <c r="U246">
         <v>1.75</v>
       </c>
-      <c r="U246">
-        <v>1.9</v>
-      </c>
       <c r="V246">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22419,13 +22419,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AB246">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AC246">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6285951</v>
+        <v>6281823</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,61 +22445,61 @@
         <v>45164.70833333334</v>
       </c>
       <c r="F247" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G247" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>50</v>
       </c>
       <c r="K247">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L247">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N247">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O247">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P247">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q247">
         <v>-0.25</v>
       </c>
       <c r="R247">
+        <v>1.8</v>
+      </c>
+      <c r="S247">
+        <v>2</v>
+      </c>
+      <c r="T247">
+        <v>1.75</v>
+      </c>
+      <c r="U247">
         <v>1.9</v>
       </c>
-      <c r="S247">
+      <c r="V247">
         <v>1.9</v>
       </c>
-      <c r="T247">
-        <v>2</v>
-      </c>
-      <c r="U247">
+      <c r="W247">
+        <v>-1</v>
+      </c>
+      <c r="X247">
         <v>1.75</v>
-      </c>
-      <c r="V247">
-        <v>2.05</v>
-      </c>
-      <c r="W247">
-        <v>-1</v>
-      </c>
-      <c r="X247">
-        <v>2.1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22508,13 +22508,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA247">
+        <v>0.5</v>
+      </c>
+      <c r="AB247">
         <v>0.45</v>
       </c>
-      <c r="AB247">
-        <v>0.75</v>
-      </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -23071,7 +23071,7 @@
         <v>37</v>
       </c>
       <c r="G254" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>6326936</v>
+        <v>6286554</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23335,76 +23335,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H257">
         <v>1</v>
       </c>
       <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257" t="s">
+        <v>49</v>
+      </c>
+      <c r="K257">
+        <v>2.1</v>
+      </c>
+      <c r="L257">
+        <v>3.2</v>
+      </c>
+      <c r="M257">
+        <v>3.6</v>
+      </c>
+      <c r="N257">
+        <v>2</v>
+      </c>
+      <c r="O257">
+        <v>3.1</v>
+      </c>
+      <c r="P257">
+        <v>4.2</v>
+      </c>
+      <c r="Q257">
+        <v>-0.5</v>
+      </c>
+      <c r="R257">
+        <v>1.95</v>
+      </c>
+      <c r="S257">
+        <v>1.85</v>
+      </c>
+      <c r="T257">
+        <v>2</v>
+      </c>
+      <c r="U257">
+        <v>1.75</v>
+      </c>
+      <c r="V257">
+        <v>2.05</v>
+      </c>
+      <c r="W257">
         <v>1</v>
       </c>
-      <c r="J257" t="s">
-        <v>50</v>
-      </c>
-      <c r="K257">
-        <v>2.6</v>
-      </c>
-      <c r="L257">
-        <v>2.875</v>
-      </c>
-      <c r="M257">
-        <v>3</v>
-      </c>
-      <c r="N257">
-        <v>2.45</v>
-      </c>
-      <c r="O257">
-        <v>2.875</v>
-      </c>
-      <c r="P257">
-        <v>3.4</v>
-      </c>
-      <c r="Q257">
-        <v>-0.25</v>
-      </c>
-      <c r="R257">
-        <v>2.025</v>
-      </c>
-      <c r="S257">
-        <v>1.775</v>
-      </c>
-      <c r="T257">
-        <v>1.5</v>
-      </c>
-      <c r="U257">
-        <v>1.8</v>
-      </c>
-      <c r="V257">
-        <v>2</v>
-      </c>
-      <c r="W257">
-        <v>-1</v>
-      </c>
       <c r="X257">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y257">
         <v>-1</v>
       </c>
       <c r="Z257">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA257">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB257">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23412,7 +23412,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>6286554</v>
+        <v>6326936</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23424,76 +23424,76 @@
         <v>45171.70833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G258" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H258">
         <v>1</v>
       </c>
       <c r="I258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K258">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L258">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M258">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N258">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="O258">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P258">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q258">
+        <v>-0.25</v>
+      </c>
+      <c r="R258">
+        <v>2.025</v>
+      </c>
+      <c r="S258">
+        <v>1.775</v>
+      </c>
+      <c r="T258">
+        <v>1.5</v>
+      </c>
+      <c r="U258">
+        <v>1.8</v>
+      </c>
+      <c r="V258">
+        <v>2</v>
+      </c>
+      <c r="W258">
+        <v>-1</v>
+      </c>
+      <c r="X258">
+        <v>1.875</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
         <v>-0.5</v>
       </c>
-      <c r="R258">
-        <v>1.95</v>
-      </c>
-      <c r="S258">
-        <v>1.85</v>
-      </c>
-      <c r="T258">
-        <v>2</v>
-      </c>
-      <c r="U258">
-        <v>1.75</v>
-      </c>
-      <c r="V258">
-        <v>2.05</v>
-      </c>
-      <c r="W258">
-        <v>1</v>
-      </c>
-      <c r="X258">
-        <v>-1</v>
-      </c>
-      <c r="Y258">
-        <v>-1</v>
-      </c>
-      <c r="Z258">
-        <v>0.95</v>
-      </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC258">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -24139,7 +24139,7 @@
         <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -24225,7 +24225,7 @@
         <v>45178.85416666666</v>
       </c>
       <c r="F267" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G267" t="s">
         <v>39</v>
@@ -24940,7 +24940,7 @@
         <v>35</v>
       </c>
       <c r="G275" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H275">
         <v>2</v>
@@ -25014,7 +25014,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6285765</v>
+        <v>6330569</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25026,13 +25026,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F276" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276">
         <v>0</v>
@@ -25041,43 +25041,43 @@
         <v>49</v>
       </c>
       <c r="K276">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L276">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M276">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N276">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="O276">
         <v>2.9</v>
       </c>
       <c r="P276">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q276">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T276">
         <v>1.75</v>
       </c>
       <c r="U276">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V276">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W276">
-        <v>2.3</v>
+        <v>1.05</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25086,16 +25086,16 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA276">
         <v>-1</v>
       </c>
       <c r="AB276">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC276">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6330569</v>
+        <v>6285765</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,13 +25115,13 @@
         <v>45185.70833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G277" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277">
         <v>0</v>
@@ -25130,43 +25130,43 @@
         <v>49</v>
       </c>
       <c r="K277">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L277">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M277">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N277">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="O277">
         <v>2.9</v>
       </c>
       <c r="P277">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q277">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R277">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S277">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T277">
         <v>1.75</v>
       </c>
       <c r="U277">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V277">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W277">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25175,16 +25175,16 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA277">
         <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25560,7 +25560,7 @@
         <v>45188.89583333334</v>
       </c>
       <c r="F282" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G282" t="s">
         <v>31</v>
@@ -25652,7 +25652,7 @@
         <v>40</v>
       </c>
       <c r="G283" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>45197.79166666666</v>
       </c>
       <c r="F292" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G292" t="s">
         <v>47</v>
@@ -26542,7 +26542,7 @@
         <v>36</v>
       </c>
       <c r="G293" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H293">
         <v>1</v>
@@ -26883,7 +26883,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7258771</v>
+        <v>6390961</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26895,76 +26895,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G297" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297">
         <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K297">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L297">
         <v>3</v>
       </c>
       <c r="M297">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N297">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O297">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P297">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q297">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R297">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S297">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T297">
         <v>1.75</v>
       </c>
       <c r="U297">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V297">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W297">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB297">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26972,7 +26972,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6390961</v>
+        <v>7258771</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26984,76 +26984,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G298" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298">
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K298">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L298">
         <v>3</v>
       </c>
       <c r="M298">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N298">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="O298">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P298">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q298">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R298">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S298">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T298">
         <v>1.75</v>
       </c>
       <c r="U298">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V298">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W298">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X298">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA298">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC298">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27340,7 +27340,7 @@
         <v>45202.8125</v>
       </c>
       <c r="F302" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G302" t="s">
         <v>36</v>
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6571262</v>
+        <v>6537870</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27518,13 +27518,13 @@
         <v>45205.89583333334</v>
       </c>
       <c r="F304" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G304" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304">
         <v>0</v>
@@ -27533,61 +27533,61 @@
         <v>49</v>
       </c>
       <c r="K304">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L304">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M304">
-        <v>3.7</v>
+        <v>5.25</v>
       </c>
       <c r="N304">
+        <v>1.65</v>
+      </c>
+      <c r="O304">
+        <v>3.6</v>
+      </c>
+      <c r="P304">
+        <v>5.75</v>
+      </c>
+      <c r="Q304">
+        <v>-0.75</v>
+      </c>
+      <c r="R304">
+        <v>1.8</v>
+      </c>
+      <c r="S304">
+        <v>2.05</v>
+      </c>
+      <c r="T304">
+        <v>2.25</v>
+      </c>
+      <c r="U304">
+        <v>1.9</v>
+      </c>
+      <c r="V304">
         <v>1.95</v>
       </c>
-      <c r="O304">
-        <v>3.25</v>
-      </c>
-      <c r="P304">
-        <v>4.333</v>
-      </c>
-      <c r="Q304">
+      <c r="W304">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X304">
+        <v>-1</v>
+      </c>
+      <c r="Y304">
+        <v>-1</v>
+      </c>
+      <c r="Z304">
+        <v>0.4</v>
+      </c>
+      <c r="AA304">
         <v>-0.5</v>
       </c>
-      <c r="R304">
-        <v>1.925</v>
-      </c>
-      <c r="S304">
-        <v>1.875</v>
-      </c>
-      <c r="T304">
-        <v>2</v>
-      </c>
-      <c r="U304">
-        <v>1.775</v>
-      </c>
-      <c r="V304">
-        <v>2.025</v>
-      </c>
-      <c r="W304">
+      <c r="AB304">
+        <v>-1</v>
+      </c>
+      <c r="AC304">
         <v>0.95</v>
-      </c>
-      <c r="X304">
-        <v>-1</v>
-      </c>
-      <c r="Y304">
-        <v>-1</v>
-      </c>
-      <c r="Z304">
-        <v>0.925</v>
-      </c>
-      <c r="AA304">
-        <v>-1</v>
-      </c>
-      <c r="AB304">
-        <v>0</v>
-      </c>
-      <c r="AC304">
-        <v>-0</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27595,7 +27595,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>6537870</v>
+        <v>6571262</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27607,13 +27607,13 @@
         <v>45205.89583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G305" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305">
         <v>0</v>
@@ -27622,43 +27622,43 @@
         <v>49</v>
       </c>
       <c r="K305">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L305">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M305">
-        <v>5.25</v>
+        <v>3.7</v>
       </c>
       <c r="N305">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O305">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P305">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q305">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R305">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S305">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T305">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U305">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V305">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W305">
-        <v>0.6499999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X305">
         <v>-1</v>
@@ -27667,16 +27667,16 @@
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AA305">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC305">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27773,7 +27773,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6534936</v>
+        <v>6537871</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27785,46 +27785,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G307" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307">
         <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K307">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L307">
         <v>2.9</v>
       </c>
       <c r="M307">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N307">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O307">
         <v>2.875</v>
       </c>
       <c r="P307">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q307">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R307">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S307">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T307">
         <v>1.75</v>
@@ -27839,22 +27839,22 @@
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB307">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27862,7 +27862,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6537871</v>
+        <v>6534936</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27874,46 +27874,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G308" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308">
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K308">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L308">
         <v>2.9</v>
       </c>
       <c r="M308">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N308">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O308">
         <v>2.875</v>
       </c>
       <c r="P308">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R308">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S308">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T308">
         <v>1.75</v>
@@ -27928,22 +27928,22 @@
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y308">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA308">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC308">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28233,7 +28233,7 @@
         <v>46</v>
       </c>
       <c r="G312" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H312">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6576997</v>
+        <v>6576739</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28497,10 +28497,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G315" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -28512,25 +28512,25 @@
         <v>50</v>
       </c>
       <c r="K315">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L315">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M315">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N315">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="O315">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P315">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q315">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R315">
         <v>1.825</v>
@@ -28539,34 +28539,34 @@
         <v>1.975</v>
       </c>
       <c r="T315">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V315">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W315">
         <v>-1</v>
       </c>
       <c r="X315">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y315">
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB315">
         <v>-1</v>
       </c>
       <c r="AC315">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28574,7 +28574,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>6576739</v>
+        <v>6576997</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28586,10 +28586,10 @@
         <v>45213.70833333334</v>
       </c>
       <c r="F316" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G316" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -28601,25 +28601,25 @@
         <v>50</v>
       </c>
       <c r="K316">
-        <v>1.5</v>
+        <v>2.375</v>
       </c>
       <c r="L316">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M316">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="N316">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="O316">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P316">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q316">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R316">
         <v>1.825</v>
@@ -28628,34 +28628,34 @@
         <v>1.975</v>
       </c>
       <c r="T316">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U316">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V316">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W316">
         <v>-1</v>
       </c>
       <c r="X316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y316">
         <v>-1</v>
       </c>
       <c r="Z316">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA316">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AB316">
         <v>-1</v>
       </c>
       <c r="AC316">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28678,7 +28678,7 @@
         <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -29298,7 +29298,7 @@
         <v>45219.79166666666</v>
       </c>
       <c r="F324" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G324" t="s">
         <v>37</v>
@@ -29387,7 +29387,7 @@
         <v>45219.89583333334</v>
       </c>
       <c r="F325" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G325" t="s">
         <v>29</v>
@@ -30176,7 +30176,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6602793</v>
+        <v>6602792</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30188,76 +30188,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F334" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G334" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K334">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="L334">
         <v>3.6</v>
       </c>
       <c r="M334">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="N334">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O334">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P334">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q334">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R334">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S334">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T334">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U334">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V334">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W334">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X334">
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z334">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB334">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30265,7 +30265,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6602792</v>
+        <v>6602793</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30277,76 +30277,76 @@
         <v>45226.89583333334</v>
       </c>
       <c r="F335" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G335" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K335">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="L335">
         <v>3.6</v>
       </c>
       <c r="M335">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N335">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O335">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P335">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q335">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R335">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S335">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T335">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U335">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V335">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W335">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X335">
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA335">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC335">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30369,7 +30369,7 @@
         <v>30</v>
       </c>
       <c r="G336" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -30458,7 +30458,7 @@
         <v>35</v>
       </c>
       <c r="G337" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H337">
         <v>3</v>
@@ -30989,7 +30989,7 @@
         <v>45233.79166666666</v>
       </c>
       <c r="F343" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G343" t="s">
         <v>48</v>
@@ -31066,7 +31066,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>6623672</v>
+        <v>6619161</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31078,46 +31078,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F344" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G344" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K344">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L344">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M344">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N344">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O344">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P344">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q344">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R344">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S344">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T344">
         <v>2</v>
@@ -31126,28 +31126,28 @@
         <v>1.925</v>
       </c>
       <c r="V344">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W344">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X344">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
         <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA344">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC344">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31155,7 +31155,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>6619161</v>
+        <v>6623672</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31167,46 +31167,46 @@
         <v>45233.89583333334</v>
       </c>
       <c r="F345" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G345" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K345">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L345">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M345">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N345">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="O345">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P345">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q345">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R345">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S345">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T345">
         <v>2</v>
@@ -31215,28 +31215,28 @@
         <v>1.925</v>
       </c>
       <c r="V345">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W345">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X345">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB345">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC345">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31434,7 +31434,7 @@
         <v>45234.8125</v>
       </c>
       <c r="F348" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G348" t="s">
         <v>41</v>
@@ -31971,7 +31971,7 @@
         <v>30</v>
       </c>
       <c r="G354" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H354">
         <v>2</v>
@@ -32045,7 +32045,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>6645236</v>
+        <v>6645237</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32057,40 +32057,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F355" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G355" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J355" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K355">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L355">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M355">
         <v>3.4</v>
       </c>
       <c r="N355">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O355">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P355">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q355">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R355">
         <v>1.775</v>
@@ -32099,34 +32099,34 @@
         <v>2.025</v>
       </c>
       <c r="T355">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V355">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W355">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X355">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y355">
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA355">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB355">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC355">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32134,7 +32134,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>6645237</v>
+        <v>6645236</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32146,40 +32146,40 @@
         <v>45241.70833333334</v>
       </c>
       <c r="F356" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G356" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J356" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K356">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L356">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M356">
         <v>3.4</v>
       </c>
       <c r="N356">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O356">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P356">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q356">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R356">
         <v>1.775</v>
@@ -32188,34 +32188,34 @@
         <v>2.025</v>
       </c>
       <c r="T356">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U356">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V356">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W356">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X356">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA356">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB356">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC356">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32327,7 +32327,7 @@
         <v>44</v>
       </c>
       <c r="G358" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H358">
         <v>2</v>
@@ -32846,7 +32846,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>6673199</v>
+        <v>6679229</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32858,76 +32858,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F364" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G364" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H364">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K364">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L364">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M364">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N364">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="O364">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P364">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q364">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R364">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S364">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T364">
         <v>2</v>
       </c>
       <c r="U364">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V364">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W364">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X364">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA364">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB364">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC364">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32935,7 +32935,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>6673197</v>
+        <v>6680024</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32947,40 +32947,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F365" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G365" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H365">
+        <v>3</v>
+      </c>
+      <c r="I365">
         <v>1</v>
-      </c>
-      <c r="I365">
-        <v>0</v>
       </c>
       <c r="J365" t="s">
         <v>49</v>
       </c>
       <c r="K365">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L365">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M365">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N365">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="O365">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P365">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="Q365">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R365">
         <v>2.05</v>
@@ -32989,16 +32989,16 @@
         <v>1.8</v>
       </c>
       <c r="T365">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U365">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V365">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W365">
-        <v>1.9</v>
+        <v>0.571</v>
       </c>
       <c r="X365">
         <v>-1</v>
@@ -33013,10 +33013,10 @@
         <v>-1</v>
       </c>
       <c r="AB365">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC365">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33024,7 +33024,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>6679229</v>
+        <v>6673199</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -33036,76 +33036,76 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F366" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G366" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K366">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L366">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M366">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N366">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O366">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P366">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q366">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R366">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S366">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T366">
         <v>2</v>
       </c>
       <c r="U366">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V366">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W366">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X366">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y366">
         <v>-1</v>
       </c>
       <c r="Z366">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA366">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB366">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC366">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:29">
@@ -33113,7 +33113,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6680024</v>
+        <v>6673197</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33125,40 +33125,40 @@
         <v>45248.70833333334</v>
       </c>
       <c r="F367" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G367" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H367">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
         <v>49</v>
       </c>
       <c r="K367">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L367">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M367">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="N367">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="O367">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P367">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q367">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R367">
         <v>2.05</v>
@@ -33167,16 +33167,16 @@
         <v>1.8</v>
       </c>
       <c r="T367">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U367">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V367">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W367">
-        <v>0.571</v>
+        <v>1.9</v>
       </c>
       <c r="X367">
         <v>-1</v>
@@ -33191,10 +33191,10 @@
         <v>-1</v>
       </c>
       <c r="AB367">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC367">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="368" spans="1:29">
@@ -33481,7 +33481,7 @@
         <v>45250.83333333334</v>
       </c>
       <c r="F371" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G371" t="s">
         <v>42</v>
@@ -33558,7 +33558,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>6693367</v>
+        <v>6689427</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33570,76 +33570,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F372" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G372" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H372">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I372">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K372">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L372">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M372">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N372">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="O372">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P372">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="Q372">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S372">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T372">
         <v>2.25</v>
       </c>
       <c r="U372">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V372">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W372">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
+        <v>-0.5</v>
+      </c>
+      <c r="AA372">
+        <v>0.375</v>
+      </c>
+      <c r="AB372">
+        <v>-1</v>
+      </c>
+      <c r="AC372">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA372">
-        <v>-1</v>
-      </c>
-      <c r="AB372">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC372">
-        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33647,7 +33647,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6689429</v>
+        <v>6689350</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33659,76 +33659,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F373" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G373" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H373">
+        <v>0</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373" t="s">
+        <v>51</v>
+      </c>
+      <c r="K373">
+        <v>3.2</v>
+      </c>
+      <c r="L373">
         <v>3</v>
       </c>
-      <c r="I373">
-        <v>2</v>
-      </c>
-      <c r="J373" t="s">
-        <v>49</v>
-      </c>
-      <c r="K373">
-        <v>8</v>
-      </c>
-      <c r="L373">
-        <v>4.75</v>
-      </c>
       <c r="M373">
-        <v>1.363</v>
+        <v>2.25</v>
       </c>
       <c r="N373">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O373">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P373">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q373">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S373">
+        <v>2.025</v>
+      </c>
+      <c r="T373">
+        <v>2.5</v>
+      </c>
+      <c r="U373">
+        <v>2</v>
+      </c>
+      <c r="V373">
         <v>1.8</v>
       </c>
-      <c r="T373">
-        <v>2.25</v>
-      </c>
-      <c r="U373">
-        <v>1.9</v>
-      </c>
-      <c r="V373">
-        <v>1.9</v>
-      </c>
       <c r="W373">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z373">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB373">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC373">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33736,7 +33736,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6693030</v>
+        <v>6689428</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33748,55 +33748,55 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F374" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G374" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H374">
+        <v>0</v>
+      </c>
+      <c r="I374">
         <v>1</v>
-      </c>
-      <c r="I374">
-        <v>3</v>
       </c>
       <c r="J374" t="s">
         <v>51</v>
       </c>
       <c r="K374">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="L374">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M374">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N374">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="O374">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P374">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q374">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S374">
         <v>1.975</v>
       </c>
       <c r="T374">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U374">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V374">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W374">
         <v>-1</v>
@@ -33805,7 +33805,7 @@
         <v>-1</v>
       </c>
       <c r="Y374">
-        <v>1.3</v>
+        <v>4.75</v>
       </c>
       <c r="Z374">
         <v>-1</v>
@@ -33814,10 +33814,10 @@
         <v>0.9750000000000001</v>
       </c>
       <c r="AB374">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC374">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -33825,7 +33825,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>6693029</v>
+        <v>6689429</v>
       </c>
       <c r="C375" t="s">
         <v>28</v>
@@ -33837,58 +33837,58 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F375" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G375" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H375">
         <v>3</v>
       </c>
       <c r="I375">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J375" t="s">
         <v>49</v>
       </c>
       <c r="K375">
+        <v>8</v>
+      </c>
+      <c r="L375">
+        <v>4.75</v>
+      </c>
+      <c r="M375">
+        <v>1.363</v>
+      </c>
+      <c r="N375">
+        <v>6.5</v>
+      </c>
+      <c r="O375">
+        <v>4.2</v>
+      </c>
+      <c r="P375">
         <v>1.45</v>
       </c>
-      <c r="L375">
-        <v>4</v>
-      </c>
-      <c r="M375">
-        <v>8</v>
-      </c>
-      <c r="N375">
-        <v>1.333</v>
-      </c>
-      <c r="O375">
-        <v>4.8</v>
-      </c>
-      <c r="P375">
-        <v>10</v>
-      </c>
       <c r="Q375">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R375">
+        <v>2</v>
+      </c>
+      <c r="S375">
         <v>1.8</v>
       </c>
-      <c r="S375">
-        <v>2</v>
-      </c>
       <c r="T375">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U375">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V375">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W375">
-        <v>0.333</v>
+        <v>5.5</v>
       </c>
       <c r="X375">
         <v>-1</v>
@@ -33897,13 +33897,13 @@
         <v>-1</v>
       </c>
       <c r="Z375">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA375">
         <v>-1</v>
       </c>
       <c r="AB375">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC375">
         <v>-1</v>
@@ -34003,7 +34003,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>6689428</v>
+        <v>6689425</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34015,76 +34015,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F377" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G377" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J377" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K377">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L377">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M377">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="N377">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="O377">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P377">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q377">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R377">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S377">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T377">
         <v>2.5</v>
       </c>
       <c r="U377">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V377">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W377">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X377">
         <v>-1</v>
       </c>
       <c r="Y377">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z377">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA377">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB377">
         <v>-1</v>
       </c>
       <c r="AC377">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="378" spans="1:29">
@@ -34092,7 +34092,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>6689427</v>
+        <v>6693367</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34104,76 +34104,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F378" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G378" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I378">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J378" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K378">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L378">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M378">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N378">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O378">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P378">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q378">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R378">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S378">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T378">
         <v>2.25</v>
       </c>
       <c r="U378">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V378">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W378">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X378">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA378">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC378">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:29">
@@ -34181,7 +34181,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>6693031</v>
+        <v>6693030</v>
       </c>
       <c r="C379" t="s">
         <v>28</v>
@@ -34193,73 +34193,73 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F379" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G379" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H379">
+        <v>1</v>
+      </c>
+      <c r="I379">
         <v>3</v>
       </c>
-      <c r="I379">
-        <v>1</v>
-      </c>
       <c r="J379" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K379">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="L379">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M379">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N379">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="O379">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P379">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q379">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R379">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S379">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T379">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U379">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V379">
         <v>2.025</v>
       </c>
       <c r="W379">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X379">
         <v>-1</v>
       </c>
       <c r="Y379">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z379">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA379">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB379">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC379">
         <v>-1</v>
@@ -34270,7 +34270,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>6689425</v>
+        <v>6693029</v>
       </c>
       <c r="C380" t="s">
         <v>28</v>
@@ -34282,13 +34282,13 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G380" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I380">
         <v>0</v>
@@ -34297,43 +34297,43 @@
         <v>49</v>
       </c>
       <c r="K380">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L380">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M380">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="N380">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="O380">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="P380">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q380">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R380">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S380">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T380">
         <v>2.5</v>
       </c>
       <c r="U380">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V380">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W380">
-        <v>0.45</v>
+        <v>0.333</v>
       </c>
       <c r="X380">
         <v>-1</v>
@@ -34342,16 +34342,16 @@
         <v>-1</v>
       </c>
       <c r="Z380">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA380">
         <v>-1</v>
       </c>
       <c r="AB380">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC380">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="381" spans="1:29">
@@ -34359,7 +34359,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>6689350</v>
+        <v>6693031</v>
       </c>
       <c r="C381" t="s">
         <v>28</v>
@@ -34371,76 +34371,76 @@
         <v>45255.70833333334</v>
       </c>
       <c r="F381" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G381" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I381">
         <v>1</v>
       </c>
       <c r="J381" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K381">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L381">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M381">
+        <v>4.333</v>
+      </c>
+      <c r="N381">
+        <v>1.615</v>
+      </c>
+      <c r="O381">
+        <v>4</v>
+      </c>
+      <c r="P381">
+        <v>5.25</v>
+      </c>
+      <c r="Q381">
+        <v>-1</v>
+      </c>
+      <c r="R381">
+        <v>2.025</v>
+      </c>
+      <c r="S381">
+        <v>1.775</v>
+      </c>
+      <c r="T381">
         <v>2.25</v>
       </c>
-      <c r="N381">
-        <v>3</v>
-      </c>
-      <c r="O381">
-        <v>3.25</v>
-      </c>
-      <c r="P381">
-        <v>2.3</v>
-      </c>
-      <c r="Q381">
-        <v>0.25</v>
-      </c>
-      <c r="R381">
+      <c r="U381">
         <v>1.775</v>
       </c>
-      <c r="S381">
+      <c r="V381">
         <v>2.025</v>
       </c>
-      <c r="T381">
-        <v>2.5</v>
-      </c>
-      <c r="U381">
-        <v>2</v>
-      </c>
-      <c r="V381">
-        <v>1.8</v>
-      </c>
       <c r="W381">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X381">
         <v>-1</v>
       </c>
       <c r="Y381">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z381">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA381">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB381">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC381">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Brazil Serie B/Brazil Serie B.xlsx
+++ b/Brazil Serie B/Brazil Serie B.xlsx
@@ -2586,7 +2586,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6281767</v>
+        <v>6285514</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2598,43 +2598,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M24">
         <v>3.3</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
         <v>1.85</v>
@@ -2643,25 +2643,25 @@
         <v>2</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
         <v>1.925</v>
       </c>
       <c r="W24">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6285514</v>
+        <v>6281767</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2687,43 +2687,43 @@
         <v>45045.70833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L25">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
         <v>3.3</v>
       </c>
       <c r="N25">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S25">
         <v>1.85</v>
@@ -2732,25 +2732,25 @@
         <v>2</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
         <v>1.925</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6285943</v>
+        <v>6281961</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4022,34 +4022,34 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L40">
         <v>3</v>
       </c>
       <c r="M40">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="N40">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
         <v>4</v>
@@ -4058,40 +4058,40 @@
         <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6281961</v>
+        <v>6285943</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4200,34 +4200,34 @@
         <v>45052.76041666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L42">
         <v>3</v>
       </c>
       <c r="M42">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
         <v>4</v>
@@ -4236,40 +4236,40 @@
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6281774</v>
+        <v>6285517</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5179,76 +5179,76 @@
         <v>45059.70833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K53">
+        <v>1.727</v>
+      </c>
+      <c r="L53">
+        <v>3.5</v>
+      </c>
+      <c r="M53">
+        <v>5.5</v>
+      </c>
+      <c r="N53">
         <v>1.75</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>3.4</v>
       </c>
-      <c r="M53">
+      <c r="P53">
         <v>5.25</v>
       </c>
-      <c r="N53">
-        <v>1.909</v>
-      </c>
-      <c r="O53">
-        <v>3.3</v>
-      </c>
-      <c r="P53">
-        <v>4.5</v>
-      </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
         <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6285517</v>
+        <v>6281774</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5268,76 +5268,76 @@
         <v>45059.70833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L54">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N54">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V54">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC54">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6289136</v>
+        <v>6285944</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5802,76 +5802,76 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K60">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
         <v>3</v>
       </c>
       <c r="M60">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N60">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="O60">
         <v>3.1</v>
       </c>
       <c r="P60">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W60">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z60">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB60">
         <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.425</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6285944</v>
+        <v>6289136</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5891,76 +5891,76 @@
         <v>45065.79166666666</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K61">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L61">
         <v>3</v>
       </c>
       <c r="M61">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N61">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O61">
         <v>3.1</v>
       </c>
       <c r="P61">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S61">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA61">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
         <v>-0.5</v>
       </c>
       <c r="AC61">
-        <v>0.3875</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6281962</v>
+        <v>6281778</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6158,76 +6158,76 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K64">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L64">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M64">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="N64">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P64">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W64">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6281778</v>
+        <v>6281962</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6247,76 +6247,76 @@
         <v>45066.70833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K65">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L65">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="N65">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA65">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6769,7 +6769,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6285520</v>
+        <v>6285664</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6781,13 +6781,13 @@
         <v>45069.89583333334</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6796,43 +6796,43 @@
         <v>49</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="L71">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N71">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S71">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
-        <v>0.7270000000000001</v>
+        <v>1.45</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6841,16 +6841,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6858,7 +6858,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6285664</v>
+        <v>6285520</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6870,13 +6870,13 @@
         <v>45069.89583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6885,43 +6885,43 @@
         <v>49</v>
       </c>
       <c r="K72">
+        <v>1.833</v>
+      </c>
+      <c r="L72">
+        <v>3.25</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>1.727</v>
+      </c>
+      <c r="O72">
+        <v>3.5</v>
+      </c>
+      <c r="P72">
+        <v>5.5</v>
+      </c>
+      <c r="Q72">
+        <v>-0.75</v>
+      </c>
+      <c r="R72">
+        <v>1.925</v>
+      </c>
+      <c r="S72">
+        <v>1.875</v>
+      </c>
+      <c r="T72">
         <v>2.25</v>
       </c>
-      <c r="L72">
-        <v>3</v>
-      </c>
-      <c r="M72">
-        <v>3.1</v>
-      </c>
-      <c r="N72">
-        <v>2.45</v>
-      </c>
-      <c r="O72">
-        <v>3</v>
-      </c>
-      <c r="P72">
-        <v>3.3</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
-        <v>2.1</v>
-      </c>
-      <c r="S72">
-        <v>1.775</v>
-      </c>
-      <c r="T72">
-        <v>2</v>
-      </c>
       <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
         <v>1.8</v>
       </c>
-      <c r="V72">
-        <v>2.05</v>
-      </c>
       <c r="W72">
-        <v>1.45</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6930,16 +6930,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6282095</v>
+        <v>6282008</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6959,73 +6959,73 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="L73">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O73">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7036,7 +7036,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6286297</v>
+        <v>6282095</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7048,76 +7048,76 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H74">
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K74">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L74">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M74">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74">
+        <v>3.1</v>
+      </c>
+      <c r="P74">
+        <v>2.6</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
         <v>1.75</v>
       </c>
-      <c r="O74">
-        <v>3.4</v>
-      </c>
-      <c r="P74">
-        <v>5.5</v>
-      </c>
-      <c r="Q74">
-        <v>-0.75</v>
-      </c>
-      <c r="R74">
-        <v>2</v>
-      </c>
-      <c r="S74">
-        <v>1.85</v>
-      </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
+        <v>1.6</v>
+      </c>
+      <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
         <v>0.75</v>
       </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
-      <c r="Z74">
-        <v>0.5</v>
-      </c>
-      <c r="AA74">
-        <v>-0.5</v>
-      </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6282008</v>
+        <v>6281781</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7137,13 +7137,13 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7152,43 +7152,43 @@
         <v>49</v>
       </c>
       <c r="K75">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="L75">
         <v>3.1</v>
       </c>
       <c r="M75">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="N75">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P75">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7197,16 +7197,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7214,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6281781</v>
+        <v>6286297</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7226,10 +7226,10 @@
         <v>45070.79166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7241,22 +7241,22 @@
         <v>49</v>
       </c>
       <c r="K76">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="L76">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
         <v>1.75</v>
       </c>
       <c r="O76">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P76">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q76">
         <v>-0.75</v>
@@ -7271,10 +7271,10 @@
         <v>2</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
         <v>0.75</v>
@@ -7295,7 +7295,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6281963</v>
+        <v>6285519</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7404,76 +7404,76 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K78">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M78">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="N78">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O78">
         <v>3</v>
       </c>
       <c r="P78">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q78">
         <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V78">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X78">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA78">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6285519</v>
+        <v>6281963</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7493,76 +7493,76 @@
         <v>45070.89583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="L79">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="N79">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O79">
         <v>3</v>
       </c>
       <c r="P79">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q79">
         <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W79">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6289134</v>
+        <v>6282096</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8027,76 +8027,76 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K85">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L85">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M85">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N85">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P85">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q85">
         <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T85">
         <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8104,7 +8104,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6282096</v>
+        <v>6289134</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8116,76 +8116,76 @@
         <v>45074.64583333334</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K86">
+        <v>2.15</v>
+      </c>
+      <c r="L86">
+        <v>3.1</v>
+      </c>
+      <c r="M86">
+        <v>3.2</v>
+      </c>
+      <c r="N86">
         <v>1.95</v>
       </c>
-      <c r="L86">
+      <c r="O86">
         <v>3.25</v>
       </c>
-      <c r="M86">
-        <v>3.6</v>
-      </c>
-      <c r="N86">
-        <v>2</v>
-      </c>
-      <c r="O86">
-        <v>3.3</v>
-      </c>
       <c r="P86">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q86">
         <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA86">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6285747</v>
+        <v>6281787</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8650,10 +8650,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -8665,43 +8665,43 @@
         <v>49</v>
       </c>
       <c r="K92">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="L92">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O92">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8710,13 +8710,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8727,7 +8727,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6281787</v>
+        <v>6285747</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8739,10 +8739,10 @@
         <v>45079.89583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8754,43 +8754,43 @@
         <v>49</v>
       </c>
       <c r="K93">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M93">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P93">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
       </c>
       <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
         <v>1.8</v>
       </c>
-      <c r="S93">
-        <v>2</v>
-      </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8799,13 +8799,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8905,7 +8905,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6285524</v>
+        <v>6289133</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8917,40 +8917,40 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
+        <v>1.727</v>
+      </c>
+      <c r="O95">
         <v>3.6</v>
       </c>
-      <c r="O95">
-        <v>3.1</v>
-      </c>
       <c r="P95">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
         <v>1.975</v>
@@ -8959,34 +8959,34 @@
         <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA95">
+        <v>-0.5</v>
+      </c>
+      <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.825</v>
-      </c>
-      <c r="AB95">
-        <v>-1</v>
-      </c>
-      <c r="AC95">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6289133</v>
+        <v>6285524</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,40 +9006,40 @@
         <v>45080.70833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
         <v>1</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K96">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L96">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="N96">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P96">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
         <v>1.975</v>
@@ -9048,34 +9048,34 @@
         <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z96">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6281788</v>
+        <v>6282098</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9629,55 +9629,55 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>51</v>
       </c>
       <c r="K103">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
         <v>3.2</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q103">
         <v>-0.5</v>
       </c>
       <c r="R103">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9686,19 +9686,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6282098</v>
+        <v>6281788</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9718,56 +9718,56 @@
         <v>45083.89583333334</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>51</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M104">
         <v>3.2</v>
       </c>
       <c r="N104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q104">
         <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>1.95</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
+        <v>1.925</v>
+      </c>
+      <c r="V104">
         <v>1.875</v>
       </c>
-      <c r="S104">
-        <v>1.975</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
@@ -9775,19 +9775,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>3.333</v>
+        <v>2.8</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB104">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9795,7 +9795,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6281966</v>
+        <v>6281789</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9807,13 +9807,13 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9822,43 +9822,43 @@
         <v>49</v>
       </c>
       <c r="K105">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L105">
         <v>3.2</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O105">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
         <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9867,16 +9867,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6281789</v>
+        <v>6285526</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9896,58 +9896,58 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F106" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
         <v>1</v>
-      </c>
-      <c r="I106">
-        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>49</v>
       </c>
       <c r="K106">
-        <v>1.95</v>
+        <v>1.533</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N106">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P106">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
+        <v>1.925</v>
+      </c>
+      <c r="S106">
+        <v>1.925</v>
+      </c>
+      <c r="T106">
+        <v>2.5</v>
+      </c>
+      <c r="U106">
         <v>1.975</v>
       </c>
-      <c r="S106">
+      <c r="V106">
         <v>1.875</v>
       </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>1.85</v>
-      </c>
-      <c r="V106">
-        <v>2</v>
-      </c>
       <c r="W106">
-        <v>0.7270000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9956,16 +9956,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9973,7 +9973,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6285526</v>
+        <v>6281966</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9985,58 +9985,58 @@
         <v>45084.79166666666</v>
       </c>
       <c r="F107" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>49</v>
       </c>
       <c r="K107">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L107">
+        <v>3.2</v>
+      </c>
+      <c r="M107">
+        <v>3.75</v>
+      </c>
+      <c r="N107">
+        <v>1.8</v>
+      </c>
+      <c r="O107">
         <v>3.5</v>
       </c>
-      <c r="M107">
-        <v>6</v>
-      </c>
-      <c r="N107">
-        <v>1.4</v>
-      </c>
-      <c r="O107">
+      <c r="P107">
         <v>4.75</v>
       </c>
-      <c r="P107">
-        <v>7.5</v>
-      </c>
       <c r="Q107">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
+        <v>1.775</v>
+      </c>
+      <c r="S107">
+        <v>2.025</v>
+      </c>
+      <c r="T107">
+        <v>2.25</v>
+      </c>
+      <c r="U107">
         <v>1.925</v>
-      </c>
-      <c r="S107">
-        <v>1.925</v>
-      </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>1.975</v>
       </c>
       <c r="V107">
         <v>1.875</v>
       </c>
       <c r="W107">
-        <v>0.3999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10045,16 +10045,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
         <v>-0.5</v>
       </c>
-      <c r="AA107">
-        <v>0.4625</v>
-      </c>
-      <c r="AB107">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6281967</v>
+        <v>6281792</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,76 +10430,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H112">
         <v>1</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K112">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N112">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q112">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.3875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
+        <v>0.4625</v>
+      </c>
+      <c r="AB112">
         <v>-0.5</v>
       </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
       <c r="AC112">
-        <v>0.825</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6281792</v>
+        <v>6281967</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,76 +10519,76 @@
         <v>45087.70833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N113">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O113">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P113">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T113">
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X113">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>0.3875</v>
+      </c>
+      <c r="AA113">
         <v>-0.5</v>
       </c>
-      <c r="AA113">
-        <v>0.4625</v>
-      </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -12643,7 +12643,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6281797</v>
+        <v>6282014</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12655,55 +12655,55 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>51</v>
       </c>
       <c r="K137">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L137">
+        <v>3.1</v>
+      </c>
+      <c r="M137">
+        <v>2.6</v>
+      </c>
+      <c r="N137">
+        <v>2.9</v>
+      </c>
+      <c r="O137">
         <v>3</v>
       </c>
-      <c r="M137">
-        <v>3.2</v>
-      </c>
-      <c r="N137">
-        <v>2.05</v>
-      </c>
-      <c r="O137">
-        <v>3.1</v>
-      </c>
       <c r="P137">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
         <v>2</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12712,19 +12712,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12732,7 +12732,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6281969</v>
+        <v>6289129</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12744,10 +12744,10 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12759,43 +12759,43 @@
         <v>49</v>
       </c>
       <c r="K138">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M138">
-        <v>5</v>
+        <v>2.875</v>
       </c>
       <c r="N138">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R138">
         <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
         <v>2</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>0.75</v>
+        <v>1.8</v>
       </c>
       <c r="X138">
         <v>-1</v>
@@ -12804,13 +12804,13 @@
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
         <v>-1</v>
@@ -12821,7 +12821,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6282014</v>
+        <v>6281969</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12833,46 +12833,46 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
         <v>1</v>
       </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
       <c r="J139" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L139">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N139">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="O139">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P139">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
         <v>2</v>
@@ -12884,19 +12884,19 @@
         <v>1.975</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA139">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB139">
         <v>0.825</v>
@@ -12910,7 +12910,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6289129</v>
+        <v>6281797</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12922,76 +12922,76 @@
         <v>45105.89583333334</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K140">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L140">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M140">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N140">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O140">
         <v>3.1</v>
       </c>
       <c r="P140">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6281970</v>
+        <v>6285667</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,10 +13189,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13204,37 +13204,37 @@
         <v>51</v>
       </c>
       <c r="K143">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L143">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N143">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O143">
         <v>3</v>
       </c>
       <c r="P143">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
+        <v>1.875</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>2.025</v>
-      </c>
-      <c r="T143">
-        <v>2</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
       </c>
       <c r="V143">
         <v>1.825</v>
@@ -13246,13 +13246,13 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB143">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6285667</v>
+        <v>6281970</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,10 +13278,10 @@
         <v>45108.70833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13293,37 +13293,37 @@
         <v>51</v>
       </c>
       <c r="K144">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L144">
+        <v>2.9</v>
+      </c>
+      <c r="M144">
         <v>3</v>
       </c>
-      <c r="M144">
-        <v>4.333</v>
-      </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
         <v>3</v>
       </c>
       <c r="P144">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>1.775</v>
+      </c>
+      <c r="S144">
+        <v>2.025</v>
+      </c>
+      <c r="T144">
+        <v>2</v>
+      </c>
+      <c r="U144">
         <v>1.975</v>
-      </c>
-      <c r="S144">
-        <v>1.875</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
-      <c r="U144">
-        <v>2.025</v>
       </c>
       <c r="V144">
         <v>1.825</v>
@@ -13335,13 +13335,13 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AB144">
         <v>0</v>
@@ -16114,7 +16114,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6281807</v>
+        <v>6285538</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16126,55 +16126,55 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F176" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
         <v>51</v>
       </c>
       <c r="K176">
-        <v>2.75</v>
+        <v>1.666</v>
       </c>
       <c r="L176">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="N176">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O176">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P176">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T176">
         <v>2</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
         <v>-1</v>
@@ -16183,19 +16183,19 @@
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC176">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16203,7 +16203,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6281972</v>
+        <v>6282102</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16215,13 +16215,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -16230,43 +16230,43 @@
         <v>49</v>
       </c>
       <c r="K177">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L177">
         <v>2.875</v>
       </c>
       <c r="M177">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N177">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="O177">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="S177">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="T177">
         <v>1.75</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16275,16 +16275,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>1.05</v>
+        <v>0.7</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16292,7 +16292,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6285538</v>
+        <v>6281807</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16304,55 +16304,55 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F178" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
         <v>1</v>
-      </c>
-      <c r="I178">
-        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>51</v>
       </c>
       <c r="K178">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L178">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M178">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N178">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O178">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P178">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="Q178">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S178">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T178">
         <v>2</v>
       </c>
       <c r="U178">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W178">
         <v>-1</v>
@@ -16361,19 +16361,19 @@
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB178">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16381,7 +16381,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6282102</v>
+        <v>6281972</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16393,13 +16393,13 @@
         <v>45126.89583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16408,43 +16408,43 @@
         <v>49</v>
       </c>
       <c r="K179">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L179">
         <v>2.875</v>
       </c>
       <c r="M179">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N179">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="O179">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="S179">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="T179">
         <v>1.75</v>
       </c>
       <c r="U179">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V179">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W179">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16453,16 +16453,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC179">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -18517,7 +18517,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6281816</v>
+        <v>6285545</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18529,76 +18529,76 @@
         <v>45140.79166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
         <v>1</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>49</v>
       </c>
       <c r="K203">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M203">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N203">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O203">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>1.8</v>
+      </c>
+      <c r="T203">
+        <v>2</v>
+      </c>
+      <c r="U203">
+        <v>1.875</v>
+      </c>
+      <c r="V203">
+        <v>1.925</v>
+      </c>
+      <c r="W203">
+        <v>0.75</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.5</v>
+      </c>
+      <c r="AA203">
         <v>-0.5</v>
       </c>
-      <c r="R203">
-        <v>1.975</v>
-      </c>
-      <c r="S203">
-        <v>1.825</v>
-      </c>
-      <c r="T203">
-        <v>2</v>
-      </c>
-      <c r="U203">
-        <v>1.95</v>
-      </c>
-      <c r="V203">
-        <v>1.85</v>
-      </c>
-      <c r="W203">
-        <v>0.95</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
-      <c r="Z203">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18606,7 +18606,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6285545</v>
+        <v>6281816</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18618,58 +18618,58 @@
         <v>45140.79166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>49</v>
       </c>
       <c r="K204">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>3.25</v>
+      </c>
+      <c r="N204">
+        <v>1.95</v>
+      </c>
+      <c r="O204">
         <v>3.2</v>
       </c>
-      <c r="M204">
+      <c r="P204">
         <v>4.5</v>
       </c>
-      <c r="N204">
-        <v>1.75</v>
-      </c>
-      <c r="O204">
-        <v>3.5</v>
-      </c>
-      <c r="P204">
-        <v>5.25</v>
-      </c>
       <c r="Q204">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
         <v>2</v>
       </c>
       <c r="U204">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V204">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18678,16 +18678,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA204">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB204">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18695,7 +18695,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6285671</v>
+        <v>6287040</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18707,70 +18707,70 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G205" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K205">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M205">
-        <v>6.5</v>
+        <v>2.875</v>
       </c>
       <c r="N205">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P205">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
+        <v>2.1</v>
+      </c>
+      <c r="S205">
+        <v>1.775</v>
+      </c>
+      <c r="T205">
+        <v>2</v>
+      </c>
+      <c r="U205">
+        <v>2.05</v>
+      </c>
+      <c r="V205">
+        <v>1.8</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
         <v>1.875</v>
       </c>
-      <c r="S205">
-        <v>1.925</v>
-      </c>
-      <c r="T205">
-        <v>2</v>
-      </c>
-      <c r="U205">
-        <v>1.85</v>
-      </c>
-      <c r="V205">
-        <v>1.95</v>
-      </c>
-      <c r="W205">
-        <v>0.5</v>
-      </c>
-      <c r="X205">
-        <v>-1</v>
-      </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB205">
         <v>0</v>
@@ -18784,7 +18784,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6287040</v>
+        <v>6285671</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18796,70 +18796,70 @@
         <v>45140.89583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K206">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L206">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M206">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="N206">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O206">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P206">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R206">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S206">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T206">
         <v>2</v>
       </c>
       <c r="U206">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V206">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X206">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA206">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
         <v>0</v>
@@ -19318,7 +19318,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6281817</v>
+        <v>6281875</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19330,76 +19330,76 @@
         <v>45143.70833333334</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>50</v>
       </c>
       <c r="K212">
+        <v>1.95</v>
+      </c>
+      <c r="L212">
+        <v>3.2</v>
+      </c>
+      <c r="M212">
+        <v>3.5</v>
+      </c>
+      <c r="N212">
+        <v>1.75</v>
+      </c>
+      <c r="O212">
+        <v>3.4</v>
+      </c>
+      <c r="P212">
+        <v>5</v>
+      </c>
+      <c r="Q212">
+        <v>-0.75</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="U212">
+        <v>1.925</v>
+      </c>
+      <c r="V212">
+        <v>1.875</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
         <v>2.4</v>
       </c>
-      <c r="L212">
-        <v>2.9</v>
-      </c>
-      <c r="M212">
-        <v>2.8</v>
-      </c>
-      <c r="N212">
-        <v>2.7</v>
-      </c>
-      <c r="O212">
-        <v>2.9</v>
-      </c>
-      <c r="P212">
-        <v>3.1</v>
-      </c>
-      <c r="Q212">
-        <v>0</v>
-      </c>
-      <c r="R212">
-        <v>1.8</v>
-      </c>
-      <c r="S212">
-        <v>2.05</v>
-      </c>
-      <c r="T212">
-        <v>1.75</v>
-      </c>
-      <c r="U212">
-        <v>1.875</v>
-      </c>
-      <c r="V212">
-        <v>1.975</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>1.9</v>
-      </c>
       <c r="Y212">
         <v>-1</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB212">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19407,7 +19407,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6281875</v>
+        <v>6281817</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19419,76 +19419,76 @@
         <v>45143.70833333334</v>
       </c>
       <c r="F213" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>50</v>
       </c>
       <c r="K213">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M213">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N213">
+        <v>2.7</v>
+      </c>
+      <c r="O213">
+        <v>2.9</v>
+      </c>
+      <c r="P213">
+        <v>3.1</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>1.8</v>
+      </c>
+      <c r="S213">
+        <v>2.05</v>
+      </c>
+      <c r="T213">
         <v>1.75</v>
       </c>
-      <c r="O213">
-        <v>3.4</v>
-      </c>
-      <c r="P213">
-        <v>5</v>
-      </c>
-      <c r="Q213">
-        <v>-0.75</v>
-      </c>
-      <c r="R213">
-        <v>2</v>
-      </c>
-      <c r="S213">
-        <v>1.8</v>
-      </c>
-      <c r="T213">
-        <v>2</v>
-      </c>
       <c r="U213">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA213">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC213">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19852,7 +19852,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>6286301</v>
+        <v>6959080</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19864,58 +19864,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
         <v>49</v>
       </c>
       <c r="K218">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="L218">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M218">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="N218">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="O218">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>2.45</v>
+        <v>5.25</v>
       </c>
       <c r="Q218">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S218">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T218">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U218">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V218">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W218">
-        <v>2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -19924,16 +19924,16 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0.7250000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA218">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB218">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC218">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19941,7 +19941,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>6959080</v>
+        <v>6286301</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19953,58 +19953,58 @@
         <v>45145.83333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
         <v>49</v>
       </c>
       <c r="K219">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="L219">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M219">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="N219">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="O219">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P219">
-        <v>5.25</v>
+        <v>2.45</v>
       </c>
       <c r="Q219">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R219">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S219">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V219">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W219">
-        <v>0.7270000000000001</v>
+        <v>2</v>
       </c>
       <c r="X219">
         <v>-1</v>
@@ -20013,16 +20013,16 @@
         <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0.4875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA219">
+        <v>-1</v>
+      </c>
+      <c r="AB219">
+        <v>0.3875</v>
+      </c>
+      <c r="AC219">
         <v>-0.5</v>
-      </c>
-      <c r="AB219">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC219">
-        <v>-1</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20297,7 +20297,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>6281975</v>
+        <v>6281876</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20309,52 +20309,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="s">
         <v>50</v>
       </c>
       <c r="K223">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L223">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M223">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="N223">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="O223">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P223">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
         <v>2</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
         <v>1.9</v>
@@ -20363,22 +20363,22 @@
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y223">
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6281876</v>
+        <v>6281975</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20398,52 +20398,52 @@
         <v>45150.70833333334</v>
       </c>
       <c r="F224" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>50</v>
       </c>
       <c r="K224">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L224">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M224">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="N224">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="O224">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P224">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q224">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
         <v>2</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T224">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V224">
         <v>1.9</v>
@@ -20452,22 +20452,22 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC224">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -25726,7 +25726,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6285766</v>
+        <v>6343950</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25738,76 +25738,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F284" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G284" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+      <c r="J284" t="s">
+        <v>51</v>
+      </c>
+      <c r="K284">
+        <v>2.5</v>
+      </c>
+      <c r="L284">
+        <v>2.9</v>
+      </c>
+      <c r="M284">
+        <v>2.9</v>
+      </c>
+      <c r="N284">
+        <v>2.3</v>
+      </c>
+      <c r="O284">
         <v>3</v>
       </c>
-      <c r="I284">
-        <v>1</v>
-      </c>
-      <c r="J284" t="s">
-        <v>49</v>
-      </c>
-      <c r="K284">
-        <v>1.909</v>
-      </c>
-      <c r="L284">
-        <v>3.1</v>
-      </c>
-      <c r="M284">
-        <v>4</v>
-      </c>
-      <c r="N284">
-        <v>1.909</v>
-      </c>
-      <c r="O284">
-        <v>3.25</v>
-      </c>
       <c r="P284">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q284">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S284">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T284">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U284">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V284">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W284">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X284">
         <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z284">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB284">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25815,7 +25815,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6343950</v>
+        <v>6285766</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25827,76 +25827,76 @@
         <v>45191.89583333334</v>
       </c>
       <c r="F285" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G285" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K285">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L285">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M285">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="N285">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O285">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P285">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q285">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R285">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S285">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T285">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U285">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V285">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W285">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X285">
         <v>-1</v>
       </c>
       <c r="Y285">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA285">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC285">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26883,7 +26883,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6390961</v>
+        <v>7258771</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26895,76 +26895,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F297" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G297" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297">
         <v>1</v>
       </c>
       <c r="J297" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K297">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L297">
         <v>3</v>
       </c>
       <c r="M297">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N297">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="O297">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P297">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q297">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R297">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S297">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T297">
         <v>1.75</v>
       </c>
       <c r="U297">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V297">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W297">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X297">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA297">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB297">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AC297">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26972,7 +26972,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7258771</v>
+        <v>6390961</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26984,76 +26984,76 @@
         <v>45199.70833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G298" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K298">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L298">
         <v>3</v>
       </c>
       <c r="M298">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N298">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O298">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P298">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q298">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R298">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S298">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T298">
         <v>1.75</v>
       </c>
       <c r="U298">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V298">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W298">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X298">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA298">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB298">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27773,7 +27773,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6537871</v>
+        <v>6534936</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27785,46 +27785,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F307" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G307" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307">
         <v>1</v>
       </c>
       <c r="J307" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K307">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L307">
         <v>2.9</v>
       </c>
       <c r="M307">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N307">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O307">
         <v>2.875</v>
       </c>
       <c r="P307">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R307">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T307">
         <v>1.75</v>
@@ -27839,22 +27839,22 @@
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y307">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA307">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC307">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27862,7 +27862,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6534936</v>
+        <v>6537871</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27874,46 +27874,46 @@
         <v>45206.70833333334</v>
       </c>
       <c r="F308" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G308" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308">
         <v>1</v>
       </c>
       <c r="J308" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K308">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L308">
         <v>2.9</v>
       </c>
       <c r="M308">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="N308">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O308">
         <v>2.875</v>
       </c>
       